--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>532.19</t>
+          <t>1183.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -536,39 +536,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Bestlage mit Festungsblick"</t>
+          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>554.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,54 +593,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+          <t>["Personenaufzug", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
+          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
+          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>532.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -665,54 +665,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
+          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>474.53</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -737,54 +737,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Werner Fleischhacker Immobilien GmbH &amp;a; Co. KG", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Valentin-Becker-Stra\u00dfe 8"}, "salutation": "Herr", "firstName": "Werner", "lastName": "Fleischhacker", "phone": "0931/2706700"}</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -824,22 +824,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>554.99</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -963,44 +963,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Stellplatz"]</t>
+          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
+          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
+          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>566.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1025,54 +1025,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>59.68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
+          <t>["Stellplatz"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
+          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"companyName": "Werner Fleischhacker Immobilien GmbH &amp;a; Co. KG", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Valentin-Becker-Stra\u00dfe 8"}, "salutation": "Herr", "firstName": "Werner", "lastName": "Fleischhacker", "phone": "0931/2706700"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>566.96</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,54 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["Stellplatz"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1183.37</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1169,54 +1169,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+          <t>"Bestlage mit Festungsblick"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>610</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1241,54 +1241,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>123.36</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1313,54 +1313,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>123.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8sz5p"</t>
+          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Gro\u00dfz\u00fcgige Zwei-Zimmer-Altbauwohnung, gut geeignet f\u00fcr einen 2-Personen-Haushalt"</t>
+          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>474.53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>101.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1395,37 +1395,37 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "FENSTER", "Kelleranteil", "FERN", "Zentralheizung", "Einbauk\u00fcche", "Haustiere erlaubt", "Balkon"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Daimlerstra\u00dfe 17", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3750", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1250, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1500, "Unit": "EUR"}, {"NumberValue": 35, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/cfccaab0-62e1-4e1a-9e82-41708e65355b/e5e0177f-3834-4a31-8a0e-7671d9334eaf", "https://ms.immowelt.org/9b865496-04ab-438a-8006-6cb1376458e3/1b35b733-4d27-4925-b322-cf95707fbd71", "https://ms.immowelt.org/954393bd-e85f-456d-b5ff-ed0308b4613c/b8b3587d-e932-46dd-877a-158b564af85f", "https://ms.immowelt.org/de1e5690-69cf-4922-9cfc-0a3ebb638fcd/82bf1fe1-319a-4ead-9d30-e94a41f2de6c", "https://ms.immowelt.org/c975b3d5-dce8-452b-9e87-b2012e7d8a17/94f5006d-ee5b-4cc0-892a-9c3022a48a43", "https://ms.immowelt.org/08221e0f-f8f8-4a3d-8e53-e3692122fe80/36c03dd6-03ca-436b-97af-7a11358edddc", "https://ms.immowelt.org/d17bc972-106a-4728-97e8-0ad06cfdcf97/ec216fc9-1977-4a3a-a6d0-7eb75b44c951", "https://ms.immowelt.org/cae6a3d4-4522-4d55-81ca-fb4250c0ea03/ac9fd403-a785-4ce0-836a-37253c1361e8", "https://ms.immowelt.org/3754b522-8579-4e99-98ed-88ad806ef135/0f09df4d-a2de-45e1-8691-7c114c1d1dc6", "https://ms.immowelt.org/82d0fcad-d38d-42ee-b917-0a48f0c441e1/29fda676-34cf-4710-a47c-f401e9d2dde7", "https://ms.immowelt.org/2eb6260e-1b97-4bb1-a6a8-1ffdfa9f1a91/ae1a36f9-5917-46fb-a025-7418cf42b4cc", "https://ms.immowelt.org/7e159185-d839-4d06-9cbb-a2ab09b461ae/d6f5253e-5dad-412a-9324-c447e9cd46a7", "https://ms.immowelt.org/39dbf15c-7f65-40dc-bd54-8fe566989602/f37b7c55-ee2c-48e6-906e-d0587570c550", "https://ms.immowelt.org/bdaffbe4-d997-41e5-a70f-79e4afa1eae5/17734c1e-5a32-44e3-b540-09380622a1d5", "https://ms.immowelt.org/42d9e46b-1986-460f-b622-720fd89441b8/98c7eaa9-1985-4905-b2f5-416e4431f0f6", "https://ms.immowelt.org/8a4c2605-e151-4b34-b58d-17158f1869ea/7759073e-5676-4f9e-a39d-74e152750dc6"]</t>
+          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfz\u00fcgige Zwei-Zimmer-Altbauwohnung, gut geeignet f\u00fcr einen 2-Personen-Haushalt", "basicObjectPricEur": 1250, "basicLivingSpace": 101.95, "basicRooms": 2, "basicConstructionYear": 1930, "basicCity": "W\u00fcrzburg", "basicStreet": "Daimlerstra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2a8sz5p", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2asr65p"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,54 +1529,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["GAS"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2gr494f"</t>
+          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Sch\u00f6ne 3-Zimmer Wohnung - Zell am Main  Hauptstra\u00dfe"</t>
+          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1611,27 +1611,27 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Erdgeschoss", "GAS", "Etagenheizung", "DSL", "KUNSTSTOFF", "Sat", "Kunststofffenster"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Zell a. Main", "ZipCode": "97299", "Street": "Hauptstra\u00dfe", "LocationId": 12631, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2145", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Zell a. Main", "Link": "https://www.immowelt.de/immobilienpreise/zell-a-main/mietspiegel"}}, "DataTable": [{"NumberValue": 715, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 110, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 125, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/843e2d49-84f6-4e47-b77d-63d29ab1066e/26140dff-55d6-4812-bc01-0d9e6c646fa0", "https://ms.immowelt.org/41f37c51-8639-4424-8ee1-7a2fefff4273/d88e819f-e564-4c41-bbac-99323793838a", "https://ms.immowelt.org/662f3397-8654-43ec-b435-d79bacab8763/2fc81c17-dad7-4a2f-a9bb-77e7f8fa27dc", "https://ms.immowelt.org/f8805103-18da-476d-9f24-d04169f73813/a5cf5830-f53c-4a5e-9f1b-78a790ec5d0a", "https://ms.immowelt.org/460515a3-d738-48d8-9c73-c7c11596d325/5bbddf00-b1c1-4704-9731-886ba0a1b78a", "https://ms.immowelt.org/525c5aa4-226e-4419-bb47-0d14c2e5bd62/73fae45a-7a74-4082-b2ad-c3876b95942d", "https://ms.immowelt.org/863f8610-efdb-47dd-9cc5-249b10b8d350/fc44d80c-bb9d-44f0-afb1-dbe1a240157a"]</t>
+          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1641,14 +1641,14 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Sch\u00f6ne 3-Zimmer Wohnung - Zell am Main  Hauptstra\u00dfe", "basicObjectPricEur": 715, "basicLivingSpace": 82.2, "basicRooms": 3, "basicConstructionYear": 1900, "basicCity": "Zell a. Main", "basicStreet": "Hauptstra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2gr494f", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2gr494f"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Sch\u00f6ne 3-Zimmer Wohnung - Zell am Main  Hauptstra\u00dfe"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>715</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1673,54 +1673,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Erdgeschoss", "GAS", "Etagenheizung", "DSL", "KUNSTSTOFF", "Sat", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Zell a. Main", "ZipCode": "97299", "Street": "Hauptstra\u00dfe", "LocationId": 12631, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2145", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Zell a. Main", "Link": "https://www.immowelt.de/immobilienpreise/zell-a-main/mietspiegel"}}, "DataTable": [{"NumberValue": 715, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 110, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 125, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/843e2d49-84f6-4e47-b77d-63d29ab1066e/26140dff-55d6-4812-bc01-0d9e6c646fa0", "https://ms.immowelt.org/41f37c51-8639-4424-8ee1-7a2fefff4273/d88e819f-e564-4c41-bbac-99323793838a", "https://ms.immowelt.org/662f3397-8654-43ec-b435-d79bacab8763/2fc81c17-dad7-4a2f-a9bb-77e7f8fa27dc", "https://ms.immowelt.org/f8805103-18da-476d-9f24-d04169f73813/a5cf5830-f53c-4a5e-9f1b-78a790ec5d0a", "https://ms.immowelt.org/460515a3-d738-48d8-9c73-c7c11596d325/5bbddf00-b1c1-4704-9731-886ba0a1b78a", "https://ms.immowelt.org/525c5aa4-226e-4419-bb47-0d14c2e5bd62/73fae45a-7a74-4082-b2ad-c3876b95942d", "https://ms.immowelt.org/863f8610-efdb-47dd-9cc5-249b10b8d350/fc44d80c-bb9d-44f0-afb1-dbe1a240157a"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Sch\u00f6ne 3-Zimmer Wohnung - Zell am Main  Hauptstra\u00dfe", "basicObjectPricEur": 715, "basicLivingSpace": 82.2, "basicRooms": 3, "basicConstructionYear": 1900, "basicCity": "Zell a. Main", "basicStreet": "Hauptstra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2gr494f", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+          <t>"https://www.immowelt.de/expose/2almm5r"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1745,54 +1745,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>153.3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "hv Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Wilhelm-Dahl-Str. 9"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_98e1685eae1346a2a90a2847489951ff.jpg", "salutation": "Herr", "firstName": "Hartwig", "lastName": "Vogel", "mobile": "0175-5994950", "phone": "0931/45466333"}</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2asr65p"</t>
+          <t>"https://www.immowelt.de/expose/2upu84s"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
+          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1817,54 +1817,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
+          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
+          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1904,32 +1904,32 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+          <t>"https://www.immowelt.de/expose/2am365w"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+          <t>"Helle Wohnung mit Balkon in der vorderen Sanderau!"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1183.37</t>
+          <t>700</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,54 +521,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Kelleranteil", "GEPFLEGT", "FERN", "kable_sat_tv", "Balkon"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.400,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 890, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+          <t>["https://ms.immowelt.org/0cd8c2fc-f0f8-4803-b570-0bc0474a7ed0/ff573215-5a42-4351-ba40-cfa78f0e290f", "https://ms.immowelt.org/9f20ac68-d479-4226-9c79-53570da7eb1d/e2de2ea2-5dcd-44f2-94d5-5e6076766679", "https://ms.immowelt.org/65a23389-315b-4e17-9a6f-c8bcf8e849a7/ef1d6fb2-36ee-4c22-9b98-1f57d5548397", "https://ms.immowelt.org/57d6c377-cfc6-48d1-a1d5-1088cf6393f3/bbd12d5a-7478-4c07-bfbf-ce2e86b907b4", "https://ms.immowelt.org/0a903ef0-4c0b-431f-af10-207debb8ec0e/ced5048e-e943-4b27-acce-5dba9b2424d9", "https://ms.immowelt.org/c5093796-6848-4a03-8695-1e10dfd39fb2/ee4c2860-ca11-43ee-b24a-c8691f01283c"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "arndt immobilien GmbH", "address": {"city": "Rimpar", "zipCode": "97222", "street": "Friedrich-Ebert-Str. 6"}, "salutation": "Frau", "firstName": "Brigitte", "lastName": "Lienert", "phone": "0931 46079392"}</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle Wohnung mit Balkon in der vorderen Sanderau!", "basicObjectPricEur": 700, "basicLivingSpace": 58, "basicRooms": 2, "basicConstructionYear": 1955, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2am365w", "basicContactPhone": "0931 46079392"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+          <t>"https://www.immowelt.de/expose/2a5ll5v"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+          <t>"Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>554.99</t>
+          <t>1483.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,54 +593,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>102.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Stellplatz"]</t>
+          <t>["Neubau", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1483.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 290, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+          <t>["https://ms.immowelt.org/46db7f7a-e5d8-4eb4-a01b-a2d4e62ab2be/bb78636c-2f3f-4c2e-a53b-ef1fa9683a15", "https://ms.immowelt.org/b16389b6-eb92-42af-8130-0a76d6025358/fce845ed-0986-423b-8c1e-afd09a953917"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*", "basicObjectPricEur": 1483.93, "basicLivingSpace": 102.34, "basicRooms": 4, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2a5ll5v", "basicContactPhone": "0931/382-7701"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+          <t>"https://www.immowelt.de/expose/2ayb45v"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>532.19</t>
+          <t>3601.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -665,54 +665,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>225.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3601.44, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 460, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+          <t>["https://ms.immowelt.org/b888654a-7be0-4b1f-bb51-2d8dca6a1aa1/5dc0db39-67ad-4630-8a84-004692c1c198", "https://ms.immowelt.org/4cb98d26-30d4-40dd-9345-c05636fc3d6e/3d269755-d356-448a-a4e4-c9c9225867b0", "https://ms.immowelt.org/71ab24a9-6d26-4798-959a-526196ab2526/2338dbdc-85e0-452f-bbf4-cbd765176db2", "https://ms.immowelt.org/e212abae-27ab-4901-ad56-4abbf1ab429a/076c61fa-ae56-43bd-90cc-3d4a1f246534", "https://ms.immowelt.org/45fda28f-bd4b-477c-8e5b-025d3035fc24/25270c0c-e6f1-42be-9bc6-154afc390bde", "https://ms.immowelt.org/250e735d-28bf-4e41-a26e-10bdcc174a72/9ffa4901-709f-4a22-bcf8-4026af4845a8", "https://ms.immowelt.org/47738d72-90e1-400f-8f26-b0c89e0a04d4/b2671ee7-2150-4931-ae87-848ca314834d", "https://ms.immowelt.org/09239b5c-efed-4862-9be0-12284713015c/c50d605a-b30b-4c1e-b8c7-c377d0105c47", "https://ms.immowelt.org/32be8996-eac0-4fda-8211-2d8fadd6467a/c5cb6c3d-45d4-45e6-8603-f3cc8967b34e", "https://ms.immowelt.org/de7996d0-a07e-44a3-a014-b9f228303c3b/f4242060-e83a-4836-b64b-41645c5c5e94", "https://ms.immowelt.org/d9382006-8b3f-46eb-802b-250a8fca3f96/03f39cab-4da2-4c36-80c1-23a7fbd309fe", "https://ms.immowelt.org/36af7108-dfdd-4ff3-ab8b-6e92d3508062/2f20f749-7813-4534-bde5-1a624ad88952", "https://ms.immowelt.org/ba912dea-da2a-4abd-add2-64d03801c9f2/0f910eff-7ebe-4154-9f66-0556d0a42237", "https://ms.immowelt.org/469127b9-c85a-4e77-a7fa-af7365f65cc3/9cd962ef-da29-4690-9168-413036c7882b", "https://ms.immowelt.org/0341b685-a77c-4318-bf97-0b0facbf1946/c0c91076-cd90-41c2-8e29-c3d9b6bc4e76", "https://ms.immowelt.org/349ba8bc-380d-425c-9404-fe30348c76fb/be7df368-083b-4bf6-bb15-c9ee4809e9b4", "https://ms.immowelt.org/769d004b-9208-4258-b045-f78d35bbe304/cab7c6e2-a6fe-44e9-b980-49f912c4dc33", "https://ms.immowelt.org/32a4701e-f4a1-4e08-ac43-7f82a0871c0e/05462d50-f4b2-41fb-94fc-03251da46a31", "https://ms.immowelt.org/c3b62a14-8ad0-4bc1-ad12-407a7b7d45c1/1e082fb8-309d-48fd-9675-1e19df39056b"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Frau", "firstName": "Heike", "lastName": "Fabiunke", "phone": "0931/382-7708"}</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3601.44, "basicLivingSpace": 225.09, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ayb45v", "basicContactPhone": "0931/382-7708"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
+          <t>"https://www.immowelt.de/expose/2aeal5v"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
+          <t>"**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>415</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -737,54 +737,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
+          <t>["DUSCHE", "FENSTER", "Souterrain", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "frei", "Einbauk\u00fcche", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Rottendorferstra\u00dfe 55", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "830", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 415, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
+          <t>["https://ms.immowelt.org/a3c1d1a9-92f0-4260-b2b3-41eb1b7cb966/c490aefe-bdcb-4b73-9783-a0bcc158c257", "https://ms.immowelt.org/b05abc2c-f624-4093-86a5-80f153fa6197/05af8f24-b7e4-4ba5-872c-39eed41b4cb5", "https://ms.immowelt.org/5be4bd8f-231a-44d8-8f0b-608a4f6581bd/0af81664-7d97-498f-8adf-3b5b5fe348ae", "https://ms.immowelt.org/725fb4fb-900c-4cd8-9554-dd83fc7bd725/99474ade-0e13-4d47-bf95-373cf4af43ec", "https://ms.immowelt.org/a0bb9c06-d60a-40e4-9521-94d9c183a14d/93799d3a-657d-4385-b487-2691349273e9", "https://ms.immowelt.org/3b4d1b7b-a5fe-4a37-b98d-6fc308d03c5b/c80e2b27-9270-47ef-b292-eb1efd72ee07"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"companyName": "Werner Fleischhacker Immobilien GmbH &amp;a; Co. KG", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Valentin-Becker-Stra\u00dfe 8"}, "salutation": "Herr", "firstName": "Werner", "lastName": "Fleischhacker", "phone": "0931/2706700"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Frau", "firstName": "Selina", "lastName": "Wiesner", "mobile": "+49 176 21469496"}</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz", "basicObjectPricEur": 415, "basicLivingSpace": 26, "basicRooms": 1, "basicConstructionYear": 1950, "basicCity": "W\u00fcrzburg", "basicStreet": "Rottendorferstra\u00dfe 55", "basicUrl": "https://www.immowelt.de/expose/2aeal5v", "basicContactMobile": "+49 176 21469496"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2a4kg5w"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>700</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,54 +809,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>["Neubau", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lindleinsm\u00fchle", "ZipCode": "97078", "LocationId": 496017, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lindleinsm\u00fchle)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lindleinsmuehle/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 900, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/5ffec635-8f46-4cc1-aadb-8b583ac94f49/a055949a-2702-4368-b5b3-7b0ed426b642", "https://ms.immowelt.org/8908f348-9991-4a07-ad66-d7d75614e10a/fca9e8be-88e9-418f-a5eb-9e0d5767a5f4", "https://ms.immowelt.org/cc8d5f7e-0ed9-47a3-818b-45790a8111fc/1ff9a9de-b0c2-4a71-935d-2fd2d9164ad1", "https://ms.immowelt.org/e595bf82-bf35-4dea-bb76-166a24244d92/420389cc-e1aa-4a32-94b8-9d099fca203b", "https://ms.immowelt.org/2512e689-4ae0-4ff9-9611-9f151ac18678/c4e6c45b-c697-41d7-a51f-d244d8f1a417", "https://ms.immowelt.org/e0483e5d-da13-4926-a03f-c238c4a327ae/737d7425-941f-4ec9-a90e-14f51213a74f", "https://ms.immowelt.org/23fe53b7-3d5a-4509-a222-5cb8ed3d516c/a46ccbc0-6aef-4e2f-ac21-6d245e72052d", "https://ms.immowelt.org/349313e4-73e0-40b7-b119-9fe817365e7a/7f23958c-275b-4a0e-8d30-ad6e79f317f7", "https://ms.immowelt.org/ac9b1a48-16e2-4119-98ba-9a1a890ff38b/c3716b49-d728-4b6a-900b-7d66e9cd4354", "https://ms.immowelt.org/e3084b71-0919-4d54-96d4-4d35ce184a9c/c4edd6a6-581b-4387-81e6-1df5e276dda7", "https://ms.immowelt.org/fa543343-fde7-4b91-b370-eee9cd1e0f90/62763f8c-bf88-4f8a-bbfc-b721085c2412", "https://ms.immowelt.org/2a737240-80f0-4710-a8f3-7c4f1c3f6233/08bf7007-717d-4120-b7cb-50bf91a1393b", "https://ms.immowelt.org/727ce8f8-3e8b-4da9-95ec-b855705005c5/07256d94-2372-4172-b756-d7101c994e5e"]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>""</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>["GAS"]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik", "basicObjectPricEur": 700, "basicLivingSpace": 47, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a4kg5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
+          <t>"https://www.immowelt.de/expose/2affg5v"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
+          <t>"M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1181.21</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -891,44 +891,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["WANNE", "Etagenheizung", "moebliert", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97082", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.250,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1125, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
+          <t>["https://ms.immowelt.org/ed2e6e9a-a8cf-4e9e-89c9-92ebe0bd9ab9/3c8c330e-15e6-439e-be44-6f02de4b9dd5", "https://ms.immowelt.org/e963b58b-6a58-4830-8e37-e9e446a7ca40/edda2664-fb0a-48dc-bfe4-3b20c61c8b1d", "https://ms.immowelt.org/6945f917-297e-4dfb-b166-4245a2333e2c/5a890870-d05f-4063-b0e5-63ad31ca7572", "https://ms.immowelt.org/ffa99189-2ca2-46fb-aa14-f6fda02818ae/6a859704-19f9-4907-92f9-a5b7fcbe4248", "https://ms.immowelt.org/86e1504e-0c46-4800-a6e0-cf24601a2518/bf8eec93-53d3-4368-82bc-ca50c66a45a1", "https://ms.immowelt.org/f15519e3-ee04-4739-b40a-ce0f84fb29ff/2c2c7101-3482-420d-826e-9efd57863f1e", "https://ms.immowelt.org/54ea5d30-e104-4f39-8a41-429b5961bbd1/55bee8cc-3633-4bce-9b47-af1971f0523b", "https://ms.immowelt.org/e88c0a6a-0da8-4b88-8865-a9f37cbd0e2d/9452b370-8d6d-4324-8a35-57b8a433c48a"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel", "basicObjectPricEur": 1125, "basicLivingSpace": 60, "basicRooms": 2, "basicConstructionYear": 1957, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2affg5v", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+          <t>"https://www.immowelt.de/expose/2a54x5v"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -968,39 +968,39 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Zentralheizung"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Rottenbauer", "ZipCode": "97084", "LocationId": 496020, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1800", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Rottenbauer)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-rottenbauer/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1100, "Unit": "EUR"}, {"NumberValue": 20, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"salutation": "Frau", "firstName": "Astrid", "lastName": "Leis"}</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 900, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a54x5v"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>566.96</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1025,54 +1025,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["Stellplatz"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+          <t>"https://www.immowelt.de/expose/2av845v"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1797.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,54 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>123.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+          <t>["WANNE", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1797.71, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+          <t>["https://ms.immowelt.org/34aad469-3611-425d-9832-c02c7060cb23/77ba9d6f-e612-4962-9317-bd0107dc25f7", "https://ms.immowelt.org/8ea07a0f-c3a2-4e3e-a9d2-fe6544358d93/58dbc143-5e69-4062-9eae-b767cf0c69b1", "https://ms.immowelt.org/6b6cd2cc-a04d-480c-949a-1a21bbd7e1d4/51babd4b-8fbc-456a-862b-c4ebde7dc41a", "https://ms.immowelt.org/a8f09c5d-403e-4528-a15f-17ef6819f51c/15cf94e1-0865-4970-bdbc-7eeb2e4e321a", "https://ms.immowelt.org/a74342e9-df14-4a0d-b4c6-600423e5e886/caed2534-21fc-4d11-981c-a2164e56802b", "https://ms.immowelt.org/57b465e5-f400-4f58-8856-6a92ccb5dc5c/e24df36d-9d71-44a2-bd39-c0146b4df941", "https://ms.immowelt.org/4d380785-997d-4deb-b741-8c14d08622b6/d794011b-6b71-4e97-adb0-c319032680b3", "https://ms.immowelt.org/a1aeaa9b-89a7-4a5b-b3ed-598756319607/14a91c1a-5084-49dc-b75d-74d20228a8f0", "https://ms.immowelt.org/af2232f0-1ef7-4481-801f-2a5ff59e0092/96a901ff-03de-431d-886e-d860ac84fbc4", "https://ms.immowelt.org/eb83b1d9-acf0-4e74-b0b3-5fa3fcc1ca01/705ad620-364a-4237-968f-e9f4e0c3eb36", "https://ms.immowelt.org/b34e24ec-eac1-4eae-b4db-e1f386853cb1/292b937e-2528-4472-8123-fa7a878ef84b", "https://ms.immowelt.org/4111770b-ae7b-4dce-b625-f990d3c5ba1e/b7539eac-4bf3-4d62-ab60-f12720be1758", "https://ms.immowelt.org/73dc46c5-cb67-4432-b97f-e11d22268b50/6613c506-3bb4-4e53-a0ac-d3296fe50f9c", "https://ms.immowelt.org/d8083607-cc91-46ee-92df-9a6f4eed9d3b/59f57e14-612a-4c44-8a58-7436d9771597"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Wolfgang", "lastName": "Roth", "phone": "0931/382-7702"}</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon", "basicObjectPricEur": 1797.71, "basicLivingSpace": 123.98, "basicRooms": 3, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2av845v", "basicContactPhone": "0931/382-7702"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+          <t>"https://www.immowelt.de/expose/2abty5v"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+          <t>"[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>430</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1169,54 +1169,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 430, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 115, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+          <t>["https://ms.immowelt.org/7a4af935-fdca-42b8-b470-a905b68d671e/717dc8fc-8461-4d19-89e3-3eaf6c5bfb76"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Tauschwohnung GmbH", "address": {"city": "Bonn", "zipCode": "53175", "street": "Graf-von-Lehndorff-Str. 12"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_13236f6bb6c141cd845d0ac0006487a0.jpg", "salutation": "Herr", "firstName": "John", "lastName": "Weinert", "phone": "+4922892939484"}</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung", "basicObjectPricEur": 430, "basicLivingSpace": 64, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2abty5v", "basicContactPhone": "+4922892939484"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Bestlage mit Festungsblick"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1256,39 +1256,39 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+          <t>"https://www.immowelt.de/expose/2ay645v"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>3163.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1313,54 +1313,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>123.36</t>
+          <t>218.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3163.32, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 440, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+          <t>["https://ms.immowelt.org/33a10e2d-1546-47e8-8bf4-47024f96365d/8d31a374-f6c2-4671-ba5e-b06a8d7c1f18", "https://ms.immowelt.org/e715d610-ea80-4459-9e3a-1ea8a574c0d7/c594e925-e9d3-4474-88ff-ee637dc4b81a", "https://ms.immowelt.org/f3e49668-7602-45ad-979f-f68f0c60ad46/6da2c38a-e66f-4112-b3c3-70ebaa38a22f", "https://ms.immowelt.org/e4691abb-17a5-41aa-949d-88daa0ab8d3a/42a9ae4f-34fd-4230-8329-9c00ba557222", "https://ms.immowelt.org/62981e85-dc6c-481f-8d77-c7e82c11d711/a90f265f-b3b3-4b6b-a854-a05b00191bac", "https://ms.immowelt.org/c1f1f311-d95b-465f-94a6-317a246989d2/e96a7cca-1527-484c-a8e9-f79e1cf28136", "https://ms.immowelt.org/935854af-6f17-4d5d-b023-6647d4cc8d4d/87cabb52-19fe-4dca-a81d-9b0f6d4daa7c", "https://ms.immowelt.org/d22f872e-159f-4f19-bb2a-75f5b228899d/044b33f6-2258-490a-ae2a-52d9ce17b653", "https://ms.immowelt.org/58dca412-8d3b-415e-9a26-359678019657/0858d4e1-5dc0-4297-8a4f-b5db5dbeb8b8", "https://ms.immowelt.org/f9bab463-404a-46c6-990a-559df575f251/6d53c5c6-d652-4e1d-98e5-448095327b4f", "https://ms.immowelt.org/6559ac4a-0154-4e05-a366-dbf71d55ad3a/29c1a7fd-15be-4a1b-91ca-9db0f1c442f3", "https://ms.immowelt.org/85c20839-cb59-4728-be4d-78d1ffcb9274/f88983a1-2f68-4f01-af1a-cae1794eb9e4", "https://ms.immowelt.org/f0a33cc2-272c-4fe9-a229-0c65344655fb/1911e15f-4afd-4691-a583-109b097d5b1a", "https://ms.immowelt.org/26da2883-f715-4c66-a8d1-3e2b9550fcf3/90d1f6cc-c1ae-4b39-889a-79bf683b589e", "https://ms.immowelt.org/b51072d7-8214-4cb3-b4f1-4c2d9c08cc58/e2548663-d3a0-4cb8-b0f7-5aaacf362ba3", "https://ms.immowelt.org/b5dd6e96-9575-46aa-af37-c7a1914335de/e4d4ff07-527e-4aff-be0a-66c047b2b747", "https://ms.immowelt.org/4c4b10ce-78b2-449d-a1c4-38ef2035555b/8094732c-995f-4ee6-af5f-e52e6a68bac8", "https://ms.immowelt.org/36750323-149d-49f3-8859-a599078cdc7a/0c862b3d-b2f3-4b3a-b234-8e9299775647", "https://ms.immowelt.org/d1d807de-1e05-4eca-b9fd-01dd45660714/8d6cc502-9779-4a2e-bfea-d50b253ff0f3"]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Frau", "firstName": "Heike", "lastName": "Fabiunke", "phone": "0931/382-7708"}</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3163.32, "basicLivingSpace": 218.16, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ay645v", "basicContactPhone": "0931/382-7708"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+          <t>"https://www.immowelt.de/expose/2aewq5u"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+          <t>"Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>474.53</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1385,54 +1385,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "FLIESEN"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.900,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+          <t>["https://ms.immowelt.org/f347f786-4652-4c8e-9723-ceb8482ed2a3/16c9950f-4ace-41f5-9ccc-eaaa0aa3dbb9", "https://ms.immowelt.org/60aa648f-6f16-4380-abe5-63e8ae5378dd/1d329405-999e-47ed-b506-8156c516bb9c", "https://ms.immowelt.org/16d637dd-3a33-4bf0-8693-79b7659f1eb0/e2923eba-0c2c-43c0-a404-10acd4276f3a", "https://ms.immowelt.org/7ab4e781-08fe-4bc5-9a39-8cc82d9e56f4/a82e3028-f3d5-4cfe-bd0b-a551438ca593", "https://ms.immowelt.org/0a430e4b-4799-408b-aab0-eb47ee04004d/cebdd699-3ea0-4f8e-b231-dfc611d1523e", "https://ms.immowelt.org/08456fdf-7e5a-4d08-bb25-8826aa6af0b4/8a06e9fe-62da-48f0-b99a-b150ea1634ec", "https://ms.immowelt.org/9100c73b-327e-4e9a-8a72-a66c8a7da1fb/b5084958-c7a1-4b5e-963e-7f9f02d43f7a", "https://ms.immowelt.org/57737cd7-44f5-4687-a55c-2f3d25320540/1f93643c-235f-4804-a283-65554ed0f691", "https://ms.immowelt.org/79943cff-f49b-46a1-a29e-0d545ee5c5b8/a7e253ae-bc77-4373-a712-673cae102a7a"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt", "basicObjectPricEur": 950, "basicLivingSpace": 37, "basicRooms": 1.5, "basicConstructionYear": 1990, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aewq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
+          <t>"https://www.immowelt.de/expose/2akwq5u"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
+          <t>"Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1457,54 +1457,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["DUSCHE", "moebliert", "PARKETT", "FLIESEN", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.190,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1095, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
+          <t>["https://ms.immowelt.org/f58fd648-14ff-458e-b34e-ed1a79e43d74/d87e4e66-4884-409c-b2cb-2157459b3064", "https://ms.immowelt.org/0a87650a-5809-4688-8750-7ae6c25a4099/e24ce7b4-9191-4f35-a1d0-23492c9ab7b0", "https://ms.immowelt.org/791a160a-38a3-4dce-a18c-5ce7143fd3f5/bd4c9b95-f50f-4c31-a999-9365ab6d2f07", "https://ms.immowelt.org/d04e8834-3fb6-41c7-b54a-e8fbd81f4738/544118d8-4448-48cb-b903-f895e30a79c2", "https://ms.immowelt.org/0a28069f-f140-484b-8e74-4397443a7579/52a860be-e6e0-41df-ad9f-635a12c08567", "https://ms.immowelt.org/93620f2c-07ac-40ae-89e8-09de2a90ffff/0aad3bf6-a9a2-41e4-841c-299b26265c3a", "https://ms.immowelt.org/a67d6581-3a59-4dc4-a4f3-965a7168620b/da1adff0-5907-4ab5-8913-e075b2d30c48", "https://ms.immowelt.org/deeb3874-cc27-4a7f-ac51-854d6765dd3f/3218f2ca-a245-4045-af54-619a9b8882e3", "https://ms.immowelt.org/ac67f904-20c4-4c6b-90f1-3d808fa8dae1/795689c7-539e-470a-a2a4-32e423451bd3", "https://ms.immowelt.org/974474bd-d9e3-4117-a672-6922106d164c/a2bb49a6-741b-40b0-8a0b-40d9f75d0f02", "https://ms.immowelt.org/936ffd96-d118-4d3d-8f77-ff73d6726300/5bb5b59e-9b1c-44ee-816e-31d9b28dd5a2", "https://ms.immowelt.org/9e5f7e76-6418-46d5-af9c-45309a550a97/c9909e8a-e4cd-4d4e-826e-4ec43a4165d9", "https://ms.immowelt.org/fc5c4ab6-6dd7-402d-aa17-1d5f9d8e29b0/f9213bf7-281b-4c08-8f0b-e78f6fcb7c71", "https://ms.immowelt.org/efbfc541-75da-4200-8395-1db7a9483e5b/68140100-e86c-4af6-88d7-26d0e819a523", "https://ms.immowelt.org/6069128c-8b73-4678-abc6-ee0b63823860/cceb6f64-a341-4849-9927-b2c5dd025aad", "https://ms.immowelt.org/c13a4106-75b6-444b-87e0-05ccdb99308c/a077d4b3-99d4-474b-b40f-6be9110341d9"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Maximilian", "lastName": "Kauschke"}</t>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 1095, "basicLivingSpace": 63, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2akwq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2asr65p"</t>
+          <t>"https://www.immowelt.de/expose/2abjp5u"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
+          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 2"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>320</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,54 +1529,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "640", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
+          <t>["https://ms.immowelt.org/9ba52a69-6182-42ac-b135-aa03971398d6/ca08d294-c112-4542-9217-884244d0d406", "https://ms.immowelt.org/d2976824-6694-44cf-a9b6-27ee23e5ee7d/3b4552e6-7f48-4f9f-8935-65701930862a", "https://ms.immowelt.org/abd16da6-4e60-4077-9fde-df90d5c35ba9/70090f09-6bb6-46bb-8d61-ad69a6f9d337", "https://ms.immowelt.org/9241bd02-41ac-4193-ac08-cb9f982e4abd/4fa1546f-a5f4-4860-b778-44b40407edcb", "https://ms.immowelt.org/297cca9d-a7ba-4a67-92d9-93365151b7c5/d95e6e27-06ec-47b3-b787-69c008ab106a", "https://ms.immowelt.org/3b016415-9aa0-4c6f-bf4a-a08f53671a65/e9132359-9ac5-4683-82f7-c4fc218d8306", "https://ms.immowelt.org/4282be92-39da-4459-a8c5-34173ddc7b9f/a8aeb00d-0b5a-48c1-b780-9278afd054ca", "https://ms.immowelt.org/3f00ed7e-8bf1-401b-8f25-642aae0303e9/8f662276-261e-4853-9a0e-c16cf1a0cf16", "https://ms.immowelt.org/33cac6b2-f066-48ee-b86f-8f34b674b64f/8da9104b-a492-47aa-af05-5e118833566f", "https://ms.immowelt.org/ac6357bc-41cd-473b-8073-52aba4823641/a4383c9d-9081-4f5f-afb3-b59a77fa5b00", "https://ms.immowelt.org/d4734ed1-2904-4290-956a-e971b09473c8/b9a53b6e-72d5-418d-a421-3175e22ad8b1", "https://ms.immowelt.org/e5fc4d4c-767b-44a4-ac3c-a5c84a34fe37/4bf5f24d-e49d-4e14-bae7-18735aba7802", "https://ms.immowelt.org/2fa16c88-73cf-4bf1-9ce3-d457a8a03c5e/caa28f6b-695e-4ee6-bc27-d83d081028ad", "https://ms.immowelt.org/600d4913-62e1-4dd5-9431-46e3dc04f5c0/31f22258-60a5-4acd-874e-d498ea457528", "https://ms.immowelt.org/c78f9909-a0a5-427d-9b1f-a8553957ae21/3eb778af-08e1-40d5-b415-3df323797a59", "https://ms.immowelt.org/de687aba-16ee-476d-a8f9-30df0fe0ec6a/a9787e5c-ea67-488e-af3c-076b4e47fea9", "https://ms.immowelt.org/8b1beea6-698d-4888-97b4-de46bd7498ed/4f90c6e0-1013-4950-9c20-5c0ff18aad7d", "https://ms.immowelt.org/da588edf-b340-4add-adc0-fb3f0c96ad72/59acdf1e-b87f-4ddb-b8d5-ab9ae3aee1eb", "https://ms.immowelt.org/9642eeca-e631-4ac4-ae64-100ae2a9f0e9/996373fc-c623-4411-afbc-f2104a65e4a7", "https://ms.immowelt.org/773ea5c5-cb8c-413d-a62d-d05b7ed9e19e/ca6e755b-48d9-4b44-9df9-56eb13fc5024", "https://ms.immowelt.org/e7f711ba-ac7b-44fc-90e8-deda2cee8b0c/bd0ca932-727d-4d26-8518-5c0e19bf2160"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 2", "basicObjectPricEur": 320, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2abjp5u"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
+          <t>"https://www.immowelt.de/expose/2agwq5u"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
+          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>649</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1601,54 +1601,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
+          <t>["https://ms.immowelt.org/cf8697dc-afcd-47ae-aadc-64c4cc78569c/35b4d352-660a-4816-94a6-619497123ae8", "https://ms.immowelt.org/a32b8f72-a566-4394-bea1-04e883e8fce2/7099cff9-9eea-4d1f-bad4-4033626afe54", "https://ms.immowelt.org/105a8a3c-c718-4c20-83ac-d0a5ef1a7f53/9db73218-715a-4963-942c-e41a29ef7b07", "https://ms.immowelt.org/64d9efa5-0a66-44fe-aa1e-b89f834ad546/6f687f3d-4a05-4f47-a1f8-8b78ca7e8bfe", "https://ms.immowelt.org/a3fe7335-2ba5-4c30-a137-cbfb5fd2a35c/20496698-5e1f-4243-9338-f56821682d4a", "https://ms.immowelt.org/a449833e-f4f4-43ff-8ebf-01bc5160e5c9/ccc566af-477b-4888-b03f-1cc64f4f1c45", "https://ms.immowelt.org/a6d17184-1155-46e9-af2c-d83d9e1be344/aab72d40-469f-486c-9add-806a5481ac6a", "https://ms.immowelt.org/a5271f16-acef-4db4-84ba-2b1a9ddc5892/57e11dd6-6321-45eb-85e0-aaa0f1e15bfe", "https://ms.immowelt.org/921ae069-2035-4dbb-a619-8ad9012a2442/0e6324ba-04b0-4141-bcc2-3b6cb33ac8ea", "https://ms.immowelt.org/6dc638c1-e4cd-4f0c-87b2-169cc34b0bd8/2af01fd5-93ce-4fc8-ae87-9a3817a2ef84", "https://ms.immowelt.org/a5894c49-800c-4d59-bb53-e598cf560634/0aa6a439-1071-40bd-a3ef-3bd2192fad8c", "https://ms.immowelt.org/1824d009-9f1e-4248-ac1b-d6198f9c17f3/ffd7b610-0d17-43b2-b15c-614cccf8be14", "https://ms.immowelt.org/45f31b8e-c2fc-45ff-8dac-c0bf8fea6e03/a11c6ffd-ddba-4524-9aca-520b2604d193", "https://ms.immowelt.org/5ec8ff49-d6b8-4dd0-bd1b-a04062520b58/b2e43f71-c2eb-4713-a428-6da937a58826"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agwq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2gr494f"</t>
+          <t>"https://www.immowelt.de/expose/2a9245v"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Sch\u00f6ne 3-Zimmer Wohnung - Zell am Main  Hauptstra\u00dfe"</t>
+          <t>"Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>815</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1673,54 +1673,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Erdgeschoss", "GAS", "Etagenheizung", "DSL", "KUNSTSTOFF", "Sat", "Kunststofffenster"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "TEPPICH", "FLIESEN", "Balkon"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Zell a. Main", "ZipCode": "97299", "Street": "Hauptstra\u00dfe", "LocationId": 12631, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2145", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Zell a. Main", "Link": "https://www.immowelt.de/immobilienpreise/zell-a-main/mietspiegel"}}, "DataTable": [{"NumberValue": 715, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 110, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 125, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.630,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 815, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/843e2d49-84f6-4e47-b77d-63d29ab1066e/26140dff-55d6-4812-bc01-0d9e6c646fa0", "https://ms.immowelt.org/41f37c51-8639-4424-8ee1-7a2fefff4273/d88e819f-e564-4c41-bbac-99323793838a", "https://ms.immowelt.org/662f3397-8654-43ec-b435-d79bacab8763/2fc81c17-dad7-4a2f-a9bb-77e7f8fa27dc", "https://ms.immowelt.org/f8805103-18da-476d-9f24-d04169f73813/a5cf5830-f53c-4a5e-9f1b-78a790ec5d0a", "https://ms.immowelt.org/460515a3-d738-48d8-9c73-c7c11596d325/5bbddf00-b1c1-4704-9731-886ba0a1b78a", "https://ms.immowelt.org/525c5aa4-226e-4419-bb47-0d14c2e5bd62/73fae45a-7a74-4082-b2ad-c3876b95942d", "https://ms.immowelt.org/863f8610-efdb-47dd-9cc5-249b10b8d350/fc44d80c-bb9d-44f0-afb1-dbe1a240157a"]</t>
+          <t>["https://ms.immowelt.org/56dbfa19-0b11-4212-a585-a3bb9055fc6c/55af236d-1cf3-446a-a9ea-5d847c1f3c78", "https://ms.immowelt.org/2321a506-3294-4da0-8ed9-9c32a877cc19/568e9ef6-6f64-4112-9523-9eaf25a3f970", "https://ms.immowelt.org/c49d4e0e-c519-4110-bf9d-48d46975f264/51ad8f90-ae3d-4f54-9436-a3ce93d787e0", "https://ms.immowelt.org/1efec59d-a37f-4e4e-81e0-d2638e029208/c9bd61b7-4af9-4819-822e-916b4c491efd", "https://ms.immowelt.org/35f3c816-30ad-4cfa-a370-9fd3df5a890b/0f5a8622-ff9b-48a3-b656-48f75cd9c811", "https://ms.immowelt.org/1d11277d-e06d-43d1-807a-35d99c5f5cd5/51935719-85d7-4a46-a718-1c1a7bedba2c", "https://ms.immowelt.org/3f9f17e0-3b0f-42d8-9623-bd41d7d12fc4/d88f57cc-ca14-47d1-b0ac-e5d037c3114a", "https://ms.immowelt.org/4c16ccd5-7611-496f-9fc2-a5cc9e95ca96/0cc9afbf-324b-4dc0-a841-e5417e3c909f", "https://ms.immowelt.org/23f4ce8d-d0f3-42f3-b7c2-cbea89a39473/eb285820-0b71-4189-8a94-494d832c127b", "https://ms.immowelt.org/36d590ab-2de9-46f3-8cef-b4af4efd9be0/8e11440a-7fe1-49cf-a002-13e4285760be", "https://ms.immowelt.org/8099beb8-56a4-493f-b95f-2490484605d5/fbb624d4-8b55-48d5-8b8f-5535a08872c5", "https://ms.immowelt.org/1978dbc1-a0ed-458a-abcd-d22f103809ef/1a5cc04f-0b65-48af-8e69-c835714ab2e7", "https://ms.immowelt.org/6b1ab129-3f95-42da-9d53-8088db0a9349/25c6e471-016e-4261-b4ae-a73987e4f403", "https://ms.immowelt.org/9b310d23-aa9d-41f5-8f34-29a9b7aa4471/bae39b36-c4b5-4cf8-882a-aca3ba40538c", "https://ms.immowelt.org/20713457-85cd-4f26-970b-eca4af0b6b71/be6308f1-d0c9-4aa5-8a10-3a4f1f28ff33"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Sch\u00f6ne 3-Zimmer Wohnung - Zell am Main  Hauptstra\u00dfe", "basicObjectPricEur": 715, "basicLivingSpace": 82.2, "basicRooms": 3, "basicConstructionYear": 1900, "basicCity": "Zell a. Main", "basicStreet": "Hauptstra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2gr494f", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan", "basicObjectPricEur": 815, "basicLivingSpace": 40, "basicRooms": 1.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a9245v", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2almm5r"</t>
+          <t>"https://www.immowelt.de/expose/2acjp5u"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
+          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 4"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1745,54 +1745,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>153.3</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 350, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 450, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
+          <t>["https://ms.immowelt.org/ea4c2f0b-394f-42bd-abb7-a4b389c1d47d/ff497d04-808a-4337-a3e3-2cf5516bba7a", "https://ms.immowelt.org/366939ca-53fe-483d-98bf-f2ee6195dfc0/05b63755-5ed7-47a4-8dff-3f7fe160860a", "https://ms.immowelt.org/985ea057-3cd8-4f50-902d-75b4fdfd5d80/985af61d-8d10-46f1-8973-3ca9e3128892", "https://ms.immowelt.org/d60ab3e7-f8b1-4a56-9fe7-cb3d6b251fde/39119cc8-1171-4282-96e2-7cd5703d138e", "https://ms.immowelt.org/74ddb531-c432-441d-a6d9-f10cae01c815/df9fece6-1aa2-4522-9459-fe31c0fdf7be", "https://ms.immowelt.org/90f66d94-cf4f-4975-a300-fd5fdaa057dd/e4aca2a3-3782-48dc-8ebd-01cb1c5d26af", "https://ms.immowelt.org/ed2b2673-027a-4c7d-b469-2d88936aa895/c5525e35-fb10-4c05-a6b3-3903c73a1cd5", "https://ms.immowelt.org/f444609a-1c93-44de-bc86-3bb35bbe475e/7d9d6f63-18c3-4a57-b866-759c4f01d683", "https://ms.immowelt.org/12808aff-d0d3-4ce7-90a1-158e4dc99040/43dea702-8f33-4bc8-b0cf-8fae834b567c", "https://ms.immowelt.org/8bff2dd9-2249-43dc-900d-40ea65a23212/251524b5-e8c7-49a9-b995-00de0bb85ffe", "https://ms.immowelt.org/64561934-cc49-4074-b25f-6a6806f1cdd0/7971880f-b488-43df-a3e6-ee4aec51ae9a", "https://ms.immowelt.org/3ed2c2ec-6223-4e04-99ae-df359a6754c4/1aa90e24-28b3-4bc9-99dd-a8b18c2af3bb", "https://ms.immowelt.org/43927a50-d329-414c-b0f5-ca4f4cd70c2d/5a27d374-b073-4a66-9c71-23db210c7bc5", "https://ms.immowelt.org/49b01679-3040-4664-8c50-17d1e81e7a90/6a4baaaa-1b65-421e-8e20-4ce145d2b6c7", "https://ms.immowelt.org/5be96dee-5832-445f-8d62-264839c37343/d5b9dc02-555e-49f4-8a72-b5fdde07f935", "https://ms.immowelt.org/6bc5b40d-e97f-4fba-8c44-222645648458/42d69790-b9a5-40e9-8b43-b7529c138a8a", "https://ms.immowelt.org/60dec9ad-25a6-4596-8475-c20d723fe05a/3ddd5c6e-9448-40f9-be5d-4065443127a7", "https://ms.immowelt.org/e105af84-a45f-4370-b285-74bee821da08/e6dc5c1d-ad19-4038-ada0-3eecaf37fcc2", "https://ms.immowelt.org/927559a3-db2e-471f-8de6-33b5b3a3a96a/45e4cf6e-8048-4fa0-a7e4-5494ea0506a4", "https://ms.immowelt.org/3b19e507-1683-467a-bcb1-c424c524ca2f/dc5a81f4-1daf-4f1f-b9c9-c23df92dcb8b", "https://ms.immowelt.org/f136ae8b-8c04-4e1f-be49-5859e9cc12aa/45b449b8-53d3-4136-a7a7-bb156ed3b3c2"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"companyName": "hv Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Wilhelm-Dahl-Str. 9"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_98e1685eae1346a2a90a2847489951ff.jpg", "salutation": "Herr", "firstName": "Hartwig", "lastName": "Vogel", "mobile": "0175-5994950", "phone": "0931/45466333"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 4", "basicObjectPricEur": 350, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2acjp5u"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+          <t>"https://www.immowelt.de/expose/2af545v"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>3030.93</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1817,54 +1817,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>178.29</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+          <t>["barriefrei", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3030.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 360, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+          <t>["https://ms.immowelt.org/2b7c4c91-7fac-4ddb-a032-3a51184dbb59/8f34d9b5-fec8-4e21-99c7-6f7a2921d4d1", "https://ms.immowelt.org/61a862a4-1bd5-4769-abb9-5e1d7113f8bc/88d5b2b5-7ef0-4388-8eb9-b7042670aee5", "https://ms.immowelt.org/37c438a9-8ae7-4d42-8006-bc3a55265670/12a6e3ea-2554-4920-bec1-7d536539c02d", "https://ms.immowelt.org/49abcb3b-4395-4691-8e92-b525edda30d4/f7c44e0e-0db0-456e-8cb8-845d816e37ec", "https://ms.immowelt.org/ce95a7e7-0ad6-4282-8ca2-5ce205488707/dbfb5e54-2bfb-4d01-91ec-1ca118a3a922", "https://ms.immowelt.org/b3cc6d40-e3b5-407e-ae5e-be0785a5a218/686cb7a1-8858-4011-a5e0-a8fd590fe4e6", "https://ms.immowelt.org/424d3898-11a5-419c-a472-b6bb5eed3e76/e7d72403-5394-43c9-a960-10468f29d064", "https://ms.immowelt.org/19d6858d-2cb5-437d-8cdb-6fb75d54c5e4/8e3114ed-77c5-47c0-8dce-725b44e8785c", "https://ms.immowelt.org/f536fdcb-a38d-4b90-beab-277e244cf6a7/ce23ee46-5ee8-4496-b672-c3ea031e92ac", "https://ms.immowelt.org/933295a3-d9da-4860-ad95-06490c6fddf4/182424c9-5902-4b40-be26-512097b49929", "https://ms.immowelt.org/a77d50f5-f8e0-4928-bcdc-2fa7c6e36e7d/05824030-0135-4ec2-93dc-52a0bf313587", "https://ms.immowelt.org/dbfe5771-25b1-460e-a2dd-140a19fae05f/4dd99d70-1f73-40c8-aab7-49051e0e90ec", "https://ms.immowelt.org/9689e92f-fdee-4ff1-99c1-89400857e515/a07a7b18-a41e-45a3-9fe1-f64211e577cd", "https://ms.immowelt.org/c3fdabd3-6c7c-4da9-9941-17117007bd14/16545b70-e49d-4309-85c5-a84123f7c8a2", "https://ms.immowelt.org/ec2b29d2-9e49-4ccb-965f-e26d155e848a/1c4de27d-2032-41cc-a466-04b10ad4f27d", "https://ms.immowelt.org/c2913eaa-8856-44c1-901b-0ae4b9a9ffa2/387a24b5-3c67-4740-ac58-0de078b68ff8", "https://ms.immowelt.org/81e05570-c572-4168-acf8-500cd9f74a65/796a2975-473d-4971-bd18-d2765832485e", "https://ms.immowelt.org/2c90ddab-a797-471f-a2aa-53b9ac172a1c/43c8617b-2da6-4fae-99be-395aaf2774e3", "https://ms.immowelt.org/24b3e778-e131-4042-ba05-7b63afaf1ce0/b0dfb227-b3fc-4605-b1c3-58573b4f24d1", "https://ms.immowelt.org/1d31929b-a5c2-410f-9bef-afc44f5e68c1/bc515335-0e9c-453b-bfcf-ae09a83fd65d", "https://ms.immowelt.org/d6e04616-c252-4d95-8d95-9d504b0fb3f4/07aa7bfb-71ab-4b13-bba6-99ba35097b80"]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung", "basicObjectPricEur": 3030.93, "basicLivingSpace": 178.29, "basicRooms": 5, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2af545v", "basicContactPhone": "0931/382-7701"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2auvq5u"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>649</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1889,47 +1889,47 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/231cfc3d-f3ec-4eea-b3d8-d3f27a286b40/3058b16a-8a05-47d3-8512-63886059b512", "https://ms.immowelt.org/2660e3fb-eb65-4bd8-8844-5b667e3b062d/adc4fedc-4170-4ee1-a6c7-2d63780cfd0e", "https://ms.immowelt.org/dcb8e961-2856-45f0-8df9-13b8f9f4cadd/19a60ab9-5a93-4d74-be47-9ec0408e6e89", "https://ms.immowelt.org/4f79f7ef-0e51-49b2-ab74-287b9836cc3d/83e20f80-c025-439d-aace-e927f852a97b", "https://ms.immowelt.org/08d42db4-e036-4159-8269-dcb7bd5631a1/9cf8e0c1-3269-44d4-986b-bd625c8101ae", "https://ms.immowelt.org/2f13d3b5-8df8-4ac9-95af-5ba7f89e3dc1/d94afc12-acd9-4275-be9b-8fae1c182d5f", "https://ms.immowelt.org/0308a23f-5076-4db4-9f3b-c6024f595313/7143a6d8-6101-40b4-a19f-aba8e2a5a145", "https://ms.immowelt.org/814288ea-742a-4172-affa-ff8454f45731/e6ca30e2-64eb-4733-9789-940742a1d5d5", "https://ms.immowelt.org/ba83b81a-c23e-4eb8-8f5f-47a680847e30/7b794550-2c44-4fa8-9bb7-a6f8c6820a8a"]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2auvq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>ContactData</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>BasicInfo</t>
         </is>
       </c>
@@ -496,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2am365w"</t>
+          <t>"https://www.immowelt.de/expose/2a4kg5w"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,7 +501,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Helle Wohnung mit Balkon in der vorderen Sanderau!"</t>
+          <t>"2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,7 +516,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,44 +526,39 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["Kelleranteil", "GEPFLEGT", "FERN", "kable_sat_tv", "Balkon"]</t>
+          <t>["Neubau", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lindleinsm\u00fchle", "ZipCode": "97078", "LocationId": 496017, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.400,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 890, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lindleinsm\u00fchle)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lindleinsmuehle/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 900, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0cd8c2fc-f0f8-4803-b570-0bc0474a7ed0/ff573215-5a42-4351-ba40-cfa78f0e290f", "https://ms.immowelt.org/9f20ac68-d479-4226-9c79-53570da7eb1d/e2de2ea2-5dcd-44f2-94d5-5e6076766679", "https://ms.immowelt.org/65a23389-315b-4e17-9a6f-c8bcf8e849a7/ef1d6fb2-36ee-4c22-9b98-1f57d5548397", "https://ms.immowelt.org/57d6c377-cfc6-48d1-a1d5-1088cf6393f3/bbd12d5a-7478-4c07-bfbf-ce2e86b907b4", "https://ms.immowelt.org/0a903ef0-4c0b-431f-af10-207debb8ec0e/ced5048e-e943-4b27-acce-5dba9b2424d9", "https://ms.immowelt.org/c5093796-6848-4a03-8695-1e10dfd39fb2/ee4c2860-ca11-43ee-b24a-c8691f01283c"]</t>
+          <t>["https://ms.immowelt.org/5ffec635-8f46-4cc1-aadb-8b583ac94f49/a055949a-2702-4368-b5b3-7b0ed426b642", "https://ms.immowelt.org/8908f348-9991-4a07-ad66-d7d75614e10a/fca9e8be-88e9-418f-a5eb-9e0d5767a5f4", "https://ms.immowelt.org/cc8d5f7e-0ed9-47a3-818b-45790a8111fc/1ff9a9de-b0c2-4a71-935d-2fd2d9164ad1", "https://ms.immowelt.org/e595bf82-bf35-4dea-bb76-166a24244d92/420389cc-e1aa-4a32-94b8-9d099fca203b", "https://ms.immowelt.org/2512e689-4ae0-4ff9-9611-9f151ac18678/c4e6c45b-c697-41d7-a51f-d244d8f1a417", "https://ms.immowelt.org/e0483e5d-da13-4926-a03f-c238c4a327ae/737d7425-941f-4ec9-a90e-14f51213a74f", "https://ms.immowelt.org/23fe53b7-3d5a-4509-a222-5cb8ed3d516c/a46ccbc0-6aef-4e2f-ac21-6d245e72052d", "https://ms.immowelt.org/349313e4-73e0-40b7-b119-9fe817365e7a/7f23958c-275b-4a0e-8d30-ad6e79f317f7", "https://ms.immowelt.org/ac9b1a48-16e2-4119-98ba-9a1a890ff38b/c3716b49-d728-4b6a-900b-7d66e9cd4354", "https://ms.immowelt.org/e3084b71-0919-4d54-96d4-4d35ce184a9c/c4edd6a6-581b-4387-81e6-1df5e276dda7", "https://ms.immowelt.org/fa543343-fde7-4b91-b370-eee9cd1e0f90/62763f8c-bf88-4f8a-bbfc-b721085c2412", "https://ms.immowelt.org/2a737240-80f0-4710-a8f3-7c4f1c3f6233/08bf7007-717d-4120-b7cb-50bf91a1393b", "https://ms.immowelt.org/727ce8f8-3e8b-4da9-95ec-b855705005c5/07256d94-2372-4172-b756-d7101c994e5e"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"companyName": "arndt immobilien GmbH", "address": {"city": "Rimpar", "zipCode": "97222", "street": "Friedrich-Ebert-Str. 6"}, "salutation": "Frau", "firstName": "Brigitte", "lastName": "Lienert", "phone": "0931 46079392"}</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle Wohnung mit Balkon in der vorderen Sanderau!", "basicObjectPricEur": 700, "basicLivingSpace": 58, "basicRooms": 2, "basicConstructionYear": 1955, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2am365w", "basicContactPhone": "0931 46079392"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik", "basicObjectPricEur": 700, "basicLivingSpace": 47, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a4kg5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a5ll5v"</t>
+          <t>"https://www.immowelt.de/expose/2am365w"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,12 +568,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*"</t>
+          <t>"Helle Wohnung mit Balkon in der vorderen Sanderau!"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1483.93</t>
+          <t>700</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,54 +583,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>102.34</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["Neubau", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Kunststofffenster"]</t>
+          <t>["Kelleranteil", "GEPFLEGT", "FERN", "kable_sat_tv", "Balkon"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1483.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 290, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.400,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 890, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/46db7f7a-e5d8-4eb4-a01b-a2d4e62ab2be/bb78636c-2f3f-4c2e-a53b-ef1fa9683a15", "https://ms.immowelt.org/b16389b6-eb92-42af-8130-0a76d6025358/fce845ed-0986-423b-8c1e-afd09a953917"]</t>
+          <t>["https://ms.immowelt.org/0cd8c2fc-f0f8-4803-b570-0bc0474a7ed0/ff573215-5a42-4351-ba40-cfa78f0e290f", "https://ms.immowelt.org/9f20ac68-d479-4226-9c79-53570da7eb1d/e2de2ea2-5dcd-44f2-94d5-5e6076766679", "https://ms.immowelt.org/65a23389-315b-4e17-9a6f-c8bcf8e849a7/ef1d6fb2-36ee-4c22-9b98-1f57d5548397", "https://ms.immowelt.org/57d6c377-cfc6-48d1-a1d5-1088cf6393f3/bbd12d5a-7478-4c07-bfbf-ce2e86b907b4", "https://ms.immowelt.org/0a903ef0-4c0b-431f-af10-207debb8ec0e/ced5048e-e943-4b27-acce-5dba9b2424d9", "https://ms.immowelt.org/c5093796-6848-4a03-8695-1e10dfd39fb2/ee4c2860-ca11-43ee-b24a-c8691f01283c"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*", "basicObjectPricEur": 1483.93, "basicLivingSpace": 102.34, "basicRooms": 4, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2a5ll5v", "basicContactPhone": "0931/382-7701"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle Wohnung mit Balkon in der vorderen Sanderau!", "basicObjectPricEur": 700, "basicLivingSpace": 58, "basicRooms": 2, "basicConstructionYear": 1955, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2am365w", "basicContactPhone": "0931 46079392"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ayb45v"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,12 +635,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3601.44</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -665,54 +650,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>225.09</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3601.44, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 460, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b888654a-7be0-4b1f-bb51-2d8dca6a1aa1/5dc0db39-67ad-4630-8a84-004692c1c198", "https://ms.immowelt.org/4cb98d26-30d4-40dd-9345-c05636fc3d6e/3d269755-d356-448a-a4e4-c9c9225867b0", "https://ms.immowelt.org/71ab24a9-6d26-4798-959a-526196ab2526/2338dbdc-85e0-452f-bbf4-cbd765176db2", "https://ms.immowelt.org/e212abae-27ab-4901-ad56-4abbf1ab429a/076c61fa-ae56-43bd-90cc-3d4a1f246534", "https://ms.immowelt.org/45fda28f-bd4b-477c-8e5b-025d3035fc24/25270c0c-e6f1-42be-9bc6-154afc390bde", "https://ms.immowelt.org/250e735d-28bf-4e41-a26e-10bdcc174a72/9ffa4901-709f-4a22-bcf8-4026af4845a8", "https://ms.immowelt.org/47738d72-90e1-400f-8f26-b0c89e0a04d4/b2671ee7-2150-4931-ae87-848ca314834d", "https://ms.immowelt.org/09239b5c-efed-4862-9be0-12284713015c/c50d605a-b30b-4c1e-b8c7-c377d0105c47", "https://ms.immowelt.org/32be8996-eac0-4fda-8211-2d8fadd6467a/c5cb6c3d-45d4-45e6-8603-f3cc8967b34e", "https://ms.immowelt.org/de7996d0-a07e-44a3-a014-b9f228303c3b/f4242060-e83a-4836-b64b-41645c5c5e94", "https://ms.immowelt.org/d9382006-8b3f-46eb-802b-250a8fca3f96/03f39cab-4da2-4c36-80c1-23a7fbd309fe", "https://ms.immowelt.org/36af7108-dfdd-4ff3-ab8b-6e92d3508062/2f20f749-7813-4534-bde5-1a624ad88952", "https://ms.immowelt.org/ba912dea-da2a-4abd-add2-64d03801c9f2/0f910eff-7ebe-4154-9f66-0556d0a42237", "https://ms.immowelt.org/469127b9-c85a-4e77-a7fa-af7365f65cc3/9cd962ef-da29-4690-9168-413036c7882b", "https://ms.immowelt.org/0341b685-a77c-4318-bf97-0b0facbf1946/c0c91076-cd90-41c2-8e29-c3d9b6bc4e76", "https://ms.immowelt.org/349ba8bc-380d-425c-9404-fe30348c76fb/be7df368-083b-4bf6-bb15-c9ee4809e9b4", "https://ms.immowelt.org/769d004b-9208-4258-b045-f78d35bbe304/cab7c6e2-a6fe-44e9-b980-49f912c4dc33", "https://ms.immowelt.org/32a4701e-f4a1-4e08-ac43-7f82a0871c0e/05462d50-f4b2-41fb-94fc-03251da46a31", "https://ms.immowelt.org/c3b62a14-8ad0-4bc1-ad12-407a7b7d45c1/1e082fb8-309d-48fd-9675-1e19df39056b"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Frau", "firstName": "Heike", "lastName": "Fabiunke", "phone": "0931/382-7708"}</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3601.44, "basicLivingSpace": 225.09, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ayb45v", "basicContactPhone": "0931/382-7708"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aeal5v"</t>
+          <t>"https://www.immowelt.de/expose/2affg5v"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,12 +702,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz"</t>
+          <t>"M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -737,54 +717,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Souterrain", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "frei", "Einbauk\u00fcche", "Kunststofffenster"]</t>
+          <t>["WANNE", "Etagenheizung", "moebliert", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Rottendorferstra\u00dfe 55", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97082", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "830", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 415, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.250,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1125, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/a3c1d1a9-92f0-4260-b2b3-41eb1b7cb966/c490aefe-bdcb-4b73-9783-a0bcc158c257", "https://ms.immowelt.org/b05abc2c-f624-4093-86a5-80f153fa6197/05af8f24-b7e4-4ba5-872c-39eed41b4cb5", "https://ms.immowelt.org/5be4bd8f-231a-44d8-8f0b-608a4f6581bd/0af81664-7d97-498f-8adf-3b5b5fe348ae", "https://ms.immowelt.org/725fb4fb-900c-4cd8-9554-dd83fc7bd725/99474ade-0e13-4d47-bf95-373cf4af43ec", "https://ms.immowelt.org/a0bb9c06-d60a-40e4-9521-94d9c183a14d/93799d3a-657d-4385-b487-2691349273e9", "https://ms.immowelt.org/3b4d1b7b-a5fe-4a37-b98d-6fc308d03c5b/c80e2b27-9270-47ef-b292-eb1efd72ee07"]</t>
+          <t>["https://ms.immowelt.org/ed2e6e9a-a8cf-4e9e-89c9-92ebe0bd9ab9/3c8c330e-15e6-439e-be44-6f02de4b9dd5", "https://ms.immowelt.org/e963b58b-6a58-4830-8e37-e9e446a7ca40/edda2664-fb0a-48dc-bfe4-3b20c61c8b1d", "https://ms.immowelt.org/6945f917-297e-4dfb-b166-4245a2333e2c/5a890870-d05f-4063-b0e5-63ad31ca7572", "https://ms.immowelt.org/ffa99189-2ca2-46fb-aa14-f6fda02818ae/6a859704-19f9-4907-92f9-a5b7fcbe4248", "https://ms.immowelt.org/86e1504e-0c46-4800-a6e0-cf24601a2518/bf8eec93-53d3-4368-82bc-ca50c66a45a1", "https://ms.immowelt.org/f15519e3-ee04-4739-b40a-ce0f84fb29ff/2c2c7101-3482-420d-826e-9efd57863f1e", "https://ms.immowelt.org/54ea5d30-e104-4f39-8a41-429b5961bbd1/55bee8cc-3633-4bce-9b47-af1971f0523b", "https://ms.immowelt.org/e88c0a6a-0da8-4b88-8865-a9f37cbd0e2d/9452b370-8d6d-4324-8a35-57b8a433c48a"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Frau", "firstName": "Selina", "lastName": "Wiesner", "mobile": "+49 176 21469496"}</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz", "basicObjectPricEur": 415, "basicLivingSpace": 26, "basicRooms": 1, "basicConstructionYear": 1950, "basicCity": "W\u00fcrzburg", "basicStreet": "Rottendorferstra\u00dfe 55", "basicUrl": "https://www.immowelt.de/expose/2aeal5v", "basicContactMobile": "+49 176 21469496"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel", "basicObjectPricEur": 1125, "basicLivingSpace": 60, "basicRooms": 2, "basicConstructionYear": 1957, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2affg5v", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a4kg5w"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -794,12 +769,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,54 +784,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["Neubau", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lindleinsm\u00fchle", "ZipCode": "97078", "LocationId": 496017, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lindleinsm\u00fchle)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lindleinsmuehle/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 900, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/5ffec635-8f46-4cc1-aadb-8b583ac94f49/a055949a-2702-4368-b5b3-7b0ed426b642", "https://ms.immowelt.org/8908f348-9991-4a07-ad66-d7d75614e10a/fca9e8be-88e9-418f-a5eb-9e0d5767a5f4", "https://ms.immowelt.org/cc8d5f7e-0ed9-47a3-818b-45790a8111fc/1ff9a9de-b0c2-4a71-935d-2fd2d9164ad1", "https://ms.immowelt.org/e595bf82-bf35-4dea-bb76-166a24244d92/420389cc-e1aa-4a32-94b8-9d099fca203b", "https://ms.immowelt.org/2512e689-4ae0-4ff9-9611-9f151ac18678/c4e6c45b-c697-41d7-a51f-d244d8f1a417", "https://ms.immowelt.org/e0483e5d-da13-4926-a03f-c238c4a327ae/737d7425-941f-4ec9-a90e-14f51213a74f", "https://ms.immowelt.org/23fe53b7-3d5a-4509-a222-5cb8ed3d516c/a46ccbc0-6aef-4e2f-ac21-6d245e72052d", "https://ms.immowelt.org/349313e4-73e0-40b7-b119-9fe817365e7a/7f23958c-275b-4a0e-8d30-ad6e79f317f7", "https://ms.immowelt.org/ac9b1a48-16e2-4119-98ba-9a1a890ff38b/c3716b49-d728-4b6a-900b-7d66e9cd4354", "https://ms.immowelt.org/e3084b71-0919-4d54-96d4-4d35ce184a9c/c4edd6a6-581b-4387-81e6-1df5e276dda7", "https://ms.immowelt.org/fa543343-fde7-4b91-b370-eee9cd1e0f90/62763f8c-bf88-4f8a-bbfc-b721085c2412", "https://ms.immowelt.org/2a737240-80f0-4710-a8f3-7c4f1c3f6233/08bf7007-717d-4120-b7cb-50bf91a1393b", "https://ms.immowelt.org/727ce8f8-3e8b-4da9-95ec-b855705005c5/07256d94-2372-4172-b756-d7101c994e5e"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik", "basicObjectPricEur": 700, "basicLivingSpace": 47, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a4kg5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2affg5v"</t>
+          <t>"https://www.immowelt.de/expose/2a54x5v"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -866,12 +836,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -881,54 +851,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["WANNE", "Etagenheizung", "moebliert", "Einbauk\u00fcche"]</t>
+          <t>["FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Zentralheizung"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97082", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Rottenbauer", "ZipCode": "97084", "LocationId": 496020, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.250,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1125, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1800", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Rottenbauer)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-rottenbauer/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1100, "Unit": "EUR"}, {"NumberValue": 20, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/ed2e6e9a-a8cf-4e9e-89c9-92ebe0bd9ab9/3c8c330e-15e6-439e-be44-6f02de4b9dd5", "https://ms.immowelt.org/e963b58b-6a58-4830-8e37-e9e446a7ca40/edda2664-fb0a-48dc-bfe4-3b20c61c8b1d", "https://ms.immowelt.org/6945f917-297e-4dfb-b166-4245a2333e2c/5a890870-d05f-4063-b0e5-63ad31ca7572", "https://ms.immowelt.org/ffa99189-2ca2-46fb-aa14-f6fda02818ae/6a859704-19f9-4907-92f9-a5b7fcbe4248", "https://ms.immowelt.org/86e1504e-0c46-4800-a6e0-cf24601a2518/bf8eec93-53d3-4368-82bc-ca50c66a45a1", "https://ms.immowelt.org/f15519e3-ee04-4739-b40a-ce0f84fb29ff/2c2c7101-3482-420d-826e-9efd57863f1e", "https://ms.immowelt.org/54ea5d30-e104-4f39-8a41-429b5961bbd1/55bee8cc-3633-4bce-9b47-af1971f0523b", "https://ms.immowelt.org/e88c0a6a-0da8-4b88-8865-a9f37cbd0e2d/9452b370-8d6d-4324-8a35-57b8a433c48a"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel", "basicObjectPricEur": 1125, "basicLivingSpace": 60, "basicRooms": 2, "basicConstructionYear": 1957, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2affg5v", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 900, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a54x5v"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a54x5v"</t>
+          <t>"https://www.immowelt.de/expose/2a5ll5v"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,12 +903,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1483.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -953,54 +918,49 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>102.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Zentralheizung"]</t>
+          <t>["Neubau", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Rottenbauer", "ZipCode": "97084", "LocationId": 496020, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1800", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Rottenbauer)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-rottenbauer/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1100, "Unit": "EUR"}, {"NumberValue": 20, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1483.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 290, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/46db7f7a-e5d8-4eb4-a01b-a2d4e62ab2be/bb78636c-2f3f-4c2e-a53b-ef1fa9683a15", "https://ms.immowelt.org/b16389b6-eb92-42af-8130-0a76d6025358/fce845ed-0986-423b-8c1e-afd09a953917"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"salutation": "Frau", "firstName": "Astrid", "lastName": "Leis"}</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 900, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a54x5v"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*", "basicObjectPricEur": 1483.93, "basicLivingSpace": 102.34, "basicRooms": 4, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2a5ll5v", "basicContactPhone": "0931/382-7701"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2abty5v"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,12 +970,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>430</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1025,12 +985,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1040,7 +1000,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["GAS"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1050,29 +1010,24 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 430, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 115, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/7a4af935-fdca-42b8-b470-a905b68d671e/717dc8fc-8461-4d19-89e3-3eaf6c5bfb76"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung", "basicObjectPricEur": 430, "basicLivingSpace": 64, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2abty5v", "basicContactPhone": "+4922892939484"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2av845v"</t>
+          <t>"https://www.immowelt.de/expose/2aeal5v"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,12 +1037,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon"</t>
+          <t>"**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1797.71</t>
+          <t>415</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,54 +1052,49 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>123.98</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+          <t>["DUSCHE", "FENSTER", "Souterrain", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "frei", "Einbauk\u00fcche", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Rottendorferstra\u00dfe 55", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1797.71, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "830", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 415, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/34aad469-3611-425d-9832-c02c7060cb23/77ba9d6f-e612-4962-9317-bd0107dc25f7", "https://ms.immowelt.org/8ea07a0f-c3a2-4e3e-a9d2-fe6544358d93/58dbc143-5e69-4062-9eae-b767cf0c69b1", "https://ms.immowelt.org/6b6cd2cc-a04d-480c-949a-1a21bbd7e1d4/51babd4b-8fbc-456a-862b-c4ebde7dc41a", "https://ms.immowelt.org/a8f09c5d-403e-4528-a15f-17ef6819f51c/15cf94e1-0865-4970-bdbc-7eeb2e4e321a", "https://ms.immowelt.org/a74342e9-df14-4a0d-b4c6-600423e5e886/caed2534-21fc-4d11-981c-a2164e56802b", "https://ms.immowelt.org/57b465e5-f400-4f58-8856-6a92ccb5dc5c/e24df36d-9d71-44a2-bd39-c0146b4df941", "https://ms.immowelt.org/4d380785-997d-4deb-b741-8c14d08622b6/d794011b-6b71-4e97-adb0-c319032680b3", "https://ms.immowelt.org/a1aeaa9b-89a7-4a5b-b3ed-598756319607/14a91c1a-5084-49dc-b75d-74d20228a8f0", "https://ms.immowelt.org/af2232f0-1ef7-4481-801f-2a5ff59e0092/96a901ff-03de-431d-886e-d860ac84fbc4", "https://ms.immowelt.org/eb83b1d9-acf0-4e74-b0b3-5fa3fcc1ca01/705ad620-364a-4237-968f-e9f4e0c3eb36", "https://ms.immowelt.org/b34e24ec-eac1-4eae-b4db-e1f386853cb1/292b937e-2528-4472-8123-fa7a878ef84b", "https://ms.immowelt.org/4111770b-ae7b-4dce-b625-f990d3c5ba1e/b7539eac-4bf3-4d62-ab60-f12720be1758", "https://ms.immowelt.org/73dc46c5-cb67-4432-b97f-e11d22268b50/6613c506-3bb4-4e53-a0ac-d3296fe50f9c", "https://ms.immowelt.org/d8083607-cc91-46ee-92df-9a6f4eed9d3b/59f57e14-612a-4c44-8a58-7436d9771597"]</t>
+          <t>["https://ms.immowelt.org/a3c1d1a9-92f0-4260-b2b3-41eb1b7cb966/c490aefe-bdcb-4b73-9783-a0bcc158c257", "https://ms.immowelt.org/b05abc2c-f624-4093-86a5-80f153fa6197/05af8f24-b7e4-4ba5-872c-39eed41b4cb5", "https://ms.immowelt.org/5be4bd8f-231a-44d8-8f0b-608a4f6581bd/0af81664-7d97-498f-8adf-3b5b5fe348ae", "https://ms.immowelt.org/725fb4fb-900c-4cd8-9554-dd83fc7bd725/99474ade-0e13-4d47-bf95-373cf4af43ec", "https://ms.immowelt.org/a0bb9c06-d60a-40e4-9521-94d9c183a14d/93799d3a-657d-4385-b487-2691349273e9", "https://ms.immowelt.org/3b4d1b7b-a5fe-4a37-b98d-6fc308d03c5b/c80e2b27-9270-47ef-b292-eb1efd72ee07"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Wolfgang", "lastName": "Roth", "phone": "0931/382-7702"}</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon", "basicObjectPricEur": 1797.71, "basicLivingSpace": 123.98, "basicRooms": 3, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2av845v", "basicContactPhone": "0931/382-7702"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz", "basicObjectPricEur": 415, "basicLivingSpace": 26, "basicRooms": 1, "basicConstructionYear": 1950, "basicCity": "W\u00fcrzburg", "basicStreet": "Rottendorferstra\u00dfe 55", "basicUrl": "https://www.immowelt.de/expose/2aeal5v", "basicContactMobile": "+49 176 21469496"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2abty5v"</t>
+          <t>"https://www.immowelt.de/expose/2av845v"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,12 +1104,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1797.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1169,54 +1119,49 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>123.98</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["WANNE", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 430, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 115, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1797.71, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7a4af935-fdca-42b8-b470-a905b68d671e/717dc8fc-8461-4d19-89e3-3eaf6c5bfb76"]</t>
+          <t>["https://ms.immowelt.org/34aad469-3611-425d-9832-c02c7060cb23/77ba9d6f-e612-4962-9317-bd0107dc25f7", "https://ms.immowelt.org/8ea07a0f-c3a2-4e3e-a9d2-fe6544358d93/58dbc143-5e69-4062-9eae-b767cf0c69b1", "https://ms.immowelt.org/6b6cd2cc-a04d-480c-949a-1a21bbd7e1d4/51babd4b-8fbc-456a-862b-c4ebde7dc41a", "https://ms.immowelt.org/a8f09c5d-403e-4528-a15f-17ef6819f51c/15cf94e1-0865-4970-bdbc-7eeb2e4e321a", "https://ms.immowelt.org/a74342e9-df14-4a0d-b4c6-600423e5e886/caed2534-21fc-4d11-981c-a2164e56802b", "https://ms.immowelt.org/57b465e5-f400-4f58-8856-6a92ccb5dc5c/e24df36d-9d71-44a2-bd39-c0146b4df941", "https://ms.immowelt.org/4d380785-997d-4deb-b741-8c14d08622b6/d794011b-6b71-4e97-adb0-c319032680b3", "https://ms.immowelt.org/a1aeaa9b-89a7-4a5b-b3ed-598756319607/14a91c1a-5084-49dc-b75d-74d20228a8f0", "https://ms.immowelt.org/af2232f0-1ef7-4481-801f-2a5ff59e0092/96a901ff-03de-431d-886e-d860ac84fbc4", "https://ms.immowelt.org/eb83b1d9-acf0-4e74-b0b3-5fa3fcc1ca01/705ad620-364a-4237-968f-e9f4e0c3eb36", "https://ms.immowelt.org/b34e24ec-eac1-4eae-b4db-e1f386853cb1/292b937e-2528-4472-8123-fa7a878ef84b", "https://ms.immowelt.org/4111770b-ae7b-4dce-b625-f990d3c5ba1e/b7539eac-4bf3-4d62-ab60-f12720be1758", "https://ms.immowelt.org/73dc46c5-cb67-4432-b97f-e11d22268b50/6613c506-3bb4-4e53-a0ac-d3296fe50f9c", "https://ms.immowelt.org/d8083607-cc91-46ee-92df-9a6f4eed9d3b/59f57e14-612a-4c44-8a58-7436d9771597"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"companyName": "Tauschwohnung GmbH", "address": {"city": "Bonn", "zipCode": "53175", "street": "Graf-von-Lehndorff-Str. 12"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_13236f6bb6c141cd845d0ac0006487a0.jpg", "salutation": "Herr", "firstName": "John", "lastName": "Weinert", "phone": "+4922892939484"}</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung", "basicObjectPricEur": 430, "basicLivingSpace": 64, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2abty5v", "basicContactPhone": "+4922892939484"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon", "basicObjectPricEur": 1797.71, "basicLivingSpace": 123.98, "basicRooms": 3, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2av845v", "basicContactPhone": "0931/382-7702"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2ayb45v"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1171,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>3601.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1241,54 +1186,49 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>225.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3601.44, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 460, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/b888654a-7be0-4b1f-bb51-2d8dca6a1aa1/5dc0db39-67ad-4630-8a84-004692c1c198", "https://ms.immowelt.org/4cb98d26-30d4-40dd-9345-c05636fc3d6e/3d269755-d356-448a-a4e4-c9c9225867b0", "https://ms.immowelt.org/71ab24a9-6d26-4798-959a-526196ab2526/2338dbdc-85e0-452f-bbf4-cbd765176db2", "https://ms.immowelt.org/e212abae-27ab-4901-ad56-4abbf1ab429a/076c61fa-ae56-43bd-90cc-3d4a1f246534", "https://ms.immowelt.org/45fda28f-bd4b-477c-8e5b-025d3035fc24/25270c0c-e6f1-42be-9bc6-154afc390bde", "https://ms.immowelt.org/250e735d-28bf-4e41-a26e-10bdcc174a72/9ffa4901-709f-4a22-bcf8-4026af4845a8", "https://ms.immowelt.org/47738d72-90e1-400f-8f26-b0c89e0a04d4/b2671ee7-2150-4931-ae87-848ca314834d", "https://ms.immowelt.org/09239b5c-efed-4862-9be0-12284713015c/c50d605a-b30b-4c1e-b8c7-c377d0105c47", "https://ms.immowelt.org/32be8996-eac0-4fda-8211-2d8fadd6467a/c5cb6c3d-45d4-45e6-8603-f3cc8967b34e", "https://ms.immowelt.org/de7996d0-a07e-44a3-a014-b9f228303c3b/f4242060-e83a-4836-b64b-41645c5c5e94", "https://ms.immowelt.org/d9382006-8b3f-46eb-802b-250a8fca3f96/03f39cab-4da2-4c36-80c1-23a7fbd309fe", "https://ms.immowelt.org/36af7108-dfdd-4ff3-ab8b-6e92d3508062/2f20f749-7813-4534-bde5-1a624ad88952", "https://ms.immowelt.org/ba912dea-da2a-4abd-add2-64d03801c9f2/0f910eff-7ebe-4154-9f66-0556d0a42237", "https://ms.immowelt.org/469127b9-c85a-4e77-a7fa-af7365f65cc3/9cd962ef-da29-4690-9168-413036c7882b", "https://ms.immowelt.org/0341b685-a77c-4318-bf97-0b0facbf1946/c0c91076-cd90-41c2-8e29-c3d9b6bc4e76", "https://ms.immowelt.org/349ba8bc-380d-425c-9404-fe30348c76fb/be7df368-083b-4bf6-bb15-c9ee4809e9b4", "https://ms.immowelt.org/769d004b-9208-4258-b045-f78d35bbe304/cab7c6e2-a6fe-44e9-b980-49f912c4dc33", "https://ms.immowelt.org/32a4701e-f4a1-4e08-ac43-7f82a0871c0e/05462d50-f4b2-41fb-94fc-03251da46a31", "https://ms.immowelt.org/c3b62a14-8ad0-4bc1-ad12-407a7b7d45c1/1e082fb8-309d-48fd-9675-1e19df39056b"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3601.44, "basicLivingSpace": 225.09, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ayb45v", "basicContactPhone": "0931/382-7708"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ay645v"</t>
+          <t>"https://www.immowelt.de/expose/2acjp5u"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,12 +1238,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung"</t>
+          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 4"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3163.32</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1313,47 +1253,42 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>218.16</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3163.32, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 440, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 350, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 450, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/33a10e2d-1546-47e8-8bf4-47024f96365d/8d31a374-f6c2-4671-ba5e-b06a8d7c1f18", "https://ms.immowelt.org/e715d610-ea80-4459-9e3a-1ea8a574c0d7/c594e925-e9d3-4474-88ff-ee637dc4b81a", "https://ms.immowelt.org/f3e49668-7602-45ad-979f-f68f0c60ad46/6da2c38a-e66f-4112-b3c3-70ebaa38a22f", "https://ms.immowelt.org/e4691abb-17a5-41aa-949d-88daa0ab8d3a/42a9ae4f-34fd-4230-8329-9c00ba557222", "https://ms.immowelt.org/62981e85-dc6c-481f-8d77-c7e82c11d711/a90f265f-b3b3-4b6b-a854-a05b00191bac", "https://ms.immowelt.org/c1f1f311-d95b-465f-94a6-317a246989d2/e96a7cca-1527-484c-a8e9-f79e1cf28136", "https://ms.immowelt.org/935854af-6f17-4d5d-b023-6647d4cc8d4d/87cabb52-19fe-4dca-a81d-9b0f6d4daa7c", "https://ms.immowelt.org/d22f872e-159f-4f19-bb2a-75f5b228899d/044b33f6-2258-490a-ae2a-52d9ce17b653", "https://ms.immowelt.org/58dca412-8d3b-415e-9a26-359678019657/0858d4e1-5dc0-4297-8a4f-b5db5dbeb8b8", "https://ms.immowelt.org/f9bab463-404a-46c6-990a-559df575f251/6d53c5c6-d652-4e1d-98e5-448095327b4f", "https://ms.immowelt.org/6559ac4a-0154-4e05-a366-dbf71d55ad3a/29c1a7fd-15be-4a1b-91ca-9db0f1c442f3", "https://ms.immowelt.org/85c20839-cb59-4728-be4d-78d1ffcb9274/f88983a1-2f68-4f01-af1a-cae1794eb9e4", "https://ms.immowelt.org/f0a33cc2-272c-4fe9-a229-0c65344655fb/1911e15f-4afd-4691-a583-109b097d5b1a", "https://ms.immowelt.org/26da2883-f715-4c66-a8d1-3e2b9550fcf3/90d1f6cc-c1ae-4b39-889a-79bf683b589e", "https://ms.immowelt.org/b51072d7-8214-4cb3-b4f1-4c2d9c08cc58/e2548663-d3a0-4cb8-b0f7-5aaacf362ba3", "https://ms.immowelt.org/b5dd6e96-9575-46aa-af37-c7a1914335de/e4d4ff07-527e-4aff-be0a-66c047b2b747", "https://ms.immowelt.org/4c4b10ce-78b2-449d-a1c4-38ef2035555b/8094732c-995f-4ee6-af5f-e52e6a68bac8", "https://ms.immowelt.org/36750323-149d-49f3-8859-a599078cdc7a/0c862b3d-b2f3-4b3a-b234-8e9299775647", "https://ms.immowelt.org/d1d807de-1e05-4eca-b9fd-01dd45660714/8d6cc502-9779-4a2e-bfea-d50b253ff0f3"]</t>
+          <t>["https://ms.immowelt.org/ea4c2f0b-394f-42bd-abb7-a4b389c1d47d/ff497d04-808a-4337-a3e3-2cf5516bba7a", "https://ms.immowelt.org/366939ca-53fe-483d-98bf-f2ee6195dfc0/05b63755-5ed7-47a4-8dff-3f7fe160860a", "https://ms.immowelt.org/985ea057-3cd8-4f50-902d-75b4fdfd5d80/985af61d-8d10-46f1-8973-3ca9e3128892", "https://ms.immowelt.org/d60ab3e7-f8b1-4a56-9fe7-cb3d6b251fde/39119cc8-1171-4282-96e2-7cd5703d138e", "https://ms.immowelt.org/74ddb531-c432-441d-a6d9-f10cae01c815/df9fece6-1aa2-4522-9459-fe31c0fdf7be", "https://ms.immowelt.org/90f66d94-cf4f-4975-a300-fd5fdaa057dd/e4aca2a3-3782-48dc-8ebd-01cb1c5d26af", "https://ms.immowelt.org/ed2b2673-027a-4c7d-b469-2d88936aa895/c5525e35-fb10-4c05-a6b3-3903c73a1cd5", "https://ms.immowelt.org/f444609a-1c93-44de-bc86-3bb35bbe475e/7d9d6f63-18c3-4a57-b866-759c4f01d683", "https://ms.immowelt.org/12808aff-d0d3-4ce7-90a1-158e4dc99040/43dea702-8f33-4bc8-b0cf-8fae834b567c", "https://ms.immowelt.org/8bff2dd9-2249-43dc-900d-40ea65a23212/251524b5-e8c7-49a9-b995-00de0bb85ffe", "https://ms.immowelt.org/64561934-cc49-4074-b25f-6a6806f1cdd0/7971880f-b488-43df-a3e6-ee4aec51ae9a", "https://ms.immowelt.org/3ed2c2ec-6223-4e04-99ae-df359a6754c4/1aa90e24-28b3-4bc9-99dd-a8b18c2af3bb", "https://ms.immowelt.org/43927a50-d329-414c-b0f5-ca4f4cd70c2d/5a27d374-b073-4a66-9c71-23db210c7bc5", "https://ms.immowelt.org/49b01679-3040-4664-8c50-17d1e81e7a90/6a4baaaa-1b65-421e-8e20-4ce145d2b6c7", "https://ms.immowelt.org/5be96dee-5832-445f-8d62-264839c37343/d5b9dc02-555e-49f4-8a72-b5fdde07f935", "https://ms.immowelt.org/6bc5b40d-e97f-4fba-8c44-222645648458/42d69790-b9a5-40e9-8b43-b7529c138a8a", "https://ms.immowelt.org/60dec9ad-25a6-4596-8475-c20d723fe05a/3ddd5c6e-9448-40f9-be5d-4065443127a7", "https://ms.immowelt.org/e105af84-a45f-4370-b285-74bee821da08/e6dc5c1d-ad19-4038-ada0-3eecaf37fcc2", "https://ms.immowelt.org/927559a3-db2e-471f-8de6-33b5b3a3a96a/45e4cf6e-8048-4fa0-a7e4-5494ea0506a4", "https://ms.immowelt.org/3b19e507-1683-467a-bcb1-c424c524ca2f/dc5a81f4-1daf-4f1f-b9c9-c23df92dcb8b", "https://ms.immowelt.org/f136ae8b-8c04-4e1f-be49-5859e9cc12aa/45b449b8-53d3-4136-a7a7-bb156ed3b3c2"]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Frau", "firstName": "Heike", "lastName": "Fabiunke", "phone": "0931/382-7708"}</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3163.32, "basicLivingSpace": 218.16, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ay645v", "basicContactPhone": "0931/382-7708"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 4", "basicObjectPricEur": 350, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2acjp5u"}</t>
         </is>
       </c>
     </row>
@@ -1420,11 +1355,6 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
           <t>{"basicTranactionType": "RENT", "basicTitle": "Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt", "basicObjectPricEur": 950, "basicLivingSpace": 37, "basicRooms": 1.5, "basicConstructionYear": 1990, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aewq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
@@ -1492,11 +1422,6 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
           <t>{"basicTranactionType": "RENT", "basicTitle": "Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 1095, "basicLivingSpace": 63, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2akwq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
@@ -1504,7 +1429,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2abjp5u"</t>
+          <t>"https://www.immowelt.de/expose/2auvq5u"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1514,12 +1439,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 2"</t>
+          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>649</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,7 +1454,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1539,44 +1464,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "640", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/9ba52a69-6182-42ac-b135-aa03971398d6/ca08d294-c112-4542-9217-884244d0d406", "https://ms.immowelt.org/d2976824-6694-44cf-a9b6-27ee23e5ee7d/3b4552e6-7f48-4f9f-8935-65701930862a", "https://ms.immowelt.org/abd16da6-4e60-4077-9fde-df90d5c35ba9/70090f09-6bb6-46bb-8d61-ad69a6f9d337", "https://ms.immowelt.org/9241bd02-41ac-4193-ac08-cb9f982e4abd/4fa1546f-a5f4-4860-b778-44b40407edcb", "https://ms.immowelt.org/297cca9d-a7ba-4a67-92d9-93365151b7c5/d95e6e27-06ec-47b3-b787-69c008ab106a", "https://ms.immowelt.org/3b016415-9aa0-4c6f-bf4a-a08f53671a65/e9132359-9ac5-4683-82f7-c4fc218d8306", "https://ms.immowelt.org/4282be92-39da-4459-a8c5-34173ddc7b9f/a8aeb00d-0b5a-48c1-b780-9278afd054ca", "https://ms.immowelt.org/3f00ed7e-8bf1-401b-8f25-642aae0303e9/8f662276-261e-4853-9a0e-c16cf1a0cf16", "https://ms.immowelt.org/33cac6b2-f066-48ee-b86f-8f34b674b64f/8da9104b-a492-47aa-af05-5e118833566f", "https://ms.immowelt.org/ac6357bc-41cd-473b-8073-52aba4823641/a4383c9d-9081-4f5f-afb3-b59a77fa5b00", "https://ms.immowelt.org/d4734ed1-2904-4290-956a-e971b09473c8/b9a53b6e-72d5-418d-a421-3175e22ad8b1", "https://ms.immowelt.org/e5fc4d4c-767b-44a4-ac3c-a5c84a34fe37/4bf5f24d-e49d-4e14-bae7-18735aba7802", "https://ms.immowelt.org/2fa16c88-73cf-4bf1-9ce3-d457a8a03c5e/caa28f6b-695e-4ee6-bc27-d83d081028ad", "https://ms.immowelt.org/600d4913-62e1-4dd5-9431-46e3dc04f5c0/31f22258-60a5-4acd-874e-d498ea457528", "https://ms.immowelt.org/c78f9909-a0a5-427d-9b1f-a8553957ae21/3eb778af-08e1-40d5-b415-3df323797a59", "https://ms.immowelt.org/de687aba-16ee-476d-a8f9-30df0fe0ec6a/a9787e5c-ea67-488e-af3c-076b4e47fea9", "https://ms.immowelt.org/8b1beea6-698d-4888-97b4-de46bd7498ed/4f90c6e0-1013-4950-9c20-5c0ff18aad7d", "https://ms.immowelt.org/da588edf-b340-4add-adc0-fb3f0c96ad72/59acdf1e-b87f-4ddb-b8d5-ab9ae3aee1eb", "https://ms.immowelt.org/9642eeca-e631-4ac4-ae64-100ae2a9f0e9/996373fc-c623-4411-afbc-f2104a65e4a7", "https://ms.immowelt.org/773ea5c5-cb8c-413d-a62d-d05b7ed9e19e/ca6e755b-48d9-4b44-9df9-56eb13fc5024", "https://ms.immowelt.org/e7f711ba-ac7b-44fc-90e8-deda2cee8b0c/bd0ca932-727d-4d26-8518-5c0e19bf2160"]</t>
+          <t>["https://ms.immowelt.org/231cfc3d-f3ec-4eea-b3d8-d3f27a286b40/3058b16a-8a05-47d3-8512-63886059b512", "https://ms.immowelt.org/2660e3fb-eb65-4bd8-8844-5b667e3b062d/adc4fedc-4170-4ee1-a6c7-2d63780cfd0e", "https://ms.immowelt.org/dcb8e961-2856-45f0-8df9-13b8f9f4cadd/19a60ab9-5a93-4d74-be47-9ec0408e6e89", "https://ms.immowelt.org/4f79f7ef-0e51-49b2-ab74-287b9836cc3d/83e20f80-c025-439d-aace-e927f852a97b", "https://ms.immowelt.org/08d42db4-e036-4159-8269-dcb7bd5631a1/9cf8e0c1-3269-44d4-986b-bd625c8101ae", "https://ms.immowelt.org/2f13d3b5-8df8-4ac9-95af-5ba7f89e3dc1/d94afc12-acd9-4275-be9b-8fae1c182d5f", "https://ms.immowelt.org/0308a23f-5076-4db4-9f3b-c6024f595313/7143a6d8-6101-40b4-a19f-aba8e2a5a145", "https://ms.immowelt.org/814288ea-742a-4172-affa-ff8454f45731/e6ca30e2-64eb-4733-9789-940742a1d5d5", "https://ms.immowelt.org/ba83b81a-c23e-4eb8-8f5f-47a680847e30/7b794550-2c44-4fa8-9bb7-a6f8c6820a8a"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 2", "basicObjectPricEur": 320, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2abjp5u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2auvq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agwq5u"</t>
+          <t>"https://www.immowelt.de/expose/2ay645v"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1586,12 +1506,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>3163.32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1601,54 +1521,49 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>218.16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3163.32, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 440, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/cf8697dc-afcd-47ae-aadc-64c4cc78569c/35b4d352-660a-4816-94a6-619497123ae8", "https://ms.immowelt.org/a32b8f72-a566-4394-bea1-04e883e8fce2/7099cff9-9eea-4d1f-bad4-4033626afe54", "https://ms.immowelt.org/105a8a3c-c718-4c20-83ac-d0a5ef1a7f53/9db73218-715a-4963-942c-e41a29ef7b07", "https://ms.immowelt.org/64d9efa5-0a66-44fe-aa1e-b89f834ad546/6f687f3d-4a05-4f47-a1f8-8b78ca7e8bfe", "https://ms.immowelt.org/a3fe7335-2ba5-4c30-a137-cbfb5fd2a35c/20496698-5e1f-4243-9338-f56821682d4a", "https://ms.immowelt.org/a449833e-f4f4-43ff-8ebf-01bc5160e5c9/ccc566af-477b-4888-b03f-1cc64f4f1c45", "https://ms.immowelt.org/a6d17184-1155-46e9-af2c-d83d9e1be344/aab72d40-469f-486c-9add-806a5481ac6a", "https://ms.immowelt.org/a5271f16-acef-4db4-84ba-2b1a9ddc5892/57e11dd6-6321-45eb-85e0-aaa0f1e15bfe", "https://ms.immowelt.org/921ae069-2035-4dbb-a619-8ad9012a2442/0e6324ba-04b0-4141-bcc2-3b6cb33ac8ea", "https://ms.immowelt.org/6dc638c1-e4cd-4f0c-87b2-169cc34b0bd8/2af01fd5-93ce-4fc8-ae87-9a3817a2ef84", "https://ms.immowelt.org/a5894c49-800c-4d59-bb53-e598cf560634/0aa6a439-1071-40bd-a3ef-3bd2192fad8c", "https://ms.immowelt.org/1824d009-9f1e-4248-ac1b-d6198f9c17f3/ffd7b610-0d17-43b2-b15c-614cccf8be14", "https://ms.immowelt.org/45f31b8e-c2fc-45ff-8dac-c0bf8fea6e03/a11c6ffd-ddba-4524-9aca-520b2604d193", "https://ms.immowelt.org/5ec8ff49-d6b8-4dd0-bd1b-a04062520b58/b2e43f71-c2eb-4713-a428-6da937a58826"]</t>
+          <t>["https://ms.immowelt.org/33a10e2d-1546-47e8-8bf4-47024f96365d/8d31a374-f6c2-4671-ba5e-b06a8d7c1f18", "https://ms.immowelt.org/e715d610-ea80-4459-9e3a-1ea8a574c0d7/c594e925-e9d3-4474-88ff-ee637dc4b81a", "https://ms.immowelt.org/f3e49668-7602-45ad-979f-f68f0c60ad46/6da2c38a-e66f-4112-b3c3-70ebaa38a22f", "https://ms.immowelt.org/e4691abb-17a5-41aa-949d-88daa0ab8d3a/42a9ae4f-34fd-4230-8329-9c00ba557222", "https://ms.immowelt.org/62981e85-dc6c-481f-8d77-c7e82c11d711/a90f265f-b3b3-4b6b-a854-a05b00191bac", "https://ms.immowelt.org/c1f1f311-d95b-465f-94a6-317a246989d2/e96a7cca-1527-484c-a8e9-f79e1cf28136", "https://ms.immowelt.org/935854af-6f17-4d5d-b023-6647d4cc8d4d/87cabb52-19fe-4dca-a81d-9b0f6d4daa7c", "https://ms.immowelt.org/d22f872e-159f-4f19-bb2a-75f5b228899d/044b33f6-2258-490a-ae2a-52d9ce17b653", "https://ms.immowelt.org/58dca412-8d3b-415e-9a26-359678019657/0858d4e1-5dc0-4297-8a4f-b5db5dbeb8b8", "https://ms.immowelt.org/f9bab463-404a-46c6-990a-559df575f251/6d53c5c6-d652-4e1d-98e5-448095327b4f", "https://ms.immowelt.org/6559ac4a-0154-4e05-a366-dbf71d55ad3a/29c1a7fd-15be-4a1b-91ca-9db0f1c442f3", "https://ms.immowelt.org/85c20839-cb59-4728-be4d-78d1ffcb9274/f88983a1-2f68-4f01-af1a-cae1794eb9e4", "https://ms.immowelt.org/f0a33cc2-272c-4fe9-a229-0c65344655fb/1911e15f-4afd-4691-a583-109b097d5b1a", "https://ms.immowelt.org/26da2883-f715-4c66-a8d1-3e2b9550fcf3/90d1f6cc-c1ae-4b39-889a-79bf683b589e", "https://ms.immowelt.org/b51072d7-8214-4cb3-b4f1-4c2d9c08cc58/e2548663-d3a0-4cb8-b0f7-5aaacf362ba3", "https://ms.immowelt.org/b5dd6e96-9575-46aa-af37-c7a1914335de/e4d4ff07-527e-4aff-be0a-66c047b2b747", "https://ms.immowelt.org/4c4b10ce-78b2-449d-a1c4-38ef2035555b/8094732c-995f-4ee6-af5f-e52e6a68bac8", "https://ms.immowelt.org/36750323-149d-49f3-8859-a599078cdc7a/0c862b3d-b2f3-4b3a-b234-8e9299775647", "https://ms.immowelt.org/d1d807de-1e05-4eca-b9fd-01dd45660714/8d6cc502-9779-4a2e-bfea-d50b253ff0f3"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agwq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3163.32, "basicLivingSpace": 218.16, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ay645v", "basicContactPhone": "0931/382-7708"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a9245v"</t>
+          <t>"https://www.immowelt.de/expose/2af545v"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1658,12 +1573,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan"</t>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>3030.93</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1673,54 +1588,49 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>178.29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "TEPPICH", "FLIESEN", "Balkon"]</t>
+          <t>["barriefrei", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.630,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 815, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3030.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 360, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/56dbfa19-0b11-4212-a585-a3bb9055fc6c/55af236d-1cf3-446a-a9ea-5d847c1f3c78", "https://ms.immowelt.org/2321a506-3294-4da0-8ed9-9c32a877cc19/568e9ef6-6f64-4112-9523-9eaf25a3f970", "https://ms.immowelt.org/c49d4e0e-c519-4110-bf9d-48d46975f264/51ad8f90-ae3d-4f54-9436-a3ce93d787e0", "https://ms.immowelt.org/1efec59d-a37f-4e4e-81e0-d2638e029208/c9bd61b7-4af9-4819-822e-916b4c491efd", "https://ms.immowelt.org/35f3c816-30ad-4cfa-a370-9fd3df5a890b/0f5a8622-ff9b-48a3-b656-48f75cd9c811", "https://ms.immowelt.org/1d11277d-e06d-43d1-807a-35d99c5f5cd5/51935719-85d7-4a46-a718-1c1a7bedba2c", "https://ms.immowelt.org/3f9f17e0-3b0f-42d8-9623-bd41d7d12fc4/d88f57cc-ca14-47d1-b0ac-e5d037c3114a", "https://ms.immowelt.org/4c16ccd5-7611-496f-9fc2-a5cc9e95ca96/0cc9afbf-324b-4dc0-a841-e5417e3c909f", "https://ms.immowelt.org/23f4ce8d-d0f3-42f3-b7c2-cbea89a39473/eb285820-0b71-4189-8a94-494d832c127b", "https://ms.immowelt.org/36d590ab-2de9-46f3-8cef-b4af4efd9be0/8e11440a-7fe1-49cf-a002-13e4285760be", "https://ms.immowelt.org/8099beb8-56a4-493f-b95f-2490484605d5/fbb624d4-8b55-48d5-8b8f-5535a08872c5", "https://ms.immowelt.org/1978dbc1-a0ed-458a-abcd-d22f103809ef/1a5cc04f-0b65-48af-8e69-c835714ab2e7", "https://ms.immowelt.org/6b1ab129-3f95-42da-9d53-8088db0a9349/25c6e471-016e-4261-b4ae-a73987e4f403", "https://ms.immowelt.org/9b310d23-aa9d-41f5-8f34-29a9b7aa4471/bae39b36-c4b5-4cf8-882a-aca3ba40538c", "https://ms.immowelt.org/20713457-85cd-4f26-970b-eca4af0b6b71/be6308f1-d0c9-4aa5-8a10-3a4f1f28ff33"]</t>
+          <t>["https://ms.immowelt.org/2b7c4c91-7fac-4ddb-a032-3a51184dbb59/8f34d9b5-fec8-4e21-99c7-6f7a2921d4d1", "https://ms.immowelt.org/61a862a4-1bd5-4769-abb9-5e1d7113f8bc/88d5b2b5-7ef0-4388-8eb9-b7042670aee5", "https://ms.immowelt.org/37c438a9-8ae7-4d42-8006-bc3a55265670/12a6e3ea-2554-4920-bec1-7d536539c02d", "https://ms.immowelt.org/49abcb3b-4395-4691-8e92-b525edda30d4/f7c44e0e-0db0-456e-8cb8-845d816e37ec", "https://ms.immowelt.org/ce95a7e7-0ad6-4282-8ca2-5ce205488707/dbfb5e54-2bfb-4d01-91ec-1ca118a3a922", "https://ms.immowelt.org/b3cc6d40-e3b5-407e-ae5e-be0785a5a218/686cb7a1-8858-4011-a5e0-a8fd590fe4e6", "https://ms.immowelt.org/424d3898-11a5-419c-a472-b6bb5eed3e76/e7d72403-5394-43c9-a960-10468f29d064", "https://ms.immowelt.org/19d6858d-2cb5-437d-8cdb-6fb75d54c5e4/8e3114ed-77c5-47c0-8dce-725b44e8785c", "https://ms.immowelt.org/f536fdcb-a38d-4b90-beab-277e244cf6a7/ce23ee46-5ee8-4496-b672-c3ea031e92ac", "https://ms.immowelt.org/933295a3-d9da-4860-ad95-06490c6fddf4/182424c9-5902-4b40-be26-512097b49929", "https://ms.immowelt.org/a77d50f5-f8e0-4928-bcdc-2fa7c6e36e7d/05824030-0135-4ec2-93dc-52a0bf313587", "https://ms.immowelt.org/dbfe5771-25b1-460e-a2dd-140a19fae05f/4dd99d70-1f73-40c8-aab7-49051e0e90ec", "https://ms.immowelt.org/9689e92f-fdee-4ff1-99c1-89400857e515/a07a7b18-a41e-45a3-9fe1-f64211e577cd", "https://ms.immowelt.org/c3fdabd3-6c7c-4da9-9941-17117007bd14/16545b70-e49d-4309-85c5-a84123f7c8a2", "https://ms.immowelt.org/ec2b29d2-9e49-4ccb-965f-e26d155e848a/1c4de27d-2032-41cc-a466-04b10ad4f27d", "https://ms.immowelt.org/c2913eaa-8856-44c1-901b-0ae4b9a9ffa2/387a24b5-3c67-4740-ac58-0de078b68ff8", "https://ms.immowelt.org/81e05570-c572-4168-acf8-500cd9f74a65/796a2975-473d-4971-bd18-d2765832485e", "https://ms.immowelt.org/2c90ddab-a797-471f-a2aa-53b9ac172a1c/43c8617b-2da6-4fae-99be-395aaf2774e3", "https://ms.immowelt.org/24b3e778-e131-4042-ba05-7b63afaf1ce0/b0dfb227-b3fc-4605-b1c3-58573b4f24d1", "https://ms.immowelt.org/1d31929b-a5c2-410f-9bef-afc44f5e68c1/bc515335-0e9c-453b-bfcf-ae09a83fd65d", "https://ms.immowelt.org/d6e04616-c252-4d95-8d95-9d504b0fb3f4/07aa7bfb-71ab-4b13-bba6-99ba35097b80"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan", "basicObjectPricEur": 815, "basicLivingSpace": 40, "basicRooms": 1.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a9245v", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung", "basicObjectPricEur": 3030.93, "basicLivingSpace": 178.29, "basicRooms": 5, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2af545v", "basicContactPhone": "0931/382-7701"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2acjp5u"</t>
+          <t>"https://www.immowelt.de/expose/2a9245v"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1730,12 +1640,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 4"</t>
+          <t>"Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>815</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1745,54 +1655,49 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "TEPPICH", "FLIESEN", "Balkon"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 350, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 450, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.630,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 815, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/ea4c2f0b-394f-42bd-abb7-a4b389c1d47d/ff497d04-808a-4337-a3e3-2cf5516bba7a", "https://ms.immowelt.org/366939ca-53fe-483d-98bf-f2ee6195dfc0/05b63755-5ed7-47a4-8dff-3f7fe160860a", "https://ms.immowelt.org/985ea057-3cd8-4f50-902d-75b4fdfd5d80/985af61d-8d10-46f1-8973-3ca9e3128892", "https://ms.immowelt.org/d60ab3e7-f8b1-4a56-9fe7-cb3d6b251fde/39119cc8-1171-4282-96e2-7cd5703d138e", "https://ms.immowelt.org/74ddb531-c432-441d-a6d9-f10cae01c815/df9fece6-1aa2-4522-9459-fe31c0fdf7be", "https://ms.immowelt.org/90f66d94-cf4f-4975-a300-fd5fdaa057dd/e4aca2a3-3782-48dc-8ebd-01cb1c5d26af", "https://ms.immowelt.org/ed2b2673-027a-4c7d-b469-2d88936aa895/c5525e35-fb10-4c05-a6b3-3903c73a1cd5", "https://ms.immowelt.org/f444609a-1c93-44de-bc86-3bb35bbe475e/7d9d6f63-18c3-4a57-b866-759c4f01d683", "https://ms.immowelt.org/12808aff-d0d3-4ce7-90a1-158e4dc99040/43dea702-8f33-4bc8-b0cf-8fae834b567c", "https://ms.immowelt.org/8bff2dd9-2249-43dc-900d-40ea65a23212/251524b5-e8c7-49a9-b995-00de0bb85ffe", "https://ms.immowelt.org/64561934-cc49-4074-b25f-6a6806f1cdd0/7971880f-b488-43df-a3e6-ee4aec51ae9a", "https://ms.immowelt.org/3ed2c2ec-6223-4e04-99ae-df359a6754c4/1aa90e24-28b3-4bc9-99dd-a8b18c2af3bb", "https://ms.immowelt.org/43927a50-d329-414c-b0f5-ca4f4cd70c2d/5a27d374-b073-4a66-9c71-23db210c7bc5", "https://ms.immowelt.org/49b01679-3040-4664-8c50-17d1e81e7a90/6a4baaaa-1b65-421e-8e20-4ce145d2b6c7", "https://ms.immowelt.org/5be96dee-5832-445f-8d62-264839c37343/d5b9dc02-555e-49f4-8a72-b5fdde07f935", "https://ms.immowelt.org/6bc5b40d-e97f-4fba-8c44-222645648458/42d69790-b9a5-40e9-8b43-b7529c138a8a", "https://ms.immowelt.org/60dec9ad-25a6-4596-8475-c20d723fe05a/3ddd5c6e-9448-40f9-be5d-4065443127a7", "https://ms.immowelt.org/e105af84-a45f-4370-b285-74bee821da08/e6dc5c1d-ad19-4038-ada0-3eecaf37fcc2", "https://ms.immowelt.org/927559a3-db2e-471f-8de6-33b5b3a3a96a/45e4cf6e-8048-4fa0-a7e4-5494ea0506a4", "https://ms.immowelt.org/3b19e507-1683-467a-bcb1-c424c524ca2f/dc5a81f4-1daf-4f1f-b9c9-c23df92dcb8b", "https://ms.immowelt.org/f136ae8b-8c04-4e1f-be49-5859e9cc12aa/45b449b8-53d3-4136-a7a7-bb156ed3b3c2"]</t>
+          <t>["https://ms.immowelt.org/56dbfa19-0b11-4212-a585-a3bb9055fc6c/55af236d-1cf3-446a-a9ea-5d847c1f3c78", "https://ms.immowelt.org/2321a506-3294-4da0-8ed9-9c32a877cc19/568e9ef6-6f64-4112-9523-9eaf25a3f970", "https://ms.immowelt.org/c49d4e0e-c519-4110-bf9d-48d46975f264/51ad8f90-ae3d-4f54-9436-a3ce93d787e0", "https://ms.immowelt.org/1efec59d-a37f-4e4e-81e0-d2638e029208/c9bd61b7-4af9-4819-822e-916b4c491efd", "https://ms.immowelt.org/35f3c816-30ad-4cfa-a370-9fd3df5a890b/0f5a8622-ff9b-48a3-b656-48f75cd9c811", "https://ms.immowelt.org/1d11277d-e06d-43d1-807a-35d99c5f5cd5/51935719-85d7-4a46-a718-1c1a7bedba2c", "https://ms.immowelt.org/3f9f17e0-3b0f-42d8-9623-bd41d7d12fc4/d88f57cc-ca14-47d1-b0ac-e5d037c3114a", "https://ms.immowelt.org/4c16ccd5-7611-496f-9fc2-a5cc9e95ca96/0cc9afbf-324b-4dc0-a841-e5417e3c909f", "https://ms.immowelt.org/23f4ce8d-d0f3-42f3-b7c2-cbea89a39473/eb285820-0b71-4189-8a94-494d832c127b", "https://ms.immowelt.org/36d590ab-2de9-46f3-8cef-b4af4efd9be0/8e11440a-7fe1-49cf-a002-13e4285760be", "https://ms.immowelt.org/8099beb8-56a4-493f-b95f-2490484605d5/fbb624d4-8b55-48d5-8b8f-5535a08872c5", "https://ms.immowelt.org/1978dbc1-a0ed-458a-abcd-d22f103809ef/1a5cc04f-0b65-48af-8e69-c835714ab2e7", "https://ms.immowelt.org/6b1ab129-3f95-42da-9d53-8088db0a9349/25c6e471-016e-4261-b4ae-a73987e4f403", "https://ms.immowelt.org/9b310d23-aa9d-41f5-8f34-29a9b7aa4471/bae39b36-c4b5-4cf8-882a-aca3ba40538c", "https://ms.immowelt.org/20713457-85cd-4f26-970b-eca4af0b6b71/be6308f1-d0c9-4aa5-8a10-3a4f1f28ff33"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 4", "basicObjectPricEur": 350, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2acjp5u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan", "basicObjectPricEur": 815, "basicLivingSpace": 40, "basicRooms": 1.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a9245v", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2af545v"</t>
+          <t>"https://www.immowelt.de/expose/2agwq5u"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1802,12 +1707,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung"</t>
+          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3030.93</t>
+          <t>649</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1817,54 +1722,49 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>178.29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["barriefrei", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3030.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 360, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2b7c4c91-7fac-4ddb-a032-3a51184dbb59/8f34d9b5-fec8-4e21-99c7-6f7a2921d4d1", "https://ms.immowelt.org/61a862a4-1bd5-4769-abb9-5e1d7113f8bc/88d5b2b5-7ef0-4388-8eb9-b7042670aee5", "https://ms.immowelt.org/37c438a9-8ae7-4d42-8006-bc3a55265670/12a6e3ea-2554-4920-bec1-7d536539c02d", "https://ms.immowelt.org/49abcb3b-4395-4691-8e92-b525edda30d4/f7c44e0e-0db0-456e-8cb8-845d816e37ec", "https://ms.immowelt.org/ce95a7e7-0ad6-4282-8ca2-5ce205488707/dbfb5e54-2bfb-4d01-91ec-1ca118a3a922", "https://ms.immowelt.org/b3cc6d40-e3b5-407e-ae5e-be0785a5a218/686cb7a1-8858-4011-a5e0-a8fd590fe4e6", "https://ms.immowelt.org/424d3898-11a5-419c-a472-b6bb5eed3e76/e7d72403-5394-43c9-a960-10468f29d064", "https://ms.immowelt.org/19d6858d-2cb5-437d-8cdb-6fb75d54c5e4/8e3114ed-77c5-47c0-8dce-725b44e8785c", "https://ms.immowelt.org/f536fdcb-a38d-4b90-beab-277e244cf6a7/ce23ee46-5ee8-4496-b672-c3ea031e92ac", "https://ms.immowelt.org/933295a3-d9da-4860-ad95-06490c6fddf4/182424c9-5902-4b40-be26-512097b49929", "https://ms.immowelt.org/a77d50f5-f8e0-4928-bcdc-2fa7c6e36e7d/05824030-0135-4ec2-93dc-52a0bf313587", "https://ms.immowelt.org/dbfe5771-25b1-460e-a2dd-140a19fae05f/4dd99d70-1f73-40c8-aab7-49051e0e90ec", "https://ms.immowelt.org/9689e92f-fdee-4ff1-99c1-89400857e515/a07a7b18-a41e-45a3-9fe1-f64211e577cd", "https://ms.immowelt.org/c3fdabd3-6c7c-4da9-9941-17117007bd14/16545b70-e49d-4309-85c5-a84123f7c8a2", "https://ms.immowelt.org/ec2b29d2-9e49-4ccb-965f-e26d155e848a/1c4de27d-2032-41cc-a466-04b10ad4f27d", "https://ms.immowelt.org/c2913eaa-8856-44c1-901b-0ae4b9a9ffa2/387a24b5-3c67-4740-ac58-0de078b68ff8", "https://ms.immowelt.org/81e05570-c572-4168-acf8-500cd9f74a65/796a2975-473d-4971-bd18-d2765832485e", "https://ms.immowelt.org/2c90ddab-a797-471f-a2aa-53b9ac172a1c/43c8617b-2da6-4fae-99be-395aaf2774e3", "https://ms.immowelt.org/24b3e778-e131-4042-ba05-7b63afaf1ce0/b0dfb227-b3fc-4605-b1c3-58573b4f24d1", "https://ms.immowelt.org/1d31929b-a5c2-410f-9bef-afc44f5e68c1/bc515335-0e9c-453b-bfcf-ae09a83fd65d", "https://ms.immowelt.org/d6e04616-c252-4d95-8d95-9d504b0fb3f4/07aa7bfb-71ab-4b13-bba6-99ba35097b80"]</t>
+          <t>["https://ms.immowelt.org/cf8697dc-afcd-47ae-aadc-64c4cc78569c/35b4d352-660a-4816-94a6-619497123ae8", "https://ms.immowelt.org/a32b8f72-a566-4394-bea1-04e883e8fce2/7099cff9-9eea-4d1f-bad4-4033626afe54", "https://ms.immowelt.org/105a8a3c-c718-4c20-83ac-d0a5ef1a7f53/9db73218-715a-4963-942c-e41a29ef7b07", "https://ms.immowelt.org/64d9efa5-0a66-44fe-aa1e-b89f834ad546/6f687f3d-4a05-4f47-a1f8-8b78ca7e8bfe", "https://ms.immowelt.org/a3fe7335-2ba5-4c30-a137-cbfb5fd2a35c/20496698-5e1f-4243-9338-f56821682d4a", "https://ms.immowelt.org/a449833e-f4f4-43ff-8ebf-01bc5160e5c9/ccc566af-477b-4888-b03f-1cc64f4f1c45", "https://ms.immowelt.org/a6d17184-1155-46e9-af2c-d83d9e1be344/aab72d40-469f-486c-9add-806a5481ac6a", "https://ms.immowelt.org/a5271f16-acef-4db4-84ba-2b1a9ddc5892/57e11dd6-6321-45eb-85e0-aaa0f1e15bfe", "https://ms.immowelt.org/921ae069-2035-4dbb-a619-8ad9012a2442/0e6324ba-04b0-4141-bcc2-3b6cb33ac8ea", "https://ms.immowelt.org/6dc638c1-e4cd-4f0c-87b2-169cc34b0bd8/2af01fd5-93ce-4fc8-ae87-9a3817a2ef84", "https://ms.immowelt.org/a5894c49-800c-4d59-bb53-e598cf560634/0aa6a439-1071-40bd-a3ef-3bd2192fad8c", "https://ms.immowelt.org/1824d009-9f1e-4248-ac1b-d6198f9c17f3/ffd7b610-0d17-43b2-b15c-614cccf8be14", "https://ms.immowelt.org/45f31b8e-c2fc-45ff-8dac-c0bf8fea6e03/a11c6ffd-ddba-4524-9aca-520b2604d193", "https://ms.immowelt.org/5ec8ff49-d6b8-4dd0-bd1b-a04062520b58/b2e43f71-c2eb-4713-a428-6da937a58826"]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung", "basicObjectPricEur": 3030.93, "basicLivingSpace": 178.29, "basicRooms": 5, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2af545v", "basicContactPhone": "0931/382-7701"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agwq5u", "basicContactPhone": "+49 931 416616"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2auvq5u"</t>
+          <t>"https://www.immowelt.de/expose/2abjp5u"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1874,12 +1774,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 2"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>320</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1889,7 +1789,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1899,37 +1799,32 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "640", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/231cfc3d-f3ec-4eea-b3d8-d3f27a286b40/3058b16a-8a05-47d3-8512-63886059b512", "https://ms.immowelt.org/2660e3fb-eb65-4bd8-8844-5b667e3b062d/adc4fedc-4170-4ee1-a6c7-2d63780cfd0e", "https://ms.immowelt.org/dcb8e961-2856-45f0-8df9-13b8f9f4cadd/19a60ab9-5a93-4d74-be47-9ec0408e6e89", "https://ms.immowelt.org/4f79f7ef-0e51-49b2-ab74-287b9836cc3d/83e20f80-c025-439d-aace-e927f852a97b", "https://ms.immowelt.org/08d42db4-e036-4159-8269-dcb7bd5631a1/9cf8e0c1-3269-44d4-986b-bd625c8101ae", "https://ms.immowelt.org/2f13d3b5-8df8-4ac9-95af-5ba7f89e3dc1/d94afc12-acd9-4275-be9b-8fae1c182d5f", "https://ms.immowelt.org/0308a23f-5076-4db4-9f3b-c6024f595313/7143a6d8-6101-40b4-a19f-aba8e2a5a145", "https://ms.immowelt.org/814288ea-742a-4172-affa-ff8454f45731/e6ca30e2-64eb-4733-9789-940742a1d5d5", "https://ms.immowelt.org/ba83b81a-c23e-4eb8-8f5f-47a680847e30/7b794550-2c44-4fa8-9bb7-a6f8c6820a8a"]</t>
+          <t>["https://ms.immowelt.org/9ba52a69-6182-42ac-b135-aa03971398d6/ca08d294-c112-4542-9217-884244d0d406", "https://ms.immowelt.org/d2976824-6694-44cf-a9b6-27ee23e5ee7d/3b4552e6-7f48-4f9f-8935-65701930862a", "https://ms.immowelt.org/abd16da6-4e60-4077-9fde-df90d5c35ba9/70090f09-6bb6-46bb-8d61-ad69a6f9d337", "https://ms.immowelt.org/9241bd02-41ac-4193-ac08-cb9f982e4abd/4fa1546f-a5f4-4860-b778-44b40407edcb", "https://ms.immowelt.org/297cca9d-a7ba-4a67-92d9-93365151b7c5/d95e6e27-06ec-47b3-b787-69c008ab106a", "https://ms.immowelt.org/3b016415-9aa0-4c6f-bf4a-a08f53671a65/e9132359-9ac5-4683-82f7-c4fc218d8306", "https://ms.immowelt.org/4282be92-39da-4459-a8c5-34173ddc7b9f/a8aeb00d-0b5a-48c1-b780-9278afd054ca", "https://ms.immowelt.org/3f00ed7e-8bf1-401b-8f25-642aae0303e9/8f662276-261e-4853-9a0e-c16cf1a0cf16", "https://ms.immowelt.org/33cac6b2-f066-48ee-b86f-8f34b674b64f/8da9104b-a492-47aa-af05-5e118833566f", "https://ms.immowelt.org/ac6357bc-41cd-473b-8073-52aba4823641/a4383c9d-9081-4f5f-afb3-b59a77fa5b00", "https://ms.immowelt.org/d4734ed1-2904-4290-956a-e971b09473c8/b9a53b6e-72d5-418d-a421-3175e22ad8b1", "https://ms.immowelt.org/e5fc4d4c-767b-44a4-ac3c-a5c84a34fe37/4bf5f24d-e49d-4e14-bae7-18735aba7802", "https://ms.immowelt.org/2fa16c88-73cf-4bf1-9ce3-d457a8a03c5e/caa28f6b-695e-4ee6-bc27-d83d081028ad", "https://ms.immowelt.org/600d4913-62e1-4dd5-9431-46e3dc04f5c0/31f22258-60a5-4acd-874e-d498ea457528", "https://ms.immowelt.org/c78f9909-a0a5-427d-9b1f-a8553957ae21/3eb778af-08e1-40d5-b415-3df323797a59", "https://ms.immowelt.org/de687aba-16ee-476d-a8f9-30df0fe0ec6a/a9787e5c-ea67-488e-af3c-076b4e47fea9", "https://ms.immowelt.org/8b1beea6-698d-4888-97b4-de46bd7498ed/4f90c6e0-1013-4950-9c20-5c0ff18aad7d", "https://ms.immowelt.org/da588edf-b340-4add-adc0-fb3f0c96ad72/59acdf1e-b87f-4ddb-b8d5-ab9ae3aee1eb", "https://ms.immowelt.org/9642eeca-e631-4ac4-ae64-100ae2a9f0e9/996373fc-c623-4411-afbc-f2104a65e4a7", "https://ms.immowelt.org/773ea5c5-cb8c-413d-a62d-d05b7ed9e19e/ca6e755b-48d9-4b44-9df9-56eb13fc5024", "https://ms.immowelt.org/e7f711ba-ac7b-44fc-90e8-deda2cee8b0c/bd0ca932-727d-4d26-8518-5c0e19bf2160"]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2auvq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 2", "basicObjectPricEur": 320, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2abjp5u"}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>ContactData</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>BasicInfo</t>
         </is>
       </c>
@@ -491,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a4kg5w"</t>
+          <t>"https://www.immowelt.de/expose/2a7jp5u"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,12 +506,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik"</t>
+          <t>"**6er-Studenten-Wohngemeinschaft** Zimmer 03"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,49 +521,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["Neubau", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lindleinsm\u00fchle", "ZipCode": "97078", "LocationId": 496017, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lindleinsm\u00fchle)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lindleinsmuehle/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 900, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 350, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 450, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/5ffec635-8f46-4cc1-aadb-8b583ac94f49/a055949a-2702-4368-b5b3-7b0ed426b642", "https://ms.immowelt.org/8908f348-9991-4a07-ad66-d7d75614e10a/fca9e8be-88e9-418f-a5eb-9e0d5767a5f4", "https://ms.immowelt.org/cc8d5f7e-0ed9-47a3-818b-45790a8111fc/1ff9a9de-b0c2-4a71-935d-2fd2d9164ad1", "https://ms.immowelt.org/e595bf82-bf35-4dea-bb76-166a24244d92/420389cc-e1aa-4a32-94b8-9d099fca203b", "https://ms.immowelt.org/2512e689-4ae0-4ff9-9611-9f151ac18678/c4e6c45b-c697-41d7-a51f-d244d8f1a417", "https://ms.immowelt.org/e0483e5d-da13-4926-a03f-c238c4a327ae/737d7425-941f-4ec9-a90e-14f51213a74f", "https://ms.immowelt.org/23fe53b7-3d5a-4509-a222-5cb8ed3d516c/a46ccbc0-6aef-4e2f-ac21-6d245e72052d", "https://ms.immowelt.org/349313e4-73e0-40b7-b119-9fe817365e7a/7f23958c-275b-4a0e-8d30-ad6e79f317f7", "https://ms.immowelt.org/ac9b1a48-16e2-4119-98ba-9a1a890ff38b/c3716b49-d728-4b6a-900b-7d66e9cd4354", "https://ms.immowelt.org/e3084b71-0919-4d54-96d4-4d35ce184a9c/c4edd6a6-581b-4387-81e6-1df5e276dda7", "https://ms.immowelt.org/fa543343-fde7-4b91-b370-eee9cd1e0f90/62763f8c-bf88-4f8a-bbfc-b721085c2412", "https://ms.immowelt.org/2a737240-80f0-4710-a8f3-7c4f1c3f6233/08bf7007-717d-4120-b7cb-50bf91a1393b", "https://ms.immowelt.org/727ce8f8-3e8b-4da9-95ec-b855705005c5/07256d94-2372-4172-b756-d7101c994e5e"]</t>
+          <t>["https://ms.immowelt.org/fe183681-993b-477b-a269-ba2aacd54ef0/7bcd7d4d-fbb8-467d-9aa3-33f443642b34", "https://ms.immowelt.org/46c5b187-bff6-468b-b315-beb0a19eafb2/6bc6dd2a-a189-4ae8-a81f-91aec2205896", "https://ms.immowelt.org/0b58da30-c86b-4ed1-92ca-841e80151a2e/8fc32145-6105-4a25-889b-553a127f4e3f", "https://ms.immowelt.org/74d9a1c0-9ae5-4e79-9b83-9e7806a3e43d/c493b569-7da0-4121-9005-17d20e9d3bba", "https://ms.immowelt.org/3b3c49cc-1269-450a-a054-5d38c3eaaaa6/8e4044d4-16b6-4627-9149-fc9d08e8a1e3", "https://ms.immowelt.org/8a21c73e-5745-4f54-b7ea-d409eaf5dedd/860dacee-2ea5-4183-821a-27a20353e28e", "https://ms.immowelt.org/49e8319f-de9e-4af3-8c8a-a3a7100f9b14/b88a4626-66b2-43b9-87e9-8c5492621d36", "https://ms.immowelt.org/aa124d46-b56f-42e1-9539-03c3044a0221/f324173f-7828-48e6-b23b-2e793bbacf88", "https://ms.immowelt.org/a6724620-1ad3-4d60-8439-b39bf7b3c55e/8b19fbb8-5a5e-487c-9778-44733b07cb99", "https://ms.immowelt.org/24635e12-457a-4606-bcdd-3145440fd8a3/4253223d-c874-4c99-a9b7-22f0408b1035", "https://ms.immowelt.org/fcb7df00-8ebb-4f99-b23d-7dc4b34f32ed/8d2637dc-6790-4b7f-bbb9-4598d18f067b", "https://ms.immowelt.org/f9956bd2-42a2-4df8-89eb-1433ead99a14/e5cb6f52-801a-40ef-ab0b-6e38ace52d16", "https://ms.immowelt.org/bd2ba156-1a7b-44c3-a305-5b6e7fcc03b0/2d8af223-6125-4353-94e2-5db92c2f17b5", "https://ms.immowelt.org/d495f4a5-bf4d-4f18-a28c-b73c64f4b48b/a422666d-9a83-445c-8111-8c9f8b7564ef", "https://ms.immowelt.org/d7a87ad9-942b-4a16-8c85-6b750d3f4837/3e256e25-abd3-41bb-bcc1-2d1581375b19", "https://ms.immowelt.org/8726161f-2904-418f-9bb8-9659eef7edde/17f53156-2a98-4a5f-bccd-e2afe28bb30d", "https://ms.immowelt.org/1be203a7-e53b-48a2-8666-0648bdc2a925/9004c811-4067-44c2-a1cd-e41938558eeb", "https://ms.immowelt.org/863c8345-4fbc-48fe-baba-050d7bb31d3a/24c70629-b489-4091-8765-d461c2c99dc2", "https://ms.immowelt.org/07cd38f0-b9a3-4650-bda5-33fddaaabcd9/35066735-fb7a-4108-bba8-a47ad9213d63", "https://ms.immowelt.org/53410c99-dc70-4087-a1f4-7512f9a14858/b71bd22c-e54a-4e12-be35-f54ce1a04b52", "https://ms.immowelt.org/f8a3aff2-4de9-464c-bdd7-9d13e84c53fa/a41b36d6-7595-489c-a489-9bbfb0bf72be"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik", "basicObjectPricEur": 700, "basicLivingSpace": 47, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a4kg5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**6er-Studenten-Wohngemeinschaft** Zimmer 03", "basicObjectPricEur": 350, "basicLivingSpace": 25, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2a7jp5u"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2am365w"</t>
+          <t>"https://www.immowelt.de/expose/2avdc5u"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -568,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Helle Wohnung mit Balkon in der vorderen Sanderau!"</t>
+          <t>"Maisonettewohnung im Gr\u00fcnen! 3,5-Zimmer Wohnung im W\u00fcrzburger Hubland zu vermieten"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -583,49 +593,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["Kelleranteil", "GEPFLEGT", "FERN", "kable_sat_tv", "Balkon"]</t>
+          <t>["WANNE", "Kelleranteil", "Personenaufzug", "FERN", "Zentralheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.400,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 890, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3.735,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1245, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1455, "Unit": "EUR"}, {"NumberValue": 35, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0cd8c2fc-f0f8-4803-b570-0bc0474a7ed0/ff573215-5a42-4351-ba40-cfa78f0e290f", "https://ms.immowelt.org/9f20ac68-d479-4226-9c79-53570da7eb1d/e2de2ea2-5dcd-44f2-94d5-5e6076766679", "https://ms.immowelt.org/65a23389-315b-4e17-9a6f-c8bcf8e849a7/ef1d6fb2-36ee-4c22-9b98-1f57d5548397", "https://ms.immowelt.org/57d6c377-cfc6-48d1-a1d5-1088cf6393f3/bbd12d5a-7478-4c07-bfbf-ce2e86b907b4", "https://ms.immowelt.org/0a903ef0-4c0b-431f-af10-207debb8ec0e/ced5048e-e943-4b27-acce-5dba9b2424d9", "https://ms.immowelt.org/c5093796-6848-4a03-8695-1e10dfd39fb2/ee4c2860-ca11-43ee-b24a-c8691f01283c"]</t>
+          <t>["https://ms.immowelt.org/6200e32c-6fcd-4f6c-97fe-2c9faf4ae154/c53110e2-86f4-4f82-b058-33c5d7d9576f", "https://ms.immowelt.org/2e3b3849-4222-4783-800a-ebe523284569/b71f8acf-58d9-456b-a679-64a35a645bc9", "https://ms.immowelt.org/0cd18872-ca7c-424c-8dac-3cfb206f24bd/f379c80e-5f74-4ba4-a7a5-3ba291b4e654", "https://ms.immowelt.org/ed5de35f-da76-47b9-b295-c2425d1b5aca/9454bb97-792a-4c02-8bcf-47bc3c4e4ae2", "https://ms.immowelt.org/f5b11bc2-83bc-49f4-9966-96385643dddc/e46e5a13-3c96-4ad6-916d-be8d681cb1b4", "https://ms.immowelt.org/f2bc4167-d23b-4e88-b8b1-0eb361b6a8ff/1e9520dc-163e-4c36-bbcb-f025d8b7a9f0", "https://ms.immowelt.org/551282a4-e5f3-4fb7-a675-9dbf1b440cea/43d3217f-7c0b-4a6f-9158-2d4a94dc4927", "https://ms.immowelt.org/3cd1fbfd-23ff-40f0-bc20-cdd818f518ad/cc47b415-b854-45fa-80dd-095d6fbf1e20", "https://ms.immowelt.org/3d2a4695-b2cc-4bb5-bd8d-b20204af4d4b/ce84547e-7dc6-470c-8779-56733e8441d5", "https://ms.immowelt.org/160ca5ef-7808-4a48-bf63-7dbb15feb798/af201870-9d9b-4aa0-b6ca-051fda7e4fcd"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle Wohnung mit Balkon in der vorderen Sanderau!", "basicObjectPricEur": 700, "basicLivingSpace": 58, "basicRooms": 2, "basicConstructionYear": 1955, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2am365w", "basicContactPhone": "0931 46079392"}</t>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Maisonettewohnung im Gr\u00fcnen! 3,5-Zimmer Wohnung im W\u00fcrzburger Hubland zu vermieten", "basicObjectPricEur": 1245, "basicLivingSpace": 84, "basicRooms": 3.5, "basicConstructionYear": 2018, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2avdc5u"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2a2jp5u"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -635,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"**6er-Studenten-Wohngemeinschaft** Zimmer 06"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -650,49 +665,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 350, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/6c9c9aa5-28aa-4658-9676-8f2eb6232fc3/a8bf6fcb-8504-42a5-a8ea-aab8639f0324", "https://ms.immowelt.org/71ad57b0-cd73-42b5-88a4-e720b0f3ccb4/28829800-366a-4f99-a5f5-96e014d19695", "https://ms.immowelt.org/85ba6bcf-1b3b-4cab-803d-561b4202da63/c4816b95-10d7-47ee-84c6-002a7998059c", "https://ms.immowelt.org/7a25ed33-1f97-4996-a240-ed294b6b3d27/5a3fa0b8-62c4-49d1-8187-548198107fbd", "https://ms.immowelt.org/0a1153d5-e6c3-4fed-a9c5-f3effb423da2/320e4699-f1fb-4a79-89fb-d5366ac37391", "https://ms.immowelt.org/60af9e01-8fab-4233-8226-b0bb7e5dbc5b/45b1b66b-2066-4db6-a4c0-e3dbf8f3a375", "https://ms.immowelt.org/af164eb0-97d6-442b-8091-1057c6f0cd6d/55fcdf1a-71d0-4e1b-82a1-50bb2018b4e8", "https://ms.immowelt.org/40a9c208-00f4-4abf-b569-256c2585bd03/6014b924-788b-450c-9333-7328e0dda894", "https://ms.immowelt.org/61035a76-cf07-4a1b-adca-eb55b80feebf/b324d570-253b-4283-99b7-ec8f8c63b9e6", "https://ms.immowelt.org/3f2d0428-b25f-40a0-a736-deb477fb1627/579e230b-e5f6-46d2-abeb-209350c9fbd4", "https://ms.immowelt.org/7cf6a9c4-cdea-40bb-8df6-dea12f7e5b56/ba839c60-7885-4e42-9d8e-3b298a43e7b2", "https://ms.immowelt.org/20d086bf-8f3a-43ff-8176-88974f8f14ec/87c6b2a9-10c9-4eca-b1e1-332249a8f64d", "https://ms.immowelt.org/45313ac0-c22d-4b2f-bff0-19abcec412d0/fdeb1eac-a28b-4650-9204-00ecb796c726", "https://ms.immowelt.org/0613d5ff-200a-4942-8a1d-fac72ddd034e/007d7c64-7de9-4be9-9393-7581c09644c1", "https://ms.immowelt.org/46319782-eb56-4e58-96be-704561f11374/affa5f16-d3cb-4eb3-aa4f-3e47b46ffcda", "https://ms.immowelt.org/b2669387-298b-40e9-8a60-b3ce120b9f44/3916c8cd-422c-4df7-a24d-31a962a70a45", "https://ms.immowelt.org/b1482d44-8adc-4ded-ac27-f4e937495bd6/73f25529-a0ea-4beb-a051-e3ac4ae4c1bb", "https://ms.immowelt.org/9e0925ba-7d56-4b80-8472-e86488d523d8/b90bc6fb-e71d-4987-aa74-ee8ee03b79db", "https://ms.immowelt.org/27686bf6-1d1d-4512-be16-a8584ccf7baf/3c31e97d-6ab0-4178-91ab-6027e1178f7c", "https://ms.immowelt.org/70c181c6-fb02-4173-9260-c2f79333ea57/41589de9-d949-469f-b697-7a7140e025eb", "https://ms.immowelt.org/85dac48e-bd02-4bf5-94ad-079b3deaf31c/7b6eb4d3-7f7a-4f48-9ead-c9d76b87d4ab"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**6er-Studenten-Wohngemeinschaft** Zimmer 06", "basicObjectPricEur": 250, "basicLivingSpace": 9.5, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2a2jp5u"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2affg5v"</t>
+          <t>"https://www.immowelt.de/expose/2afjb5u"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -702,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel"</t>
+          <t>"Exklusive 2 Zimmer Wohnung mit gro\u00dfer Dachterrasse in Bester Lage von W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -717,7 +737,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>108</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -727,39 +747,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["WANNE", "Etagenheizung", "moebliert", "Einbauk\u00fcche"]</t>
+          <t>["WANNE", "DUSCHE", "Kelleranteil", "GAS", "Zentralheizung", "gartennutzung", "PARKETT", "frei", "Einbauk\u00fcche", "Carport", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97082", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.250,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1125, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Nettokaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1180, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 150, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 150, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1480, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/ed2e6e9a-a8cf-4e9e-89c9-92ebe0bd9ab9/3c8c330e-15e6-439e-be44-6f02de4b9dd5", "https://ms.immowelt.org/e963b58b-6a58-4830-8e37-e9e446a7ca40/edda2664-fb0a-48dc-bfe4-3b20c61c8b1d", "https://ms.immowelt.org/6945f917-297e-4dfb-b166-4245a2333e2c/5a890870-d05f-4063-b0e5-63ad31ca7572", "https://ms.immowelt.org/ffa99189-2ca2-46fb-aa14-f6fda02818ae/6a859704-19f9-4907-92f9-a5b7fcbe4248", "https://ms.immowelt.org/86e1504e-0c46-4800-a6e0-cf24601a2518/bf8eec93-53d3-4368-82bc-ca50c66a45a1", "https://ms.immowelt.org/f15519e3-ee04-4739-b40a-ce0f84fb29ff/2c2c7101-3482-420d-826e-9efd57863f1e", "https://ms.immowelt.org/54ea5d30-e104-4f39-8a41-429b5961bbd1/55bee8cc-3633-4bce-9b47-af1971f0523b", "https://ms.immowelt.org/e88c0a6a-0da8-4b88-8865-a9f37cbd0e2d/9452b370-8d6d-4324-8a35-57b8a433c48a"]</t>
+          <t>["https://ms.immowelt.org/80e10bdc-5313-4b24-9d9b-a3908480a667/a770519f-811e-4465-a281-e3979289747b", "https://ms.immowelt.org/c5a1154f-7e6d-4183-a8d6-ab2120e644b1/2282dbea-42de-456e-b843-77f397ccb563", "https://ms.immowelt.org/49de1f0e-5397-4d33-bd5f-7fc4075ac446/cb3adc25-433e-42ef-9517-d79a6fda1495", "https://ms.immowelt.org/983e2226-03b6-4d9d-978c-167e0ff3a822/1c8851ce-240d-4a3c-a46b-3f659d7444bf", "https://ms.immowelt.org/dadb84ba-0d0b-44a4-8914-e64f8ddb3291/e7a0eb60-47fa-4be0-a498-f222ed8d8a66", "https://ms.immowelt.org/9a9f11e5-6c75-4912-b7d1-1330e8834e45/a96ac5b4-db7f-4c45-b02f-b4546f66f610", "https://ms.immowelt.org/cff17a6d-edd1-4b77-9d2a-aeeaf275d04e/cf8d67d0-edf5-4194-a3b5-7a3b395b636c", "https://ms.immowelt.org/119b4911-6ee1-4448-997c-f2a0577ea778/c4a99728-190e-4b1c-a524-ea92480f9047", "https://ms.immowelt.org/b165dcb3-35d9-4147-bd24-ee92786eb69e/9aab330a-e585-4173-9179-4cfe0d7b1b92", "https://ms.immowelt.org/6b802c77-1df7-44bb-9606-d9cb18366f5f/b3b2fe72-7cb8-4f36-8fe8-beb506e92bf4", "https://ms.immowelt.org/f538df3f-5255-49c1-acde-9a1ec2740211/e7ef9271-c082-4fd8-86be-ff977777b1ff", "https://ms.immowelt.org/c43fd7ad-e613-4c53-909e-876add21a5ff/8561221c-f7ce-4cc3-b26e-15a9328ed3b5"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel", "basicObjectPricEur": 1125, "basicLivingSpace": 60, "basicRooms": 2, "basicConstructionYear": 1957, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2affg5v", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"companyName": "Hausverwaltung Meixner GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97080", "street": "Schweinfurter Stra\u00dfe 4"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_b2f9dc09a4ab4fab82b0ea47bf0d7ef6.jpg", "salutation": "Herr", "firstName": "Daniel", "lastName": "Gransitzki"}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 2 Zimmer Wohnung mit gro\u00dfer Dachterrasse in Bester Lage von W\u00fcrzburg", "basicObjectPricEur": 1180, "basicLivingSpace": 108, "basicRooms": 2, "basicConstructionYear": 1994, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afjb5u"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2al3d5u"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -769,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Helle 3 1/2-Zimmer-Wohnung mit Balkon in W\u00fcrzburg-Versbach"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>910</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -784,49 +809,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Balkon"]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Versbach", "ZipCode": "97078", "LocationId": 496021, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1820,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Versbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-versbach/mietspiegel"}}, "DataTable": [{"NumberValue": 910, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 220, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1130, "Unit": "EUR"}, {"NumberValue": 35, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/1376c411-1249-4777-8436-4720ed5015b9/7624aad5-c2e7-495c-bf71-dfb264e70806", "https://ms.immowelt.org/5beae563-3018-401b-9d35-f50220113829/e9219753-25f0-4fee-b7dd-506cd767bb8f", "https://ms.immowelt.org/9353af08-60ab-49ef-9801-25bfc2a17d0a/b514d2d9-5efa-456b-ac9b-52da3793ea23", "https://ms.immowelt.org/e8d8d32e-6f58-40ee-881b-ee3f94d1e610/1784fb19-9afc-4661-a5ad-e3bbaf39f4d1", "https://ms.immowelt.org/eadd79e8-7067-498a-97cb-f4a4fb7500d7/558ed904-04ec-409e-81e0-4ad2ea69c47a", "https://ms.immowelt.org/318b0127-d880-42b7-8c43-bf905d065a75/ee14b04b-7ee5-4c8d-8316-c9248683d4f7", "https://ms.immowelt.org/ee5b637e-ac7d-42d9-8d3b-f5fdfaa908f3/fc5f7aae-1a3d-491c-91b2-d875242bd136", "https://ms.immowelt.org/38237aa7-2353-420c-a756-a137464388e5/de6660da-f084-44b0-b8ea-4bb27ddb5673"]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>""</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>["GAS"]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle 3 1/2-Zimmer-Wohnung mit Balkon in W\u00fcrzburg-Versbach", "basicObjectPricEur": 910, "basicLivingSpace": 96, "basicRooms": 3.5, "basicConstructionYear": 1974, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2al3d5u", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a54x5v"</t>
+          <t>"https://www.immowelt.de/expose/2acjp5u"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -836,12 +866,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 4"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -851,49 +881,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Zentralheizung"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Rottenbauer", "ZipCode": "97084", "LocationId": 496020, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1800", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Rottenbauer)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-rottenbauer/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1100, "Unit": "EUR"}, {"NumberValue": 20, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 350, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 450, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/ea4c2f0b-394f-42bd-abb7-a4b389c1d47d/ff497d04-808a-4337-a3e3-2cf5516bba7a", "https://ms.immowelt.org/366939ca-53fe-483d-98bf-f2ee6195dfc0/05b63755-5ed7-47a4-8dff-3f7fe160860a", "https://ms.immowelt.org/985ea057-3cd8-4f50-902d-75b4fdfd5d80/985af61d-8d10-46f1-8973-3ca9e3128892", "https://ms.immowelt.org/d60ab3e7-f8b1-4a56-9fe7-cb3d6b251fde/39119cc8-1171-4282-96e2-7cd5703d138e", "https://ms.immowelt.org/74ddb531-c432-441d-a6d9-f10cae01c815/df9fece6-1aa2-4522-9459-fe31c0fdf7be", "https://ms.immowelt.org/90f66d94-cf4f-4975-a300-fd5fdaa057dd/e4aca2a3-3782-48dc-8ebd-01cb1c5d26af", "https://ms.immowelt.org/ed2b2673-027a-4c7d-b469-2d88936aa895/c5525e35-fb10-4c05-a6b3-3903c73a1cd5", "https://ms.immowelt.org/f444609a-1c93-44de-bc86-3bb35bbe475e/7d9d6f63-18c3-4a57-b866-759c4f01d683", "https://ms.immowelt.org/12808aff-d0d3-4ce7-90a1-158e4dc99040/43dea702-8f33-4bc8-b0cf-8fae834b567c", "https://ms.immowelt.org/8bff2dd9-2249-43dc-900d-40ea65a23212/251524b5-e8c7-49a9-b995-00de0bb85ffe", "https://ms.immowelt.org/64561934-cc49-4074-b25f-6a6806f1cdd0/7971880f-b488-43df-a3e6-ee4aec51ae9a", "https://ms.immowelt.org/3ed2c2ec-6223-4e04-99ae-df359a6754c4/1aa90e24-28b3-4bc9-99dd-a8b18c2af3bb", "https://ms.immowelt.org/43927a50-d329-414c-b0f5-ca4f4cd70c2d/5a27d374-b073-4a66-9c71-23db210c7bc5", "https://ms.immowelt.org/49b01679-3040-4664-8c50-17d1e81e7a90/6a4baaaa-1b65-421e-8e20-4ce145d2b6c7", "https://ms.immowelt.org/5be96dee-5832-445f-8d62-264839c37343/d5b9dc02-555e-49f4-8a72-b5fdde07f935", "https://ms.immowelt.org/6bc5b40d-e97f-4fba-8c44-222645648458/42d69790-b9a5-40e9-8b43-b7529c138a8a", "https://ms.immowelt.org/60dec9ad-25a6-4596-8475-c20d723fe05a/3ddd5c6e-9448-40f9-be5d-4065443127a7", "https://ms.immowelt.org/e105af84-a45f-4370-b285-74bee821da08/e6dc5c1d-ad19-4038-ada0-3eecaf37fcc2", "https://ms.immowelt.org/927559a3-db2e-471f-8de6-33b5b3a3a96a/45e4cf6e-8048-4fa0-a7e4-5494ea0506a4", "https://ms.immowelt.org/3b19e507-1683-467a-bcb1-c424c524ca2f/dc5a81f4-1daf-4f1f-b9c9-c23df92dcb8b", "https://ms.immowelt.org/f136ae8b-8c04-4e1f-be49-5859e9cc12aa/45b449b8-53d3-4136-a7a7-bb156ed3b3c2"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 900, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a54x5v"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 4", "basicObjectPricEur": 350, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2acjp5u"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a5ll5v"</t>
+          <t>"https://www.immowelt.de/expose/2axhp5u"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -903,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*"</t>
+          <t>"**6er-Studenten-Wohngemeinschaft** Zimmer 01"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1483.93</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -918,49 +953,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>102.34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["Neubau", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Kunststofffenster"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "Street": "Amailienstr. 6", "LocationId": 496004, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1483.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 290, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 400, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/46db7f7a-e5d8-4eb4-a01b-a2d4e62ab2be/bb78636c-2f3f-4c2e-a53b-ef1fa9683a15", "https://ms.immowelt.org/b16389b6-eb92-42af-8130-0a76d6025358/fce845ed-0986-423b-8c1e-afd09a953917"]</t>
+          <t>["https://ms.immowelt.org/3be4158b-0375-434c-a232-1806713f765a/beb677a2-5c0e-4c1d-ab73-09023b23e19f", "https://ms.immowelt.org/19ed3046-f433-4278-a787-4e0642f59a2d/a0b3fba1-2532-4828-acaf-ea6f31ed8461", "https://ms.immowelt.org/dfe294f9-3a27-425b-bd2d-eef2fe34f5da/3167a60c-c723-4f32-92e7-433504b00b5a", "https://ms.immowelt.org/efde98aa-dd71-4296-b862-a5e72f100a4b/3465fe5e-d33e-4a88-a899-b4ac73c00dd0", "https://ms.immowelt.org/1c79bf24-1bd7-4be9-b36a-887c4581e123/9f69adf5-efb0-44c2-9c97-87a31144e0a2", "https://ms.immowelt.org/7f35a7af-7c68-45dd-95a2-d6d8878084ee/7aab914c-31b1-4ef3-969a-0953c37eda5b", "https://ms.immowelt.org/42e0f02c-35c3-4837-895b-5937d229ec30/ffe193e8-9d42-462f-8024-8bf9ec04b3ce", "https://ms.immowelt.org/79638434-6688-4770-bfc9-cb5bffa7d782/99a3de48-e916-4250-b16f-a637de51e66c", "https://ms.immowelt.org/8d0f177b-425e-4a0f-b487-7bcb5a93ed9b/badd4b4e-60c7-4351-8d57-265bd43e5057", "https://ms.immowelt.org/aae86865-b10d-4317-8018-6b05a00c6b1b/6aff19b9-3730-408d-9def-78dd52872ae4", "https://ms.immowelt.org/7921dc82-5ef3-4102-a042-b452c98db5f7/5981df71-17fe-4d2c-b85a-060bc5b655d7", "https://ms.immowelt.org/a3c7de71-daa8-485e-a894-e9ecd1188e51/729d460b-c4e6-454d-88cb-18b6f97f090f", "https://ms.immowelt.org/45e308b5-bfa0-4309-ac45-d1cf3412be03/8720c4f4-80c9-48bd-ad0a-56a00aaeaca1", "https://ms.immowelt.org/ee770125-e9e9-40a8-b619-de4bb787d250/31efe680-55c8-4f28-9712-4583e892d5fc", "https://ms.immowelt.org/857ec9e4-0a75-40c2-95d3-53a22538e0ea/beee0f55-f29e-4efc-be23-64dec4d16f7c", "https://ms.immowelt.org/e0ed63d8-233c-47b5-87e1-72341730a9dc/5bb6c691-46b4-4131-9b02-69f3891af801", "https://ms.immowelt.org/ecf77cca-1af6-405f-bd30-6659b93e0ddf/6f336ce6-29db-4798-ba70-763fc0d8f62f", "https://ms.immowelt.org/a8ba76f1-6900-4563-b209-54c842fd3c3b/bbd7da36-90c5-4424-a5c0-f0dbba9d1ab5", "https://ms.immowelt.org/7273d126-66be-481d-a726-90be5ea4fa17/e577e81c-cbdc-4c58-86cf-28e411fc8326", "https://ms.immowelt.org/f212ebad-a069-4883-b356-d0628857b875/9f1d76ad-1223-48e4-bb54-cbe92280755d", "https://ms.immowelt.org/30cf1a21-fcbc-4dd4-84e0-6431bdd9932a/24eb400f-74a4-4b08-9797-964629f78245"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*", "basicObjectPricEur": 1483.93, "basicLivingSpace": 102.34, "basicRooms": 4, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2a5ll5v", "basicContactPhone": "0931/382-7701"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**6er-Studenten-Wohngemeinschaft** Zimmer 01", "basicObjectPricEur": 300, "basicLivingSpace": 16, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amailienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2axhp5u"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2abty5v"</t>
+          <t>"https://www.immowelt.de/expose/2abjp5u"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -970,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung"</t>
+          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 2"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>320</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -985,49 +1025,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 430, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 115, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "640", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7a4af935-fdca-42b8-b470-a905b68d671e/717dc8fc-8461-4d19-89e3-3eaf6c5bfb76"]</t>
+          <t>["https://ms.immowelt.org/9ba52a69-6182-42ac-b135-aa03971398d6/ca08d294-c112-4542-9217-884244d0d406", "https://ms.immowelt.org/d2976824-6694-44cf-a9b6-27ee23e5ee7d/3b4552e6-7f48-4f9f-8935-65701930862a", "https://ms.immowelt.org/abd16da6-4e60-4077-9fde-df90d5c35ba9/70090f09-6bb6-46bb-8d61-ad69a6f9d337", "https://ms.immowelt.org/9241bd02-41ac-4193-ac08-cb9f982e4abd/4fa1546f-a5f4-4860-b778-44b40407edcb", "https://ms.immowelt.org/297cca9d-a7ba-4a67-92d9-93365151b7c5/d95e6e27-06ec-47b3-b787-69c008ab106a", "https://ms.immowelt.org/3b016415-9aa0-4c6f-bf4a-a08f53671a65/e9132359-9ac5-4683-82f7-c4fc218d8306", "https://ms.immowelt.org/4282be92-39da-4459-a8c5-34173ddc7b9f/a8aeb00d-0b5a-48c1-b780-9278afd054ca", "https://ms.immowelt.org/3f00ed7e-8bf1-401b-8f25-642aae0303e9/8f662276-261e-4853-9a0e-c16cf1a0cf16", "https://ms.immowelt.org/33cac6b2-f066-48ee-b86f-8f34b674b64f/8da9104b-a492-47aa-af05-5e118833566f", "https://ms.immowelt.org/ac6357bc-41cd-473b-8073-52aba4823641/a4383c9d-9081-4f5f-afb3-b59a77fa5b00", "https://ms.immowelt.org/d4734ed1-2904-4290-956a-e971b09473c8/b9a53b6e-72d5-418d-a421-3175e22ad8b1", "https://ms.immowelt.org/e5fc4d4c-767b-44a4-ac3c-a5c84a34fe37/4bf5f24d-e49d-4e14-bae7-18735aba7802", "https://ms.immowelt.org/2fa16c88-73cf-4bf1-9ce3-d457a8a03c5e/caa28f6b-695e-4ee6-bc27-d83d081028ad", "https://ms.immowelt.org/600d4913-62e1-4dd5-9431-46e3dc04f5c0/31f22258-60a5-4acd-874e-d498ea457528", "https://ms.immowelt.org/c78f9909-a0a5-427d-9b1f-a8553957ae21/3eb778af-08e1-40d5-b415-3df323797a59", "https://ms.immowelt.org/de687aba-16ee-476d-a8f9-30df0fe0ec6a/a9787e5c-ea67-488e-af3c-076b4e47fea9", "https://ms.immowelt.org/8b1beea6-698d-4888-97b4-de46bd7498ed/4f90c6e0-1013-4950-9c20-5c0ff18aad7d", "https://ms.immowelt.org/da588edf-b340-4add-adc0-fb3f0c96ad72/59acdf1e-b87f-4ddb-b8d5-ab9ae3aee1eb", "https://ms.immowelt.org/9642eeca-e631-4ac4-ae64-100ae2a9f0e9/996373fc-c623-4411-afbc-f2104a65e4a7", "https://ms.immowelt.org/773ea5c5-cb8c-413d-a62d-d05b7ed9e19e/ca6e755b-48d9-4b44-9df9-56eb13fc5024", "https://ms.immowelt.org/e7f711ba-ac7b-44fc-90e8-deda2cee8b0c/bd0ca932-727d-4d26-8518-5c0e19bf2160"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung", "basicObjectPricEur": 430, "basicLivingSpace": 64, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2abty5v", "basicContactPhone": "+4922892939484"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 2", "basicObjectPricEur": 320, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2abjp5u"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aeal5v"</t>
+          <t>"https://www.immowelt.de/expose/2a74t5t"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1037,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz"</t>
+          <t>"Wohnung im Hubland, 2 Z., 82,1 qm, EBK und Balkon"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1052,49 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Souterrain", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "frei", "Einbauk\u00fcche", "Kunststofffenster"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERN", "Fu\u00dfbodenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Rottendorferstra\u00dfe 55", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Dr.-Georg-Fuchs-Str. 12", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "830", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 415, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Monatsmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1149, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 189, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 72, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1410, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/a3c1d1a9-92f0-4260-b2b3-41eb1b7cb966/c490aefe-bdcb-4b73-9783-a0bcc158c257", "https://ms.immowelt.org/b05abc2c-f624-4093-86a5-80f153fa6197/05af8f24-b7e4-4ba5-872c-39eed41b4cb5", "https://ms.immowelt.org/5be4bd8f-231a-44d8-8f0b-608a4f6581bd/0af81664-7d97-498f-8adf-3b5b5fe348ae", "https://ms.immowelt.org/725fb4fb-900c-4cd8-9554-dd83fc7bd725/99474ade-0e13-4d47-bf95-373cf4af43ec", "https://ms.immowelt.org/a0bb9c06-d60a-40e4-9521-94d9c183a14d/93799d3a-657d-4385-b487-2691349273e9", "https://ms.immowelt.org/3b4d1b7b-a5fe-4a37-b98d-6fc308d03c5b/c80e2b27-9270-47ef-b292-eb1efd72ee07"]</t>
+          <t>["https://ms.immowelt.org/631b0761-9370-4c1d-ab34-1fb936af9984/deb95e4b-9ed0-4b5c-8318-8f48e38ba15f", "https://ms.immowelt.org/b4f97054-04c3-41ba-aea9-9c4377cc56da/31579a38-64ab-4d9e-a70b-ac0797fa397f", "https://ms.immowelt.org/ab43d2fe-8139-4880-ba9d-67b7b77c9ba4/e62e4dce-2ea7-4834-842a-81f947d585d0", "https://ms.immowelt.org/5f52dc72-116e-4561-9d5c-7871baad9f35/e9ee4da6-e783-4d9c-94e0-f1379c43669c", "https://ms.immowelt.org/39cc785f-3fda-46ac-8c44-d65abc2e94b6/d5b82de3-ef82-40dc-ba20-6ba47d8fc766", "https://ms.immowelt.org/7ab92c0c-fa40-41f7-b445-8345735a3da5/fe63a1e2-693c-4984-97c5-b63bb247bc04", "https://ms.immowelt.org/bc8da073-60c8-4457-8e5b-c785f15dda3a/f9ad52a2-aa1a-4442-a4ba-707e393aa74f", "https://ms.immowelt.org/c50f8091-632b-443d-aa73-c772e843b436/b23554c7-3ce0-4f1e-8e03-8298eabc4859"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz", "basicObjectPricEur": 415, "basicLivingSpace": 26, "basicRooms": 1, "basicConstructionYear": 1950, "basicCity": "W\u00fcrzburg", "basicStreet": "Rottendorferstra\u00dfe 55", "basicUrl": "https://www.immowelt.de/expose/2aeal5v", "basicContactMobile": "+49 176 21469496"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung im Hubland, 2 Z., 82,1 qm, EBK und Balkon", "basicObjectPricEur": 1149, "basicLivingSpace": 82.1, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Dr.-Georg-Fuchs-Str. 12", "basicUrl": "https://www.immowelt.de/expose/2a74t5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2av845v"</t>
+          <t>"https://www.immowelt.de/expose/2a4jp5u"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1104,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon"</t>
+          <t>"**6er-Studenten-Wohngemeinschaft** Zimmer 05"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1797.71</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1119,49 +1169,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>123.98</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1797.71, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 400, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/34aad469-3611-425d-9832-c02c7060cb23/77ba9d6f-e612-4962-9317-bd0107dc25f7", "https://ms.immowelt.org/8ea07a0f-c3a2-4e3e-a9d2-fe6544358d93/58dbc143-5e69-4062-9eae-b767cf0c69b1", "https://ms.immowelt.org/6b6cd2cc-a04d-480c-949a-1a21bbd7e1d4/51babd4b-8fbc-456a-862b-c4ebde7dc41a", "https://ms.immowelt.org/a8f09c5d-403e-4528-a15f-17ef6819f51c/15cf94e1-0865-4970-bdbc-7eeb2e4e321a", "https://ms.immowelt.org/a74342e9-df14-4a0d-b4c6-600423e5e886/caed2534-21fc-4d11-981c-a2164e56802b", "https://ms.immowelt.org/57b465e5-f400-4f58-8856-6a92ccb5dc5c/e24df36d-9d71-44a2-bd39-c0146b4df941", "https://ms.immowelt.org/4d380785-997d-4deb-b741-8c14d08622b6/d794011b-6b71-4e97-adb0-c319032680b3", "https://ms.immowelt.org/a1aeaa9b-89a7-4a5b-b3ed-598756319607/14a91c1a-5084-49dc-b75d-74d20228a8f0", "https://ms.immowelt.org/af2232f0-1ef7-4481-801f-2a5ff59e0092/96a901ff-03de-431d-886e-d860ac84fbc4", "https://ms.immowelt.org/eb83b1d9-acf0-4e74-b0b3-5fa3fcc1ca01/705ad620-364a-4237-968f-e9f4e0c3eb36", "https://ms.immowelt.org/b34e24ec-eac1-4eae-b4db-e1f386853cb1/292b937e-2528-4472-8123-fa7a878ef84b", "https://ms.immowelt.org/4111770b-ae7b-4dce-b625-f990d3c5ba1e/b7539eac-4bf3-4d62-ab60-f12720be1758", "https://ms.immowelt.org/73dc46c5-cb67-4432-b97f-e11d22268b50/6613c506-3bb4-4e53-a0ac-d3296fe50f9c", "https://ms.immowelt.org/d8083607-cc91-46ee-92df-9a6f4eed9d3b/59f57e14-612a-4c44-8a58-7436d9771597"]</t>
+          <t>["https://ms.immowelt.org/226f8585-4420-4e7d-a622-e2f2b4f6ee34/e7820e85-9f0c-488e-9105-84d73213bdb6", "https://ms.immowelt.org/b77667a4-8afd-4a60-bbbc-009ca6e61925/546f585c-9e27-4c28-a146-ddcba12a7d28", "https://ms.immowelt.org/391ee908-11b3-4405-bbc9-7ba82944b1af/6050ad1e-6b2c-4602-bcf0-85e7168024b7", "https://ms.immowelt.org/ff53f408-ef13-48d4-8fc7-3517fe2bd0c9/7509986d-6006-43c2-968e-72f2bf254e40", "https://ms.immowelt.org/4fd6b98b-b0df-4b86-9afb-475100b11718/d44fc2ba-d6b7-4826-af62-bf815dd6aa06", "https://ms.immowelt.org/6a2a35fd-0b82-4815-9678-fc771a9c13c2/f4ef2f61-6da3-4499-a5ea-63ffb5695057", "https://ms.immowelt.org/49e54e4c-6790-406b-9b4c-0a456890990c/a60f7517-abd7-43ab-a77f-09489d51fcf5", "https://ms.immowelt.org/d5324a2b-b2f7-4ec8-b298-28f17691b177/f977f2ef-dfc4-4bbd-ab16-2228083b14fd", "https://ms.immowelt.org/6f678b1d-1a46-4e7f-8865-70737a3d5be8/858f4bd4-25d4-4a2c-a7d1-3968b126f049", "https://ms.immowelt.org/d5a7388f-d42d-4e53-8851-4e4ab4083d74/9171fc23-5569-4b00-9d41-f07dc4d8e295", "https://ms.immowelt.org/1d6bffa4-41bd-486a-9ec0-9d5c2981222e/d5ed1023-4555-4c0a-8bd2-3842d923dfea", "https://ms.immowelt.org/d784f7ce-3ae8-4213-b858-e0734d579bc4/d9802b4b-1e2e-4f1d-b8e8-b2ac84d7f981", "https://ms.immowelt.org/fe88156f-67cb-4b81-8c31-9e43464294ea/85ea424e-2f74-4e9b-aec3-7f2cc19c9df5", "https://ms.immowelt.org/af1e537a-cf56-446c-bed3-be26dc033fb6/c622e523-dfe6-4805-ad69-694e589f0ea6", "https://ms.immowelt.org/2dffcd4b-2342-4de3-9d50-d683490e5234/5c499c34-e32a-445f-90b7-0e98241d6140", "https://ms.immowelt.org/3015d04c-71e3-419c-86fc-eb6874a28d4c/f6a2be42-505a-49a8-b459-3ff09162e1a7", "https://ms.immowelt.org/1f32ec9f-246e-4fc1-9195-d1b66b7260cc/36e6b83f-9aa5-4ccf-91f7-2a091976b1ce", "https://ms.immowelt.org/9055ad9a-0f5f-4b87-8d29-dc69be248500/3b4e6f42-41ba-43d1-b0fe-d9bc64f901d6", "https://ms.immowelt.org/d59930cb-dc03-4802-8c9d-5fd20543730d/ea245702-6e74-45c2-b18a-6b086f3305a8", "https://ms.immowelt.org/bc741415-50ec-472f-9072-425d3ef6bbee/6914e7a9-5e30-42bf-99b0-529abe5a2c23", "https://ms.immowelt.org/7030a144-0182-4b46-af08-b10814bcbe59/b11b3a71-140c-4c26-97fb-ab7aaa6535eb"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon", "basicObjectPricEur": 1797.71, "basicLivingSpace": 123.98, "basicRooms": 3, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2av845v", "basicContactPhone": "0931/382-7702"}</t>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Herr", "firstName": "Sascha", "lastName": "Mannel"}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**6er-Studenten-Wohngemeinschaft** Zimmer 05", "basicObjectPricEur": 300, "basicLivingSpace": 17, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2a4jp5u"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ayb45v"</t>
+          <t>"https://www.immowelt.de/expose/2atd75u"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1171,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung"</t>
+          <t>"Exklusive 2-Zimmer-Erdgescho\u00df-Wohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg* (Neubau!)"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3601.44</t>
+          <t>1036.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1186,12 +1241,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>225.09</t>
+          <t>71.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1201,34 +1256,39 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+          <t>["Neubau", "DUSCHE", "Kelleranteil", "Personenaufzug", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3601.44, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 460, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1036.9, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1236.9, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b888654a-7be0-4b1f-bb51-2d8dca6a1aa1/5dc0db39-67ad-4630-8a84-004692c1c198", "https://ms.immowelt.org/4cb98d26-30d4-40dd-9345-c05636fc3d6e/3d269755-d356-448a-a4e4-c9c9225867b0", "https://ms.immowelt.org/71ab24a9-6d26-4798-959a-526196ab2526/2338dbdc-85e0-452f-bbf4-cbd765176db2", "https://ms.immowelt.org/e212abae-27ab-4901-ad56-4abbf1ab429a/076c61fa-ae56-43bd-90cc-3d4a1f246534", "https://ms.immowelt.org/45fda28f-bd4b-477c-8e5b-025d3035fc24/25270c0c-e6f1-42be-9bc6-154afc390bde", "https://ms.immowelt.org/250e735d-28bf-4e41-a26e-10bdcc174a72/9ffa4901-709f-4a22-bcf8-4026af4845a8", "https://ms.immowelt.org/47738d72-90e1-400f-8f26-b0c89e0a04d4/b2671ee7-2150-4931-ae87-848ca314834d", "https://ms.immowelt.org/09239b5c-efed-4862-9be0-12284713015c/c50d605a-b30b-4c1e-b8c7-c377d0105c47", "https://ms.immowelt.org/32be8996-eac0-4fda-8211-2d8fadd6467a/c5cb6c3d-45d4-45e6-8603-f3cc8967b34e", "https://ms.immowelt.org/de7996d0-a07e-44a3-a014-b9f228303c3b/f4242060-e83a-4836-b64b-41645c5c5e94", "https://ms.immowelt.org/d9382006-8b3f-46eb-802b-250a8fca3f96/03f39cab-4da2-4c36-80c1-23a7fbd309fe", "https://ms.immowelt.org/36af7108-dfdd-4ff3-ab8b-6e92d3508062/2f20f749-7813-4534-bde5-1a624ad88952", "https://ms.immowelt.org/ba912dea-da2a-4abd-add2-64d03801c9f2/0f910eff-7ebe-4154-9f66-0556d0a42237", "https://ms.immowelt.org/469127b9-c85a-4e77-a7fa-af7365f65cc3/9cd962ef-da29-4690-9168-413036c7882b", "https://ms.immowelt.org/0341b685-a77c-4318-bf97-0b0facbf1946/c0c91076-cd90-41c2-8e29-c3d9b6bc4e76", "https://ms.immowelt.org/349ba8bc-380d-425c-9404-fe30348c76fb/be7df368-083b-4bf6-bb15-c9ee4809e9b4", "https://ms.immowelt.org/769d004b-9208-4258-b045-f78d35bbe304/cab7c6e2-a6fe-44e9-b980-49f912c4dc33", "https://ms.immowelt.org/32a4701e-f4a1-4e08-ac43-7f82a0871c0e/05462d50-f4b2-41fb-94fc-03251da46a31", "https://ms.immowelt.org/c3b62a14-8ad0-4bc1-ad12-407a7b7d45c1/1e082fb8-309d-48fd-9675-1e19df39056b"]</t>
+          <t>["https://ms.immowelt.org/db7da3b6-b720-4059-bb90-2a6c92f99f84/c7dc0cf6-d7aa-4153-8290-30168a87c10f", "https://ms.immowelt.org/35379710-e8b9-41d7-852e-8e878a1678c8/17ab3a1a-1cc5-4d64-9929-ef5e9df97565", "https://ms.immowelt.org/c782ae7e-38a1-4048-aa84-9c97d7493185/7ac40dc2-723c-4b83-a4eb-2ebd6043aaa9", "https://ms.immowelt.org/d61a200c-9243-4b35-a31f-a96f22688baa/9292da83-4a7a-44f5-a4b7-7fe2eea66b76", "https://ms.immowelt.org/e402bdf8-a0fe-4237-8a57-ea6718524c50/1a1cb7eb-9905-48a9-ace8-c68ce57de634", "https://ms.immowelt.org/98c424a9-163e-4ab0-8409-34511860a1d3/8f50144b-f577-4767-b560-25c928057e2b", "https://ms.immowelt.org/54bf45b4-bcd4-42a2-9ad7-7e1e5a3b84a8/97479ed1-a40a-4f08-8456-a0759394aa8c", "https://ms.immowelt.org/62d0bdd0-2a51-4a74-b32b-3c7a6be0ffe7/f4b9e039-4d14-48c0-959d-42fdc3bda51a", "https://ms.immowelt.org/f7e3c502-23a8-47c8-a489-ca9577022f31/66d0ac0b-6062-4db5-8c5e-8236a9482fa5"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3601.44, "basicLivingSpace": 225.09, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ayb45v", "basicContactPhone": "0931/382-7708"}</t>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 2-Zimmer-Erdgescho\u00df-Wohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg* (Neubau!)", "basicObjectPricEur": 1036.9, "basicLivingSpace": 71.51, "basicRooms": 2, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2atd75u", "basicContactPhone": "0931/382-7701"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2acjp5u"</t>
+          <t>"https://www.immowelt.de/expose/2adc95s"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1238,12 +1298,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 4"</t>
+          <t>"Zimmer (inkl. Nutzung Anteil Bad, K\u00fcche, Flur) in Studentenwohnheim ab 01.10.2023  vermieten"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>265</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1253,49 +1313,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>""</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
+          <t>["Zentralheizung"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "Street": "Ottostra\u00dfe 14", "LocationId": 496004, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 350, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 450, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "795,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 265, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 410, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/ea4c2f0b-394f-42bd-abb7-a4b389c1d47d/ff497d04-808a-4337-a3e3-2cf5516bba7a", "https://ms.immowelt.org/366939ca-53fe-483d-98bf-f2ee6195dfc0/05b63755-5ed7-47a4-8dff-3f7fe160860a", "https://ms.immowelt.org/985ea057-3cd8-4f50-902d-75b4fdfd5d80/985af61d-8d10-46f1-8973-3ca9e3128892", "https://ms.immowelt.org/d60ab3e7-f8b1-4a56-9fe7-cb3d6b251fde/39119cc8-1171-4282-96e2-7cd5703d138e", "https://ms.immowelt.org/74ddb531-c432-441d-a6d9-f10cae01c815/df9fece6-1aa2-4522-9459-fe31c0fdf7be", "https://ms.immowelt.org/90f66d94-cf4f-4975-a300-fd5fdaa057dd/e4aca2a3-3782-48dc-8ebd-01cb1c5d26af", "https://ms.immowelt.org/ed2b2673-027a-4c7d-b469-2d88936aa895/c5525e35-fb10-4c05-a6b3-3903c73a1cd5", "https://ms.immowelt.org/f444609a-1c93-44de-bc86-3bb35bbe475e/7d9d6f63-18c3-4a57-b866-759c4f01d683", "https://ms.immowelt.org/12808aff-d0d3-4ce7-90a1-158e4dc99040/43dea702-8f33-4bc8-b0cf-8fae834b567c", "https://ms.immowelt.org/8bff2dd9-2249-43dc-900d-40ea65a23212/251524b5-e8c7-49a9-b995-00de0bb85ffe", "https://ms.immowelt.org/64561934-cc49-4074-b25f-6a6806f1cdd0/7971880f-b488-43df-a3e6-ee4aec51ae9a", "https://ms.immowelt.org/3ed2c2ec-6223-4e04-99ae-df359a6754c4/1aa90e24-28b3-4bc9-99dd-a8b18c2af3bb", "https://ms.immowelt.org/43927a50-d329-414c-b0f5-ca4f4cd70c2d/5a27d374-b073-4a66-9c71-23db210c7bc5", "https://ms.immowelt.org/49b01679-3040-4664-8c50-17d1e81e7a90/6a4baaaa-1b65-421e-8e20-4ce145d2b6c7", "https://ms.immowelt.org/5be96dee-5832-445f-8d62-264839c37343/d5b9dc02-555e-49f4-8a72-b5fdde07f935", "https://ms.immowelt.org/6bc5b40d-e97f-4fba-8c44-222645648458/42d69790-b9a5-40e9-8b43-b7529c138a8a", "https://ms.immowelt.org/60dec9ad-25a6-4596-8475-c20d723fe05a/3ddd5c6e-9448-40f9-be5d-4065443127a7", "https://ms.immowelt.org/e105af84-a45f-4370-b285-74bee821da08/e6dc5c1d-ad19-4038-ada0-3eecaf37fcc2", "https://ms.immowelt.org/927559a3-db2e-471f-8de6-33b5b3a3a96a/45e4cf6e-8048-4fa0-a7e4-5494ea0506a4", "https://ms.immowelt.org/3b19e507-1683-467a-bcb1-c424c524ca2f/dc5a81f4-1daf-4f1f-b9c9-c23df92dcb8b", "https://ms.immowelt.org/f136ae8b-8c04-4e1f-be49-5859e9cc12aa/45b449b8-53d3-4136-a7a7-bb156ed3b3c2"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 4", "basicObjectPricEur": 350, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2acjp5u"}</t>
+          <t>{"companyName": "p &amp;a; p Geb\u00e4udemanagement GmbH", "address": {"city": "K\u00fcrnach", "zipCode": "97273", "street": "Wachtelberg 4"}, "salutation": "Herr/Frau", "lastName": "Pohle-Team", "phone": "09367/ 9857890"}</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Zimmer (inkl. Nutzung Anteil Bad, K\u00fcche, Flur) in Studentenwohnheim ab 01.10.2023  vermieten", "basicObjectPricEur": 265, "basicLivingSpace": 11.7, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Ottostra\u00dfe 14", "basicUrl": "https://www.immowelt.de/expose/2adc95s", "basicContactPhone": "09367/ 9857890"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aewq5u"</t>
+          <t>"https://www.immowelt.de/expose/2a5935s"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1305,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt"</t>
+          <t>"2-Zimmer Wohnung in ruhiger Wohnlage"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1320,49 +1385,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "FLIESEN"]</t>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "Fu\u00dfbodenheizung", "FLIESEN", "Einbauk\u00fcche", "Garage", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Oberd\u00fcrrbach", "ZipCode": "97080", "LocationId": 496018, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.900,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Oberd\u00fcrrbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-oberduerrbach/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/f347f786-4652-4c8e-9723-ceb8482ed2a3/16c9950f-4ace-41f5-9ccc-eaaa0aa3dbb9", "https://ms.immowelt.org/60aa648f-6f16-4380-abe5-63e8ae5378dd/1d329405-999e-47ed-b506-8156c516bb9c", "https://ms.immowelt.org/16d637dd-3a33-4bf0-8693-79b7659f1eb0/e2923eba-0c2c-43c0-a404-10acd4276f3a", "https://ms.immowelt.org/7ab4e781-08fe-4bc5-9a39-8cc82d9e56f4/a82e3028-f3d5-4cfe-bd0b-a551438ca593", "https://ms.immowelt.org/0a430e4b-4799-408b-aab0-eb47ee04004d/cebdd699-3ea0-4f8e-b231-dfc611d1523e", "https://ms.immowelt.org/08456fdf-7e5a-4d08-bb25-8826aa6af0b4/8a06e9fe-62da-48f0-b99a-b150ea1634ec", "https://ms.immowelt.org/9100c73b-327e-4e9a-8a72-a66c8a7da1fb/b5084958-c7a1-4b5e-963e-7f9f02d43f7a", "https://ms.immowelt.org/57737cd7-44f5-4687-a55c-2f3d25320540/1f93643c-235f-4804-a283-65554ed0f691", "https://ms.immowelt.org/79943cff-f49b-46a1-a29e-0d545ee5c5b8/a7e253ae-bc77-4373-a712-673cae102a7a"]</t>
+          <t>["https://ms.immowelt.org/0755913e-9c21-4af2-8d90-c9659b94b5a5/b9a4d947-4277-4529-ab13-6600d54fa90d", "https://ms.immowelt.org/1255259b-aa7e-442c-9597-2d33d11d8b34/3eeb1b4a-b000-44fc-9534-29c745040b9c", "https://ms.immowelt.org/e74039ee-81bf-4de7-8e7f-86cd527bb271/ebc8b0b7-f850-4378-91dd-c3a93421f4a4", "https://ms.immowelt.org/f649d071-058a-4981-ba76-985c7fb1d77a/d00fbea2-5086-4ad8-aaf5-73eca14133fc", "https://ms.immowelt.org/269b3f38-5e8a-43e1-a946-d516c786cbec/e83f0b6a-c547-435c-aa54-83858d9cd155", "https://ms.immowelt.org/4a8d87e7-20d9-4beb-8180-bd4a33d3d7c4/8b69451b-d946-4e3c-b25d-c2e096745845", "https://ms.immowelt.org/9b0126c0-c2d2-4d3c-a91b-23d60dd5f445/01e412d5-b90b-4ced-a540-d19d339de033", "https://ms.immowelt.org/cfeac0c3-5502-41e2-9608-119dbf42d838/64d80281-87b9-4cfc-91b9-2b71dd530ae0", "https://ms.immowelt.org/5251062e-9fc2-4a33-a54b-eb12a2f6b1e5/966e8471-0b33-4fae-89d8-924868ec21a5", "https://ms.immowelt.org/fde4a743-7310-4b24-b4b8-ab1cba5fac21/c65a5ccb-db14-4bf0-b4a3-8290a4580f17", "https://ms.immowelt.org/3dcae77e-d47d-4892-8f6c-aacade0f956f/d0b8ac2b-1cb8-4780-abc1-f022df7b35b6", "https://ms.immowelt.org/793ac297-b483-4124-b360-a45adb19a1e4/2f8dca17-8233-4eb2-915f-028f60fa3220"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt", "basicObjectPricEur": 950, "basicLivingSpace": 37, "basicRooms": 1.5, "basicConstructionYear": 1990, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aewq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"companyName": "Immobilienagentur Kuhn", "address": {"city": "W\u00fcrzburg", "zipCode": "97084", "street": "Eisenbahnstra\u00dfe 11a"}, "salutation": "Herr/Frau", "firstName": "Maximilian", "lastName": "Kuhn", "mobile": "0176-24137563"}</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zimmer Wohnung in ruhiger Wohnlage", "basicObjectPricEur": 750, "basicLivingSpace": 68, "basicRooms": 2, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a5935s", "basicContactMobile": "0176-24137563"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2akwq5u"</t>
+          <t>"https://www.immowelt.de/expose/2aa7g5s"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1372,12 +1442,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland"</t>
+          <t>"moderne und helle 2-ZW in der W\u00fcrzburger Innenstadt"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>635</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1387,7 +1457,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1402,34 +1472,39 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["DUSCHE", "moebliert", "PARKETT", "FLIESEN", "Einbauk\u00fcche"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "GEPFLEGT", "FERN", "Zentralheizung"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.190,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1095, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 635, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 140, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 775, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/f58fd648-14ff-458e-b34e-ed1a79e43d74/d87e4e66-4884-409c-b2cb-2157459b3064", "https://ms.immowelt.org/0a87650a-5809-4688-8750-7ae6c25a4099/e24ce7b4-9191-4f35-a1d0-23492c9ab7b0", "https://ms.immowelt.org/791a160a-38a3-4dce-a18c-5ce7143fd3f5/bd4c9b95-f50f-4c31-a999-9365ab6d2f07", "https://ms.immowelt.org/d04e8834-3fb6-41c7-b54a-e8fbd81f4738/544118d8-4448-48cb-b903-f895e30a79c2", "https://ms.immowelt.org/0a28069f-f140-484b-8e74-4397443a7579/52a860be-e6e0-41df-ad9f-635a12c08567", "https://ms.immowelt.org/93620f2c-07ac-40ae-89e8-09de2a90ffff/0aad3bf6-a9a2-41e4-841c-299b26265c3a", "https://ms.immowelt.org/a67d6581-3a59-4dc4-a4f3-965a7168620b/da1adff0-5907-4ab5-8913-e075b2d30c48", "https://ms.immowelt.org/deeb3874-cc27-4a7f-ac51-854d6765dd3f/3218f2ca-a245-4045-af54-619a9b8882e3", "https://ms.immowelt.org/ac67f904-20c4-4c6b-90f1-3d808fa8dae1/795689c7-539e-470a-a2a4-32e423451bd3", "https://ms.immowelt.org/974474bd-d9e3-4117-a672-6922106d164c/a2bb49a6-741b-40b0-8a0b-40d9f75d0f02", "https://ms.immowelt.org/936ffd96-d118-4d3d-8f77-ff73d6726300/5bb5b59e-9b1c-44ee-816e-31d9b28dd5a2", "https://ms.immowelt.org/9e5f7e76-6418-46d5-af9c-45309a550a97/c9909e8a-e4cd-4d4e-826e-4ec43a4165d9", "https://ms.immowelt.org/fc5c4ab6-6dd7-402d-aa17-1d5f9d8e29b0/f9213bf7-281b-4c08-8f0b-e78f6fcb7c71", "https://ms.immowelt.org/efbfc541-75da-4200-8395-1db7a9483e5b/68140100-e86c-4af6-88d7-26d0e819a523", "https://ms.immowelt.org/6069128c-8b73-4678-abc6-ee0b63823860/cceb6f64-a341-4849-9927-b2c5dd025aad", "https://ms.immowelt.org/c13a4106-75b6-444b-87e0-05ccdb99308c/a077d4b3-99d4-474b-b40f-6be9110341d9"]</t>
+          <t>["https://ms.immowelt.org/6138cca7-ce36-49f5-999e-d79e41b15a53/83cb3a49-0683-4582-bdc9-73d1b9f7636f", "https://ms.immowelt.org/76be7d2f-6ad1-455e-9932-f9131f8703d9/b489f2c4-6a89-4383-9dde-1dc248261e9f", "https://ms.immowelt.org/5113882e-83b9-4162-a281-0e71dfa00bd6/43deb177-7fd4-457f-9b36-5d0cc6cbfe12", "https://ms.immowelt.org/a7cbb8e4-c3a9-44bd-8836-77269cfa4bcf/b9f56a21-1d9e-467e-a79e-9ef6b752e369", "https://ms.immowelt.org/c497ff7c-80d7-4fd4-9a6d-82471a1889c5/69c3dc96-494b-4f0e-be0d-0ab1b5f760be"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 1095, "basicLivingSpace": 63, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2akwq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"companyName": "Muth &amp;a; Schr\u00f6der Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Eichhornstr. 21"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_c662aa7dfba04b0f99dabfc7533ee176.jpg", "salutation": "Frau", "firstName": "Julia", "lastName": "Seidel", "phone": "0931-99136464"}</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "moderne und helle 2-ZW in der W\u00fcrzburger Innenstadt", "basicObjectPricEur": 635, "basicLivingSpace": 47.1, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aa7g5s", "basicContactPhone": "0931-99136464"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2auvq5u"</t>
+          <t>"https://www.immowelt.de/expose/2alus5t"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1439,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+          <t>"Erstbezug einer lichtdurchfluteten 3 Zimmer-Wohnung mit Balkon in Lengfeld nach Komplettrenovierung"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1454,49 +1529,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "GAS", "Zentralheizung", "Balkon"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lengfeld", "ZipCode": "97076", "LocationId": 496015, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.850.- Euro", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lengfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lengfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1250, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/231cfc3d-f3ec-4eea-b3d8-d3f27a286b40/3058b16a-8a05-47d3-8512-63886059b512", "https://ms.immowelt.org/2660e3fb-eb65-4bd8-8844-5b667e3b062d/adc4fedc-4170-4ee1-a6c7-2d63780cfd0e", "https://ms.immowelt.org/dcb8e961-2856-45f0-8df9-13b8f9f4cadd/19a60ab9-5a93-4d74-be47-9ec0408e6e89", "https://ms.immowelt.org/4f79f7ef-0e51-49b2-ab74-287b9836cc3d/83e20f80-c025-439d-aace-e927f852a97b", "https://ms.immowelt.org/08d42db4-e036-4159-8269-dcb7bd5631a1/9cf8e0c1-3269-44d4-986b-bd625c8101ae", "https://ms.immowelt.org/2f13d3b5-8df8-4ac9-95af-5ba7f89e3dc1/d94afc12-acd9-4275-be9b-8fae1c182d5f", "https://ms.immowelt.org/0308a23f-5076-4db4-9f3b-c6024f595313/7143a6d8-6101-40b4-a19f-aba8e2a5a145", "https://ms.immowelt.org/814288ea-742a-4172-affa-ff8454f45731/e6ca30e2-64eb-4733-9789-940742a1d5d5", "https://ms.immowelt.org/ba83b81a-c23e-4eb8-8f5f-47a680847e30/7b794550-2c44-4fa8-9bb7-a6f8c6820a8a"]</t>
+          <t>["https://ms.immowelt.org/b383ab9d-962f-4b66-bc8d-2ae805c0c913/ecce110b-f5d1-4700-b382-673593f7254b", "https://ms.immowelt.org/69a97429-efab-4155-b633-3ad1ae458935/8f05e6ae-f2e2-4865-8f2c-a35ec720f02e", "https://ms.immowelt.org/9ba58985-4b9d-425e-a3f6-67d7aee1d3bc/e923b0c9-2f06-41c8-8b84-98cdc818a52e", "https://ms.immowelt.org/840dfa7e-8336-452d-b2ee-dceaf4c307ad/7b002c85-da7c-4d2d-91d5-e02e0cb9cc9c", "https://ms.immowelt.org/ffca5cb8-cb2c-42f1-a386-c9cb71c6c3d6/f00a89ec-059b-4e23-a9a2-161631989e77", "https://ms.immowelt.org/16c20c25-8333-4b41-807c-19953965866f/f5c587c5-1013-4f69-ab4b-d270b4370425", "https://ms.immowelt.org/ff59bdd3-ccfc-4514-bb65-0dd71372664f/cff129b5-4b49-46db-8de4-ef063ab8c428", "https://ms.immowelt.org/04ca39e8-9f4c-4ef2-8e4e-a59643a0539e/1f70c287-a60e-4597-8b6b-23de24ba67c9", "https://ms.immowelt.org/0921b971-8db4-49cc-a178-419df337008e/c6002049-a09c-47e0-aaac-e2da3d064ea5", "https://ms.immowelt.org/1c2f049b-971f-45e0-9bf3-10079f858250/c9bb0ecb-e6f7-4f32-a41b-0ed5f0e1c74f", "https://ms.immowelt.org/09d1546b-3a71-4fc9-9d66-b1b1da9caabf/4f8c28a0-f2c3-444f-8ce7-8e0298711baf", "https://ms.immowelt.org/e274bb68-615e-4d01-b08a-4578fc70acb7/89d38adb-fb27-49a3-8f08-c63ed231c4dd"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2auvq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug einer lichtdurchfluteten 3 Zimmer-Wohnung mit Balkon in Lengfeld nach Komplettrenovierung", "basicObjectPricEur": 950, "basicLivingSpace": 77, "basicRooms": 3, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2alus5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ay645v"</t>
+          <t>"https://www.immowelt.de/expose/2afvr5t"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1506,12 +1586,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung"</t>
+          <t>"Tolle Lage Sanderau: Helle 4 Zimmerwohnung mit Balkon, EBK &amp;a; Garage ab 01.10.2023 zu vermieten"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3163.32</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1521,49 +1601,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>218.16</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "FERN", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Haustiere erlaubt", "wg_geeignet", "Balkon"]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3163.32, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 440, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1080, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1310, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/33a10e2d-1546-47e8-8bf4-47024f96365d/8d31a374-f6c2-4671-ba5e-b06a8d7c1f18", "https://ms.immowelt.org/e715d610-ea80-4459-9e3a-1ea8a574c0d7/c594e925-e9d3-4474-88ff-ee637dc4b81a", "https://ms.immowelt.org/f3e49668-7602-45ad-979f-f68f0c60ad46/6da2c38a-e66f-4112-b3c3-70ebaa38a22f", "https://ms.immowelt.org/e4691abb-17a5-41aa-949d-88daa0ab8d3a/42a9ae4f-34fd-4230-8329-9c00ba557222", "https://ms.immowelt.org/62981e85-dc6c-481f-8d77-c7e82c11d711/a90f265f-b3b3-4b6b-a854-a05b00191bac", "https://ms.immowelt.org/c1f1f311-d95b-465f-94a6-317a246989d2/e96a7cca-1527-484c-a8e9-f79e1cf28136", "https://ms.immowelt.org/935854af-6f17-4d5d-b023-6647d4cc8d4d/87cabb52-19fe-4dca-a81d-9b0f6d4daa7c", "https://ms.immowelt.org/d22f872e-159f-4f19-bb2a-75f5b228899d/044b33f6-2258-490a-ae2a-52d9ce17b653", "https://ms.immowelt.org/58dca412-8d3b-415e-9a26-359678019657/0858d4e1-5dc0-4297-8a4f-b5db5dbeb8b8", "https://ms.immowelt.org/f9bab463-404a-46c6-990a-559df575f251/6d53c5c6-d652-4e1d-98e5-448095327b4f", "https://ms.immowelt.org/6559ac4a-0154-4e05-a366-dbf71d55ad3a/29c1a7fd-15be-4a1b-91ca-9db0f1c442f3", "https://ms.immowelt.org/85c20839-cb59-4728-be4d-78d1ffcb9274/f88983a1-2f68-4f01-af1a-cae1794eb9e4", "https://ms.immowelt.org/f0a33cc2-272c-4fe9-a229-0c65344655fb/1911e15f-4afd-4691-a583-109b097d5b1a", "https://ms.immowelt.org/26da2883-f715-4c66-a8d1-3e2b9550fcf3/90d1f6cc-c1ae-4b39-889a-79bf683b589e", "https://ms.immowelt.org/b51072d7-8214-4cb3-b4f1-4c2d9c08cc58/e2548663-d3a0-4cb8-b0f7-5aaacf362ba3", "https://ms.immowelt.org/b5dd6e96-9575-46aa-af37-c7a1914335de/e4d4ff07-527e-4aff-be0a-66c047b2b747", "https://ms.immowelt.org/4c4b10ce-78b2-449d-a1c4-38ef2035555b/8094732c-995f-4ee6-af5f-e52e6a68bac8", "https://ms.immowelt.org/36750323-149d-49f3-8859-a599078cdc7a/0c862b3d-b2f3-4b3a-b234-8e9299775647", "https://ms.immowelt.org/d1d807de-1e05-4eca-b9fd-01dd45660714/8d6cc502-9779-4a2e-bfea-d50b253ff0f3"]</t>
+          <t>["https://ms.immowelt.org/f69804e2-14d7-4f99-9955-503c11051ac0/3ae7537a-e3d0-41f5-9957-fcff6e51f3ac", "https://ms.immowelt.org/b6c06072-d586-4f5c-a1e9-39f7ec39b9ee/487cd60f-5afb-4c77-9e09-29d838217b4e", "https://ms.immowelt.org/a7db2280-cd7f-41cf-8c36-1093880f39cd/6e8af7aa-97ac-4b3b-9d2f-e49dae93acbd", "https://ms.immowelt.org/cff6f819-be7f-4ce0-9c56-9ac643f24382/eae1b998-9457-47e4-bd43-5b17c9189b5a", "https://ms.immowelt.org/1dd99229-bb6d-4a89-abfe-a290dbc7117a/dcb37d5c-9088-42ca-98b7-0f44249a8ef2", "https://ms.immowelt.org/9a73769a-c7d1-4ea9-916f-00483159e5db/4ba2727c-de3c-463d-a83b-b7ae4c90fdbf", "https://ms.immowelt.org/548010fa-7e24-419e-9dcc-41cfc2d804d7/f0b29681-22ad-4d41-aa85-afde2637f570", "https://ms.immowelt.org/2c72f582-f1d4-4cdf-a5bc-1f4af2df4729/c5d307bd-a453-4a2d-972f-ffc781f20bf5", "https://ms.immowelt.org/db1b1242-b67b-46e5-b904-5c1466bf3801/aae3e3fe-77e9-4322-a734-dac6ac9e439c", "https://ms.immowelt.org/e9db7333-d778-424d-aead-724172fade92/d1d14ccf-6391-4877-9984-3f300c960526", "https://ms.immowelt.org/b0241aad-d16e-4ac8-8595-4dbc779eb83b/e61a5710-f52f-4008-9320-fb886a1a8212", "https://ms.immowelt.org/bc225fdb-5905-4c69-ab89-324ecd8690d9/bb4e0bdb-7280-45b1-9023-a05f8742001e", "https://ms.immowelt.org/c30200f7-b0bf-411e-8884-463d5a7e33e1/c2a62ef4-bf3d-44bf-8cff-b0f877f97bcd", "https://ms.immowelt.org/72b81ab1-aa46-48a2-810d-b7541fb0319c/018cad35-7e0d-4af6-86fd-b24ab5d71fcb", "https://ms.immowelt.org/c52bf2c7-de2c-421e-8b0f-d5e9c1bcfd7e/c840abda-340d-401f-9e65-cd94613e4cab", "https://ms.immowelt.org/b73c7c71-e240-45f7-bba4-4e70566a8147/a682351a-6456-4ce3-a894-56ef7a903fa2", "https://ms.immowelt.org/bf65f5c6-e560-462f-8468-c202877ce0e3/25862523-1122-4801-88dc-5c715ba59db5"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3163.32, "basicLivingSpace": 218.16, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ay645v", "basicContactPhone": "0931/382-7708"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle Lage Sanderau: Helle 4 Zimmerwohnung mit Balkon, EBK &amp;a; Garage ab 01.10.2023 zu vermieten", "basicObjectPricEur": 1080, "basicLivingSpace": 80, "basicRooms": 4, "basicConstructionYear": 1985, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afvr5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2af545v"</t>
+          <t>"https://www.immowelt.de/expose/2atzv5s"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1573,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung"</t>
+          <t>"Helle 4-Zimmer-Wohnung in bester Innenstadtlage!"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3030.93</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1588,49 +1673,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>178.29</t>
+          <t>105</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["barriefrei", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["WANNE", "gaestewc", "Kelleranteil", "Personenaufzug", "FERN", "Zentralheizung", "Balkon"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3030.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 360, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "4410,00 &amp;a;#8364;", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1470, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 380, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1850, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2b7c4c91-7fac-4ddb-a032-3a51184dbb59/8f34d9b5-fec8-4e21-99c7-6f7a2921d4d1", "https://ms.immowelt.org/61a862a4-1bd5-4769-abb9-5e1d7113f8bc/88d5b2b5-7ef0-4388-8eb9-b7042670aee5", "https://ms.immowelt.org/37c438a9-8ae7-4d42-8006-bc3a55265670/12a6e3ea-2554-4920-bec1-7d536539c02d", "https://ms.immowelt.org/49abcb3b-4395-4691-8e92-b525edda30d4/f7c44e0e-0db0-456e-8cb8-845d816e37ec", "https://ms.immowelt.org/ce95a7e7-0ad6-4282-8ca2-5ce205488707/dbfb5e54-2bfb-4d01-91ec-1ca118a3a922", "https://ms.immowelt.org/b3cc6d40-e3b5-407e-ae5e-be0785a5a218/686cb7a1-8858-4011-a5e0-a8fd590fe4e6", "https://ms.immowelt.org/424d3898-11a5-419c-a472-b6bb5eed3e76/e7d72403-5394-43c9-a960-10468f29d064", "https://ms.immowelt.org/19d6858d-2cb5-437d-8cdb-6fb75d54c5e4/8e3114ed-77c5-47c0-8dce-725b44e8785c", "https://ms.immowelt.org/f536fdcb-a38d-4b90-beab-277e244cf6a7/ce23ee46-5ee8-4496-b672-c3ea031e92ac", "https://ms.immowelt.org/933295a3-d9da-4860-ad95-06490c6fddf4/182424c9-5902-4b40-be26-512097b49929", "https://ms.immowelt.org/a77d50f5-f8e0-4928-bcdc-2fa7c6e36e7d/05824030-0135-4ec2-93dc-52a0bf313587", "https://ms.immowelt.org/dbfe5771-25b1-460e-a2dd-140a19fae05f/4dd99d70-1f73-40c8-aab7-49051e0e90ec", "https://ms.immowelt.org/9689e92f-fdee-4ff1-99c1-89400857e515/a07a7b18-a41e-45a3-9fe1-f64211e577cd", "https://ms.immowelt.org/c3fdabd3-6c7c-4da9-9941-17117007bd14/16545b70-e49d-4309-85c5-a84123f7c8a2", "https://ms.immowelt.org/ec2b29d2-9e49-4ccb-965f-e26d155e848a/1c4de27d-2032-41cc-a466-04b10ad4f27d", "https://ms.immowelt.org/c2913eaa-8856-44c1-901b-0ae4b9a9ffa2/387a24b5-3c67-4740-ac58-0de078b68ff8", "https://ms.immowelt.org/81e05570-c572-4168-acf8-500cd9f74a65/796a2975-473d-4971-bd18-d2765832485e", "https://ms.immowelt.org/2c90ddab-a797-471f-a2aa-53b9ac172a1c/43c8617b-2da6-4fae-99be-395aaf2774e3", "https://ms.immowelt.org/24b3e778-e131-4042-ba05-7b63afaf1ce0/b0dfb227-b3fc-4605-b1c3-58573b4f24d1", "https://ms.immowelt.org/1d31929b-a5c2-410f-9bef-afc44f5e68c1/bc515335-0e9c-453b-bfcf-ae09a83fd65d", "https://ms.immowelt.org/d6e04616-c252-4d95-8d95-9d504b0fb3f4/07aa7bfb-71ab-4b13-bba6-99ba35097b80"]</t>
+          <t>["https://ms.immowelt.org/deb1655e-14ac-491a-8605-ca1cf6f3827c/7cfbd4ef-fb1d-4b55-9c55-b8e15e341654", "https://ms.immowelt.org/4a9784a4-9bc5-4edc-a981-ed8193f21672/42f96b3e-22bf-4324-a80c-05e02ae4df53", "https://ms.immowelt.org/deaf9e24-3436-43ae-bdf3-183daf73719a/91f0f5c8-3c0a-4b9f-a533-7adc084bab26", "https://ms.immowelt.org/3d0c9065-89cc-4520-b7d3-730827719522/393716a6-c5ef-4126-bd7e-918492f5f113", "https://ms.immowelt.org/69f980d0-1d7b-400d-b45d-0c1ab71c4831/501d48a4-6700-4675-ba93-77ddae4de892", "https://ms.immowelt.org/53c73d39-8e4b-4668-9798-48085f64e04d/ddf65217-7923-4b05-8a5e-14664a59b0e9", "https://ms.immowelt.org/bee0347d-400e-4f50-a088-5480e6b1216b/d7d9141c-8a32-4b6f-afb3-4920e3c7e1dd", "https://ms.immowelt.org/85c6162a-38a3-44bf-b865-ba3021e8f647/d0ab58a4-e0a5-4566-bbae-39fe4c54d972", "https://ms.immowelt.org/a022ba3a-2d81-464b-80a4-4ba06d780f24/dbb9698e-795f-4623-a844-b67fb369d161", "https://ms.immowelt.org/0f2b4694-fc4d-49cb-94b7-a0426176b9ab/eb194e55-701f-4372-9eff-99ae5042a932", "https://ms.immowelt.org/eb76d752-8ee7-4c27-9d46-f5dfe7bb14c2/c7feac68-ce30-4c00-b79d-aaff564c8c1a"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung", "basicObjectPricEur": 3030.93, "basicLivingSpace": 178.29, "basicRooms": 5, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2af545v", "basicContactPhone": "0931/382-7701"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle 4-Zimmer-Wohnung in bester Innenstadtlage!", "basicObjectPricEur": 1470, "basicLivingSpace": 105, "basicRooms": 4, "basicConstructionYear": 2003, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2atzv5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a9245v"</t>
+          <t>"https://www.immowelt.de/expose/2adnh5w"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1640,12 +1730,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1655,49 +1745,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "TEPPICH", "FLIESEN", "Balkon"]</t>
+          <t>["Neubau", "FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Fu\u00dfbodenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.630,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 815, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2400", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 800, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1000, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/56dbfa19-0b11-4212-a585-a3bb9055fc6c/55af236d-1cf3-446a-a9ea-5d847c1f3c78", "https://ms.immowelt.org/2321a506-3294-4da0-8ed9-9c32a877cc19/568e9ef6-6f64-4112-9523-9eaf25a3f970", "https://ms.immowelt.org/c49d4e0e-c519-4110-bf9d-48d46975f264/51ad8f90-ae3d-4f54-9436-a3ce93d787e0", "https://ms.immowelt.org/1efec59d-a37f-4e4e-81e0-d2638e029208/c9bd61b7-4af9-4819-822e-916b4c491efd", "https://ms.immowelt.org/35f3c816-30ad-4cfa-a370-9fd3df5a890b/0f5a8622-ff9b-48a3-b656-48f75cd9c811", "https://ms.immowelt.org/1d11277d-e06d-43d1-807a-35d99c5f5cd5/51935719-85d7-4a46-a718-1c1a7bedba2c", "https://ms.immowelt.org/3f9f17e0-3b0f-42d8-9623-bd41d7d12fc4/d88f57cc-ca14-47d1-b0ac-e5d037c3114a", "https://ms.immowelt.org/4c16ccd5-7611-496f-9fc2-a5cc9e95ca96/0cc9afbf-324b-4dc0-a841-e5417e3c909f", "https://ms.immowelt.org/23f4ce8d-d0f3-42f3-b7c2-cbea89a39473/eb285820-0b71-4189-8a94-494d832c127b", "https://ms.immowelt.org/36d590ab-2de9-46f3-8cef-b4af4efd9be0/8e11440a-7fe1-49cf-a002-13e4285760be", "https://ms.immowelt.org/8099beb8-56a4-493f-b95f-2490484605d5/fbb624d4-8b55-48d5-8b8f-5535a08872c5", "https://ms.immowelt.org/1978dbc1-a0ed-458a-abcd-d22f103809ef/1a5cc04f-0b65-48af-8e69-c835714ab2e7", "https://ms.immowelt.org/6b1ab129-3f95-42da-9d53-8088db0a9349/25c6e471-016e-4261-b4ae-a73987e4f403", "https://ms.immowelt.org/9b310d23-aa9d-41f5-8f34-29a9b7aa4471/bae39b36-c4b5-4cf8-882a-aca3ba40538c", "https://ms.immowelt.org/20713457-85cd-4f26-970b-eca4af0b6b71/be6308f1-d0c9-4aa5-8a10-3a4f1f28ff33"]</t>
+          <t>["https://ms.immowelt.org/ee16496e-0dcb-422b-b16e-d699f185c085/e0074c45-8e78-4192-9756-f9278eb48a3a", "https://ms.immowelt.org/34cd4c76-b8f2-4c80-aaa0-3ba60d1a14e4/c30f95d8-f7d1-41da-8ab7-64f008ba22e3", "https://ms.immowelt.org/7cdf79f6-934a-465d-ae81-272122e4ad00/69a5616c-d5ed-44db-890b-18a37c89f844", "https://ms.immowelt.org/730b7e47-988e-4c9b-b9ca-38230c929bbd/8d28dea0-8bbd-491b-8b5e-ed026c23978f", "https://ms.immowelt.org/5cf9e8f7-5445-4c99-bbfd-72ddff2dd761/b95383ac-aea0-4515-915c-88dcc18dbb15", "https://ms.immowelt.org/b67a10fc-cc10-4396-bbfa-844933e844e9/04dea6cf-8d76-4be7-8224-c27e2bf199c1", "https://ms.immowelt.org/de5686e9-6074-4e4f-9879-dae2270685a7/2bbe33f7-5d8e-4b72-8e50-965982c18903", "https://ms.immowelt.org/12bb0074-4492-41d7-aa45-4df0db4365ee/9d25213c-7c6d-4977-89f6-74f00de3ed8f", "https://ms.immowelt.org/537f0baa-9185-426f-adf2-579b2e0d97a6/da2fea6f-5ca7-490e-88ab-23aee1f38d29", "https://ms.immowelt.org/e53647b0-ae47-4085-8791-a49d5315fe02/535808f7-0bdc-48b6-8548-029216ba5437", "https://ms.immowelt.org/ea21f2d4-e176-4ff8-a99c-6939795da2d0/81b62de4-3f86-41a9-9f6c-8c455c7e4e51", "https://ms.immowelt.org/e99bbe16-63b1-4af9-af0e-9d7ef4382d36/eca8d831-a91c-45ad-b0e9-24c092aaf555", "https://ms.immowelt.org/2418511f-c9bb-4db5-88e7-cb4071afa55e/8809677e-7263-443f-a2cf-5cbf38323693"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan", "basicObjectPricEur": 815, "basicLivingSpace": 40, "basicRooms": 1.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a9245v", "basicContactPhone": "+49 931 416616"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 800, "basicLivingSpace": 55.5, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2adnh5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agwq5u"</t>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1707,12 +1802,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1722,49 +1817,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/cf8697dc-afcd-47ae-aadc-64c4cc78569c/35b4d352-660a-4816-94a6-619497123ae8", "https://ms.immowelt.org/a32b8f72-a566-4394-bea1-04e883e8fce2/7099cff9-9eea-4d1f-bad4-4033626afe54", "https://ms.immowelt.org/105a8a3c-c718-4c20-83ac-d0a5ef1a7f53/9db73218-715a-4963-942c-e41a29ef7b07", "https://ms.immowelt.org/64d9efa5-0a66-44fe-aa1e-b89f834ad546/6f687f3d-4a05-4f47-a1f8-8b78ca7e8bfe", "https://ms.immowelt.org/a3fe7335-2ba5-4c30-a137-cbfb5fd2a35c/20496698-5e1f-4243-9338-f56821682d4a", "https://ms.immowelt.org/a449833e-f4f4-43ff-8ebf-01bc5160e5c9/ccc566af-477b-4888-b03f-1cc64f4f1c45", "https://ms.immowelt.org/a6d17184-1155-46e9-af2c-d83d9e1be344/aab72d40-469f-486c-9add-806a5481ac6a", "https://ms.immowelt.org/a5271f16-acef-4db4-84ba-2b1a9ddc5892/57e11dd6-6321-45eb-85e0-aaa0f1e15bfe", "https://ms.immowelt.org/921ae069-2035-4dbb-a619-8ad9012a2442/0e6324ba-04b0-4141-bcc2-3b6cb33ac8ea", "https://ms.immowelt.org/6dc638c1-e4cd-4f0c-87b2-169cc34b0bd8/2af01fd5-93ce-4fc8-ae87-9a3817a2ef84", "https://ms.immowelt.org/a5894c49-800c-4d59-bb53-e598cf560634/0aa6a439-1071-40bd-a3ef-3bd2192fad8c", "https://ms.immowelt.org/1824d009-9f1e-4248-ac1b-d6198f9c17f3/ffd7b610-0d17-43b2-b15c-614cccf8be14", "https://ms.immowelt.org/45f31b8e-c2fc-45ff-8dac-c0bf8fea6e03/a11c6ffd-ddba-4524-9aca-520b2604d193", "https://ms.immowelt.org/5ec8ff49-d6b8-4dd0-bd1b-a04062520b58/b2e43f71-c2eb-4713-a428-6da937a58826"]</t>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agwq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2abjp5u"</t>
+          <t>"https://www.immowelt.de/expose/2aqvp5t"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1774,12 +1874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"6er-Studenten-Wohngemeinschaft - Zi.Nr. 2"</t>
+          <t>"Moderne 2,5-Zi-DG-Wohnung am Heuchelhof"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>850</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1789,42 +1889,1487 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "Dachgeschoss", "GAS", "gartennutzung", "PARKETT", "FLIESEN", "frei", "abstellraum", "offene K\u00fcche", "Stellplatz", "kable_sat_tv", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heuchelhof", "ZipCode": "97084", "Street": "Prager Ring 2", "LocationId": 496007, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.200,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heuchelhof)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heuchelhof/mietspiegel"}}, "DataTable": [{"NumberValue": 850, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 130, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/10719ee0-c9fe-4f72-a66d-230221929cea/eefdb7e8-a65d-41e1-a938-cb71770a0d99", "https://ms.immowelt.org/871db96f-48bf-407a-a6e9-5e7e57c92fdb/94cc1f8b-1b45-4653-92b1-d1d7b0c99be4", "https://ms.immowelt.org/575a63c1-e3d8-44a5-a430-5728c789b5d0/372166eb-3fbc-4620-9d2a-7cfec9eb9129", "https://ms.immowelt.org/145cfa43-e3eb-4191-b61e-f633e7e51cca/65168ad8-5fc7-4dad-8daa-29ff47dace11", "https://ms.immowelt.org/4e1092a3-e070-4aca-ae25-3ce861453c5f/ae4fcc44-5613-4be1-ae61-8bc769763cc3", "https://ms.immowelt.org/64475b59-65ee-4038-b233-8693c318f446/c0d1afbe-a34e-4775-ad39-8dc169976723", "https://ms.immowelt.org/b091f166-2b83-4ac4-b0fd-b9dad919f936/b178513f-60bb-4e31-ae33-c6bbdbcf4b51"]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sonnen-Immobilien", "address": {"city": "Schweinfurt", "zipCode": "97422", "street": "Greulstr. 4"}, "salutation": "Frau", "firstName": "Angelika", "lastName": "R\u00f6nnebeck", "mobile": "01773526239", "phone": "09721-6755862"}</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Moderne 2,5-Zi-DG-Wohnung am Heuchelhof", "basicObjectPricEur": 850, "basicLivingSpace": 72.94, "basicRooms": 2.5, "basicConstructionYear": 1993, "basicCity": "W\u00fcrzburg", "basicStreet": "Prager Ring 2", "basicUrl": "https://www.immowelt.de/expose/2aqvp5t", "basicContactPhone": "09721-6755862", "basicContactMobile": "01773526239"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2am365w"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"Helle Wohnung mit Balkon in der vorderen Sanderau!"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>["Kelleranteil", "GEPFLEGT", "FERN", "kable_sat_tv", "Balkon"]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.400,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 890, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/0cd8c2fc-f0f8-4803-b570-0bc0474a7ed0/ff573215-5a42-4351-ba40-cfa78f0e290f", "https://ms.immowelt.org/9f20ac68-d479-4226-9c79-53570da7eb1d/e2de2ea2-5dcd-44f2-94d5-5e6076766679", "https://ms.immowelt.org/65a23389-315b-4e17-9a6f-c8bcf8e849a7/ef1d6fb2-36ee-4c22-9b98-1f57d5548397", "https://ms.immowelt.org/57d6c377-cfc6-48d1-a1d5-1088cf6393f3/bbd12d5a-7478-4c07-bfbf-ce2e86b907b4", "https://ms.immowelt.org/0a903ef0-4c0b-431f-af10-207debb8ec0e/ced5048e-e943-4b27-acce-5dba9b2424d9", "https://ms.immowelt.org/c5093796-6848-4a03-8695-1e10dfd39fb2/ee4c2860-ca11-43ee-b24a-c8691f01283c"]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"companyName": "arndt immobilien GmbH", "address": {"city": "Rimpar", "zipCode": "97222", "street": "Friedrich-Ebert-Str. 6"}, "salutation": "Frau", "firstName": "Brigitte", "lastName": "Lienert", "phone": "0931 46079392"}</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle Wohnung mit Balkon in der vorderen Sanderau!", "basicObjectPricEur": 700, "basicLivingSpace": 58, "basicRooms": 2, "basicConstructionYear": 1955, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2am365w", "basicContactPhone": "0931 46079392"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2abty5v"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>"[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung"</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 430, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 115, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/7a4af935-fdca-42b8-b470-a905b68d671e/717dc8fc-8461-4d19-89e3-3eaf6c5bfb76"]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"companyName": "Tauschwohnung GmbH", "address": {"city": "Bonn", "zipCode": "53175", "street": "Graf-von-Lehndorff-Str. 12"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_13236f6bb6c141cd845d0ac0006487a0.jpg", "salutation": "Herr", "firstName": "John", "lastName": "Weinert", "phone": "+4922892939484"}</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung", "basicObjectPricEur": 430, "basicLivingSpace": 64, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2abty5v", "basicContactPhone": "+4922892939484"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a4kg5w"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>"2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>["Neubau", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lindleinsm\u00fchle", "ZipCode": "97078", "LocationId": 496017, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lindleinsm\u00fchle)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lindleinsmuehle/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 900, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/5ffec635-8f46-4cc1-aadb-8b583ac94f49/a055949a-2702-4368-b5b3-7b0ed426b642", "https://ms.immowelt.org/8908f348-9991-4a07-ad66-d7d75614e10a/fca9e8be-88e9-418f-a5eb-9e0d5767a5f4", "https://ms.immowelt.org/cc8d5f7e-0ed9-47a3-818b-45790a8111fc/1ff9a9de-b0c2-4a71-935d-2fd2d9164ad1", "https://ms.immowelt.org/e595bf82-bf35-4dea-bb76-166a24244d92/420389cc-e1aa-4a32-94b8-9d099fca203b", "https://ms.immowelt.org/2512e689-4ae0-4ff9-9611-9f151ac18678/c4e6c45b-c697-41d7-a51f-d244d8f1a417", "https://ms.immowelt.org/e0483e5d-da13-4926-a03f-c238c4a327ae/737d7425-941f-4ec9-a90e-14f51213a74f", "https://ms.immowelt.org/23fe53b7-3d5a-4509-a222-5cb8ed3d516c/a46ccbc0-6aef-4e2f-ac21-6d245e72052d", "https://ms.immowelt.org/349313e4-73e0-40b7-b119-9fe817365e7a/7f23958c-275b-4a0e-8d30-ad6e79f317f7", "https://ms.immowelt.org/ac9b1a48-16e2-4119-98ba-9a1a890ff38b/c3716b49-d728-4b6a-900b-7d66e9cd4354", "https://ms.immowelt.org/e3084b71-0919-4d54-96d4-4d35ce184a9c/c4edd6a6-581b-4387-81e6-1df5e276dda7", "https://ms.immowelt.org/fa543343-fde7-4b91-b370-eee9cd1e0f90/62763f8c-bf88-4f8a-bbfc-b721085c2412", "https://ms.immowelt.org/2a737240-80f0-4710-a8f3-7c4f1c3f6233/08bf7007-717d-4120-b7cb-50bf91a1393b", "https://ms.immowelt.org/727ce8f8-3e8b-4da9-95ec-b855705005c5/07256d94-2372-4172-b756-d7101c994e5e"]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>""</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik", "basicObjectPricEur": 700, "basicLivingSpace": 47, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a4kg5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2affg5v"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>["WANNE", "Etagenheizung", "moebliert", "Einbauk\u00fcche"]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97082", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.250,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1125, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/ed2e6e9a-a8cf-4e9e-89c9-92ebe0bd9ab9/3c8c330e-15e6-439e-be44-6f02de4b9dd5", "https://ms.immowelt.org/e963b58b-6a58-4830-8e37-e9e446a7ca40/edda2664-fb0a-48dc-bfe4-3b20c61c8b1d", "https://ms.immowelt.org/6945f917-297e-4dfb-b166-4245a2333e2c/5a890870-d05f-4063-b0e5-63ad31ca7572", "https://ms.immowelt.org/ffa99189-2ca2-46fb-aa14-f6fda02818ae/6a859704-19f9-4907-92f9-a5b7fcbe4248", "https://ms.immowelt.org/86e1504e-0c46-4800-a6e0-cf24601a2518/bf8eec93-53d3-4368-82bc-ca50c66a45a1", "https://ms.immowelt.org/f15519e3-ee04-4739-b40a-ce0f84fb29ff/2c2c7101-3482-420d-826e-9efd57863f1e", "https://ms.immowelt.org/54ea5d30-e104-4f39-8a41-429b5961bbd1/55bee8cc-3633-4bce-9b47-af1971f0523b", "https://ms.immowelt.org/e88c0a6a-0da8-4b88-8865-a9f37cbd0e2d/9452b370-8d6d-4324-8a35-57b8a433c48a"]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel", "basicObjectPricEur": 1125, "basicLivingSpace": 60, "basicRooms": 2, "basicConstructionYear": 1957, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2affg5v", "basicContactPhone": "+49 931 416616"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a5ll5v"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1483.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>102.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>["Neubau", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1483.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 290, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/46db7f7a-e5d8-4eb4-a01b-a2d4e62ab2be/bb78636c-2f3f-4c2e-a53b-ef1fa9683a15", "https://ms.immowelt.org/b16389b6-eb92-42af-8130-0a76d6025358/fce845ed-0986-423b-8c1e-afd09a953917"]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*", "basicObjectPricEur": 1483.93, "basicLivingSpace": 102.34, "basicRooms": 4, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2a5ll5v", "basicContactPhone": "0931/382-7701"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>["GAS"]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>["WANNE"]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2ayb45v"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3601.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>225.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3601.44, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 460, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/b888654a-7be0-4b1f-bb51-2d8dca6a1aa1/5dc0db39-67ad-4630-8a84-004692c1c198", "https://ms.immowelt.org/4cb98d26-30d4-40dd-9345-c05636fc3d6e/3d269755-d356-448a-a4e4-c9c9225867b0", "https://ms.immowelt.org/71ab24a9-6d26-4798-959a-526196ab2526/2338dbdc-85e0-452f-bbf4-cbd765176db2", "https://ms.immowelt.org/e212abae-27ab-4901-ad56-4abbf1ab429a/076c61fa-ae56-43bd-90cc-3d4a1f246534", "https://ms.immowelt.org/45fda28f-bd4b-477c-8e5b-025d3035fc24/25270c0c-e6f1-42be-9bc6-154afc390bde", "https://ms.immowelt.org/250e735d-28bf-4e41-a26e-10bdcc174a72/9ffa4901-709f-4a22-bcf8-4026af4845a8", "https://ms.immowelt.org/47738d72-90e1-400f-8f26-b0c89e0a04d4/b2671ee7-2150-4931-ae87-848ca314834d", "https://ms.immowelt.org/09239b5c-efed-4862-9be0-12284713015c/c50d605a-b30b-4c1e-b8c7-c377d0105c47", "https://ms.immowelt.org/32be8996-eac0-4fda-8211-2d8fadd6467a/c5cb6c3d-45d4-45e6-8603-f3cc8967b34e", "https://ms.immowelt.org/de7996d0-a07e-44a3-a014-b9f228303c3b/f4242060-e83a-4836-b64b-41645c5c5e94", "https://ms.immowelt.org/d9382006-8b3f-46eb-802b-250a8fca3f96/03f39cab-4da2-4c36-80c1-23a7fbd309fe", "https://ms.immowelt.org/36af7108-dfdd-4ff3-ab8b-6e92d3508062/2f20f749-7813-4534-bde5-1a624ad88952", "https://ms.immowelt.org/ba912dea-da2a-4abd-add2-64d03801c9f2/0f910eff-7ebe-4154-9f66-0556d0a42237", "https://ms.immowelt.org/469127b9-c85a-4e77-a7fa-af7365f65cc3/9cd962ef-da29-4690-9168-413036c7882b", "https://ms.immowelt.org/0341b685-a77c-4318-bf97-0b0facbf1946/c0c91076-cd90-41c2-8e29-c3d9b6bc4e76", "https://ms.immowelt.org/349ba8bc-380d-425c-9404-fe30348c76fb/be7df368-083b-4bf6-bb15-c9ee4809e9b4", "https://ms.immowelt.org/769d004b-9208-4258-b045-f78d35bbe304/cab7c6e2-a6fe-44e9-b980-49f912c4dc33", "https://ms.immowelt.org/32a4701e-f4a1-4e08-ac43-7f82a0871c0e/05462d50-f4b2-41fb-94fc-03251da46a31", "https://ms.immowelt.org/c3b62a14-8ad0-4bc1-ad12-407a7b7d45c1/1e082fb8-309d-48fd-9675-1e19df39056b"]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Frau", "firstName": "Heike", "lastName": "Fabiunke", "phone": "0931/382-7708"}</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3601.44, "basicLivingSpace": 225.09, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ayb45v", "basicContactPhone": "0931/382-7708"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2ay645v"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3163.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>218.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3163.32, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 440, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/33a10e2d-1546-47e8-8bf4-47024f96365d/8d31a374-f6c2-4671-ba5e-b06a8d7c1f18", "https://ms.immowelt.org/e715d610-ea80-4459-9e3a-1ea8a574c0d7/c594e925-e9d3-4474-88ff-ee637dc4b81a", "https://ms.immowelt.org/f3e49668-7602-45ad-979f-f68f0c60ad46/6da2c38a-e66f-4112-b3c3-70ebaa38a22f", "https://ms.immowelt.org/e4691abb-17a5-41aa-949d-88daa0ab8d3a/42a9ae4f-34fd-4230-8329-9c00ba557222", "https://ms.immowelt.org/62981e85-dc6c-481f-8d77-c7e82c11d711/a90f265f-b3b3-4b6b-a854-a05b00191bac", "https://ms.immowelt.org/c1f1f311-d95b-465f-94a6-317a246989d2/e96a7cca-1527-484c-a8e9-f79e1cf28136", "https://ms.immowelt.org/935854af-6f17-4d5d-b023-6647d4cc8d4d/87cabb52-19fe-4dca-a81d-9b0f6d4daa7c", "https://ms.immowelt.org/d22f872e-159f-4f19-bb2a-75f5b228899d/044b33f6-2258-490a-ae2a-52d9ce17b653", "https://ms.immowelt.org/58dca412-8d3b-415e-9a26-359678019657/0858d4e1-5dc0-4297-8a4f-b5db5dbeb8b8", "https://ms.immowelt.org/f9bab463-404a-46c6-990a-559df575f251/6d53c5c6-d652-4e1d-98e5-448095327b4f", "https://ms.immowelt.org/6559ac4a-0154-4e05-a366-dbf71d55ad3a/29c1a7fd-15be-4a1b-91ca-9db0f1c442f3", "https://ms.immowelt.org/85c20839-cb59-4728-be4d-78d1ffcb9274/f88983a1-2f68-4f01-af1a-cae1794eb9e4", "https://ms.immowelt.org/f0a33cc2-272c-4fe9-a229-0c65344655fb/1911e15f-4afd-4691-a583-109b097d5b1a", "https://ms.immowelt.org/26da2883-f715-4c66-a8d1-3e2b9550fcf3/90d1f6cc-c1ae-4b39-889a-79bf683b589e", "https://ms.immowelt.org/b51072d7-8214-4cb3-b4f1-4c2d9c08cc58/e2548663-d3a0-4cb8-b0f7-5aaacf362ba3", "https://ms.immowelt.org/b5dd6e96-9575-46aa-af37-c7a1914335de/e4d4ff07-527e-4aff-be0a-66c047b2b747", "https://ms.immowelt.org/4c4b10ce-78b2-449d-a1c4-38ef2035555b/8094732c-995f-4ee6-af5f-e52e6a68bac8", "https://ms.immowelt.org/36750323-149d-49f3-8859-a599078cdc7a/0c862b3d-b2f3-4b3a-b234-8e9299775647", "https://ms.immowelt.org/d1d807de-1e05-4eca-b9fd-01dd45660714/8d6cc502-9779-4a2e-bfea-d50b253ff0f3"]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Frau", "firstName": "Heike", "lastName": "Fabiunke", "phone": "0931/382-7708"}</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3163.32, "basicLivingSpace": 218.16, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ay645v", "basicContactPhone": "0931/382-7708"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a54x5v"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>["FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Zentralheizung"]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Rottenbauer", "ZipCode": "97084", "LocationId": 496020, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1800", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Rottenbauer)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-rottenbauer/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1100, "Unit": "EUR"}, {"NumberValue": 20, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"salutation": "Frau", "firstName": "Astrid", "lastName": "Leis"}</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 900, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a54x5v"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2agwq5u"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>["Dach ausgebaut", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "GEPFLEGT", "Massivhaus", "GAS", "Zentralheizung", "DSL", "teilweise m\u00f6bliert", "FLIESEN", "frei", "Einbauk\u00fcche", "wg_geeignet", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Amalienstr. 6", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "640", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>["https://ms.immowelt.org/9ba52a69-6182-42ac-b135-aa03971398d6/ca08d294-c112-4542-9217-884244d0d406", "https://ms.immowelt.org/d2976824-6694-44cf-a9b6-27ee23e5ee7d/3b4552e6-7f48-4f9f-8935-65701930862a", "https://ms.immowelt.org/abd16da6-4e60-4077-9fde-df90d5c35ba9/70090f09-6bb6-46bb-8d61-ad69a6f9d337", "https://ms.immowelt.org/9241bd02-41ac-4193-ac08-cb9f982e4abd/4fa1546f-a5f4-4860-b778-44b40407edcb", "https://ms.immowelt.org/297cca9d-a7ba-4a67-92d9-93365151b7c5/d95e6e27-06ec-47b3-b787-69c008ab106a", "https://ms.immowelt.org/3b016415-9aa0-4c6f-bf4a-a08f53671a65/e9132359-9ac5-4683-82f7-c4fc218d8306", "https://ms.immowelt.org/4282be92-39da-4459-a8c5-34173ddc7b9f/a8aeb00d-0b5a-48c1-b780-9278afd054ca", "https://ms.immowelt.org/3f00ed7e-8bf1-401b-8f25-642aae0303e9/8f662276-261e-4853-9a0e-c16cf1a0cf16", "https://ms.immowelt.org/33cac6b2-f066-48ee-b86f-8f34b674b64f/8da9104b-a492-47aa-af05-5e118833566f", "https://ms.immowelt.org/ac6357bc-41cd-473b-8073-52aba4823641/a4383c9d-9081-4f5f-afb3-b59a77fa5b00", "https://ms.immowelt.org/d4734ed1-2904-4290-956a-e971b09473c8/b9a53b6e-72d5-418d-a421-3175e22ad8b1", "https://ms.immowelt.org/e5fc4d4c-767b-44a4-ac3c-a5c84a34fe37/4bf5f24d-e49d-4e14-bae7-18735aba7802", "https://ms.immowelt.org/2fa16c88-73cf-4bf1-9ce3-d457a8a03c5e/caa28f6b-695e-4ee6-bc27-d83d081028ad", "https://ms.immowelt.org/600d4913-62e1-4dd5-9431-46e3dc04f5c0/31f22258-60a5-4acd-874e-d498ea457528", "https://ms.immowelt.org/c78f9909-a0a5-427d-9b1f-a8553957ae21/3eb778af-08e1-40d5-b415-3df323797a59", "https://ms.immowelt.org/de687aba-16ee-476d-a8f9-30df0fe0ec6a/a9787e5c-ea67-488e-af3c-076b4e47fea9", "https://ms.immowelt.org/8b1beea6-698d-4888-97b4-de46bd7498ed/4f90c6e0-1013-4950-9c20-5c0ff18aad7d", "https://ms.immowelt.org/da588edf-b340-4add-adc0-fb3f0c96ad72/59acdf1e-b87f-4ddb-b8d5-ab9ae3aee1eb", "https://ms.immowelt.org/9642eeca-e631-4ac4-ae64-100ae2a9f0e9/996373fc-c623-4411-afbc-f2104a65e4a7", "https://ms.immowelt.org/773ea5c5-cb8c-413d-a62d-d05b7ed9e19e/ca6e755b-48d9-4b44-9df9-56eb13fc5024", "https://ms.immowelt.org/e7f711ba-ac7b-44fc-90e8-deda2cee8b0c/bd0ca932-727d-4d26-8518-5c0e19bf2160"]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "6er-Studenten-Wohngemeinschaft - Zi.Nr. 2", "basicObjectPricEur": 320, "basicRooms": 1, "basicConstructionYear": 1972, "basicCity": "W\u00fcrzburg", "basicStreet": "Amalienstr. 6", "basicUrl": "https://www.immowelt.de/expose/2abjp5u"}</t>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/cf8697dc-afcd-47ae-aadc-64c4cc78569c/35b4d352-660a-4816-94a6-619497123ae8", "https://ms.immowelt.org/a32b8f72-a566-4394-bea1-04e883e8fce2/7099cff9-9eea-4d1f-bad4-4033626afe54", "https://ms.immowelt.org/105a8a3c-c718-4c20-83ac-d0a5ef1a7f53/9db73218-715a-4963-942c-e41a29ef7b07", "https://ms.immowelt.org/64d9efa5-0a66-44fe-aa1e-b89f834ad546/6f687f3d-4a05-4f47-a1f8-8b78ca7e8bfe", "https://ms.immowelt.org/a3fe7335-2ba5-4c30-a137-cbfb5fd2a35c/20496698-5e1f-4243-9338-f56821682d4a", "https://ms.immowelt.org/a449833e-f4f4-43ff-8ebf-01bc5160e5c9/ccc566af-477b-4888-b03f-1cc64f4f1c45", "https://ms.immowelt.org/a6d17184-1155-46e9-af2c-d83d9e1be344/aab72d40-469f-486c-9add-806a5481ac6a", "https://ms.immowelt.org/a5271f16-acef-4db4-84ba-2b1a9ddc5892/57e11dd6-6321-45eb-85e0-aaa0f1e15bfe", "https://ms.immowelt.org/921ae069-2035-4dbb-a619-8ad9012a2442/0e6324ba-04b0-4141-bcc2-3b6cb33ac8ea", "https://ms.immowelt.org/6dc638c1-e4cd-4f0c-87b2-169cc34b0bd8/2af01fd5-93ce-4fc8-ae87-9a3817a2ef84", "https://ms.immowelt.org/a5894c49-800c-4d59-bb53-e598cf560634/0aa6a439-1071-40bd-a3ef-3bd2192fad8c", "https://ms.immowelt.org/1824d009-9f1e-4248-ac1b-d6198f9c17f3/ffd7b610-0d17-43b2-b15c-614cccf8be14", "https://ms.immowelt.org/45f31b8e-c2fc-45ff-8dac-c0bf8fea6e03/a11c6ffd-ddba-4524-9aca-520b2604d193", "https://ms.immowelt.org/5ec8ff49-d6b8-4dd0-bd1b-a04062520b58/b2e43f71-c2eb-4713-a428-6da937a58826"]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agwq5u", "basicContactPhone": "+49 931 416616"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2af545v"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3030.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>178.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>["barriefrei", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3030.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 360, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/2b7c4c91-7fac-4ddb-a032-3a51184dbb59/8f34d9b5-fec8-4e21-99c7-6f7a2921d4d1", "https://ms.immowelt.org/61a862a4-1bd5-4769-abb9-5e1d7113f8bc/88d5b2b5-7ef0-4388-8eb9-b7042670aee5", "https://ms.immowelt.org/37c438a9-8ae7-4d42-8006-bc3a55265670/12a6e3ea-2554-4920-bec1-7d536539c02d", "https://ms.immowelt.org/49abcb3b-4395-4691-8e92-b525edda30d4/f7c44e0e-0db0-456e-8cb8-845d816e37ec", "https://ms.immowelt.org/ce95a7e7-0ad6-4282-8ca2-5ce205488707/dbfb5e54-2bfb-4d01-91ec-1ca118a3a922", "https://ms.immowelt.org/b3cc6d40-e3b5-407e-ae5e-be0785a5a218/686cb7a1-8858-4011-a5e0-a8fd590fe4e6", "https://ms.immowelt.org/424d3898-11a5-419c-a472-b6bb5eed3e76/e7d72403-5394-43c9-a960-10468f29d064", "https://ms.immowelt.org/19d6858d-2cb5-437d-8cdb-6fb75d54c5e4/8e3114ed-77c5-47c0-8dce-725b44e8785c", "https://ms.immowelt.org/f536fdcb-a38d-4b90-beab-277e244cf6a7/ce23ee46-5ee8-4496-b672-c3ea031e92ac", "https://ms.immowelt.org/933295a3-d9da-4860-ad95-06490c6fddf4/182424c9-5902-4b40-be26-512097b49929", "https://ms.immowelt.org/a77d50f5-f8e0-4928-bcdc-2fa7c6e36e7d/05824030-0135-4ec2-93dc-52a0bf313587", "https://ms.immowelt.org/dbfe5771-25b1-460e-a2dd-140a19fae05f/4dd99d70-1f73-40c8-aab7-49051e0e90ec", "https://ms.immowelt.org/9689e92f-fdee-4ff1-99c1-89400857e515/a07a7b18-a41e-45a3-9fe1-f64211e577cd", "https://ms.immowelt.org/c3fdabd3-6c7c-4da9-9941-17117007bd14/16545b70-e49d-4309-85c5-a84123f7c8a2", "https://ms.immowelt.org/ec2b29d2-9e49-4ccb-965f-e26d155e848a/1c4de27d-2032-41cc-a466-04b10ad4f27d", "https://ms.immowelt.org/c2913eaa-8856-44c1-901b-0ae4b9a9ffa2/387a24b5-3c67-4740-ac58-0de078b68ff8", "https://ms.immowelt.org/81e05570-c572-4168-acf8-500cd9f74a65/796a2975-473d-4971-bd18-d2765832485e", "https://ms.immowelt.org/2c90ddab-a797-471f-a2aa-53b9ac172a1c/43c8617b-2da6-4fae-99be-395aaf2774e3", "https://ms.immowelt.org/24b3e778-e131-4042-ba05-7b63afaf1ce0/b0dfb227-b3fc-4605-b1c3-58573b4f24d1", "https://ms.immowelt.org/1d31929b-a5c2-410f-9bef-afc44f5e68c1/bc515335-0e9c-453b-bfcf-ae09a83fd65d", "https://ms.immowelt.org/d6e04616-c252-4d95-8d95-9d504b0fb3f4/07aa7bfb-71ab-4b13-bba6-99ba35097b80"]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Jendrzej", "phone": "0931/382-7701"}</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung", "basicObjectPricEur": 3030.93, "basicLivingSpace": 178.29, "basicRooms": 5, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2af545v", "basicContactPhone": "0931/382-7701"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aeal5v"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>"**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "FENSTER", "Souterrain", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "frei", "Einbauk\u00fcche", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Rottendorferstra\u00dfe 55", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "830", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 415, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/a3c1d1a9-92f0-4260-b2b3-41eb1b7cb966/c490aefe-bdcb-4b73-9783-a0bcc158c257", "https://ms.immowelt.org/b05abc2c-f624-4093-86a5-80f153fa6197/05af8f24-b7e4-4ba5-872c-39eed41b4cb5", "https://ms.immowelt.org/5be4bd8f-231a-44d8-8f0b-608a4f6581bd/0af81664-7d97-498f-8adf-3b5b5fe348ae", "https://ms.immowelt.org/725fb4fb-900c-4cd8-9554-dd83fc7bd725/99474ade-0e13-4d47-bf95-373cf4af43ec", "https://ms.immowelt.org/a0bb9c06-d60a-40e4-9521-94d9c183a14d/93799d3a-657d-4385-b487-2691349273e9", "https://ms.immowelt.org/3b4d1b7b-a5fe-4a37-b98d-6fc308d03c5b/c80e2b27-9270-47ef-b292-eb1efd72ee07"]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"companyName": "M &amp;a; M Bauprojektierung  und Vertrieb GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Franz-Brentano-Stra\u00dfe 2"}, "salutation": "Frau", "firstName": "Selina", "lastName": "Wiesner", "mobile": "+49 176 21469496"}</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz", "basicObjectPricEur": 415, "basicLivingSpace": 26, "basicRooms": 1, "basicConstructionYear": 1950, "basicCity": "W\u00fcrzburg", "basicStreet": "Rottendorferstra\u00dfe 55", "basicUrl": "https://www.immowelt.de/expose/2aeal5v", "basicContactMobile": "+49 176 21469496"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2av845v"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1797.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>123.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>["WANNE", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1797.71, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/34aad469-3611-425d-9832-c02c7060cb23/77ba9d6f-e612-4962-9317-bd0107dc25f7", "https://ms.immowelt.org/8ea07a0f-c3a2-4e3e-a9d2-fe6544358d93/58dbc143-5e69-4062-9eae-b767cf0c69b1", "https://ms.immowelt.org/6b6cd2cc-a04d-480c-949a-1a21bbd7e1d4/51babd4b-8fbc-456a-862b-c4ebde7dc41a", "https://ms.immowelt.org/a8f09c5d-403e-4528-a15f-17ef6819f51c/15cf94e1-0865-4970-bdbc-7eeb2e4e321a", "https://ms.immowelt.org/a74342e9-df14-4a0d-b4c6-600423e5e886/caed2534-21fc-4d11-981c-a2164e56802b", "https://ms.immowelt.org/57b465e5-f400-4f58-8856-6a92ccb5dc5c/e24df36d-9d71-44a2-bd39-c0146b4df941", "https://ms.immowelt.org/4d380785-997d-4deb-b741-8c14d08622b6/d794011b-6b71-4e97-adb0-c319032680b3", "https://ms.immowelt.org/a1aeaa9b-89a7-4a5b-b3ed-598756319607/14a91c1a-5084-49dc-b75d-74d20228a8f0", "https://ms.immowelt.org/af2232f0-1ef7-4481-801f-2a5ff59e0092/96a901ff-03de-431d-886e-d860ac84fbc4", "https://ms.immowelt.org/eb83b1d9-acf0-4e74-b0b3-5fa3fcc1ca01/705ad620-364a-4237-968f-e9f4e0c3eb36", "https://ms.immowelt.org/b34e24ec-eac1-4eae-b4db-e1f386853cb1/292b937e-2528-4472-8123-fa7a878ef84b", "https://ms.immowelt.org/4111770b-ae7b-4dce-b625-f990d3c5ba1e/b7539eac-4bf3-4d62-ab60-f12720be1758", "https://ms.immowelt.org/73dc46c5-cb67-4432-b97f-e11d22268b50/6613c506-3bb4-4e53-a0ac-d3296fe50f9c", "https://ms.immowelt.org/d8083607-cc91-46ee-92df-9a6f4eed9d3b/59f57e14-612a-4c44-8a58-7436d9771597"]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sparkasse Mainfranken W\u00fcrzburg Facilitymanagement", "address": {"city": "W\u00fcrzburg", "zipCode": "97070", "street": "Hofstra\u00dfe 9"}, "salutation": "Herr", "firstName": "Wolfgang", "lastName": "Roth", "phone": "0931/382-7702"}</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon", "basicObjectPricEur": 1797.71, "basicLivingSpace": 123.98, "basicRooms": 3, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2av845v", "basicContactPhone": "0931/382-7702"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a9245v"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>"Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "TEPPICH", "FLIESEN", "Balkon"]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.630,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 815, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/56dbfa19-0b11-4212-a585-a3bb9055fc6c/55af236d-1cf3-446a-a9ea-5d847c1f3c78", "https://ms.immowelt.org/2321a506-3294-4da0-8ed9-9c32a877cc19/568e9ef6-6f64-4112-9523-9eaf25a3f970", "https://ms.immowelt.org/c49d4e0e-c519-4110-bf9d-48d46975f264/51ad8f90-ae3d-4f54-9436-a3ce93d787e0", "https://ms.immowelt.org/1efec59d-a37f-4e4e-81e0-d2638e029208/c9bd61b7-4af9-4819-822e-916b4c491efd", "https://ms.immowelt.org/35f3c816-30ad-4cfa-a370-9fd3df5a890b/0f5a8622-ff9b-48a3-b656-48f75cd9c811", "https://ms.immowelt.org/1d11277d-e06d-43d1-807a-35d99c5f5cd5/51935719-85d7-4a46-a718-1c1a7bedba2c", "https://ms.immowelt.org/3f9f17e0-3b0f-42d8-9623-bd41d7d12fc4/d88f57cc-ca14-47d1-b0ac-e5d037c3114a", "https://ms.immowelt.org/4c16ccd5-7611-496f-9fc2-a5cc9e95ca96/0cc9afbf-324b-4dc0-a841-e5417e3c909f", "https://ms.immowelt.org/23f4ce8d-d0f3-42f3-b7c2-cbea89a39473/eb285820-0b71-4189-8a94-494d832c127b", "https://ms.immowelt.org/36d590ab-2de9-46f3-8cef-b4af4efd9be0/8e11440a-7fe1-49cf-a002-13e4285760be", "https://ms.immowelt.org/8099beb8-56a4-493f-b95f-2490484605d5/fbb624d4-8b55-48d5-8b8f-5535a08872c5", "https://ms.immowelt.org/1978dbc1-a0ed-458a-abcd-d22f103809ef/1a5cc04f-0b65-48af-8e69-c835714ab2e7", "https://ms.immowelt.org/6b1ab129-3f95-42da-9d53-8088db0a9349/25c6e471-016e-4261-b4ae-a73987e4f403", "https://ms.immowelt.org/9b310d23-aa9d-41f5-8f34-29a9b7aa4471/bae39b36-c4b5-4cf8-882a-aca3ba40538c", "https://ms.immowelt.org/20713457-85cd-4f26-970b-eca4af0b6b71/be6308f1-d0c9-4aa5-8a10-3a4f1f28ff33"]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan", "basicObjectPricEur": 815, "basicLivingSpace": 40, "basicRooms": 1.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a9245v", "basicContactPhone": "+49 931 416616"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aewq5u"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>"Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "FLIESEN"]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.900,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/f347f786-4652-4c8e-9723-ceb8482ed2a3/16c9950f-4ace-41f5-9ccc-eaaa0aa3dbb9", "https://ms.immowelt.org/60aa648f-6f16-4380-abe5-63e8ae5378dd/1d329405-999e-47ed-b506-8156c516bb9c", "https://ms.immowelt.org/16d637dd-3a33-4bf0-8693-79b7659f1eb0/e2923eba-0c2c-43c0-a404-10acd4276f3a", "https://ms.immowelt.org/7ab4e781-08fe-4bc5-9a39-8cc82d9e56f4/a82e3028-f3d5-4cfe-bd0b-a551438ca593", "https://ms.immowelt.org/0a430e4b-4799-408b-aab0-eb47ee04004d/cebdd699-3ea0-4f8e-b231-dfc611d1523e", "https://ms.immowelt.org/08456fdf-7e5a-4d08-bb25-8826aa6af0b4/8a06e9fe-62da-48f0-b99a-b150ea1634ec", "https://ms.immowelt.org/9100c73b-327e-4e9a-8a72-a66c8a7da1fb/b5084958-c7a1-4b5e-963e-7f9f02d43f7a", "https://ms.immowelt.org/57737cd7-44f5-4687-a55c-2f3d25320540/1f93643c-235f-4804-a283-65554ed0f691", "https://ms.immowelt.org/79943cff-f49b-46a1-a29e-0d545ee5c5b8/a7e253ae-bc77-4373-a712-673cae102a7a"]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Moderne 1,5- Zimmerwohnung in W\u00fcrzburg/Altstadt", "basicObjectPricEur": 950, "basicLivingSpace": 37, "basicRooms": 1.5, "basicConstructionYear": 1990, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aewq5u", "basicContactPhone": "+49 931 416616"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1720</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>123.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2akwq5u"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>"Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "moebliert", "PARKETT", "FLIESEN", "Einbauk\u00fcche"]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.190,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1095, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/f58fd648-14ff-458e-b34e-ed1a79e43d74/d87e4e66-4884-409c-b2cb-2157459b3064", "https://ms.immowelt.org/0a87650a-5809-4688-8750-7ae6c25a4099/e24ce7b4-9191-4f35-a1d0-23492c9ab7b0", "https://ms.immowelt.org/791a160a-38a3-4dce-a18c-5ce7143fd3f5/bd4c9b95-f50f-4c31-a999-9365ab6d2f07", "https://ms.immowelt.org/d04e8834-3fb6-41c7-b54a-e8fbd81f4738/544118d8-4448-48cb-b903-f895e30a79c2", "https://ms.immowelt.org/0a28069f-f140-484b-8e74-4397443a7579/52a860be-e6e0-41df-ad9f-635a12c08567", "https://ms.immowelt.org/93620f2c-07ac-40ae-89e8-09de2a90ffff/0aad3bf6-a9a2-41e4-841c-299b26265c3a", "https://ms.immowelt.org/a67d6581-3a59-4dc4-a4f3-965a7168620b/da1adff0-5907-4ab5-8913-e075b2d30c48", "https://ms.immowelt.org/deeb3874-cc27-4a7f-ac51-854d6765dd3f/3218f2ca-a245-4045-af54-619a9b8882e3", "https://ms.immowelt.org/ac67f904-20c4-4c6b-90f1-3d808fa8dae1/795689c7-539e-470a-a2a4-32e423451bd3", "https://ms.immowelt.org/974474bd-d9e3-4117-a672-6922106d164c/a2bb49a6-741b-40b0-8a0b-40d9f75d0f02", "https://ms.immowelt.org/936ffd96-d118-4d3d-8f77-ff73d6726300/5bb5b59e-9b1c-44ee-816e-31d9b28dd5a2", "https://ms.immowelt.org/9e5f7e76-6418-46d5-af9c-45309a550a97/c9909e8a-e4cd-4d4e-826e-4ec43a4165d9", "https://ms.immowelt.org/fc5c4ab6-6dd7-402d-aa17-1d5f9d8e29b0/f9213bf7-281b-4c08-8f0b-e78f6fcb7c71", "https://ms.immowelt.org/efbfc541-75da-4200-8395-1db7a9483e5b/68140100-e86c-4af6-88d7-26d0e819a523", "https://ms.immowelt.org/6069128c-8b73-4678-abc6-ee0b63823860/cceb6f64-a341-4849-9927-b2c5dd025aad", "https://ms.immowelt.org/c13a4106-75b6-444b-87e0-05ccdb99308c/a077d4b3-99d4-474b-b40f-6be9110341d9"]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 1095, "basicLivingSpace": 63, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2akwq5u", "basicContactPhone": "+49 931 416616"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2auvq5u"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/231cfc3d-f3ec-4eea-b3d8-d3f27a286b40/3058b16a-8a05-47d3-8512-63886059b512", "https://ms.immowelt.org/2660e3fb-eb65-4bd8-8844-5b667e3b062d/adc4fedc-4170-4ee1-a6c7-2d63780cfd0e", "https://ms.immowelt.org/dcb8e961-2856-45f0-8df9-13b8f9f4cadd/19a60ab9-5a93-4d74-be47-9ec0408e6e89", "https://ms.immowelt.org/4f79f7ef-0e51-49b2-ab74-287b9836cc3d/83e20f80-c025-439d-aace-e927f852a97b", "https://ms.immowelt.org/08d42db4-e036-4159-8269-dcb7bd5631a1/9cf8e0c1-3269-44d4-986b-bd625c8101ae", "https://ms.immowelt.org/2f13d3b5-8df8-4ac9-95af-5ba7f89e3dc1/d94afc12-acd9-4275-be9b-8fae1c182d5f", "https://ms.immowelt.org/0308a23f-5076-4db4-9f3b-c6024f595313/7143a6d8-6101-40b4-a19f-aba8e2a5a145", "https://ms.immowelt.org/814288ea-742a-4172-affa-ff8454f45731/e6ca30e2-64eb-4733-9789-940742a1d5d5", "https://ms.immowelt.org/ba83b81a-c23e-4eb8-8f5f-47a680847e30/7b794550-2c44-4fa8-9bb7-a6f8c6820a8a"]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{"companyName": "HC24 GmbH &amp;a; Co. KG - Niederlassung HC24 W\u00fcrzburg", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 16"}, "salutation": "Frau", "firstName": "Konstanze", "lastName": "Kress", "phone": "+49 931 416616"}</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2auvq5u", "basicContactPhone": "+49 931 416616"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a6kh5w"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>"neu renovierte 1-Zi-Wohnung in W\u00fcrzburg-Versbach ab sofort zu vermieten"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>["FENSTER", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche", "Balkon"]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Versbach", "ZipCode": "97074", "Street": "Siebenb\u00fcrgenstra\u00dfe 2", "LocationId": 496021, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "900,00 &amp;a;#8364;", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Versbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-versbach/mietspiegel"}}, "DataTable": [{"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 110, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 560, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/a43abc82-8ac3-4cab-a5b6-53bc82b3a86b/3a377faf-3eb8-4817-be74-cb42138a316c", "https://ms.immowelt.org/e7f30df8-dc76-47cb-9993-d30f406bd8d7/13c28acf-3d54-44f2-b940-4b8bdca4a9b6", "https://ms.immowelt.org/7093aa31-b326-4705-9fbd-9689f3f8db74/224d0bcd-b01c-4d21-bda9-75ebc02a4552", "https://ms.immowelt.org/60513d87-9ec5-4214-9438-9c82e1100233/0408ab34-5e7b-44a9-b736-d6039cff046b", "https://ms.immowelt.org/bb880bc5-4b45-4b22-9fe2-b905e66ae9d1/10cb98ca-5eaa-46e9-ba7c-515ddaf73266", "https://ms.immowelt.org/3f6c46dd-57a1-4a50-bee1-6913fdd35dc7/1a1e4495-8064-4237-9f2e-15ca8389d065", "https://ms.immowelt.org/1ad6bb21-d96d-4ba9-b01a-517a299fd375/faefc4fa-e636-4172-bd4d-3e933b48c285", "https://ms.immowelt.org/8c2bb07f-94a9-44fe-adcb-a12981d34755/81618401-0fc8-40af-9ff3-ea3b21b45879", "https://ms.immowelt.org/d14dc2a4-c385-48c9-81cc-a266c929d0f5/b3d185e0-37ac-4025-9318-bbf2dbb44558", "https://ms.immowelt.org/f689d644-a825-4147-bbe3-902acd0ca0e0/99e83e8b-81ea-4991-8d97-9873a562ab60"]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "neu renovierte 1-Zi-Wohnung in W\u00fcrzburg-Versbach ab sofort zu vermieten", "basicObjectPricEur": 450, "basicLivingSpace": 36, "basicRooms": 1, "basicConstructionYear": 1975, "basicCity": "W\u00fcrzburg", "basicStreet": "Siebenb\u00fcrgenstra\u00dfe 2", "basicUrl": "https://www.immowelt.de/expose/2a6kh5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ac5n5w"</t>
+          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"2 Zi. DG-Wohnung, W\u00fcrzburg unteres Frauenland"</t>
+          <t>"Bestlage mit Festungsblick"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>610</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,49 +516,49 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung"]</t>
+          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1380,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 690, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 100, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 790, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/e560fee6-d1f5-4d88-985d-2a45b56bc9a2/99e465d7-a211-46b1-ac83-d807f3f05105", "https://ms.immowelt.org/9f3548eb-53e1-4cd6-8cb8-72ff7391acc6/ddb97f1a-0052-45f9-b9df-21dcd92def3c", "https://ms.immowelt.org/d1f1a1e6-ea57-41dd-8c06-2cfc4853af60/04a5afa5-cf13-40fa-a2cd-3199f38ef40d", "https://ms.immowelt.org/d841b2f1-d6c2-497e-91b0-23f06f9d6d27/6f421745-0421-4c7a-bdc0-0a9a0757dd75", "https://ms.immowelt.org/05eb2f1d-7605-4c8a-88be-6d8b50879f62/254e4f03-d100-4ac1-9006-92edb86499d0"]</t>
+          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2 Zi. DG-Wohnung, W\u00fcrzburg unteres Frauenland", "basicObjectPricEur": 690, "basicLivingSpace": 53, "basicRooms": 2, "basicConstructionYear": 1948, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2ac5n5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agsm5w"</t>
+          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Citywohnung - lichtduchflutetes, top gepflegtes Penthouse! Ideal f\u00fcr Paar oder Single!"</t>
+          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>566.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -583,49 +583,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>59.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["barriefrei", "WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GEPFLEGT", "GAS", "Ofenheizung", "Fu\u00dfbodenheizung", "Zentralheizung", "GRANIT", "STEIN", "Einbauk\u00fcche", "Pantry", "Garage", "Tiefgarage", "Haustiere erlaubt", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["Stellplatz"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1280, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"NumberValue": 60, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/087193bc-fbfe-4a52-b25b-e976836c1b5a/6a5b7c77-451a-4444-9e21-f08a30e84553", "https://ms.immowelt.org/83a83c8a-c9c6-4cf7-b43c-21eecdbba0a9/80a620ac-1526-4549-b2ca-23be56ff4f5a", "https://ms.immowelt.org/142e7bcb-13e5-4ba8-826f-0bb3477eeb84/6db81d67-746c-494c-8adf-241b0f790d25", "https://ms.immowelt.org/f1496f59-6df9-425d-80d7-a838a4c1a7dd/66c09951-f14f-40f3-992d-ff3131e560c1", "https://ms.immowelt.org/b8d31f37-b561-4a6f-8745-57f46eb10ed6/e6426a61-57e2-410d-aecc-cb8e2deef6b0", "https://ms.immowelt.org/1241e16d-eca9-4eec-be49-8aed89eb3c6d/b19ad343-bd92-4c30-8d65-53cba1a86284", "https://ms.immowelt.org/ae757e91-851b-4fd5-b3aa-99dd0708076f/71448955-dfdd-4e1f-9447-480c20308908", "https://ms.immowelt.org/be7d12b0-4181-43f8-b138-00c8310c7889/ae021a73-ada6-4d98-b0dd-f8c788c60dd0", "https://ms.immowelt.org/134da61a-9c60-489e-b415-750246407abd/75331e46-7b8a-4d66-8f57-4f231cc26b1d", "https://ms.immowelt.org/64cb559e-398e-40d2-be5b-741d2361ca27/508831f6-c1eb-4e3a-97ce-645df8543b1e", "https://ms.immowelt.org/18ebf27e-34e3-4335-8cc2-c3fdc9f7d169/13c919fb-bef2-4bbf-8082-ac2b0ac4cec0", "https://ms.immowelt.org/366f7626-f55b-4890-9261-6568e13c0baa/62107a51-7c55-4cc6-b568-20f40f73a08f", "https://ms.immowelt.org/dd1b4339-5b92-4a1c-8713-56831bf116fb/fcce419b-3d7a-4ac6-90a3-d2413b204e81", "https://ms.immowelt.org/db68b6e1-11c7-4fee-b27e-05fc368d1e21/9a1f7ab6-c52f-4c92-9a36-9f9c94b29e44", "https://ms.immowelt.org/b865ff14-0572-4d3b-9c2f-70802b0e184f/b56cc229-4d56-467c-a072-5423dcd43b7f", "https://ms.immowelt.org/892021cf-32e9-41d5-a3b8-0de681cff430/615b71ea-8b7a-4a21-a250-1ccaf78e0a78", "https://ms.immowelt.org/9cdea49c-15e1-4690-8319-b6123fa0ba6d/af8b431e-04c0-4e61-8ac3-cc5b91b65cf6", "https://ms.immowelt.org/4e649d99-0530-4699-a49c-1c2d54b75864/42ca3ca9-9bb9-463b-b699-93a83334ee83", "https://ms.immowelt.org/f687209c-d010-48d0-b7f0-d008c073c90f/f09cb602-c580-4bfa-977a-b78fc6c12a08", "https://ms.immowelt.org/10588fd4-5729-46fc-a950-a6b4f503f822/c4b5a180-0a63-4a89-801a-08495fade004", "https://ms.immowelt.org/1988d005-94ff-4366-824a-0a677ac1048b/ee762483-847a-487b-9a8b-43cb18c83601", "https://ms.immowelt.org/701b1fce-8ea9-4639-86ec-c876fb8d60c0/f85d54f8-97e3-4162-8128-9f10c36c696a", "https://ms.immowelt.org/063918a7-f509-4932-917f-6e97756cb928/5b9c3953-9989-4eb7-afec-653cbae3b849", "https://ms.immowelt.org/e89c2e3e-5bf0-406b-8e24-e497254debb9/b5b21bd8-cb20-4cda-8ab7-ce3244c40f72", "https://ms.immowelt.org/49831b1a-fce7-489e-bdf3-76f96d7abd5e/69dbfab0-97ce-4237-974d-eb8c8d54e2cd", "https://ms.immowelt.org/40098914-40dd-4139-ab0f-098a2932701f/5ae023e6-7b08-4d5d-b11c-7cbdf12d1eb2", "https://ms.immowelt.org/f5792c76-576c-4323-9097-78892bc73d7a/326861a6-cc9e-443f-b0e9-74d107bb6510", "https://ms.immowelt.org/f161e360-2dad-418f-8978-7403a69563db/2ff7a1f2-5d9e-4062-8844-5d0058909dfa", "https://ms.immowelt.org/5788e892-87e3-4272-8297-196413bdb41d/83782693-5404-4178-af87-f111ce69be6e", "https://ms.immowelt.org/8602c387-94df-4af2-a96b-96fa55ec0e6e/ee530b22-2e6d-4fb0-8050-f5a64133dff6", "https://ms.immowelt.org/486f43c7-bd90-494e-ad54-db9190a931aa/73b78181-d54b-4866-8f69-1af08d5ec696", "https://ms.immowelt.org/32fed4ea-fd60-48b1-bf9c-1ff2fad91246/8fd8016c-df0c-47fa-95f5-198192d9ce7f", "https://ms.immowelt.org/95ec384f-3bfd-488e-9f13-042aac27cda5/01ac96ae-4b3b-495f-9bd8-4ae62cabec7b", "https://ms.immowelt.org/398619b9-4081-4e83-b7d7-1c1ee8964121/64199e70-d8bc-4f27-9d36-ffc7ee133043", "https://ms.immowelt.org/9e944bc3-5e80-4825-a0a3-8d41b67b15ab/83a99408-4d6c-4aed-b27f-1127fb21ca17", "https://ms.immowelt.org/0d1ac5dd-ca4e-4c78-9fc3-1041acad6512/a946e1e1-dc5a-474f-84fe-5885560548f7", "https://ms.immowelt.org/651ae26c-78ee-4769-bad4-834192c9be7a/f7079b1a-b717-4ee7-bfc0-ab47a8128def", "https://ms.immowelt.org/03df58c9-b108-44ec-88bb-cb8c7d0ebd08/e285e4c0-d360-408b-8f11-a7f0b344f7ab", "https://ms.immowelt.org/1b5f727a-bef3-4da7-a041-e249c4bd8cb4/8489e8b8-18f8-4a8a-9944-36098d0905b3"]</t>
+          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Citywohnung - lichtduchflutetes, top gepflegtes Penthouse! Ideal f\u00fcr Paar oder Single!", "basicObjectPricEur": 1280, "basicLivingSpace": 88, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agsm5w", "basicContactPhone": "09366/6543"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a54x5v"</t>
+          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>554.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -650,49 +650,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Zentralheizung"]</t>
+          <t>["Personenaufzug", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Rottenbauer", "ZipCode": "97084", "LocationId": 496020, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1800", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Rottenbauer)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-rottenbauer/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1100, "Unit": "EUR"}, {"NumberValue": 20, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 900, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a54x5v"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a5ll5v"</t>
+          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*"</t>
+          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1483.93</t>
+          <t>1181.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -717,49 +717,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>102.34</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["Neubau", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "PELLET", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Kunststofffenster"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Hans-L\u00f6ffler-Stra\u00dfe 3", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1483.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 290, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/46db7f7a-e5d8-4eb4-a01b-a2d4e62ab2be/bb78636c-2f3f-4c2e-a53b-ef1fa9683a15", "https://ms.immowelt.org/b16389b6-eb92-42af-8130-0a76d6025358/fce845ed-0986-423b-8c1e-afd09a953917"]</t>
+          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 4-Zimmer-Neubauwohnung W\u00fcrzburg-Frauenland *Gartenstadt Keesburg*", "basicObjectPricEur": 1483.93, "basicLivingSpace": 102.34, "basicRooms": 4, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Hans-L\u00f6ffler-Stra\u00dfe 3", "basicUrl": "https://www.immowelt.de/expose/2a5ll5v", "basicContactPhone": "0931/382-7701"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2am365w"</t>
+          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Helle Wohnung mit Balkon in der vorderen Sanderau!"</t>
+          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1183.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -784,49 +784,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["Kelleranteil", "GEPFLEGT", "FERN", "kable_sat_tv", "Balkon"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "LocationId": 496022, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.400,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 190, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 890, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0cd8c2fc-f0f8-4803-b570-0bc0474a7ed0/ff573215-5a42-4351-ba40-cfa78f0e290f", "https://ms.immowelt.org/9f20ac68-d479-4226-9c79-53570da7eb1d/e2de2ea2-5dcd-44f2-94d5-5e6076766679", "https://ms.immowelt.org/65a23389-315b-4e17-9a6f-c8bcf8e849a7/ef1d6fb2-36ee-4c22-9b98-1f57d5548397", "https://ms.immowelt.org/57d6c377-cfc6-48d1-a1d5-1088cf6393f3/bbd12d5a-7478-4c07-bfbf-ce2e86b907b4", "https://ms.immowelt.org/0a903ef0-4c0b-431f-af10-207debb8ec0e/ced5048e-e943-4b27-acce-5dba9b2424d9", "https://ms.immowelt.org/c5093796-6848-4a03-8695-1e10dfd39fb2/ee4c2860-ca11-43ee-b24a-c8691f01283c"]</t>
+          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle Wohnung mit Balkon in der vorderen Sanderau!", "basicObjectPricEur": 700, "basicLivingSpace": 58, "basicRooms": 2, "basicConstructionYear": 1955, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2am365w", "basicContactPhone": "0931 46079392"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a6kh5w"</t>
+          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"neu renovierte 1-Zi-Wohnung in W\u00fcrzburg-Versbach ab sofort zu vermieten"</t>
+          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -851,49 +851,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["FENSTER", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Versbach", "ZipCode": "97074", "Street": "Siebenb\u00fcrgenstra\u00dfe 2", "LocationId": 496021, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "900,00 &amp;a;#8364;", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Versbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-versbach/mietspiegel"}}, "DataTable": [{"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 110, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 560, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/a43abc82-8ac3-4cab-a5b6-53bc82b3a86b/3a377faf-3eb8-4817-be74-cb42138a316c", "https://ms.immowelt.org/e7f30df8-dc76-47cb-9993-d30f406bd8d7/13c28acf-3d54-44f2-b940-4b8bdca4a9b6", "https://ms.immowelt.org/7093aa31-b326-4705-9fbd-9689f3f8db74/224d0bcd-b01c-4d21-bda9-75ebc02a4552", "https://ms.immowelt.org/60513d87-9ec5-4214-9438-9c82e1100233/0408ab34-5e7b-44a9-b736-d6039cff046b", "https://ms.immowelt.org/bb880bc5-4b45-4b22-9fe2-b905e66ae9d1/10cb98ca-5eaa-46e9-ba7c-515ddaf73266", "https://ms.immowelt.org/3f6c46dd-57a1-4a50-bee1-6913fdd35dc7/1a1e4495-8064-4237-9f2e-15ca8389d065", "https://ms.immowelt.org/1ad6bb21-d96d-4ba9-b01a-517a299fd375/faefc4fa-e636-4172-bd4d-3e933b48c285", "https://ms.immowelt.org/8c2bb07f-94a9-44fe-adcb-a12981d34755/81618401-0fc8-40af-9ff3-ea3b21b45879", "https://ms.immowelt.org/d14dc2a4-c385-48c9-81cc-a266c929d0f5/b3d185e0-37ac-4025-9318-bbf2dbb44558", "https://ms.immowelt.org/f689d644-a825-4147-bbe3-902acd0ca0e0/99e83e8b-81ea-4991-8d97-9873a562ab60"]</t>
+          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "neu renovierte 1-Zi-Wohnung in W\u00fcrzburg-Versbach ab sofort zu vermieten", "basicObjectPricEur": 450, "basicLivingSpace": 36, "basicRooms": 1, "basicConstructionYear": 1975, "basicCity": "W\u00fcrzburg", "basicStreet": "Siebenb\u00fcrgenstra\u00dfe 2", "basicUrl": "https://www.immowelt.de/expose/2a6kh5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2affg5v"</t>
+          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel"</t>
+          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>532.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -928,39 +928,39 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["WANNE", "Etagenheizung", "moebliert", "Einbauk\u00fcche"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97082", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.250,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1125, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/ed2e6e9a-a8cf-4e9e-89c9-92ebe0bd9ab9/3c8c330e-15e6-439e-be44-6f02de4b9dd5", "https://ms.immowelt.org/e963b58b-6a58-4830-8e37-e9e446a7ca40/edda2664-fb0a-48dc-bfe4-3b20c61c8b1d", "https://ms.immowelt.org/6945f917-297e-4dfb-b166-4245a2333e2c/5a890870-d05f-4063-b0e5-63ad31ca7572", "https://ms.immowelt.org/ffa99189-2ca2-46fb-aa14-f6fda02818ae/6a859704-19f9-4907-92f9-a5b7fcbe4248", "https://ms.immowelt.org/86e1504e-0c46-4800-a6e0-cf24601a2518/bf8eec93-53d3-4368-82bc-ca50c66a45a1", "https://ms.immowelt.org/f15519e3-ee04-4739-b40a-ce0f84fb29ff/2c2c7101-3482-420d-826e-9efd57863f1e", "https://ms.immowelt.org/54ea5d30-e104-4f39-8a41-429b5961bbd1/55bee8cc-3633-4bce-9b47-af1971f0523b", "https://ms.immowelt.org/e88c0a6a-0da8-4b88-8865-a9f37cbd0e2d/9452b370-8d6d-4324-8a35-57b8a433c48a"]</t>
+          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung in W\u00fcrzburg/Mainviertel", "basicObjectPricEur": 1125, "basicLivingSpace": 60, "basicRooms": 2, "basicConstructionYear": 1957, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2affg5v", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2adnh5w"</t>
+          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg    Bezug ab 15.9. m\u00f6glich"</t>
+          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -995,39 +995,39 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["Neubau", "FENSTER", "Kelleranteil", "Personenaufzug", "GAS", "Fu\u00dfbodenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2400", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 800, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1000, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/ee16496e-0dcb-422b-b16e-d699f185c085/e0074c45-8e78-4192-9756-f9278eb48a3a", "https://ms.immowelt.org/34cd4c76-b8f2-4c80-aaa0-3ba60d1a14e4/c30f95d8-f7d1-41da-8ab7-64f008ba22e3", "https://ms.immowelt.org/7cdf79f6-934a-465d-ae81-272122e4ad00/69a5616c-d5ed-44db-890b-18a37c89f844", "https://ms.immowelt.org/730b7e47-988e-4c9b-b9ca-38230c929bbd/8d28dea0-8bbd-491b-8b5e-ed026c23978f", "https://ms.immowelt.org/5cf9e8f7-5445-4c99-bbfd-72ddff2dd761/b95383ac-aea0-4515-915c-88dcc18dbb15", "https://ms.immowelt.org/b67a10fc-cc10-4396-bbfa-844933e844e9/04dea6cf-8d76-4be7-8224-c27e2bf199c1", "https://ms.immowelt.org/de5686e9-6074-4e4f-9879-dae2270685a7/2bbe33f7-5d8e-4b72-8e50-965982c18903", "https://ms.immowelt.org/12bb0074-4492-41d7-aa45-4df0db4365ee/9d25213c-7c6d-4977-89f6-74f00de3ed8f", "https://ms.immowelt.org/537f0baa-9185-426f-adf2-579b2e0d97a6/da2fea6f-5ca7-490e-88ab-23aee1f38d29", "https://ms.immowelt.org/e53647b0-ae47-4085-8791-a49d5315fe02/535808f7-0bdc-48b6-8548-029216ba5437", "https://ms.immowelt.org/ea21f2d4-e176-4ff8-a99c-6939795da2d0/81b62de4-3f86-41a9-9f6c-8c455c7e4e51", "https://ms.immowelt.org/e99bbe16-63b1-4af9-af0e-9d7ef4382d36/eca8d831-a91c-45ad-b0e9-24c092aaf555", "https://ms.immowelt.org/2418511f-c9bb-4db5-88e7-cb4071afa55e/8809677e-7263-443f-a2cf-5cbf38323693"]</t>
+          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg    Bezug ab 15.9. m\u00f6glich", "basicObjectPricEur": 800, "basicLivingSpace": 55.5, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2adnh5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1067,34 +1067,34 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["GAS"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>474.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1129,39 +1129,39 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2av845v"</t>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon"</t>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1797.71</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1186,49 +1186,49 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>123.98</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "DUSCHE", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 1797.71, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/34aad469-3611-425d-9832-c02c7060cb23/77ba9d6f-e612-4962-9317-bd0107dc25f7", "https://ms.immowelt.org/8ea07a0f-c3a2-4e3e-a9d2-fe6544358d93/58dbc143-5e69-4062-9eae-b767cf0c69b1", "https://ms.immowelt.org/6b6cd2cc-a04d-480c-949a-1a21bbd7e1d4/51babd4b-8fbc-456a-862b-c4ebde7dc41a", "https://ms.immowelt.org/a8f09c5d-403e-4528-a15f-17ef6819f51c/15cf94e1-0865-4970-bdbc-7eeb2e4e321a", "https://ms.immowelt.org/a74342e9-df14-4a0d-b4c6-600423e5e886/caed2534-21fc-4d11-981c-a2164e56802b", "https://ms.immowelt.org/57b465e5-f400-4f58-8856-6a92ccb5dc5c/e24df36d-9d71-44a2-bd39-c0146b4df941", "https://ms.immowelt.org/4d380785-997d-4deb-b741-8c14d08622b6/d794011b-6b71-4e97-adb0-c319032680b3", "https://ms.immowelt.org/a1aeaa9b-89a7-4a5b-b3ed-598756319607/14a91c1a-5084-49dc-b75d-74d20228a8f0", "https://ms.immowelt.org/af2232f0-1ef7-4481-801f-2a5ff59e0092/96a901ff-03de-431d-886e-d860ac84fbc4", "https://ms.immowelt.org/eb83b1d9-acf0-4e74-b0b3-5fa3fcc1ca01/705ad620-364a-4237-968f-e9f4e0c3eb36", "https://ms.immowelt.org/b34e24ec-eac1-4eae-b4db-e1f386853cb1/292b937e-2528-4472-8123-fa7a878ef84b", "https://ms.immowelt.org/4111770b-ae7b-4dce-b625-f990d3c5ba1e/b7539eac-4bf3-4d62-ab60-f12720be1758", "https://ms.immowelt.org/73dc46c5-cb67-4432-b97f-e11d22268b50/6613c506-3bb4-4e53-a0ac-d3296fe50f9c", "https://ms.immowelt.org/d8083607-cc91-46ee-92df-9a6f4eed9d3b/59f57e14-612a-4c44-8a58-7436d9771597"]</t>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Helle 3-Zimmer-Wohnung mit Balkon", "basicObjectPricEur": 1797.71, "basicLivingSpace": 123.98, "basicRooms": 3, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2av845v", "basicContactPhone": "0931/382-7702"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2af545v"</t>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung"</t>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3030.93</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1253,49 +1253,49 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>178.29</t>
+          <t>123.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["barriefrei", "WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3030.93, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 360, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2b7c4c91-7fac-4ddb-a032-3a51184dbb59/8f34d9b5-fec8-4e21-99c7-6f7a2921d4d1", "https://ms.immowelt.org/61a862a4-1bd5-4769-abb9-5e1d7113f8bc/88d5b2b5-7ef0-4388-8eb9-b7042670aee5", "https://ms.immowelt.org/37c438a9-8ae7-4d42-8006-bc3a55265670/12a6e3ea-2554-4920-bec1-7d536539c02d", "https://ms.immowelt.org/49abcb3b-4395-4691-8e92-b525edda30d4/f7c44e0e-0db0-456e-8cb8-845d816e37ec", "https://ms.immowelt.org/ce95a7e7-0ad6-4282-8ca2-5ce205488707/dbfb5e54-2bfb-4d01-91ec-1ca118a3a922", "https://ms.immowelt.org/b3cc6d40-e3b5-407e-ae5e-be0785a5a218/686cb7a1-8858-4011-a5e0-a8fd590fe4e6", "https://ms.immowelt.org/424d3898-11a5-419c-a472-b6bb5eed3e76/e7d72403-5394-43c9-a960-10468f29d064", "https://ms.immowelt.org/19d6858d-2cb5-437d-8cdb-6fb75d54c5e4/8e3114ed-77c5-47c0-8dce-725b44e8785c", "https://ms.immowelt.org/f536fdcb-a38d-4b90-beab-277e244cf6a7/ce23ee46-5ee8-4496-b672-c3ea031e92ac", "https://ms.immowelt.org/933295a3-d9da-4860-ad95-06490c6fddf4/182424c9-5902-4b40-be26-512097b49929", "https://ms.immowelt.org/a77d50f5-f8e0-4928-bcdc-2fa7c6e36e7d/05824030-0135-4ec2-93dc-52a0bf313587", "https://ms.immowelt.org/dbfe5771-25b1-460e-a2dd-140a19fae05f/4dd99d70-1f73-40c8-aab7-49051e0e90ec", "https://ms.immowelt.org/9689e92f-fdee-4ff1-99c1-89400857e515/a07a7b18-a41e-45a3-9fe1-f64211e577cd", "https://ms.immowelt.org/c3fdabd3-6c7c-4da9-9941-17117007bd14/16545b70-e49d-4309-85c5-a84123f7c8a2", "https://ms.immowelt.org/ec2b29d2-9e49-4ccb-965f-e26d155e848a/1c4de27d-2032-41cc-a466-04b10ad4f27d", "https://ms.immowelt.org/c2913eaa-8856-44c1-901b-0ae4b9a9ffa2/387a24b5-3c67-4740-ac58-0de078b68ff8", "https://ms.immowelt.org/81e05570-c572-4168-acf8-500cd9f74a65/796a2975-473d-4971-bd18-d2765832485e", "https://ms.immowelt.org/2c90ddab-a797-471f-a2aa-53b9ac172a1c/43c8617b-2da6-4fae-99be-395aaf2774e3", "https://ms.immowelt.org/24b3e778-e131-4042-ba05-7b63afaf1ce0/b0dfb227-b3fc-4605-b1c3-58573b4f24d1", "https://ms.immowelt.org/1d31929b-a5c2-410f-9bef-afc44f5e68c1/bc515335-0e9c-453b-bfcf-ae09a83fd65d", "https://ms.immowelt.org/d6e04616-c252-4d95-8d95-9d504b0fb3f4/07aa7bfb-71ab-4b13-bba6-99ba35097b80"]</t>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Exklusive Penthouse-Maisonette-Wohnung", "basicObjectPricEur": 3030.93, "basicLivingSpace": 178.29, "basicRooms": 5, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2af545v", "basicContactPhone": "0931/382-7701"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ayb45v"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3601.44</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1320,49 +1320,49 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>225.09</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Balkon", "Kunststofffenster"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3601.44, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 460, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b888654a-7be0-4b1f-bb51-2d8dca6a1aa1/5dc0db39-67ad-4630-8a84-004692c1c198", "https://ms.immowelt.org/4cb98d26-30d4-40dd-9345-c05636fc3d6e/3d269755-d356-448a-a4e4-c9c9225867b0", "https://ms.immowelt.org/71ab24a9-6d26-4798-959a-526196ab2526/2338dbdc-85e0-452f-bbf4-cbd765176db2", "https://ms.immowelt.org/e212abae-27ab-4901-ad56-4abbf1ab429a/076c61fa-ae56-43bd-90cc-3d4a1f246534", "https://ms.immowelt.org/45fda28f-bd4b-477c-8e5b-025d3035fc24/25270c0c-e6f1-42be-9bc6-154afc390bde", "https://ms.immowelt.org/250e735d-28bf-4e41-a26e-10bdcc174a72/9ffa4901-709f-4a22-bcf8-4026af4845a8", "https://ms.immowelt.org/47738d72-90e1-400f-8f26-b0c89e0a04d4/b2671ee7-2150-4931-ae87-848ca314834d", "https://ms.immowelt.org/09239b5c-efed-4862-9be0-12284713015c/c50d605a-b30b-4c1e-b8c7-c377d0105c47", "https://ms.immowelt.org/32be8996-eac0-4fda-8211-2d8fadd6467a/c5cb6c3d-45d4-45e6-8603-f3cc8967b34e", "https://ms.immowelt.org/de7996d0-a07e-44a3-a014-b9f228303c3b/f4242060-e83a-4836-b64b-41645c5c5e94", "https://ms.immowelt.org/d9382006-8b3f-46eb-802b-250a8fca3f96/03f39cab-4da2-4c36-80c1-23a7fbd309fe", "https://ms.immowelt.org/36af7108-dfdd-4ff3-ab8b-6e92d3508062/2f20f749-7813-4534-bde5-1a624ad88952", "https://ms.immowelt.org/ba912dea-da2a-4abd-add2-64d03801c9f2/0f910eff-7ebe-4154-9f66-0556d0a42237", "https://ms.immowelt.org/469127b9-c85a-4e77-a7fa-af7365f65cc3/9cd962ef-da29-4690-9168-413036c7882b", "https://ms.immowelt.org/0341b685-a77c-4318-bf97-0b0facbf1946/c0c91076-cd90-41c2-8e29-c3d9b6bc4e76", "https://ms.immowelt.org/349ba8bc-380d-425c-9404-fe30348c76fb/be7df368-083b-4bf6-bb15-c9ee4809e9b4", "https://ms.immowelt.org/769d004b-9208-4258-b045-f78d35bbe304/cab7c6e2-a6fe-44e9-b980-49f912c4dc33", "https://ms.immowelt.org/32a4701e-f4a1-4e08-ac43-7f82a0871c0e/05462d50-f4b2-41fb-94fc-03251da46a31", "https://ms.immowelt.org/c3b62a14-8ad0-4bc1-ad12-407a7b7d45c1/1e082fb8-309d-48fd-9675-1e19df39056b"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Gro\u00dfz\u00fcgige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3601.44, "basicLivingSpace": 225.09, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ayb45v", "basicContactPhone": "0931/382-7708"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2akwq5u"</t>
+          <t>"https://www.immowelt.de/expose/2upu84s"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland"</t>
+          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1402,34 +1402,34 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["DUSCHE", "moebliert", "PARKETT", "FLIESEN", "Einbauk\u00fcche"]</t>
+          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.190,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1095, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/f58fd648-14ff-458e-b34e-ed1a79e43d74/d87e4e66-4884-409c-b2cb-2157459b3064", "https://ms.immowelt.org/0a87650a-5809-4688-8750-7ae6c25a4099/e24ce7b4-9191-4f35-a1d0-23492c9ab7b0", "https://ms.immowelt.org/791a160a-38a3-4dce-a18c-5ce7143fd3f5/bd4c9b95-f50f-4c31-a999-9365ab6d2f07", "https://ms.immowelt.org/d04e8834-3fb6-41c7-b54a-e8fbd81f4738/544118d8-4448-48cb-b903-f895e30a79c2", "https://ms.immowelt.org/0a28069f-f140-484b-8e74-4397443a7579/52a860be-e6e0-41df-ad9f-635a12c08567", "https://ms.immowelt.org/93620f2c-07ac-40ae-89e8-09de2a90ffff/0aad3bf6-a9a2-41e4-841c-299b26265c3a", "https://ms.immowelt.org/a67d6581-3a59-4dc4-a4f3-965a7168620b/da1adff0-5907-4ab5-8913-e075b2d30c48", "https://ms.immowelt.org/deeb3874-cc27-4a7f-ac51-854d6765dd3f/3218f2ca-a245-4045-af54-619a9b8882e3", "https://ms.immowelt.org/ac67f904-20c4-4c6b-90f1-3d808fa8dae1/795689c7-539e-470a-a2a4-32e423451bd3", "https://ms.immowelt.org/974474bd-d9e3-4117-a672-6922106d164c/a2bb49a6-741b-40b0-8a0b-40d9f75d0f02", "https://ms.immowelt.org/936ffd96-d118-4d3d-8f77-ff73d6726300/5bb5b59e-9b1c-44ee-816e-31d9b28dd5a2", "https://ms.immowelt.org/9e5f7e76-6418-46d5-af9c-45309a550a97/c9909e8a-e4cd-4d4e-826e-4ec43a4165d9", "https://ms.immowelt.org/fc5c4ab6-6dd7-402d-aa17-1d5f9d8e29b0/f9213bf7-281b-4c08-8f0b-e78f6fcb7c71", "https://ms.immowelt.org/efbfc541-75da-4200-8395-1db7a9483e5b/68140100-e86c-4af6-88d7-26d0e819a523", "https://ms.immowelt.org/6069128c-8b73-4678-abc6-ee0b63823860/cceb6f64-a341-4849-9927-b2c5dd025aad", "https://ms.immowelt.org/c13a4106-75b6-444b-87e0-05ccdb99308c/a077d4b3-99d4-474b-b40f-6be9110341d9"]</t>
+          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Hell m\u00f6blierte  2-Zimmerwohnung in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 1095, "basicLivingSpace": 63, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2akwq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a9245v"</t>
+          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan"</t>
+          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1454,49 +1454,49 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert", "TEPPICH", "FLIESEN", "Balkon"]</t>
+          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.630,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 815, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/56dbfa19-0b11-4212-a585-a3bb9055fc6c/55af236d-1cf3-446a-a9ea-5d847c1f3c78", "https://ms.immowelt.org/2321a506-3294-4da0-8ed9-9c32a877cc19/568e9ef6-6f64-4112-9523-9eaf25a3f970", "https://ms.immowelt.org/c49d4e0e-c519-4110-bf9d-48d46975f264/51ad8f90-ae3d-4f54-9436-a3ce93d787e0", "https://ms.immowelt.org/1efec59d-a37f-4e4e-81e0-d2638e029208/c9bd61b7-4af9-4819-822e-916b4c491efd", "https://ms.immowelt.org/35f3c816-30ad-4cfa-a370-9fd3df5a890b/0f5a8622-ff9b-48a3-b656-48f75cd9c811", "https://ms.immowelt.org/1d11277d-e06d-43d1-807a-35d99c5f5cd5/51935719-85d7-4a46-a718-1c1a7bedba2c", "https://ms.immowelt.org/3f9f17e0-3b0f-42d8-9623-bd41d7d12fc4/d88f57cc-ca14-47d1-b0ac-e5d037c3114a", "https://ms.immowelt.org/4c16ccd5-7611-496f-9fc2-a5cc9e95ca96/0cc9afbf-324b-4dc0-a841-e5417e3c909f", "https://ms.immowelt.org/23f4ce8d-d0f3-42f3-b7c2-cbea89a39473/eb285820-0b71-4189-8a94-494d832c127b", "https://ms.immowelt.org/36d590ab-2de9-46f3-8cef-b4af4efd9be0/8e11440a-7fe1-49cf-a002-13e4285760be", "https://ms.immowelt.org/8099beb8-56a4-493f-b95f-2490484605d5/fbb624d4-8b55-48d5-8b8f-5535a08872c5", "https://ms.immowelt.org/1978dbc1-a0ed-458a-abcd-d22f103809ef/1a5cc04f-0b65-48af-8e69-c835714ab2e7", "https://ms.immowelt.org/6b1ab129-3f95-42da-9d53-8088db0a9349/25c6e471-016e-4261-b4ae-a73987e4f403", "https://ms.immowelt.org/9b310d23-aa9d-41f5-8f34-29a9b7aa4471/bae39b36-c4b5-4cf8-882a-aca3ba40538c", "https://ms.immowelt.org/20713457-85cd-4f26-970b-eca4af0b6b71/be6308f1-d0c9-4aa5-8a10-3a4f1f28ff33"]</t>
+          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Neu m\u00f6blierte Wohnung im Herzen der W\u00fcrzburger Altstadt unweit des Marktplatzes mit Wlan", "basicObjectPricEur": 815, "basicLivingSpace": 40, "basicRooms": 1.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a9245v", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agwq5u"</t>
+          <t>"https://www.immowelt.de/expose/2asr65p"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland"</t>
+          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1521,49 +1521,49 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["DUSCHE", "Personenaufzug", "Zentralheizung", "moebliert"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "LocationId": 496008, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.298,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 649, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/cf8697dc-afcd-47ae-aadc-64c4cc78569c/35b4d352-660a-4816-94a6-619497123ae8", "https://ms.immowelt.org/a32b8f72-a566-4394-bea1-04e883e8fce2/7099cff9-9eea-4d1f-bad4-4033626afe54", "https://ms.immowelt.org/105a8a3c-c718-4c20-83ac-d0a5ef1a7f53/9db73218-715a-4963-942c-e41a29ef7b07", "https://ms.immowelt.org/64d9efa5-0a66-44fe-aa1e-b89f834ad546/6f687f3d-4a05-4f47-a1f8-8b78ca7e8bfe", "https://ms.immowelt.org/a3fe7335-2ba5-4c30-a137-cbfb5fd2a35c/20496698-5e1f-4243-9338-f56821682d4a", "https://ms.immowelt.org/a449833e-f4f4-43ff-8ebf-01bc5160e5c9/ccc566af-477b-4888-b03f-1cc64f4f1c45", "https://ms.immowelt.org/a6d17184-1155-46e9-af2c-d83d9e1be344/aab72d40-469f-486c-9add-806a5481ac6a", "https://ms.immowelt.org/a5271f16-acef-4db4-84ba-2b1a9ddc5892/57e11dd6-6321-45eb-85e0-aaa0f1e15bfe", "https://ms.immowelt.org/921ae069-2035-4dbb-a619-8ad9012a2442/0e6324ba-04b0-4141-bcc2-3b6cb33ac8ea", "https://ms.immowelt.org/6dc638c1-e4cd-4f0c-87b2-169cc34b0bd8/2af01fd5-93ce-4fc8-ae87-9a3817a2ef84", "https://ms.immowelt.org/a5894c49-800c-4d59-bb53-e598cf560634/0aa6a439-1071-40bd-a3ef-3bd2192fad8c", "https://ms.immowelt.org/1824d009-9f1e-4248-ac1b-d6198f9c17f3/ffd7b610-0d17-43b2-b15c-614cccf8be14", "https://ms.immowelt.org/45f31b8e-c2fc-45ff-8dac-c0bf8fea6e03/a11c6ffd-ddba-4524-9aca-520b2604d193", "https://ms.immowelt.org/5ec8ff49-d6b8-4dd0-bd1b-a04062520b58/b2e43f71-c2eb-4713-a428-6da937a58826"]</t>
+          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6bliertes Apartment in W\u00fcrzburg/Frauenland", "basicObjectPricEur": 649, "basicLivingSpace": 21, "basicRooms": 1, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2agwq5u", "basicContactPhone": "+49 931 416616"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2abty5v"</t>
+          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung"</t>
+          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1588,49 +1588,49 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 430, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 115, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7a4af935-fdca-42b8-b470-a905b68d671e/717dc8fc-8461-4d19-89e3-3eaf6c5bfb76"]</t>
+          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "[TAUSCHWOHNUNG] Wundersch\u00f6ne helle Altbauwohnung", "basicObjectPricEur": 430, "basicLivingSpace": 64, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2abty5v", "basicContactPhone": "+4922892939484"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a4kg5w"</t>
+          <t>"https://www.immowelt.de/expose/2almm5r"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik"</t>
+          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1655,49 +1655,49 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>153.3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["Neubau", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lindleinsm\u00fchle", "ZipCode": "97078", "LocationId": 496017, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lindleinsm\u00fchle)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lindleinsmuehle/mietspiegel"}}, "DataTable": [{"NumberValue": 700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 900, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/5ffec635-8f46-4cc1-aadb-8b583ac94f49/a055949a-2702-4368-b5b3-7b0ed426b642", "https://ms.immowelt.org/8908f348-9991-4a07-ad66-d7d75614e10a/fca9e8be-88e9-418f-a5eb-9e0d5767a5f4", "https://ms.immowelt.org/cc8d5f7e-0ed9-47a3-818b-45790a8111fc/1ff9a9de-b0c2-4a71-935d-2fd2d9164ad1", "https://ms.immowelt.org/e595bf82-bf35-4dea-bb76-166a24244d92/420389cc-e1aa-4a32-94b8-9d099fca203b", "https://ms.immowelt.org/2512e689-4ae0-4ff9-9611-9f151ac18678/c4e6c45b-c697-41d7-a51f-d244d8f1a417", "https://ms.immowelt.org/e0483e5d-da13-4926-a03f-c238c4a327ae/737d7425-941f-4ec9-a90e-14f51213a74f", "https://ms.immowelt.org/23fe53b7-3d5a-4509-a222-5cb8ed3d516c/a46ccbc0-6aef-4e2f-ac21-6d245e72052d", "https://ms.immowelt.org/349313e4-73e0-40b7-b119-9fe817365e7a/7f23958c-275b-4a0e-8d30-ad6e79f317f7", "https://ms.immowelt.org/ac9b1a48-16e2-4119-98ba-9a1a890ff38b/c3716b49-d728-4b6a-900b-7d66e9cd4354", "https://ms.immowelt.org/e3084b71-0919-4d54-96d4-4d35ce184a9c/c4edd6a6-581b-4387-81e6-1df5e276dda7", "https://ms.immowelt.org/fa543343-fde7-4b91-b370-eee9cd1e0f90/62763f8c-bf88-4f8a-bbfc-b721085c2412", "https://ms.immowelt.org/2a737240-80f0-4710-a8f3-7c4f1c3f6233/08bf7007-717d-4120-b7cb-50bf91a1393b", "https://ms.immowelt.org/727ce8f8-3e8b-4da9-95ec-b855705005c5/07256d94-2372-4172-b756-d7101c994e5e"]</t>
+          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zi. Penthouse Wohnung  mit gr. Terrasse, teilm\u00f6bliert, N\u00e4he Uniklinik", "basicObjectPricEur": 700, "basicLivingSpace": 47, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a4kg5w", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ay645v"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3163.32</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1722,49 +1722,49 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>218.16</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Erdgeschoss", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "ERDWAERME", "Fu\u00dfbodenheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Garage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "Street": "Frankfurter Stra\u00dfe 81", "LocationId": 496026, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 3163.32, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 440, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/33a10e2d-1546-47e8-8bf4-47024f96365d/8d31a374-f6c2-4671-ba5e-b06a8d7c1f18", "https://ms.immowelt.org/e715d610-ea80-4459-9e3a-1ea8a574c0d7/c594e925-e9d3-4474-88ff-ee637dc4b81a", "https://ms.immowelt.org/f3e49668-7602-45ad-979f-f68f0c60ad46/6da2c38a-e66f-4112-b3c3-70ebaa38a22f", "https://ms.immowelt.org/e4691abb-17a5-41aa-949d-88daa0ab8d3a/42a9ae4f-34fd-4230-8329-9c00ba557222", "https://ms.immowelt.org/62981e85-dc6c-481f-8d77-c7e82c11d711/a90f265f-b3b3-4b6b-a854-a05b00191bac", "https://ms.immowelt.org/c1f1f311-d95b-465f-94a6-317a246989d2/e96a7cca-1527-484c-a8e9-f79e1cf28136", "https://ms.immowelt.org/935854af-6f17-4d5d-b023-6647d4cc8d4d/87cabb52-19fe-4dca-a81d-9b0f6d4daa7c", "https://ms.immowelt.org/d22f872e-159f-4f19-bb2a-75f5b228899d/044b33f6-2258-490a-ae2a-52d9ce17b653", "https://ms.immowelt.org/58dca412-8d3b-415e-9a26-359678019657/0858d4e1-5dc0-4297-8a4f-b5db5dbeb8b8", "https://ms.immowelt.org/f9bab463-404a-46c6-990a-559df575f251/6d53c5c6-d652-4e1d-98e5-448095327b4f", "https://ms.immowelt.org/6559ac4a-0154-4e05-a366-dbf71d55ad3a/29c1a7fd-15be-4a1b-91ca-9db0f1c442f3", "https://ms.immowelt.org/85c20839-cb59-4728-be4d-78d1ffcb9274/f88983a1-2f68-4f01-af1a-cae1794eb9e4", "https://ms.immowelt.org/f0a33cc2-272c-4fe9-a229-0c65344655fb/1911e15f-4afd-4691-a583-109b097d5b1a", "https://ms.immowelt.org/26da2883-f715-4c66-a8d1-3e2b9550fcf3/90d1f6cc-c1ae-4b39-889a-79bf683b589e", "https://ms.immowelt.org/b51072d7-8214-4cb3-b4f1-4c2d9c08cc58/e2548663-d3a0-4cb8-b0f7-5aaacf362ba3", "https://ms.immowelt.org/b5dd6e96-9575-46aa-af37-c7a1914335de/e4d4ff07-527e-4aff-be0a-66c047b2b747", "https://ms.immowelt.org/4c4b10ce-78b2-449d-a1c4-38ef2035555b/8094732c-995f-4ee6-af5f-e52e6a68bac8", "https://ms.immowelt.org/36750323-149d-49f3-8859-a599078cdc7a/0c862b3d-b2f3-4b3a-b234-8e9299775647", "https://ms.immowelt.org/d1d807de-1e05-4eca-b9fd-01dd45660714/8d6cc502-9779-4a2e-bfea-d50b253ff0f3"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnanlage Alte M\u00e4lzerei - Haus 5 - Ger\u00e4umige 6-Zimmer-Maisonette-Wohnung", "basicObjectPricEur": 3163.32, "basicLivingSpace": 218.16, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "W\u00fcrzburg", "basicStreet": "Frankfurter Stra\u00dfe 81", "basicUrl": "https://www.immowelt.de/expose/2ay645v", "basicContactPhone": "0931/382-7708"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aeal5v"</t>
+          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz"</t>
+          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1789,42 +1789,42 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Souterrain", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "frei", "Einbauk\u00fcche", "Kunststofffenster"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Rottendorferstra\u00dfe 55", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "830", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 415, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 145, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/a3c1d1a9-92f0-4260-b2b3-41eb1b7cb966/c490aefe-bdcb-4b73-9783-a0bcc158c257", "https://ms.immowelt.org/b05abc2c-f624-4093-86a5-80f153fa6197/05af8f24-b7e4-4ba5-872c-39eed41b4cb5", "https://ms.immowelt.org/5be4bd8f-231a-44d8-8f0b-608a4f6581bd/0af81664-7d97-498f-8adf-3b5b5fe348ae", "https://ms.immowelt.org/725fb4fb-900c-4cd8-9554-dd83fc7bd725/99474ade-0e13-4d47-bf95-373cf4af43ec", "https://ms.immowelt.org/a0bb9c06-d60a-40e4-9521-94d9c183a14d/93799d3a-657d-4385-b487-2691349273e9", "https://ms.immowelt.org/3b4d1b7b-a5fe-4a37-b98d-6fc308d03c5b/c80e2b27-9270-47ef-b292-eb1efd72ee07"]</t>
+          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "**Erstbezug** Renoviertes Studenten-Apartment nahe Uni Hubland und Wittelsbacherplatz", "basicObjectPricEur": 415, "basicLivingSpace": 26, "basicRooms": 1, "basicConstructionYear": 1950, "basicCity": "W\u00fcrzburg", "basicStreet": "Rottendorferstra\u00dfe 55", "basicUrl": "https://www.immowelt.de/expose/2aeal5v", "basicContactMobile": "+49 176 21469496"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>ContactData</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>BasicInfo</t>
         </is>
       </c>
@@ -491,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,12 +506,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Bestlage mit Festungsblick"</t>
+          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,12 +521,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -531,34 +536,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"companyName": "Werner Fleischhacker Immobilien GmbH &amp;a; Co. KG", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Valentin-Becker-Stra\u00dfe 8"}, "salutation": "Herr", "firstName": "Werner", "lastName": "Fleischhacker", "phone": "0931/2706700"}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -568,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>566.96</t>
+          <t>474.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -583,7 +593,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -598,7 +608,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["Stellplatz"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -608,24 +618,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -635,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+          <t>"Bestlage mit Festungsblick"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>554.99</t>
+          <t>610</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -650,49 +665,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Stellplatz"]</t>
+          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
+          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -702,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
+          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1181.21</t>
+          <t>532.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -717,7 +737,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -732,34 +752,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
+          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -769,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1183.37</t>
+          <t>566.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -784,12 +809,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>59.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -799,34 +824,39 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Stellplatz"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
+          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -836,12 +866,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
+          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>554.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -851,49 +881,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["Personenaufzug", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
+          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -903,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>532.19</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -918,49 +953,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -970,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1181.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -985,7 +1025,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -995,39 +1035,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
+          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1037,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
+          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>1183.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1052,49 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
+          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1104,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>474.53</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1119,49 +1169,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1171,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1186,49 +1241,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1238,12 +1298,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1253,49 +1313,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>123.36</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1305,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1320,49 +1385,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+          <t>"https://www.immowelt.de/expose/2asr65p"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1372,12 +1442,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1387,49 +1457,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1439,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1454,12 +1529,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>123.36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1469,34 +1544,39 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2asr65p"</t>
+          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1506,7 +1586,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
+          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1521,49 +1601,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
+          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
+          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+          <t>"https://www.immowelt.de/expose/2almm5r"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1573,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1588,49 +1673,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>153.3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"companyName": "hv Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Wilhelm-Dahl-Str. 9"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_98e1685eae1346a2a90a2847489951ff.jpg", "salutation": "Herr", "firstName": "Hartwig", "lastName": "Vogel", "mobile": "0175-5994950", "phone": "0931/45466333"}</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2almm5r"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1640,12 +1730,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1655,49 +1745,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>153.3</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2upu84s"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1707,12 +1802,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1722,49 +1817,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>""</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>["GAS"]</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
+          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1774,12 +1874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
+          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1789,42 +1889,47 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
+          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
+          <t>{"salutation": "Herr", "firstName": "Maximilian", "lastName": "Kauschke"}</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -568,7 +568,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>474.53</t>
+          <t>566.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>59.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["Stellplatz"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Bestlage mit Festungsblick"</t>
+          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -665,37 +665,37 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>532.19</t>
+          <t>1183.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -752,39 +752,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>566.96</t>
+          <t>474.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["Stellplatz"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -849,14 +849,14 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+          <t>"Bestlage mit Festungsblick"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>554.99</t>
+          <t>610</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -881,54 +881,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Stellplatz"]</t>
+          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
+          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
+          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -953,37 +953,37 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
+          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -993,14 +993,14 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
+          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
+          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1181.21</t>
+          <t>532.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1040,39 +1040,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Personenaufzug"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
+          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1183.37</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,54 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1181.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1169,54 +1169,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1281,14 +1281,14 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2asr65p"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1313,54 +1313,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["GAS"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>554.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1385,54 +1385,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+          <t>["Personenaufzug", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2asr65p"</t>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1457,54 +1457,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>123.36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+          <t>"https://www.immowelt.de/expose/2upu84s"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>123.36</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1539,44 +1539,44 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
+          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
+          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1601,54 +1601,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>""</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2almm5r"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1673,54 +1673,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>153.3</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"companyName": "hv Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Wilhelm-Dahl-Str. 9"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_98e1685eae1346a2a90a2847489951ff.jpg", "salutation": "Herr", "firstName": "Hartwig", "lastName": "Vogel", "mobile": "0175-5994950", "phone": "0931/45466333"}</t>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1770,29 +1770,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1817,54 +1817,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"salutation": "Herr", "firstName": "Maximilian", "lastName": "Kauschke"}</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
+          <t>"https://www.immowelt.de/expose/2almm5r"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
+          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1889,47 +1889,47 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>153.3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
+          <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Maximilian", "lastName": "Kauschke"}</t>
+          <t>{"companyName": "hv Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Wilhelm-Dahl-Str. 9"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_98e1685eae1346a2a90a2847489951ff.jpg", "salutation": "Herr", "firstName": "Hartwig", "lastName": "Vogel", "mobile": "0175-5994950", "phone": "0931/45466333"}</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -568,7 +568,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>566.96</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -603,44 +603,44 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["Stellplatz"]</t>
+          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
+          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
+          <t>"Bestlage mit Festungsblick"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>610</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -665,37 +665,37 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
+          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1183.37</t>
+          <t>554.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -752,39 +752,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Personenaufzug", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>474.53</t>
+          <t>532.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -849,14 +849,14 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Bestlage mit Festungsblick"</t>
+          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>1183.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -881,54 +881,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>81.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -953,37 +953,37 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -993,14 +993,14 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>532.19</t>
+          <t>474.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1065,14 +1065,14 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1181.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,54 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
+          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
+          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1181.21</t>
+          <t>566.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>59.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1184,39 +1184,39 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["Stellplatz"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
+          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1241,47 +1241,47 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>123.36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["GAS"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>554.99</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1385,54 +1385,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Stellplatz"]</t>
+          <t>["GAS"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1457,54 +1457,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>123.36</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,37 +1529,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1569,14 +1569,14 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1601,54 +1601,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+          <t>["WANNE"]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2upu84s"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>900</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1688,32 +1688,32 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+          <t>""</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
+          <t>"https://www.immowelt.de/expose/2377v5h"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
+          <t>"**ERSTBEZUG** Luxuri\u00f6se Wohnung - \u00dcber den D\u00e4chern W\u00fcrzburgs mit Zugang zum Naturschutzgebiet"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,54 +521,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>89.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Erdgeschoss", "FERNE", "kontrollierte Be- und Entl\u00fcftungsanlage", "GAS", "Fu\u00dfbodenheizung", "Garten", "FLIESEN", "frei", "offene K\u00fcche", "Garage", "wintergarten", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "\u00c4u\u00dferer Tr\u00e4nkeweg 16", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "4350,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1550, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 100, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
+          <t>["https://ms.immowelt.org/18f518f9-efa3-4d14-bd75-e7f97cef1487/d08c4ef6-3ace-4493-af26-d32bbc458a10", "https://ms.immowelt.org/b547ed2c-200a-4a8e-8138-a9d3430d167b/3ba56d62-1d4b-456d-8893-949ce8fd84fe"]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"companyName": "Werner Fleischhacker Immobilien GmbH &amp;a; Co. KG", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Valentin-Becker-Stra\u00dfe 8"}, "salutation": "Herr", "firstName": "Werner", "lastName": "Fleischhacker", "phone": "0931/2706700"}</t>
+          <t>{"companyName": "Thorsten Hofmann e.K.", "address": {"city": "Euerbach", "zipCode": "97502", "street": "Schulstr. 2"}, "salutation": "Herr", "firstName": "Thorsten ", "lastName": "Hofmann ", "phone": "09726/9074843"}</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "**ERSTBEZUG** Luxuri\u00f6se Wohnung - \u00dcber den D\u00e4chern W\u00fcrzburgs mit Zugang zum Naturschutzgebiet", "basicObjectPricEur": 1550, "basicLivingSpace": 89.58, "basicRooms": 3, "basicConstructionYear": 1959, "basicCity": "W\u00fcrzburg", "basicStreet": "\u00c4u\u00dferer Tr\u00e4nkeweg 16", "basicUrl": "https://www.immowelt.de/expose/2377v5h", "basicContactPhone": "09726/9074843"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -608,39 +608,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+          <t>"https://www.immowelt.de/expose/2apk35h"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Bestlage mit Festungsblick"</t>
+          <t>"Luxuri\u00f6se Wohnung \u00fcber den D\u00e4chern W\u00fcrzburgs mit Zugang zum Naturschutzgebiet! EG"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -665,54 +665,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+          <t>["WANNE", "DUSCHE", "Erdgeschoss", "FERNE", "kontrollierte Be- und Entl\u00fcftungsanlage", "GAS", "Fu\u00dfbodenheizung", "Garten", "FLIESEN", "frei", "offene K\u00fcche", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "\u00c4u\u00dferer Tr\u00e4nkeweg 16", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "4500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1500, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 100, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+          <t>["https://ms.immowelt.org/19afae8b-165d-4b24-b57b-a7f9ade984ee/2ff2a774-394b-486e-86ff-755e3df7b6c1", "https://ms.immowelt.org/c5f56da1-cf18-4973-b4b3-2cb4c0c11cd0/2471eae2-2da2-4141-ad50-069cacb20aa2", "https://ms.immowelt.org/1c7d8feb-a163-4afb-acb3-9b260129799f/bfd116b7-fe43-4f34-85c0-2ccf9b11e78b", "https://ms.immowelt.org/b647f86f-6d28-4e70-9646-04f15f208793/f9e1f982-16d3-40d0-8b3c-02f5b1aa4f1a", "https://ms.immowelt.org/f36e7105-ccd8-4d45-acec-cdf8085369b2/76d42bfb-e898-4faa-a713-be980d91a3fa", "https://ms.immowelt.org/92ff8c06-8616-4384-a6f7-1034091f9b56/3e5b388a-4cb5-43d9-ae01-0a5285325911", "https://ms.immowelt.org/147a908c-2f42-4c43-ac5d-a48f69d3c69b/f6a0865d-005c-4b31-8b54-c8f03d6f5a45", "https://ms.immowelt.org/77266e9a-4bed-4503-8d3a-718314067fd1/ec78fdb9-b975-4ded-bb32-4a58c3c13962", "https://ms.immowelt.org/7bef8ab5-7889-4460-a38a-abc5fd7c2dfc/99bab335-8ec5-4aab-9f2b-dd850dd2f07a", "https://ms.immowelt.org/ab8a1ce4-25da-4b83-9b8e-0ac46eb3ab03/fc1661ac-4a84-47a8-a2cd-44954fef3180", "https://ms.immowelt.org/cb2ef5d6-9561-4565-9c7c-47abf585acca/d549bc6b-29aa-4dcc-8656-2b1ce8e2feaf", "https://ms.immowelt.org/84c6254a-acf8-4b64-9593-9294f0faeb5f/980ecf88-8740-4336-9803-76cbdeb1b518"]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Thorsten Hofmann e.K.", "address": {"city": "Euerbach", "zipCode": "97502", "street": "Schulstr. 2"}, "salutation": "Herr", "firstName": "Thorsten ", "lastName": "Hofmann ", "phone": "09726/9074843"}</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Wohnung \u00fcber den D\u00e4chern W\u00fcrzburgs mit Zugang zum Naturschutzgebiet! EG", "basicObjectPricEur": 1500, "basicLivingSpace": 90.33, "basicRooms": 2, "basicConstructionYear": 1959, "basicCity": "W\u00fcrzburg", "basicStreet": "\u00c4u\u00dferer Tr\u00e4nkeweg 16", "basicUrl": "https://www.immowelt.de/expose/2apk35h", "basicContactPhone": "09726/9074843"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+          <t>"https://www.immowelt.de/expose/2a2el5l"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+          <t>"...City- 2 ZW in TOP-Lage in der W\u00fc-Stadt..."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>554.99</t>
+          <t>790</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -747,44 +747,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Stellplatz"]</t>
+          <t>["WANNE", "FENSTER", "Massivhaus", "Ofenheizung", "kable_sat_tv"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.580,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 790, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "nicht in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 860, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+          <t>["https://ms.immowelt.org/9aa932ef-927e-442e-8c6b-06783409586e/b1906c6b-7f4f-449c-a7d5-21cc8450a954", "https://ms.immowelt.org/11853577-db22-483c-ae36-f70aeb8b060a/dd2ac73a-ccab-4df6-a7fc-845495e34a26", "https://ms.immowelt.org/577cc474-973a-4ac2-a200-19df68c7647b/26993f88-c3df-4a54-91ed-37784b80afe0", "https://ms.immowelt.org/3bcebae9-a512-4949-9c1c-523f5496257e/0de18a44-8d96-4ad0-adcf-c3ed5ff7261d", "https://ms.immowelt.org/99e07ddf-439d-497f-9a52-7e8e350b20ec/75f96c1d-840b-4990-a2dd-5da7dabaf592", "https://ms.immowelt.org/8f87b08b-9545-485d-8973-e3e1eb89ed19/1f9e6c65-2f4e-4ccd-8a32-89ac4b5f5083", "https://ms.immowelt.org/fed2c585-e317-4fd9-be1b-2e0fc0cd36ca/64ab8eb1-e0de-4d6e-a854-cb7253744896", "https://ms.immowelt.org/49384591-936f-4f21-bc69-cbbe4052e0df/efb45b3e-4012-4ad7-ba05-160f7af8cbd0", "https://ms.immowelt.org/c19accc2-e94b-4c92-a8db-b0b287447e89/33ecd777-84e6-4569-8b09-88036b13bc30", "https://ms.immowelt.org/5a4d2e69-be51-4e07-9975-8b7299c69930/14ca3155-9309-4ba3-8b4e-51c434db8eb7", "https://ms.immowelt.org/e8b894e4-c867-403f-aefd-4d817dd2681a/5b3179c3-d748-4420-9b89-1511ab6ca4b0"]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Folger Immobilien GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Burkarderstr. 1"}, "salutation": "Herr/Frau", "phone": "0931/4043996"}</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "...City- 2 ZW in TOP-Lage in der W\u00fc-Stadt...", "basicObjectPricEur": 790, "basicLivingSpace": 48, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2el5l", "basicContactPhone": "0931/4043996"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+          <t>"https://www.immowelt.de/expose/2r75x4j"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+          <t>"Erstbezug nach Kernsanierung: Lichtdurchflutete 3-Zimmer-Whg. mit Balkon"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>532.19</t>
+          <t>850</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,54 +809,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "FERNE", "GAS", "Etagenheizung", "KUNSTSTOFF", "FLIESEN", "frei", "Sat", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "Street": "Steinheilstr. ", "LocationId": 496011, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 850, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 140, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "nicht in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 990, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+          <t>["https://ms.immowelt.org/e9e97837-9209-4577-8c07-421fdde1c61e/87f2aa6e-2396-4425-a07a-2e6395682ccb", "https://ms.immowelt.org/ab8c4112-7d63-4a9d-9196-3bc5badb3c94/96933b18-f9b7-4422-9914-653a09282ee6", "https://ms.immowelt.org/8758c93e-de05-4f26-92b4-a26a2d93da91/28dec110-1fd5-4fbb-a00a-2cd417a8b60a", "https://ms.immowelt.org/ae6ce9dd-ddcd-4b05-a635-dbc8ca0d361a/1b51ff80-d8f8-433d-ba08-36d44913a501", "https://ms.immowelt.org/3d0ed87c-13ae-4515-b42c-250a1ade84f0/914b381a-7eb4-4d53-8d2a-185cefd4368a", "https://ms.immowelt.org/21abc533-79d7-4f9e-a7a4-12bc8719eb68/d87bc0b2-f5ff-4e84-857a-a689bc37bed6", "https://ms.immowelt.org/84431370-8dc3-4468-8f09-cdcdf7c26136/36f0119e-db89-4aa6-a6cf-b11d685798c4", "https://ms.immowelt.org/7f89327b-9695-4722-bed3-f2877fa3d02c/d9d0c607-b6ae-41b8-9995-2976ad5cce1d", "https://ms.immowelt.org/ebe625b3-3140-48e9-ad0c-320435f05d08/17a5d945-9eb7-4cb4-990a-b92bbef682cb", "https://ms.immowelt.org/ed18f185-b671-4a66-a934-6890f106ab78/33891e2b-1731-4a88-ace8-0acba16535a3", "https://ms.immowelt.org/e6182069-5efd-47f0-a1e0-5e7ba3829bdb/27d6095a-559e-4631-acea-04df86fb036b", "https://ms.immowelt.org/320f067e-64b7-45e6-8827-9b690e0681b8/b975e212-fe7a-4ff2-a060-8e9a94c92088"]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Hausverwaltung Meixner GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97080", "street": "Schweinfurter Stra\u00dfe 4"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meixner-Daraz", "phone": "0931 460 717 0"}</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung: Lichtdurchflutete 3-Zimmer-Whg. mit Balkon", "basicObjectPricEur": 850, "basicLivingSpace": 80, "basicRooms": 3, "basicConstructionYear": 1914, "basicCity": "W\u00fcrzburg", "basicStreet": "Steinheilstr. ", "basicUrl": "https://www.immowelt.de/expose/2r75x4j", "basicContactPhone": "0931 460 717 0"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+          <t>"https://www.immowelt.de/expose/2azny5r"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+          <t>"...3 ZW in Innenstadtlage mit hohen gro\u00dfen R\u00e4umen..."</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1183.37</t>
+          <t>890</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -891,44 +891,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "GAS", "Zentralheizung", "Garten"]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97080", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.670,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 890, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 150, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1040, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+          <t>["https://ms.immowelt.org/9098263c-bfcf-45b6-a309-0068161614c4/4b07f61a-617e-429a-ada9-e4ccc540aead", "https://ms.immowelt.org/5d6b7823-06ed-409e-a5df-800da12052f4/7a7b4e51-0bb5-42ea-bbf7-2c40aa11dd91", "https://ms.immowelt.org/bf24a7db-8617-4836-9cd3-e56899c5191f/9c36739e-6c0f-448c-a4a8-46939b5a0cd4", "https://ms.immowelt.org/794c0355-3f16-4474-b283-a8e8c97c5ae4/61faea4e-ce79-46ad-8203-04785336f580", "https://ms.immowelt.org/c530510a-5622-4c50-8cd1-a6c112853254/f05f58f1-45e4-47ae-b78d-fbecf3cb8151"]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "Folger Immobilien GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Burkarderstr. 1"}, "salutation": "Herr/Frau", "phone": "0931/4043996"}</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "...3 ZW in Innenstadtlage mit hohen gro\u00dfen R\u00e4umen...", "basicObjectPricEur": 890, "basicLivingSpace": 85, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2azny5r", "basicContactPhone": "0931/4043996"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
+          <t>"https://www.immowelt.de/expose/2az2c5r"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
+          <t>"Helle 3-Zimmerwohnung mit Einbauk\u00fcche und Dachloggia"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -963,44 +963,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GAS", "Etagenheizung", "DSL", "PARKETT", "frei", "abstellraum", "Einbauk\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Loggia", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Salvatorstra\u00dfe 4", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Monatskaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1000, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 170, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "nicht in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"NumberValue": 60, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
+          <t>["https://ms.immowelt.org/78be8aeb-e6c7-48ea-984e-d4020479068e/57f2f299-b63c-47d5-a91a-eb5558062e2e", "https://ms.immowelt.org/7b42b857-813d-4e83-9c0a-a98745a54de9/c42fee4b-cfb0-4d36-afe6-5d79fea64e6b", "https://ms.immowelt.org/d11830ee-11dc-4e25-8407-898d4b61c8a3/eac01f2b-bc16-48bb-9d7c-ba4aa23066d0", "https://ms.immowelt.org/121b3db2-f403-4a58-bc5d-a62d9b5e0231/2c9635a4-5102-4bb5-a8e7-f418aa16650c", "https://ms.immowelt.org/2f156f8d-725d-402a-950b-4b5c6760af7e/ff6ce52d-8d49-4849-93e8-6f50b5debb97", "https://ms.immowelt.org/201ab05c-becb-4b82-9557-c4a6d1e85b69/a08dd805-ab56-45f7-ad5c-4e6a983d5127", "https://ms.immowelt.org/86e3ed19-5668-4a08-a792-a0eed22b4c09/d1d13450-dbf5-425f-83b8-eab1f1094869", "https://ms.immowelt.org/e7644fbc-370e-4d29-8841-c6c68791e6a2/8fa18adb-442b-4df5-8f2c-07b5c470e45e", "https://ms.immowelt.org/cd5483af-8bd8-4a0a-a8c5-352d51f3cafc/23a00388-63a1-4fb4-98b9-4f4b717f36f8", "https://ms.immowelt.org/397c54fa-f9da-4c5f-8a3e-776d759b2ebc/357d16b5-28f4-450a-836f-1b2b1c263262", "https://ms.immowelt.org/9b3005c1-5384-4aac-8ffe-89c8eb78f0b8/1b703d29-fd40-4c75-bffc-ec2dd1e0e86e", "https://ms.immowelt.org/435773ed-d003-42bb-9fef-b3e835597896/29b39c60-851e-49aa-b9f8-4e9d2d99d0b4", "https://ms.immowelt.org/32d876a9-9d02-4381-bef1-6c761d965bd0/d7490ebf-cdc0-403b-a34b-474fa93c6e05", "https://ms.immowelt.org/ea145f8b-2b6b-40e0-b22d-13efd405a25d/ba47a0c9-ce7e-496e-b7d8-23679d711271", "https://ms.immowelt.org/5ee2c992-3b70-4da6-a3a6-ac0e5750e1f0/aa9ea6e5-d2a7-486b-9564-7d80f58645ef", "https://ms.immowelt.org/361aec99-62af-4c34-831c-01768a75df76/56ecfa5c-39f5-449f-8f57-f7b1bf94b80f", "https://ms.immowelt.org/d6da4e0f-718c-4189-9c2a-65df86e097b3/5ce567a3-831b-4c00-a45b-2c32c808ddfb", "https://ms.immowelt.org/d662da3d-d557-4c42-8103-02a07beb29e5/177cf140-9c34-4824-817a-56dde6355156", "https://ms.immowelt.org/3d1a9c9b-7c4f-4748-8087-dd26baf5f6b9/abc6fcc7-2952-4729-b7e1-3f24687e3b7a", "https://ms.immowelt.org/ca788d99-4ea6-4c68-8af3-6766855ef1d8/47600b54-53c1-49b5-9bec-445aa83b3ae6", "https://ms.immowelt.org/c639af26-14ba-42b5-81d4-d80edae69a05/1ffe5c32-f57c-44de-b8c9-a18d5f1398b7", "https://ms.immowelt.org/4ca7bb25-3f9b-473f-bb17-34b78dd20f46/71118508-e707-4e2d-80e9-3507a46ccce4", "https://ms.immowelt.org/0c4e433d-7e06-4e80-aed0-c3ea115197d8/c3c2ac8a-4c5a-4335-b96f-303396029cfd", "https://ms.immowelt.org/e2ffa8e9-f07f-4f99-b80c-b16b4e536828/22e1bd81-574a-46e6-8c99-655574f5ce12", "https://ms.immowelt.org/10fda0c8-3082-45a3-b859-d0bc08c0bbd5/2c611d33-dfaa-4f6e-ad9a-7af93a6d4438", "https://ms.immowelt.org/8f0112b2-228d-448c-a581-13fd127384b8/6f695f80-2f56-4b8a-85ba-f0dce68efaa8"]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "Immobilienservice Thomas Popp", "address": {"city": "W\u00fcrzburg", "zipCode": "97080", "street": "Am Sand 14"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Popp", "mobile": "0157/77756765", "phone": "0931/32091276"}</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Helle 3-Zimmerwohnung mit Einbauk\u00fcche und Dachloggia", "basicObjectPricEur": 1000, "basicLivingSpace": 72, "basicRooms": 3, "basicConstructionYear": 1990, "basicCity": "W\u00fcrzburg", "basicStreet": "Salvatorstra\u00dfe 4", "basicUrl": "https://www.immowelt.de/expose/2az2c5r", "basicContactPhone": "0931/32091276", "basicContactMobile": "0157/77756765"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+          <t>"https://www.immowelt.de/expose/2u2st4a"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+          <t>"M\u00f6blierte Wohnung mieten"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>474.53</t>
+          <t>890</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1040,39 +1040,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["Personenaufzug"]</t>
+          <t>["Personenaufzug", "GEPFLEGT", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz"]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "VB", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 890, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+          <t>["https://ms.immowelt.org/e5bc3e6f-7d0b-457a-bae4-0d57a6778944/ac5c9019-4a84-4761-be08-9d08c1941f8a", "https://ms.immowelt.org/9ea4b768-b566-4c0d-94c6-29cdd49e49de/90ee9bd6-e413-4fd8-bf70-8a2091554125", "https://ms.immowelt.org/b53cc146-f8d0-4d44-9fc2-74ce62f01f34/2db6d12e-b605-432d-bf3a-6c851d3e2178", "https://ms.immowelt.org/647fab08-d300-4e58-b9a6-a7b7cc52795d/14a6a93b-33c0-4fe6-b3ab-af67daf1d30a", "https://ms.immowelt.org/aec42905-e0d7-4248-8fed-c48137719a3f/64058cd3-68c0-4b0f-b790-a5e96fc11197", "https://ms.immowelt.org/2376b5dd-b3cf-4f8f-8a74-9a74c5e0e1a1/2d111133-13d3-4f65-8b5f-50df0259d230", "https://ms.immowelt.org/67ea88a8-5de8-4754-ae7b-1fdaa6d1f94a/f0bd6a34-8cfb-4530-9aeb-c797f58a9884", "https://ms.immowelt.org/4ff7e3f4-de91-441a-be83-c25974f5b580/286b543b-9da5-4a24-9adf-d3a89ac77ea7", "https://ms.immowelt.org/e1984aa3-cb90-487a-9702-129704688d8a/7b4028a7-7f1b-4438-b701-de777ac5c405"]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte Wohnung mieten", "basicObjectPricEur": 890, "basicLivingSpace": 40, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2u2st4a", "basicContactMobile": "0171-9546505"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
+          <t>"https://www.immowelt.de/expose/26svx5a"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
+          <t>"Luxuri\u00f6se Wohnung \u00fcber 2 Etagen - \u00dcber den D\u00e4chern W\u00fcrzburgs mit Zugang zum Naturschutzgebiet! "</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1181.21</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,54 +1097,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.87</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Dachgeschoss", "FERNE", "kontrollierte Be- und Entl\u00fcftungsanlage", "GAS", "Fu\u00dfbodenheizung", "FLIESEN", "frei", "offene K\u00fcche", "Garage", "Balkon", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "\u00c4u\u00dferer Tr\u00e4nkeweg 16", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "4.500,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1500, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1700, "Unit": "EUR"}, {"NumberValue": 100, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
+          <t>["https://ms.immowelt.org/ca1c55d2-69ab-4a2b-a057-b68c2c74fcec/cf9c00c9-610b-4ca3-99fe-5261f8aaf298", "https://ms.immowelt.org/25e23210-ca15-4c7e-b71a-bc3ec675e07c/8133cc9e-2dae-4243-91ed-484c3625d97a", "https://ms.immowelt.org/f96748e4-0102-4297-b733-8da727af6d81/a4ce7d28-fc3b-4eeb-8321-fffbd39ca8cc", "https://ms.immowelt.org/e342f920-f76a-4e91-9c3b-bc08bce7934d/4f9264b0-a296-4d95-9283-d42db6e3aba0", "https://ms.immowelt.org/cc1d7922-587a-4d1f-9bb4-193f4e2bbb08/1426ef8c-fc45-4395-abd0-0777a3b4c6b4", "https://ms.immowelt.org/f13b3bb1-bce8-458f-a23d-c7bb6d05fe11/f09c9551-6ed4-46ca-88f7-631620600ede", "https://ms.immowelt.org/1ae7b71f-0512-4717-b4af-68db7545fa21/5f06a499-30ea-421c-b6ff-e87afb83b207", "https://ms.immowelt.org/1612ced7-05c8-4dda-bce2-23889499a470/0a55f442-c12e-4145-b82f-2328e00b7363", "https://ms.immowelt.org/3acdca29-94f3-4ea3-b318-57e32d58db4f/d4883424-73fb-4072-a0c8-cbdba9b5f1c1", "https://ms.immowelt.org/9f0a98b7-4323-4908-bb09-5d869f7e2a83/5a929c9a-5a92-4c4f-98d4-d3fb0fb11853", "https://ms.immowelt.org/3ff4f90b-a737-48ed-aa2e-279bc09ddb68/5809da4c-260b-4312-8cfe-cf9a2ad5c67e", "https://ms.immowelt.org/d4d40481-98dc-4177-a110-22b38e3e89f9/08116d0d-7029-44ac-89bf-7bb526012690", "https://ms.immowelt.org/fe30ba87-229c-4089-9ceb-c674fd335dfb/c082975d-0c9d-4cb9-9d67-9375aac7ea8f", "https://ms.immowelt.org/b501610b-0f9d-4f46-b3df-6679d0acf468/89eaa45c-c7d4-42cf-8160-e6629086c754", "https://ms.immowelt.org/78f50739-4f21-42f4-ad07-a22422cf78d3/368b15e6-c17a-4ff7-a7f3-da41b83f2873", "https://ms.immowelt.org/86601c26-734d-4134-9171-9bc38a461fe6/2d733af6-77d2-40cb-a1d1-8c4b9f807347", "https://ms.immowelt.org/4196c10c-b4cb-4c85-b7bf-eb9cc5714786/2a27e523-61fa-4f41-bdb8-ee46dbf20f6b", "https://ms.immowelt.org/1120bbc3-d2f7-4bd9-ac16-52f072b738b5/41d29ef4-ef2d-4a6f-878f-f2f299ddbd8a", "https://ms.immowelt.org/833b18da-c566-424b-ad4a-8d34e025dba3/291e3496-9cd9-44a8-814c-369dad76ce03", "https://ms.immowelt.org/48933c15-05a8-4249-bdf6-3a0016a5802c/87c47fdc-5b58-4a49-bb5d-2309708a8645", "https://ms.immowelt.org/a4537a60-45b3-4a6f-b34d-a96f9a43b6a6/c7dd2ed5-8cc1-4a39-a666-d6fe150869ad", "https://ms.immowelt.org/8587f389-4a94-4dc5-9c1a-c2dde32ba3c4/ea71292f-c577-4af9-8a1f-98ec51cc7ae1", "https://ms.immowelt.org/31244cac-b483-4443-abde-1c533973c953/7774f927-805d-4556-a8cc-09fbd8744e9e"]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+          <t>{"companyName": "Thorsten Hofmann e.K.", "address": {"city": "Euerbach", "zipCode": "97502", "street": "Schulstr. 2"}, "salutation": "Herr", "firstName": "Thorsten ", "lastName": "Hofmann ", "phone": "09726/9074843"}</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Wohnung \u00fcber 2 Etagen - \u00dcber den D\u00e4chern W\u00fcrzburgs mit Zugang zum Naturschutzgebiet! ", "basicObjectPricEur": 1500, "basicLivingSpace": 94.45, "basicRooms": 3, "basicConstructionYear": 1959, "basicCity": "W\u00fcrzburg", "basicStreet": "\u00c4u\u00dferer Tr\u00e4nkeweg 16", "basicUrl": "https://www.immowelt.de/expose/26svx5a", "basicContactPhone": "09726/9074843"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+          <t>"https://www.immowelt.de/expose/2afjb5u"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+          <t>"Exklusive 2 Zimmer Wohnung mit gro\u00dfer Dachterrasse in Bester Lage von W\u00fcrzburg"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>566.96</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>108</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1179,44 +1179,44 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["Stellplatz"]</t>
+          <t>["WANNE", "DUSCHE", "Kelleranteil", "GAS", "Zentralheizung", "gartennutzung", "PARKETT", "frei", "Einbauk\u00fcche", "Carport", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Nettokaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1180, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 150, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 150, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1480, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+          <t>["https://ms.immowelt.org/80e10bdc-5313-4b24-9d9b-a3908480a667/a770519f-811e-4465-a281-e3979289747b", "https://ms.immowelt.org/c5a1154f-7e6d-4183-a8d6-ab2120e644b1/2282dbea-42de-456e-b843-77f397ccb563", "https://ms.immowelt.org/49de1f0e-5397-4d33-bd5f-7fc4075ac446/cb3adc25-433e-42ef-9517-d79a6fda1495", "https://ms.immowelt.org/983e2226-03b6-4d9d-978c-167e0ff3a822/1c8851ce-240d-4a3c-a46b-3f659d7444bf", "https://ms.immowelt.org/dadb84ba-0d0b-44a4-8914-e64f8ddb3291/e7a0eb60-47fa-4be0-a498-f222ed8d8a66", "https://ms.immowelt.org/9a9f11e5-6c75-4912-b7d1-1330e8834e45/a96ac5b4-db7f-4c45-b02f-b4546f66f610", "https://ms.immowelt.org/cff17a6d-edd1-4b77-9d2a-aeeaf275d04e/cf8d67d0-edf5-4194-a3b5-7a3b395b636c", "https://ms.immowelt.org/119b4911-6ee1-4448-997c-f2a0577ea778/c4a99728-190e-4b1c-a524-ea92480f9047", "https://ms.immowelt.org/b165dcb3-35d9-4147-bd24-ee92786eb69e/9aab330a-e585-4173-9179-4cfe0d7b1b92", "https://ms.immowelt.org/6b802c77-1df7-44bb-9606-d9cb18366f5f/b3b2fe72-7cb8-4f36-8fe8-beb506e92bf4", "https://ms.immowelt.org/f538df3f-5255-49c1-acde-9a1ec2740211/e7ef9271-c082-4fd8-86be-ff977777b1ff", "https://ms.immowelt.org/c43fd7ad-e613-4c53-909e-876add21a5ff/8561221c-f7ce-4cc3-b26e-15a9328ed3b5"]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+          <t>{"companyName": "Hausverwaltung Meixner GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97080", "street": "Schweinfurter Stra\u00dfe 4"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_b2f9dc09a4ab4fab82b0ea47bf0d7ef6.jpg", "salutation": "Herr", "firstName": "Daniel", "lastName": "Gransitzki"}</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Exklusive 2 Zimmer Wohnung mit gro\u00dfer Dachterrasse in Bester Lage von W\u00fcrzburg", "basicObjectPricEur": 1180, "basicLivingSpace": 108, "basicRooms": 2, "basicConstructionYear": 1994, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afjb5u"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+          <t>"https://www.immowelt.de/expose/2ag6d53"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+          <t>"Modernes 1-Zimmer-Appartement in Heidingsfeld"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1241,22 +1241,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>123.36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+          <t>["GAS", "Zentralheizung", "FLIESEN"]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1266,29 +1266,29 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "600,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+          <t>["https://ms.immowelt.org/3ee3143d-40ea-4daa-a52b-016bee9c0a20/70dc2b80-1fcc-4586-a8a4-cf1e3d1c17cf", "https://ms.immowelt.org/fdc9318f-329a-492b-a39a-6dcd4ef1d8c2/f2b61f71-a958-409b-80f3-5aac73c2d4de", "https://ms.immowelt.org/3a31fac7-6e18-4b09-b59b-b9549b1ea3a0/a77fc436-3a78-4597-991c-cb162a85fdab"]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Modernes 1-Zimmer-Appartement in Heidingsfeld", "basicObjectPricEur": 300, "basicLivingSpace": 27, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2ag6d53", "basicContactPhone": "0931-88065061"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2asr65p"</t>
+          <t>"https://www.immowelt.de/expose/2a5935s"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
+          <t>"2-Zimmer Wohnung in ruhiger Wohnlage"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1313,54 +1313,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "kontrollierte Be- und Entl\u00fcftungsanlage", "LUFTWP", "ELEKTRO", "Fu\u00dfbodenheizung", "FLIESEN", "Einbauk\u00fcche", "Garage", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Oberd\u00fcrrbach", "ZipCode": "97080", "LocationId": 496018, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1500", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Oberd\u00fcrrbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-oberduerrbach/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
+          <t>["https://ms.immowelt.org/0755913e-9c21-4af2-8d90-c9659b94b5a5/b9a4d947-4277-4529-ab13-6600d54fa90d", "https://ms.immowelt.org/1255259b-aa7e-442c-9597-2d33d11d8b34/3eeb1b4a-b000-44fc-9534-29c745040b9c", "https://ms.immowelt.org/e74039ee-81bf-4de7-8e7f-86cd527bb271/ebc8b0b7-f850-4378-91dd-c3a93421f4a4", "https://ms.immowelt.org/f649d071-058a-4981-ba76-985c7fb1d77a/d00fbea2-5086-4ad8-aaf5-73eca14133fc", "https://ms.immowelt.org/269b3f38-5e8a-43e1-a946-d516c786cbec/e83f0b6a-c547-435c-aa54-83858d9cd155", "https://ms.immowelt.org/4a8d87e7-20d9-4beb-8180-bd4a33d3d7c4/8b69451b-d946-4e3c-b25d-c2e096745845", "https://ms.immowelt.org/9b0126c0-c2d2-4d3c-a91b-23d60dd5f445/01e412d5-b90b-4ced-a540-d19d339de033", "https://ms.immowelt.org/cfeac0c3-5502-41e2-9608-119dbf42d838/64d80281-87b9-4cfc-91b9-2b71dd530ae0", "https://ms.immowelt.org/5251062e-9fc2-4a33-a54b-eb12a2f6b1e5/966e8471-0b33-4fae-89d8-924868ec21a5", "https://ms.immowelt.org/fde4a743-7310-4b24-b4b8-ab1cba5fac21/c65a5ccb-db14-4bf0-b4a3-8290a4580f17", "https://ms.immowelt.org/3dcae77e-d47d-4892-8f6c-aacade0f956f/d0b8ac2b-1cb8-4780-abc1-f022df7b35b6", "https://ms.immowelt.org/793ac297-b483-4124-b360-a45adb19a1e4/2f8dca17-8233-4eb2-915f-028f60fa3220"]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
+          <t>{"companyName": "Immobilienagentur Kuhn", "address": {"city": "W\u00fcrzburg", "zipCode": "97084", "street": "Eisenbahnstra\u00dfe 11a"}, "salutation": "Herr/Frau", "firstName": "Maximilian", "lastName": "Kuhn", "mobile": "0176-24137563"}</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2-Zimmer Wohnung in ruhiger Wohnlage", "basicObjectPricEur": 750, "basicLivingSpace": 68, "basicRooms": 2, "basicConstructionYear": 2015, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a5935s", "basicContactMobile": "0176-24137563"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+          <t>"https://www.immowelt.de/expose/2afzb5s"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+          <t>"+++ Wohlf\u00fchloase! Neu sanierte Terrassenwohnung umringt von Gr\u00fcn in angenehmer Lage in Gerbrunn !!  "</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1385,54 +1385,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>111</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["GAS"]</t>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "DSL", "PARKETT", "FLIESEN", "frei", "abstellraum", "Tiefgarage", "REINIGUNG", "kable_sat_tv", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "LocationId": 12047, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3400", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 1055, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 340, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1485, "Unit": "EUR"}, {"NumberValue": 45, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["https://ms.immowelt.org/6ecbc4b2-182a-477a-9782-6ba3b8c2f0f4/e6aba50f-4466-4553-924d-bb4544d44e13", "https://ms.immowelt.org/a02c3c95-7d7d-4637-b172-d96c254fce09/ca9194a8-4b62-4c1d-805b-55a15e1296f3", "https://ms.immowelt.org/81dd3850-911e-4a82-bde2-1f1e566ab5cc/10113351-e18e-4d39-beb2-ac3d7550995f", "https://ms.immowelt.org/f2987fd4-4e98-4008-8e86-b3a9391e2cf0/47142d4e-fbfd-4c0b-84e1-4ad3c8136756", "https://ms.immowelt.org/3886a1b8-1b1c-436a-9581-defab1fefe30/a82a6ecf-90f4-4ee0-ac96-d014cd2648af", "https://ms.immowelt.org/4670aee8-df53-456f-829c-1eb80076adc7/f09bd81f-0664-42aa-b420-36000724f240", "https://ms.immowelt.org/806a0bf6-5f0b-4ae8-a7bd-5e8fb99cd70a/1154df5c-a171-4196-92f7-36b3dee8e5a5", "https://ms.immowelt.org/324c8848-c4f3-441f-9331-380e0f400e06/ebd0c75b-c3bd-46f0-b7f4-426e34abe2b7", "https://ms.immowelt.org/f7944d95-fa42-44da-a992-5601668e691c/04a209e4-ce88-4dcd-81c8-5b817dc9b844", "https://ms.immowelt.org/72b81d6c-b551-4558-bb76-98acaa8899c2/4db92ba1-6390-43b8-90ae-adae5c9b5d0a", "https://ms.immowelt.org/83c2fc53-058a-4052-949c-002a2def68b0/0d024718-8dc6-4848-83c4-740e8f722312", "https://ms.immowelt.org/56f8fc3c-c0b0-464e-a2b9-e8487e01d2d4/306e3569-0930-4b88-805e-d4431b6fac54", "https://ms.immowelt.org/1c1b68dd-9bb7-48c4-88af-5bbc37c9ea58/95ec2c59-602a-4509-9293-822c13de93cd", "https://ms.immowelt.org/3d009639-323b-485a-b2db-0b2100a781e5/16fb65b4-a982-4a0b-8b6d-6d83013654ee", "https://ms.immowelt.org/a97fdec8-3dd3-4e9f-acde-c944ede15bbd/27b1bc1b-3d36-4559-a56c-4e0f0ebe81e6", "https://ms.immowelt.org/d6c1a0f2-7e30-4482-b7db-12e34b00fb8e/3673b1a9-7b67-462d-ab28-e90fd6b7b57f", "https://ms.immowelt.org/27654dfc-599a-42d8-ab77-20c07a394612/a8b5f2f6-b184-4707-bcf1-59e3959ac692", "https://ms.immowelt.org/32f9e9b2-46e8-401d-9367-2930188f4a1c/e74915a1-b459-43a6-bea3-7b7954c46c0d", "https://ms.immowelt.org/ba3b57eb-2d9e-4d62-ba1b-cc3cc3bef91a/3176d151-ef3a-4617-87cd-d64cce5168ab", "https://ms.immowelt.org/9fcf8e1c-7f74-4833-8538-794daa821ad4/8f87eb5f-d87e-44ae-a929-3f506c43d7e3", "https://ms.immowelt.org/8b44ca7f-3186-4595-90f7-450e962c61bb/cb3f9fcb-3583-4621-a095-a5fc6e44db0d", "https://ms.immowelt.org/31ea076d-dc7d-4a93-9a1e-9208fd7a7c90/62cd4c59-d224-4a70-a8e3-58bff7885113", "https://ms.immowelt.org/7563d29d-2e46-4d9e-bfe8-a2d3c575a24e/60828bb1-f0c2-41c6-90da-f90f7c87d20c", "https://ms.immowelt.org/f723e0b8-a92e-481e-8ac6-54f20352b58f/1999362f-0b6c-46c6-9de3-201b7296e6dc", "https://ms.immowelt.org/38efc420-f631-4201-8248-ad9c3c6d7988/913d6d60-005b-4284-82f7-cf0b4b36b25c", "https://ms.immowelt.org/ca6dc4b9-23ac-4406-b74a-91c3f9f079fd/d24891ad-242c-4020-a33d-e61477a65695", "https://ms.immowelt.org/e2db1dd1-ba01-40b8-bba2-ea53aa356a9a/d8d51260-d3fe-43f7-856b-beef1d4c55a1"]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "N\u00f6tzold Immobilien               (Ihr Immobilienmakler f\u00fcr W\u00fcrzburg und Umgebung)", "address": {"city": "Waldb\u00fcttelbrunn", "zipCode": "97297", "street": "August-Bebel-Strasse 66"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_790d8b7c67694def85185d9f54253cbc.jpg", "salutation": "Herr", "firstName": "Johannes", "lastName": "N\u00f6tzold", "phone": "0931-2071543"}</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "+++ Wohlf\u00fchloase! Neu sanierte Terrassenwohnung umringt von Gr\u00fcn in angenehmer Lage in Gerbrunn !!  ", "basicObjectPricEur": 1055, "basicLivingSpace": 111, "basicRooms": 3, "basicConstructionYear": 1982, "basicCity": "Gerbrunn", "basicUrl": "https://www.immowelt.de/expose/2afzb5s", "basicContactPhone": "0931-2071543"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+          <t>"https://www.immowelt.de/expose/2akyb5r"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+          <t>"2 1/2 ZW W\u00fc-Versbach nah zur UNI KLINIK Balkon, Terrasse, gro\u00dfe Wohnk\u00fcche"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>745</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1457,54 +1457,54 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+          <t>["WANNE", "gaestewc", "Kelleranteil", "Erdgeschoss", "FERNE", "GAS", "Zentralheizung", "Garten", "gartennutzung", "LAMINAT", "FLIESEN", "vermietet", "Stellplatz", "REINIGUNG", "kable_sat_tv", "wintergarten", "Balkon", "Terrasse", "Holzfenster"]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Versbach", "ZipCode": "97078", "LocationId": 496021, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Versbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-versbach/mietspiegel"}}, "DataTable": [{"NumberValue": 745, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 250, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"NumberValue": 35, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+          <t>["https://ms.immowelt.org/403e0b84-c321-46c4-8539-07db9c2d1ace/26f1063a-990d-4c57-80d6-183eaa8ad569", "https://ms.immowelt.org/e61647da-61e7-4910-96fc-f8f5b37931a0/8396b9c5-e0c4-444b-9231-f4bc6488dd11", "https://ms.immowelt.org/158421c8-ba6a-464c-96fe-d17d83f22c0c/1a8dd38d-c2c9-4759-a3e6-36e9b68f1f7d", "https://ms.immowelt.org/c202bc41-db15-4e44-b9d2-d90092be8e37/9f2ffaa3-ff90-41c3-9aad-97e1d9dbbc3a", "https://ms.immowelt.org/67e7462d-d450-40bf-bf4a-3fbbc92c8abd/c97b4cfe-d767-41fd-b046-6e77f229b440", "https://ms.immowelt.org/0488ee42-7a38-4408-86aa-255a39f619cf/6ea73298-84f4-4010-8f4d-17a098d0d0eb", "https://ms.immowelt.org/d3d1f17d-c602-44af-89ce-cb5f9296a32b/979f78be-75be-4d0f-ae08-84f1cb92c563", "https://ms.immowelt.org/259528ad-a051-49b8-ac6f-4989eed0f53c/ae831deb-11f3-43da-92e8-3450b468ff6e", "https://ms.immowelt.org/937144a0-6f50-4abd-b808-f4c4398c5845/ac08a478-1309-4bcb-a00f-d21d51eb09e7", "https://ms.immowelt.org/7718c72d-95c0-448f-9db0-2c347f6e2ab8/744b4a19-2b46-4a91-a701-74ababa8852b", "https://ms.immowelt.org/58e8becd-6afb-44fb-bbee-06bd676b5ff2/3a9918ff-abe3-4165-bda8-8202ae191f15", "https://ms.immowelt.org/f33c07d1-2a14-42a1-ac84-defc59d390f2/a27fbf01-efb5-4f8a-ab6c-558cad60adaa", "https://ms.immowelt.org/596fcbe5-d3b0-44b0-b38a-628977c44734/0d4dc081-adc7-4907-a8c2-6550f482d45e"]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "EICHHORN ANDERSSON Immobilienservice", "address": {"city": "H\u00f6chberg", "zipCode": "97204", "street": "B\u00fcrgermeister-Seubert-Str. "}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_8e2b94fc427c4a6981671c6c5cb6699b.jpg", "salutation": "Frau", "firstName": "Martina", "lastName": "Eichhorn Andersson", "phone": "0931/4042968"}</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2 1/2 ZW W\u00fc-Versbach nah zur UNI KLINIK Balkon, Terrasse, gro\u00dfe Wohnk\u00fcche", "basicObjectPricEur": 745, "basicLivingSpace": 67, "basicRooms": 2, "basicConstructionYear": 1987, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2akyb5r", "basicContactPhone": "0931/4042968"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+          <t>"https://www.immowelt.de/expose/29wy95x"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+          <t>"Frisch gestrichen! 3 Zimmerwohnung mit Balkon in Unin\u00e4he"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,54 +1529,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>98</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+          <t>["WANNE", "gaestewc", "DUSCHE", "FENSTER", "Kelleranteil", "GEPFLEGT", "GAS", "Zentralheizung", "LAMINAT", "FLIESEN", "Einbauk\u00fcche", "Garage", "Balkon"]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Versbach", "ZipCode": "97078", "LocationId": 496021, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Versbach)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-versbach/mietspiegel"}}, "DataTable": [{"NumberValue": 1080, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1430, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+          <t>["https://ms.immowelt.org/a0122603-959c-49c3-b8c9-773b07505010/faa0cf67-10e4-47c9-a5a5-6807694e1551", "https://ms.immowelt.org/224717e6-2317-4978-b059-a3d2e4fd0af5/292d75c5-c758-4caa-9051-84381ff6f59d", "https://ms.immowelt.org/4955962f-4705-4a86-8e2d-5cb14be27fb1/bfbe473a-abd2-4c4a-bec4-3ce3f1c64ed3", "https://ms.immowelt.org/473d763f-c750-466e-b6a8-7df1c8b4f487/9e59ac33-ad43-4426-afa6-0b8a1e423d57", "https://ms.immowelt.org/1e75ea0d-8b6c-43cb-995c-f3871bf73dc7/ae3b2aef-896d-4272-b79e-d9af095422d4", "https://ms.immowelt.org/d73ef813-28bc-4c69-b290-c7ab33079418/e5750ddc-967b-4c47-be8b-ea45d50380e2", "https://ms.immowelt.org/125b1c09-ab72-4fd1-b828-7b7a14257f89/dc3c4934-b13f-4691-8203-c93cc8ec1c00", "https://ms.immowelt.org/d82a8dc8-7264-4180-84c3-706f1aa0a28d/65abc641-c19d-4cfe-a928-649785693546", "https://ms.immowelt.org/36ad5ad9-d2a8-46ee-a462-641adbaa61bd/6ef3b7d7-9e1f-48f8-bf0e-235533030727"]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>{"companyName": "PLANBAR Immobilienmanagement GmbH\t", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Simon-Breu-Stra\u00dfe 52"}, "salutation": "Frau", "firstName": "Nicole", "lastName": "Felser", "phone": "093180493321"}</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Frisch gestrichen! 3 Zimmerwohnung mit Balkon in Unin\u00e4he", "basicObjectPricEur": 1080, "basicLivingSpace": 98, "basicRooms": 3, "basicConstructionYear": 1974, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/29wy95x", "basicContactPhone": "093180493321"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2a2yn5v"</t>
+          <t>"https://www.immowelt.de/expose/2ukwt4a"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland"</t>
+          <t>"Ruhige EZW mit Terrasse und Parkplatz"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>750</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>""</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1616,39 +1616,39 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["WANNE"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Lengfeld", "ZipCode": "97076 ", "LocationId": 496015, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1.080,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 580, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Lengfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-lengfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/67968400-d13b-449c-8f0f-1f8dc3645f4c/4d6bfee6-a4bb-438e-a524-96840bd51ae1", "https://ms.immowelt.org/c3319402-5904-4d76-95d2-db5b70bee409/4e68c2f5-c18e-4b63-bc8f-0ee1c1309ebf", "https://ms.immowelt.org/2dd83638-fb99-4566-ba6f-cf7b62d7c4bb/6ceb0ef0-07a4-468f-8f2a-f2e6741a577f", "https://ms.immowelt.org/1609ec66-fe8f-4f74-b4d5-02421f7513b0/a1757c96-7393-44bc-bf2e-6c9466ce4f45", "https://ms.immowelt.org/35e2e29e-1627-4973-99d4-4c3b1facdc4e/b477018c-9c03-4c1b-861c-11a14bcff4e8", "https://ms.immowelt.org/48e33aa4-fbdd-48d1-ac41-d25502baa7d5/14df5c1a-b256-4cd0-a73b-72d4dd9a2961"]</t>
+          <t>["https://ms.immowelt.org/2bd8c755-491b-4c44-aaf8-7405fe2293e7/79ca518e-82b1-41e6-989b-9c06432e847e", "https://ms.immowelt.org/98de7c34-61d0-49d8-9880-6dfa8787ac31/7d6307f0-04ef-46ca-bb7f-2bb90852c402", "https://ms.immowelt.org/284395c1-8664-41f3-be32-66f14169b9b6/a457a365-4bfa-4d39-8175-997c368a8141", "https://ms.immowelt.org/d724fa9f-a2e8-453a-8e3c-ef9abeb3e054/5054307c-180e-4d33-9f4c-4769b2a24524", "https://ms.immowelt.org/93850f28-0e91-4c24-bf86-2407e1517046/8a9e2c53-66ab-42b2-b9f6-ec6769117451", "https://ms.immowelt.org/dba842d0-3839-4645-b1c1-66a81efdf12e/0e517e09-264b-46c8-bd0b-d9139c49de99", "https://ms.immowelt.org/4b78aecf-f768-4879-aea4-67bd5dabb15f/7451a3e4-1cfb-4d5b-9ac6-3fe45ad68d9e", "https://ms.immowelt.org/b35b15c3-416d-4b33-9c74-74e940b82650/35890b6d-a317-4f9e-9aca-8589a103ee5d", "https://ms.immowelt.org/6ddcec9d-0088-4025-b478-eaef1c707d4c/97fde3dd-ff4c-484b-96f6-c75d1023beaa", "https://ms.immowelt.org/f603d3b9-002e-48a6-8bb5-f2be00f3b95f/c4cb8fa5-e249-4ced-91f1-727a05b38304", "https://ms.immowelt.org/7ca72781-f94b-446d-880c-c7f668c4a932/9c5cc651-4fb1-46f8-a6d1-5c7eacc8c959", "https://ms.immowelt.org/3f82d614-48ee-4103-8227-7b9421cc76f5/ec0bdd8c-d19d-4d17-b85c-11915f5e85a2", "https://ms.immowelt.org/8c85040b-d811-43bc-8c07-99eb684c17d0/6ee2d3f1-473c-4b11-8b4a-262077b0735a", "https://ms.immowelt.org/ccc99be6-9181-4f99-9e7d-9608b6296ca0/99321daf-3d63-4e02-b02b-73bbf85253ac"]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"companyName": "Viefhaus Immobilien Inh. Sebastian Viefhaus", "address": {"city": "W\u00fcrzburg", "zipCode": "97074", "street": "Fichtestra\u00dfe 10"}, "salutation": "Herr", "firstName": "Thomas", "lastName": "Meister", "phone": "0931-88065061"}</t>
+          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Optimal f\u00fcr Studenten-WG : 2-Zimmerwohnung in zentraler Lage im Frauenland", "basicObjectPricEur": 580, "basicLivingSpace": 44, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2a2yn5v", "basicContactPhone": "0931-88065061"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Ruhige EZW mit Terrasse und Parkplatz", "basicObjectPricEur": 750, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2ukwt4a", "basicContactMobile": "0171-9546505"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+          <t>"https://www.immowelt.de/expose/25dtq5g"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+          <t>"3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu."</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>950</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1683,27 +1683,27 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+          <t>["Altbau (bis 1945)", "WANNE", "FENSTER", "Kelleranteil", "GAS", "Etagenheizung", "Einbauk\u00fcche", "Balkon"]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Eichendorffstrasse 4", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1900", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 950, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}]}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+          <t>["https://ms.immowelt.org/53a40e8a-24fb-45ae-a531-fff2a2f4ef38/73c3faa7-d432-44a3-995c-dd6a57b55ff8", "https://ms.immowelt.org/5fd3d699-98a8-4599-a121-418d851bdca3/552eef5e-2a9f-4c01-b006-8b517f701ec2", "https://ms.immowelt.org/e1c22ef7-fa4f-4bbe-b945-4a0c9417515d/e28a4ad5-ff43-4cdd-a230-41a8a963e3de", "https://ms.immowelt.org/1fe9ddd3-4952-4f94-9aba-7b98e8a565e2/4cc8d480-3a53-414c-ada9-ef0da80900ed", "https://ms.immowelt.org/2e8ae348-cab2-4e79-8266-ee52099c1e73/524bcb38-9f3e-44ef-afa6-8810bc8ec8bf", "https://ms.immowelt.org/b0e64c11-6bbf-4ed6-9eb5-3767349429ee/e3628c5a-5b53-4019-a135-ff500cf7a0ac", "https://ms.immowelt.org/4a8c3d49-12ed-417a-b206-b38a38d9e894/7e1402ca-1074-4126-8ddc-ba9dbe8eac83", "https://ms.immowelt.org/82deeace-1bd0-4723-8a33-2c2ad6084c4a/cabe6e07-e983-4c08-826a-e189aa3d4288", "https://ms.immowelt.org/4e16951a-d91d-485c-a019-726374d3e5d3/97f13c47-29c0-4a36-8ee3-73268762ea32", "https://ms.immowelt.org/f8cc63cd-6dc9-4cc3-8aba-e6dbc1f8c911/bebff58a-a1df-4e6a-868b-ba584b296f85"]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1713,14 +1713,14 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3-ZW W\u00fcrzburg  Sanderau,  3. OG.  Bad neu.", "basicObjectPricEur": 950, "basicLivingSpace": 79, "basicRooms": 3, "basicConstructionYear": 1911, "basicCity": "W\u00fcrzburg", "basicStreet": "Eichendorffstrasse 4", "basicUrl": "https://www.immowelt.de/expose/25dtq5g", "basicContactPhone": "", "basicContactMobile": ""}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2uewf4g"</t>
+          <t>"https://www.immowelt.de/expose/2ag6g5r"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Boutique Wohnung m\u00f6bliert mieten"</t>
+          <t>"NEUBAU 2022!! Gro\u00dfz\u00fcgige 2-ZW mit Terrasse, EBK und Garage in Erlabrunn zur Miete"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1745,54 +1745,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["Neubau", "DUSCHE", "FENSTER", "GEPFLEGT", "GAS", "Etagenheizung", "Garten", "FLIESEN", "Einbauk\u00fcche", "Terrasse"]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97072", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Erlabrunn", "ZipCode": "97250", "LocationId": 12047, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": " 2700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 800, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 180, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1080, "Unit": "EUR"}]}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/a13c7ad0-2b70-4b4d-a3ea-a34885d87b08/ec7d0988-cc69-4927-b78a-e0331046ca91", "https://ms.immowelt.org/fde8fa3b-e4a0-4ded-a7b8-8420d1a01a9f/d1572cf7-7d4c-4a02-98e6-2d6e2eaf2b62", "https://ms.immowelt.org/44adf4be-fce6-455d-9181-c27144d0b47e/2f83da82-fc2a-4b88-be4c-03e254e651ef", "https://ms.immowelt.org/ecad88ed-f5a2-43ee-9dac-2470c0ec1f30/b45f2c26-817a-4b2e-8c51-b6b4e1ffdb1d", "https://ms.immowelt.org/38e4f785-7a20-46ce-bc01-3909054d335a/ad336fba-e265-4254-b66b-537222384071", "https://ms.immowelt.org/1e7916ab-6c4d-4283-a5fa-b6ccb79f8f6e/58a84848-235f-402d-a541-f5f6b47652ab", "https://ms.immowelt.org/1160b145-63b1-49fd-9bc5-54104f7bf183/20f3af07-2776-4471-981e-ff09df9d66a7", "https://ms.immowelt.org/1498b260-43eb-4602-8d7d-ad06837fbc82/adf6d355-f74c-45b5-bfa8-b60c2f35c3b9", "https://ms.immowelt.org/3606502e-37fa-4430-9bd8-fe84c0031264/e4a61da6-7999-4ec3-b472-e1f89796a906", "https://ms.immowelt.org/d2aadef4-121e-4c0a-8d0a-767393cc0b74/6210ad93-fbc0-4207-8cf8-9c21f2312742", "https://ms.immowelt.org/477b2242-e6a2-4599-8d7d-52d225d39692/c3547552-3022-4c61-8d1c-52b44db4589a", "https://ms.immowelt.org/b6435004-0e35-4fc6-b7d5-548a1c6bd865/18ecd94d-aeb5-4db7-9ece-c9056b7c18f5", "https://ms.immowelt.org/fffca264-e9b1-4647-8e64-c60be93744f8/191162cc-7517-4fc6-be4a-5a945715134c", "https://ms.immowelt.org/93d1fc99-9be1-4826-a8df-e3a22d03c005/b7d69f86-c033-49d5-941d-d0decd68be56", "https://ms.immowelt.org/3593ecfa-644d-4979-ae0d-0fc4d4e9ae7a/1ec892e1-00ff-49d2-b6db-03c288ea7d6d", "https://ms.immowelt.org/19ab9c79-4170-4a92-b48b-ed773d6437fd/7b0670d3-4d77-4ec4-919e-937dab966ff8", "https://ms.immowelt.org/b4d5be21-2515-403f-8215-e2eb79cc92db/3cf8ef03-8de3-42ff-929d-ff3a020a5b25", "https://ms.immowelt.org/b2b6d755-c0f3-4890-a478-6ac51ea07508/68baa9ce-b806-47ca-8c89-b3ed586305cf", "https://ms.immowelt.org/cc54eb68-d41d-4945-85c5-cc8e8c9b5e81/e3d73054-2d37-4c41-8117-5dad34c03029", "https://ms.immowelt.org/8f0aea64-d4d8-47a0-a269-0ddfd36d2981/93df92fb-6eae-41b6-8679-00bb4a30474f", "https://ms.immowelt.org/824566f0-3a4c-4806-a951-d3eecde604c1/9e360642-24e2-44c2-94e2-d1336be6f715", "https://ms.immowelt.org/edc590e2-19f1-4a3d-8938-add9dfc4b56f/db68466a-1681-4bf8-85cb-489b4ffa5436"]</t>
+          <t>["https://ms.immowelt.org/f5775d60-1440-4e2f-821f-a7ea1bbe49ed/e6094a74-6fa7-495d-8b39-15d999d53e61", "https://ms.immowelt.org/2a368845-6c47-470a-874f-bab121fd2340/b5104715-8f2b-4cd7-ac7b-68d46dfa80e2", "https://ms.immowelt.org/6d703116-07ee-4f30-86de-40b75982cce3/7f82adbf-5247-4b9a-88de-cf876791d3ca", "https://ms.immowelt.org/95dd9120-5dbc-4fca-82dc-6d60aeb13960/4f4c1b9d-8193-456e-b82a-1504b5cba25a", "https://ms.immowelt.org/ddb5bd8a-2bed-4dcc-b888-2229efe8bafb/98b696c4-4fb5-444c-b792-a32c302b8055", "https://ms.immowelt.org/fa84da10-5a4e-44c3-a4fd-c2cc732d7d6d/f3111eda-b2ee-4a83-adc3-f595ddd354f7", "https://ms.immowelt.org/841927e8-d983-44b3-96a7-942416d92ebe/ce4cbf1c-efcb-483d-b655-e1ca2cf345fc", "https://ms.immowelt.org/ceaec2db-27d8-4f74-a998-c5241fa55c3b/995df9e7-d4bf-4884-8c0a-042d47f2a6c6", "https://ms.immowelt.org/f15979e1-e3b5-476e-b6f2-1691f3d1faeb/91481df6-1615-496c-b551-bab892750a6b", "https://ms.immowelt.org/45ae80ac-ff1d-4329-b2a8-ccc97fb4e5d9/119f5434-c3d4-4225-a633-905c100fc6ca", "https://ms.immowelt.org/89bb9ae6-1053-4b8b-82d0-86438f18588f/eb291747-019c-4870-b525-6454e18d3319", "https://ms.immowelt.org/dbc9fbbd-40ca-4231-ab44-fc5f1926bce1/bf6da842-7c30-4d37-b1fb-61ae52bb970a", "https://ms.immowelt.org/bab1cf3e-6c18-4d62-b5be-8bfbc52965df/62de1483-849b-470d-9914-1dad73c8cb82", "https://ms.immowelt.org/bedc91c2-030a-49bd-beb6-05994a2cf9cf/c6160065-e838-45e9-b45d-463b164465d8", "https://ms.immowelt.org/ad08380f-ea82-466d-8e6e-a63b8e3c6898/7d1eac23-313a-4645-ae6b-7d0bcc520231", "https://ms.immowelt.org/a7543683-65e0-45d4-82e9-92322e5492eb/5b031e37-0397-4d28-98f0-3998f346c097", "https://ms.immowelt.org/a3d6b247-ba1f-47d3-854b-1fa21d03816f/26978d36-a742-4404-a629-96f6999b6e7f"]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"companyName": "Michael Engelbrecht", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Sartoriusstra\u00dfe 7"}, "salutation": "Herr/Frau", "firstName": "Michael", "lastName": "Engelbrecht", "mobile": "0171-9546505"}</t>
+          <t>{"companyName": "Wohner &amp;a; Pfeiffer Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Dr.-Maria-Probst-Stra\u00dfe 1"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_326de3663b5b4c50a9168149f0685218.jpg", "salutation": "Herr", "firstName": "Christopher", "lastName": "Pfeiffer", "phone": "+49(931) 99174057"}</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Boutique Wohnung m\u00f6bliert mieten", "basicObjectPricEur": 1100, "basicLivingSpace": 55, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2uewf4g", "basicContactMobile": "0171-9546505"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "NEUBAU 2022!! Gro\u00dfz\u00fcgige 2-ZW mit Terrasse, EBK und Garage in Erlabrunn zur Miete", "basicObjectPricEur": 800, "basicLivingSpace": 70, "basicRooms": 2, "basicConstructionYear": 2022, "basicCity": "Erlabrunn", "basicUrl": "https://www.immowelt.de/expose/2ag6g5r", "basicContactPhone": "+49(931) 99174057"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
+          <t>"https://www.immowelt.de/expose/2awff5d"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
+          <t>"3 Zimmerwohnung mit Freisitz und Traumaussicht"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>855.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1827,109 +1827,1549 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "Dachgeschoss", "GAS", "PARKETT", "frei", "Holzfenster"]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+          <t>{"Country": "Deutschland", "City": "Randersacker", "District": "Randersacker", "ZipCode": "97236", "LocationId": 497182, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Randersacker", "Link": "https://www.immowelt.de/immobilienpreise/randersacker/mietspiegel"}}, "DataTable": [{"NumberValue": 855.5, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"StringValue": "nicht in Warmmiete enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
+          <t>["https://ms.immowelt.org/98c3447c-30a7-4385-b469-04e35fc14568/b66c4c33-1c37-49bc-8e9e-1815fe11db31", "https://ms.immowelt.org/d604a242-33cd-4d21-be1a-dca3e2283fc5/fa85a8f3-7415-46fc-b135-50f4d69caeed", "https://ms.immowelt.org/a726cbfd-dd66-497a-a999-7eeba1eb1218/5a67bef5-3445-4dbe-aafb-ac65fd001b44", "https://ms.immowelt.org/4b4f1a99-69c7-43df-9548-a66127b04065/33a099c5-d076-4fde-b792-f2888b29a32b", "https://ms.immowelt.org/44cf0632-fa57-49e3-82ba-db1dd6616a4e/1dbb3f64-ac34-4f9f-be7c-db5271f3faf5", "https://ms.immowelt.org/845e1e08-5514-4e54-95b7-0e40787a9d95/1778b5e3-252d-4f0d-91e8-e7e3f918a6b8", "https://ms.immowelt.org/bf539c57-1b7f-4384-9f19-f9ecc4226ec1/b1e29384-d8b9-4ff6-8bf8-e5ee9033f874", "https://ms.immowelt.org/d32b509b-8472-4b65-b698-99f7f81dee67/5aa4cb5d-add7-4dfa-bdc3-1322f2aa5c09", "https://ms.immowelt.org/b5eae4ca-0ec6-4bd8-a9d0-78da79cf939d/6e8fbd5c-c759-4813-aaa6-64e72d40424f", "https://ms.immowelt.org/5b1a2317-b969-4cdc-90e8-afcbba9905f8/fa96c5e9-b205-4fc8-b112-66d506e0e675", "https://ms.immowelt.org/2aaa136e-4b4c-4bb3-9552-ffbbe9f9d6e5/f7bcc33a-70a1-42c7-8372-e0b64e8c9c85"]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"salutation": "Herr", "firstName": "Maximilian", "lastName": "Kauschke"}</t>
+          <t>{"companyName": "Breunig Holding GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Frankfurterstrasse 87"}, "salutation": "Frau", "firstName": "Manuela", "lastName": "Breunig"}</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3 Zimmerwohnung mit Freisitz und Traumaussicht", "basicObjectPricEur": 855.5, "basicLivingSpace": 59, "basicRooms": 3.5, "basicConstructionYear": null, "basicCity": "Randersacker", "basicUrl": "https://www.immowelt.de/expose/2awff5d"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>"https://www.immowelt.de/expose/2ab485d"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>"3,5 -Zimmerwohnung mit Freisitz in historischem Barockhaus"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>993.6</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Kelleranteil", "GAS", "PARKETT", "frei"]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "Randersacker", "District": "Randersacker", "ZipCode": "97236", "LocationId": 497182, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Randersacker", "Link": "https://www.immowelt.de/immobilienpreise/randersacker/mietspiegel"}}, "DataTable": [{"NumberValue": 993.6, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/aeef5e71-3ecf-483a-83fd-d10fb1388178/e9f2272b-13d3-4fa0-863b-39ac6e1e32f2", "https://ms.immowelt.org/072999ca-6de2-48a2-99f7-1e307c6cdde7/d8d5f43f-13bd-4e52-ad46-3c2fd9311caa", "https://ms.immowelt.org/25b811d5-eb7c-427f-9122-5d4d3d1ed076/9660f156-e992-46db-b8a5-f8377240b7b3", "https://ms.immowelt.org/c238f578-0468-41b6-b890-23711606236e/ff39d804-b497-472d-a191-fec6b3671899", "https://ms.immowelt.org/ff6fb36e-3835-4752-b4b1-4922aa5ba49c/cb10aa49-4db6-4b4f-9593-3aac195200b4", "https://ms.immowelt.org/5fd7fef6-cbb0-43e7-9de9-ee044ebe8ee0/aecf0cde-ad0d-4413-a602-b77582dc734b", "https://ms.immowelt.org/cd2576e6-72c0-4553-bd39-05ba8008a5a7/3718f40c-fe1d-44f9-bc1a-58e84392e68f", "https://ms.immowelt.org/6479f9e2-1532-436e-9bcb-9b977c9c7cdc/6fd1a468-92bd-414c-a8e2-8dc18a3aac2f", "https://ms.immowelt.org/89431903-c2f6-4ce9-b12f-d10635f7ff34/a8dbc295-bb67-4001-838f-ad673eddf1bf", "https://ms.immowelt.org/51afaac7-cf71-423d-ac4f-83c5c2dc04fa/dfe88d91-6015-4370-a9a5-700d1be764b2", "https://ms.immowelt.org/dc01a48f-5299-4fcb-96e2-e3d4c10d6f19/a4a985dc-567f-4145-b591-d15e8bef6a39", "https://ms.immowelt.org/fda7ac06-2449-491e-9d2a-f78a6bbdf247/ea093b49-170d-47d5-bf21-52a62f706988", "https://ms.immowelt.org/1894fa28-0f31-40a4-9dce-1b6226132beb/4de156c2-ee68-4374-8230-41dcf429caeb", "https://ms.immowelt.org/dfe19e05-3468-47c4-b7ca-229b108c6188/099b4e94-5e06-417e-b1f8-36b570d34e2d", "https://ms.immowelt.org/0519fde2-f96f-4f74-b964-4be824cf15bb/4e43dc0b-4f1e-490a-b3ba-a31e36126161"]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"companyName": "Breunig Holding GmbH", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Frankfurterstrasse 87"}, "salutation": "Frau", "firstName": "Manuela", "lastName": "Breunig"}</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "3,5 -Zimmerwohnung mit Freisitz in historischem Barockhaus", "basicObjectPricEur": 993.6, "basicLivingSpace": 72, "basicRooms": 3.5, "basicConstructionYear": null, "basicCity": "Randersacker", "basicUrl": "https://www.immowelt.de/expose/2ab485d"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/26gsv58"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"M\u00f6blierte 1-Zimmer Wohnung in der Sanderau"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>["FENSTER", "Kelleranteil", "GAS", "Zentralheizung", "moebliert", "Einbauk\u00fcche"]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "K\u00f6nigsberger Stra\u00dfe 32", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1620,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 500, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 60, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 630, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/56e5875f-0273-48d4-b790-7b38d2035724/b061e161-a4e4-4c7a-930c-afdaad6fa2e9", "https://ms.immowelt.org/2741dc50-8a8b-4f89-b623-6b35b9f39d4f/880519fd-5f76-41f5-a879-7edca26ac717", "https://ms.immowelt.org/914e0f1a-6e7f-45f1-905a-6e105ecd7fe7/0c162515-5dbd-4580-bcc5-1250d7230c2d", "https://ms.immowelt.org/77870c97-d596-44ed-afc5-2d4e940c71da/b969bec0-97fa-49df-8bb4-481d875e987d", "https://ms.immowelt.org/8ff6e5d1-a921-40ab-860e-968b65343c2d/8eea9ef4-3b4e-42fe-90cb-a28339db5e83", "https://ms.immowelt.org/6d39da8c-0b82-4c6b-9bc4-01d5851014c8/14b55c95-8967-42a3-8f32-21eb7ccdae9d", "https://ms.immowelt.org/7f95052e-9c59-4f73-8079-95cc539c4564/0121f649-1f7e-4588-adb0-a1555fc858d3", "https://ms.immowelt.org/8e2ded1d-e1ba-4901-97c7-02af9337fc4a/cdfcafbd-9612-4ca3-8cef-fcff6e140c71"]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "M\u00f6blierte 1-Zimmer Wohnung in der Sanderau", "basicObjectPricEur": 500, "basicLivingSpace": 30.72, "basicRooms": 1, "basicConstructionYear": 1962, "basicCity": "W\u00fcrzburg", "basicStreet": "K\u00f6nigsberger Stra\u00dfe 32", "basicUrl": "https://www.immowelt.de/expose/26gsv58", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aqvp5t"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>"Moderne 2,5-Zi-DG-Wohnung am Heuchelhof"</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "FENSTER", "Kelleranteil", "Dachgeschoss", "GAS", "gartennutzung", "PARKETT", "FLIESEN", "frei", "abstellraum", "offene K\u00fcche", "Stellplatz", "kable_sat_tv", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heuchelhof", "ZipCode": "97084", "Street": "Prager Ring 2", "LocationId": 496007, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2.200,00 ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heuchelhof)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heuchelhof/mietspiegel"}}, "DataTable": [{"NumberValue": 850, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 130, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 120, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}]}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/10719ee0-c9fe-4f72-a66d-230221929cea/eefdb7e8-a65d-41e1-a938-cb71770a0d99", "https://ms.immowelt.org/871db96f-48bf-407a-a6e9-5e7e57c92fdb/94cc1f8b-1b45-4653-92b1-d1d7b0c99be4", "https://ms.immowelt.org/575a63c1-e3d8-44a5-a430-5728c789b5d0/372166eb-3fbc-4620-9d2a-7cfec9eb9129", "https://ms.immowelt.org/145cfa43-e3eb-4191-b61e-f633e7e51cca/65168ad8-5fc7-4dad-8daa-29ff47dace11", "https://ms.immowelt.org/4e1092a3-e070-4aca-ae25-3ce861453c5f/ae4fcc44-5613-4be1-ae61-8bc769763cc3", "https://ms.immowelt.org/64475b59-65ee-4038-b233-8693c318f446/c0d1afbe-a34e-4775-ad39-8dc169976723", "https://ms.immowelt.org/b091f166-2b83-4ac4-b0fd-b9dad919f936/b178513f-60bb-4e31-ae33-c6bbdbcf4b51"]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"companyName": "Sonnen-Immobilien", "address": {"city": "Schweinfurt", "zipCode": "97422", "street": "Greulstr. 4"}, "salutation": "Frau", "firstName": "Angelika", "lastName": "R\u00f6nnebeck", "mobile": "01773526239", "phone": "09721-6755862"}</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Moderne 2,5-Zi-DG-Wohnung am Heuchelhof", "basicObjectPricEur": 850, "basicLivingSpace": 72.94, "basicRooms": 2.5, "basicConstructionYear": 1993, "basicCity": "W\u00fcrzburg", "basicStreet": "Prager Ring 2", "basicUrl": "https://www.immowelt.de/expose/2aqvp5t", "basicContactPhone": "09721-6755862", "basicContactMobile": "01773526239"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a97e5s"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>"Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1183.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3550", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1183.37, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 252, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 171, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1666.37, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/4e4fecdb-3fe4-4b73-be6f-d02dcff6e907/a23bae17-4a7c-4155-88b0-8014e5e3021a", "https://ms.immowelt.org/324f63aa-2fff-4fc8-8ba1-ac69ea7a7e23/ed4f84b2-861b-4e99-b1c6-4e3963ae1f35", "https://ms.immowelt.org/be4e9cc8-6ad5-4ae2-a739-1b8b7178ee12/ba6c9877-b521-46d0-a222-9e1e70f8ffd4"]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gut gemacht !! 3 Zi, 81 qm, Balkon und Einbauk\u00fcche", "basicObjectPricEur": 1183.37, "basicLivingSpace": 81.32, "basicRooms": 3, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a97e5s", "basicContactPhone": "+49 931 306 990 20"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2tfuz4l"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"Bestlage mit Festungsblick"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>["DUSCHE", "FENSTER", "Dachgeschoss", "frei", "offene K\u00fcche", "Stellplatz"]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Breslauer Stra\u00dfe", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "Abl\u00f6se der K\u00fcche", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 610, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}]}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/b4607fa6-96c6-40a3-8049-ed2221dafd3c/bb9b114c-9b74-4749-b16f-f5402ce89d13", "https://ms.immowelt.org/0678cd9c-641a-4bcc-a0ac-02f46fc8e1ea/b0aa6847-a6e4-474c-b300-23bb59c7628b", "https://ms.immowelt.org/d524e2d3-1330-4559-987d-6495b2a4c71d/3adebae2-58ee-44b1-a898-86e63f8eff12", "https://ms.immowelt.org/61eb287f-36c7-4a51-a4db-f88e4049ad30/29721137-7a70-4a6d-9abc-340c019663bf"]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Bestlage mit Festungsblick", "basicObjectPricEur": 610, "basicLivingSpace": 65, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicStreet": "Breslauer Stra\u00dfe", "basicUrl": "https://www.immowelt.de/expose/2tfuz4l", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2arkq5m"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>["WANNE", "DUSCHE", "FENSTER", "Personenaufzug", "FERNE", "renoviert", "FERN", "Fu\u00dfbodenheizung", "Zentralheizung", "PARKETT", "FLIESEN", "frei", "abstellraum", "Speisekammer", "Balkon", "Kunststofffenster"]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Altstadt", "ZipCode": "97070", "LocationId": 496004, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "\u20ac 6.525,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Altstadt)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-altstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 2175, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 450, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2625, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/1e8dcfd3-4788-4f09-a3c0-28d3414e57a3/5c7e81c2-8706-4ef4-8899-cfd4e8a5a029"]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"companyName": "Werner Fleischhacker Immobilien GmbH &amp;a; Co. KG", "address": {"city": "W\u00fcrzburg", "zipCode": "97072", "street": "Valentin-Becker-Stra\u00dfe 8"}, "salutation": "Herr", "firstName": "Werner", "lastName": "Fleischhacker", "phone": "0931/2706700"}</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Erstbezug nach Kernsanierung! Ca. 150 m\u00b2 Wohnfl\u00e4che auf einer Ebene in der City", "basicObjectPricEur": 2175, "basicLivingSpace": 150, "basicRooms": 5.5, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2arkq5m", "basicContactPhone": "0931/2706700"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aqpt5d"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal "</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>["renoviert", "GAS", "Zentralheizung", "gartennutzung", "Einbauk\u00fcche", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Steinbachtal", "ZipCode": "97082", "LocationId": 496023, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3495", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Steinbachtal)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-steinbachtal/mietspiegel"}}, "DataTable": [{"NumberValue": 1165, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1445, "Unit": "EUR"}, {"NumberValue": 75, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/d789ca7c-5451-48cf-a649-7af7d4c9078a/0af4290a-753d-4df9-bd0e-3989d2db4215", "https://ms.immowelt.org/2908c42c-0f96-410b-b619-dba38e6a42a1/75b141df-d3a1-4754-b265-67306b3a36e1", "https://ms.immowelt.org/fbb8e8e1-0cc5-4a95-8902-c6f6af96acc8/548e065f-569a-4838-9887-a19794c56f49", "https://ms.immowelt.org/4365c939-93fc-4ec1-b3e8-77d586d0e200/5112a29b-5171-4dc0-b36a-b9b4c4ac411f", "https://ms.immowelt.org/db7ac2e7-2969-42be-920b-36be7e6aab0d/0cf7253b-4260-4efa-af51-0074b8782be6", "https://ms.immowelt.org/d1a4bcbb-b277-4731-8486-0a09fb1b8996/475444d0-b794-44bc-ba59-ce3f2f51b9f8", "https://ms.immowelt.org/748a1662-4a4a-4f6d-bb72-baf731de8adc/700fbb9a-6ef9-48a1-8e73-4c46cba5c258", "https://ms.immowelt.org/ed9af812-426e-4e49-8e89-2ede0c407269/5a107fdf-e72a-4f22-9de2-52351751a755", "https://ms.immowelt.org/643489b1-7bf2-46a3-882c-7d8b8b0957ca/bce02d3c-331a-4110-8e99-d872140474b1", "https://ms.immowelt.org/d8490c94-8bc2-4f38-affe-7986af339d1c/5d00296c-3134-4d05-a29a-760985379123", "https://ms.immowelt.org/862887dd-fca5-4504-a254-d22277945d21/1fdaef5f-474b-4b44-84df-c23fb4960205", "https://ms.immowelt.org/235cb2e7-3834-406d-a4ac-0a1db7702757/b3d2810f-2282-453d-99bf-f70073155c71", "https://ms.immowelt.org/3ae43d7c-7b0d-435e-84bb-7a6ea4aafc03/ae2064f4-8fe0-463b-958f-a7c34e88466a"]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Die Einbauk\u00fcche ist schon drin - Sie m\u00fcssen nur noch einziehen! Gehobene 2-Z. Wohnung im Steinbachtal ", "basicObjectPricEur": 1165, "basicLivingSpace": 77, "basicRooms": 2, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2aqpt5d", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aaj75n"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>532.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>["Personenaufzug"]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 17", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 532.19, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 179, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 110.92, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 882.11, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/814cec20-d48a-4483-ae7f-5b779e29c323/404d9d3f-baa2-473d-af13-096d09772807", "https://ms.immowelt.org/60ba3310-b6df-446e-b860-6deb11ef0a09/2558c572-051e-464d-9aad-205683e0f215", "https://ms.immowelt.org/e10fa924-843a-4cd9-897d-8a60a9cd8473/3fd9082b-7a00-4210-99b9-f828a6a2e085", "https://ms.immowelt.org/20e41405-47ae-47ac-97d8-0e7340de1982/b112096a-8211-4248-a5e6-0904121ddac0", "https://ms.immowelt.org/2300c3d0-702d-4867-94fc-810ec8ca8971/f6adb669-5e8c-4182-ad4f-a5b6f477b025", "https://ms.immowelt.org/bdd38a88-61e2-4f96-bac0-895a2e862eed/9b1e1d00-b895-496c-bf47-2912364590ab", "https://ms.immowelt.org/a047e5df-c99a-4420-a028-e84ef22f3786/0dd57565-cb4f-4092-ab20-2a61b660568a"]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung kann nur mit Wohnberechtigungsschein angemietet werden! 2 Zimmer auf 56 m\u00b2", "basicObjectPricEur": 532.19, "basicLivingSpace": 56.02, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 17", "basicUrl": "https://www.immowelt.de/expose/2aaj75n"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2ajt75p"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>474.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>["Personenaufzug"]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1420", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 474.53, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 167, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 98.9, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 740.43, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/059062b5-c451-4105-bfa0-dfb0db8ca29f/0f1cbcbd-e9ed-45e6-96e8-910e278b3044", "https://ms.immowelt.org/ca46e538-90d4-4fa2-8f22-2b6881ac1800/9a457fdc-44b3-4336-b20e-89b86824b294", "https://ms.immowelt.org/a1a88b02-0504-429f-b458-7c1a33126061/b8bc3487-e427-4a1b-b30b-2df51d481f90", "https://ms.immowelt.org/d507b7b4-5e3c-452e-957a-b5636948e585/d2a53e80-0b41-44e4-a681-ce8531a32c32", "https://ms.immowelt.org/ff43f21c-a328-4711-9ce2-41a9bff1bf59/83bd2e55-f9e8-44b1-bf30-e874b0a81423"]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (EOF3) erforderlich!! 2-Zimmer Wohnung mit Dachterrasse!!", "basicObjectPricEur": 474.53, "basicLivingSpace": 49.95, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2ajt75p"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a8j75n"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>554.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>58.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>["Personenaufzug", "Stellplatz"]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1660", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 554.99, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 210, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 208, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1032.99, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/2c287869-b002-4a19-baea-0433bdc7a327/e15bc071-fe33-4461-8b34-9efe6f7f6e23", "https://ms.immowelt.org/5b165c7f-f365-48c1-841e-a8b1fd2bb6a1/23a21cb8-5f33-4e46-b102-f4960458c3e9", "https://ms.immowelt.org/4b517be9-8d93-492f-ac56-516e6bad3d95/1238a7b6-1272-4e53-9ead-1eafab0548c7", "https://ms.immowelt.org/acdfaf67-7ef9-4ee5-a2e3-416020180ea6/b120a8ca-7b3e-47f0-99b1-006c6eb00277", "https://ms.immowelt.org/540c5813-745e-419c-9217-36ba5261e842/259d75f3-7aca-466d-b4ed-f4b5a08ff770", "https://ms.immowelt.org/9ac46b17-c8c4-446e-8e96-de026ce267b4/f6098bb6-68df-4742-8eda-56e4660c3221", "https://ms.immowelt.org/09537047-f692-4086-b911-c08acb726d74/595eae7d-cd2e-4c30-b4d5-6bf58c421952"]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein erforderlich - 2 Zi, 58m\u00b2, Balkon", "basicObjectPricEur": 554.99, "basicLivingSpace": 58.42, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2a8j75n"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2a7j75n"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1181.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>["Personenaufzug", "Einbauk\u00fcche", "Stellplatz"]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 13", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3540", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 1181.21, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 219, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 169, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1629.21, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/0d9ec1ef-21cc-484a-88ae-193c7267a3bb/1e78105c-6490-4468-a6c3-936b8b388b80", "https://ms.immowelt.org/5c55f670-770f-44e9-b26b-7c9164f4a76a/9f56e225-8915-45d3-9af7-0e36ad2d804e", "https://ms.immowelt.org/12a9fd2a-da00-49a5-9999-efb246a9d727/efc35e4b-a860-47d1-823d-1282d60e0bc6", "https://ms.immowelt.org/bb9a6b97-0d40-46d1-9b24-011a5dcc7508/40526838-218d-4a4c-9422-8bd98023d9f6", "https://ms.immowelt.org/1a701923-58c4-4074-92b3-3e6bc100d51c/2f4849ee-2b95-432d-8ed4-b41b0211a117", "https://ms.immowelt.org/4d6aee50-6e8f-423f-b67a-bd01a011592d/4d58cead-e166-4a77-8c0f-2ee869a9e824"]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "herr", "firstName": "Stefan", "lastName": "Brogl", "phone": "+49 931 306 990 20"}</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnen im herrlichen HUBland: 2Zi, 70m\u00b2, EBK und Balkon", "basicObjectPricEur": 1181.21, "basicLivingSpace": 70.87, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 13", "basicUrl": "https://www.immowelt.de/expose/2a7j75n", "basicContactPhone": "+49 931 306 990 20"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2afyn5t"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>"2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>["Altbau (bis 1945)", "WANNE", "Kelleranteil", "renoviert", "GAS", "Zentralheizung", "Einbauk\u00fcche"]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Zellerau", "ZipCode": "97082", "LocationId": 496026, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2000", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Zellerau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-zellerau/mietspiegel"}}, "DataTable": [{"NumberValue": 750, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 200, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 950, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/7392265b-7589-4e96-8719-b289bb8ace01/19ed71d6-701a-4bbe-929c-a35f0d2ec94b", "https://ms.immowelt.org/15baddee-aaf7-4f0a-b016-7f47a07c4e37/48316143-5143-447a-8c57-f0b7e929d6fe", "https://ms.immowelt.org/027c0258-c7df-4398-b7bc-fce818803786/c5879894-c70e-4d36-87c5-2f3d1391a860", "https://ms.immowelt.org/512f5ff2-4810-463d-be09-2b1645c65d7d/c20634e3-424e-4fa7-adc1-7bb96e05a731", "https://ms.immowelt.org/0bc625b6-c3c3-4417-81a8-a0c000046701/97c3d523-e7c6-4b79-af4f-d9928909527c", "https://ms.immowelt.org/76a5fc74-de02-4ae9-aec8-48e4168cea64/423affd6-d43f-46c2-9187-ca30a02614d6", "https://ms.immowelt.org/39f67b57-3390-44ea-ab71-3cbb1b166a73/03cd65f9-4b01-46f7-832d-c4ec60e69999", "https://ms.immowelt.org/4aa9aeb4-7027-43a0-85f3-887e51080c31/b7c1b3ae-576c-44d3-a98d-260591a7c97b"]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "2,5 Zimmer Wohnung beim Japanischen Garten in W\u00fcrzburg", "basicObjectPricEur": 750, "basicLivingSpace": 65, "basicRooms": 2.5, "basicConstructionYear": 1960, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2afyn5t", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2awv45u"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>"Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1720</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>123.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "FERNE", "GAS", "Fu\u00dfbodenheizung", "Zentralheizung", "rollstuhlgerecht", "PARKETT", "frei", "Einbauk\u00fcche", "offene K\u00fcche", "Speisekammer", "Stellplatz", "Tiefgarage", "REINIGUNG", "Balkon", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "LocationId": 496013, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5160", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1720, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 320, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2040, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/70edfd50-f060-4619-8d8e-0a42b4111160/271e31b7-8484-45a8-8ac9-904dabf13c7b", "https://ms.immowelt.org/efa2a84b-bb24-4421-ae15-0649647fc5f0/8490cb37-3682-446f-8b11-e9e1da37cba9", "https://ms.immowelt.org/1683eefc-9ca0-4cbc-992f-8e3a9b044b29/7df67d66-b166-4c09-b89c-52d2409839a6", "https://ms.immowelt.org/80c22a83-a553-4a11-b6d3-845ab5aee5fa/a5ed848d-87ec-43a7-91b1-3a82889e2f11", "https://ms.immowelt.org/912ad1a7-5c04-49c1-bfdb-52dfd32f4078/087254f6-99be-4f33-ad19-a0d31350b6df", "https://ms.immowelt.org/c04aac07-656d-484f-97c8-f9183167c740/27c413f7-27b3-4874-9d22-7b3ce7fb1772", "https://ms.immowelt.org/6355ac0c-0919-41d1-9939-c7327ad98472/b5a33c7f-e707-4bd6-839a-ea939f810d7c", "https://ms.immowelt.org/e86eec55-1463-4303-8c06-6e1cd90ac14e/01d5e414-8279-49e7-ac42-160f28ed6a9b", "https://ms.immowelt.org/f6c4b53e-148d-44ad-b8fb-50e2e7c095c6/9403fef4-e110-4d99-88ec-08c732282eda", "https://ms.immowelt.org/bb63f6b4-e5b8-4f84-b1e9-c19308a3d41f/20e645fd-f306-449c-82ae-d3591730cca2", "https://ms.immowelt.org/6eff25e1-ca40-4fdc-b6f2-adcf3b4d0a45/63b7a19b-f618-4933-adb0-f0cd5e1263a5", "https://ms.immowelt.org/2811d6e1-5985-40bf-a07a-594fdaf52254/4a7a045f-966f-4645-86ce-900f6e22d446", "https://ms.immowelt.org/aefa4aed-f85d-4406-ae1b-9c233616a69e/fd830bae-b6de-4525-8e19-1c72c8249092", "https://ms.immowelt.org/c0855678-63ef-4feb-a503-a8d0adf77171/3851bcbc-db22-481c-b205-d0b9fb09017f", "https://ms.immowelt.org/df7e819e-aa27-4bbf-b743-a9e2712de66b/0737cd62-424e-4825-afba-0a294eb938ec", "https://ms.immowelt.org/f47e219f-f548-45dd-a07d-bb94c2b60e97/cfc0cf18-e610-4657-b7ed-3ca18984267a"]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"companyName": "Gute Bude Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Zeller Str. 3c"}, "salutation": "Frau", "firstName": "Nelly", "lastName": "Gronau"}</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Luxuri\u00f6se Penthouse-Wohnung Erstbezug! 3-Zimmer-Neubau in W\u00fcrzburg-Heidingfeld", "basicObjectPricEur": 1720, "basicLivingSpace": 123.36, "basicRooms": 3, "basicConstructionYear": 2022, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2awv45u"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2an6q5g"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>"Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>566.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>["Stellplatz"]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Frauenland", "ZipCode": "97074", "Street": "Athanasius-Kircher-Stra\u00dfe 15", "LocationId": 496008, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1700", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Frauenland)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-frauenland/mietspiegel"}}, "DataTable": [{"NumberValue": 566.96, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 199, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 124, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 949.96, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/04bb8e8f-62a6-4aa1-be23-fcac75a2ca80/64e8eae5-448b-4e0a-aef6-3ee4487d6cad", "https://ms.immowelt.org/07409987-f4b5-4a2f-9ed5-55d000afa646/e6d2fc11-39c9-44c4-9ab7-6b79a5e4667d", "https://ms.immowelt.org/d8d286af-d70c-4388-a156-0e4525e576c2/3f08e4d7-3ff5-4332-b507-dfc163a7d33f", "https://ms.immowelt.org/0eb043d6-e29a-4797-8d47-b95fdf183238/bda6c2c7-7309-497f-836d-6483f70abd43", "https://ms.immowelt.org/4aed45df-9c7d-4a2b-b188-b8968b22727d/50fd789e-2343-4b28-867b-f726db140de4"]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"companyName": "BUWOG Immobilien Treuhand GmbH\u00ad", "address": {"city": "Kiel", "zipCode": "24103", "street": "Fabrikstra\u00dfe 7"}, "salutation": "Herr", "firstName": "Stefan", "lastName": "Brogl"}</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnberechtigungsschein (WBS3) erforderlich!! Gem\u00fctliche Zweiraumwohnung auf 59m\u00b2", "basicObjectPricEur": 566.96, "basicLivingSpace": 59.68, "basicRooms": 2, "basicConstructionYear": 2019, "basicCity": "W\u00fcrzburg", "basicStreet": "Athanasius-Kircher-Stra\u00dfe 15", "basicUrl": "https://www.immowelt.de/expose/2an6q5g"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aalh5x"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>"Traumhafte 1 Zimmer-Whg direkt am Main"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>["FENSTER", "renoviert", "GAS", "Etagenheizung", "Balkon"]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "Randersacker", "District": "Randersacker", "ZipCode": "97236", "Street": "F\u00e4hrstra\u00dfe 4", "LocationId": 497182, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "1590,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Randersacker", "Link": "https://www.immowelt.de/immobilienpreise/randersacker/mietspiegel"}}, "DataTable": [{"NumberValue": 530, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 100, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 630, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/824b2cd9-9791-4125-9a12-4389e9c58454/4f8954c7-e772-402c-9c32-2d0d99a66455", "https://ms.immowelt.org/2281827f-60fe-4811-bb3e-600bca7cba7e/02edc9e9-39c7-4865-9b41-91719cf56109", "https://ms.immowelt.org/64de266d-399b-4479-8c09-e804705bdaff/f09631b7-8806-4c9f-8ee0-985724651474", "https://ms.immowelt.org/640fc58d-5b41-4105-9f25-90b2432311ff/b4004294-c081-4d8e-997e-fe08505c13cc", "https://ms.immowelt.org/bbefe49a-e239-40bd-a817-8a7905808bc0/6313b541-3c86-4b38-b065-afa15c73ec5c", "https://ms.immowelt.org/cdd6d4ac-e1d3-466e-bce8-b16b5a31c47c/9c621005-14b4-4e8d-bc5d-e622d8084506", "https://ms.immowelt.org/fa1251dd-8305-4e8b-a8c1-3f1ef7e7f44d/0c2cd63e-8f1f-4a72-9a42-d87111f6dd04"]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumhafte 1 Zimmer-Whg direkt am Main", "basicObjectPricEur": 530, "basicLivingSpace": 42, "basicRooms": 1, "basicConstructionYear": null, "basicCity": "Randersacker", "basicStreet": "F\u00e4hrstra\u00dfe 4", "basicUrl": "https://www.immowelt.de/expose/2aalh5x", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2at6f5v"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>"Wohnung vermieten in W\u00fcrzburg"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>["GAS"]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Gromb\u00fchl", "ZipCode": "97080", "LocationId": 496011, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Gromb\u00fchl)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-grombuehl/mietspiegel"}}, "DataTable": [{"NumberValue": 420, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete", "Comments": ["zzgl. Nebenkosten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 420, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Wohnung vermieten in W\u00fcrzburg", "basicObjectPricEur": 420, "basicConstructionYear": null, "basicCity": "W\u00fcrzburg", "basicUrl": "https://www.immowelt.de/expose/2at6f5v", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2agbf5s"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>"Traumwohnung in Top Lage mit toller Weitsicht!"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>["Neubau", "barriefrei", "WANNE", "gaestewc", "FENSTER", "Kelleranteil", "LUFTWP", "Garten", "gartennutzung", "rollstuhlgerecht", "Balkon", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "Gerbrunn", "ZipCode": "97218", "Street": "Helene Wessel Weg 5", "LocationId": 12047, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "3 Kaltmieten", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Gerbrunn", "Link": "https://www.immowelt.de/immobilienpreise/gerbrunn/mietspiegel"}}, "DataTable": [{"NumberValue": 2880, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 400, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 3280, "Unit": "EUR"}]}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/17e5aca9-793d-40b3-aab5-a5dcea349a87/0d9236ef-f790-4bac-82dc-9a229cfe4527", "https://ms.immowelt.org/cf96b674-5a06-4156-b363-d3e23b5dfe92/c12ffbff-3538-4b01-a604-ee0869a952b6", "https://ms.immowelt.org/2755511b-7b13-42f8-bad0-3d769da9305b/b3d17421-aa79-4be1-83cb-ae6fe7955297", "https://ms.immowelt.org/17109eb9-b8cf-435e-b0b9-8377b8a7c9f4/986295b9-a109-4924-b6b8-fc375860cd30", "https://ms.immowelt.org/d4384af4-fbdc-4807-9ab2-e4c02ad5e5b9/61dd1708-3529-4a40-9890-401b9917edfc", "https://ms.immowelt.org/efa4e805-be82-4e38-998b-46485660f4e5/fbb8ea8f-2b17-45b1-8691-eb2fe09dd0a7"]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Traumwohnung in Top Lage mit toller Weitsicht!", "basicObjectPricEur": 2880, "basicLivingSpace": 195, "basicRooms": 6, "basicConstructionYear": 2023, "basicCity": "Gerbrunn", "basicStreet": "Helene Wessel Weg 5", "basicUrl": "https://www.immowelt.de/expose/2agbf5s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2aebr5t"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>"Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!"</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>["Neubau", "barriefrei", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "PELLET", "Fu\u00dfbodenheizung", "Garten", "Einbauk\u00fcche", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "Eibelstadt", "ZipCode": "97246", "Street": "W\u00fcrzburger Strasse 25", "LocationId": 11869, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2600", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in Eibelstadt", "Link": "https://www.immowelt.de/immobilienpreise/eibelstadt/mietspiegel"}}, "DataTable": [{"NumberValue": 1290, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 280, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1570, "Unit": "EUR"}, {"NumberValue": 40, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/7c821767-b600-4ad9-8a2a-50874a2a87cf/92a3b2aa-0393-4e55-ad97-c6c3a803a0d8", "https://ms.immowelt.org/8081e4f6-2ad6-46c7-957d-07597db5c5a8/ee5c7a33-80cd-4c89-bb96-98be1b013e27", "https://ms.immowelt.org/515a3a85-6263-4990-b640-f75ec6075c4b/8456cc16-2fc0-409e-ba1f-f103285c6d18", "https://ms.immowelt.org/340c6f6f-746d-421c-aab8-4850f62a5e6b/e971e1c3-7527-4fb5-a83c-f5221d132bc5", "https://ms.immowelt.org/6205eb16-8906-4267-a472-86439d570e9c/39733ff0-9850-43ab-a6fa-f4f2291ba17d", "https://ms.immowelt.org/3b9c4f71-f8fa-46fa-a1d6-7bab696693cb/eccec98b-d098-4d62-ae2c-f62c71c18721", "https://ms.immowelt.org/ab60445b-088f-4fe5-9554-7448a4a29bb2/0eb8642f-4cb3-4252-b4b5-622b757475d6", "https://ms.immowelt.org/6b12d3cb-5e11-4c67-9c0e-a69e674fc018/3d35f5b5-f31d-4200-8572-5eb83a1079e5", "https://ms.immowelt.org/11466902-020f-43ec-9441-09395d524b18/3136e448-448b-41f8-bcec-58fea52abdd5"]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{"salutation": "Herr", "firstName": "Maximilian", "lastName": "Kauschke"}</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Tolle, neuwertige 3,5Zi Erdgeschosswohnung mit Terrasse zwischen Main und Wein in Eibelstadt!", "basicObjectPricEur": 1290, "basicLivingSpace": 93, "basicRooms": 3.5, "basicConstructionYear": 2022, "basicCity": "Eibelstadt", "basicStreet": "W\u00fcrzburger Strasse 25", "basicUrl": "https://www.immowelt.de/expose/2aebr5t"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2upu84s"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>"Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>["WANNE", "FENSTER", "Kelleranteil", "ELEKTRO", "Garten", "gartennutzung", "Balkon", "Terrasse"]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "K\u00fcrnach", "ZipCode": "97273", "LocationId": 12666, "PublishStreet": false, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2 Kaltmieten ", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in K\u00fcrnach", "Link": "https://www.immowelt.de/immobilienpreise/kuernach/mietspiegel"}}, "DataTable": [{"NumberValue": 900, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 80, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/11008e51-5945-4ab3-a0eb-f2a703785b20/53fa6be7-ade6-4395-81ca-d66b9bbb1ba9", "https://ms.immowelt.org/64bc93db-da55-44ca-a2c8-c14f8ce86353/14ba8183-9d5b-4c81-a957-284d595a032f", "https://ms.immowelt.org/87e6208f-ee9e-4d96-a62a-6561d184b0e3/572c15dc-ed2e-4296-bc44-96a28e7cf135", "https://ms.immowelt.org/ba824adc-5910-4328-b432-ac6c69a928b3/dc0e3963-adad-4942-ad9a-dc0fc1b71796", "https://ms.immowelt.org/cee10f88-e7a3-499e-be76-626c1d42e77d/c1805001-8c80-4257-977c-80d06c2cbbc7", "https://ms.immowelt.org/aba27baa-44fb-49d2-833b-ffe9285cf719/2f9875be-ad3f-435e-bf3a-d7d63a5e8a17", "https://ms.immowelt.org/b63c1740-9745-464b-8364-2df590a1d676/f71392e8-2cac-4fad-aeaf-0379e7187348", "https://ms.immowelt.org/0b219ac9-8c45-4c18-9228-d206e9ff703e/4bce456f-aecf-48fa-a4a2-b0b332e7badc", "https://ms.immowelt.org/711ca5fb-12d7-42dc-a1f6-32893287c0eb/4002136b-ce99-43ba-8406-dee393492ff0", "https://ms.immowelt.org/17453203-a015-4bcc-816b-12fe9fe761ee/3c33ba0b-8a93-4d03-b3c7-0267e690bc76", "https://ms.immowelt.org/f09d3348-84eb-4a67-941e-68eee061b36d/75a81b43-153a-44e2-8336-9f323ccdad5a", "https://ms.immowelt.org/79e28d05-fb4a-4b73-ad94-cd78318ef65b/0441105e-ad78-4d19-86b1-dab1c3c87ee1", "https://ms.immowelt.org/07c2164c-067e-490d-b769-760ef64271e2/2e82cebf-00da-4337-83e8-6186da964d0d", "https://ms.immowelt.org/de5a7379-e440-43c4-8670-4bdd1e8bdca0/e80fa6cc-bbb1-48ab-b091-2b052e63948b", "https://ms.immowelt.org/9cc41d7e-f16c-4d38-ae23-e1f15da29cfc/e1740437-8eb5-4984-bba2-1c1036d06b98"]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Gro\u00dfe 3-Zimmer-Wohnung mit eigenem Garten und Balkon in K\u00fcrnach", "basicObjectPricEur": 900, "basicLivingSpace": 90, "basicRooms": 3, "basicConstructionYear": null, "basicCity": "K\u00fcrnach", "basicUrl": "https://www.immowelt.de/expose/2upu84s", "basicContactPhone": "", "basicContactMobile": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>"https://www.immowelt.de/expose/2asr65p"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>"Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld "</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "renoviert", "GAS", "Etagenheizung", "gartennutzung", "Einbauk\u00fcche", "wg_geeignet", "Balkon"]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Heidingsfeld", "ZipCode": "97084", "Street": "Unterer Kirchbergweg 37", "LocationId": 496013, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{"AdditionalInformation": {"Deposit": {"StringValue": "2200,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Heidingsfeld)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg-heidingsfeld/mietspiegel"}}, "DataTable": [{"NumberValue": 1100, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"StringValue": "in Nebenkosten enthalten", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten"}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 1400, "Unit": "EUR"}, {"NumberValue": 70, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "1 Stellplatz"}]}</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>["https://ms.immowelt.org/bbd4dcbf-c64e-4c60-9789-afc66db53a3f/7fc04ce4-7f84-4ce5-8111-31fcc917306c", "https://ms.immowelt.org/315ff83e-d234-453a-ad52-c4b99bef7055/a979f182-320d-49d1-8002-bcde353d36ee", "https://ms.immowelt.org/6137c704-6a29-47ae-a5a3-88abd0a2fde0/d535204c-f43a-4229-8152-507fc644a211", "https://ms.immowelt.org/1981c2ad-23cb-41f4-825a-77d67f5fbbe7/e968ecc9-ea46-4188-a2c4-968720f069c0", "https://ms.immowelt.org/a4965ee1-de2b-4d90-8333-b793f90a7406/867d9997-6f27-48da-ade0-9096bf31cf3e", "https://ms.immowelt.org/aed0a388-445d-4f8f-9afd-4a146b35d962/3bc7e507-92a3-446a-a3f1-5799c1df7338", "https://ms.immowelt.org/f9d8ba2e-fb1a-4cdd-98ea-ba6ba4973c25/fde9d74e-bd14-4413-a148-81aad236c43f", "https://ms.immowelt.org/e0fbe89c-ecbb-41e9-9ecd-61c2762b9189/3784b2d8-f66d-4f7f-a893-cb9c7b3e982c", "https://ms.immowelt.org/16af38b3-f1c4-4d16-ba17-2685efc0dbe6/b5361690-0608-4e15-8167-e5ab29ac41e7", "https://ms.immowelt.org/fb842589-0c99-45bb-b567-5d04f811adf5/729e7fb7-c4eb-47db-936a-8a406b3efda8", "https://ms.immowelt.org/2f97e2d2-4fcd-40db-bee9-5d4161812bb0/a57df980-0cf8-4352-8cf0-5e867376c343", "https://ms.immowelt.org/79cf67c5-73a5-4097-8b85-e20df2ab786e/363fc58b-d0d5-4f6e-afda-b1d880cf8747", "https://ms.immowelt.org/d9ae7b88-e98c-4d7f-8096-8ede0076f326/e28b854c-9b59-46d6-84a5-28d2595f9ff2", "https://ms.immowelt.org/dffe6319-03a2-4071-98a5-e0f1e3954460/de63d734-7d33-492b-acbf-be5ca5b61e49", "https://ms.immowelt.org/8af5caf8-2627-4044-83b1-a3824003abcd/a9a95b7e-658f-4e56-989c-5a564997561b", "https://ms.immowelt.org/de373ea2-fa91-495b-aa05-ffa24233b025/ff4e0de7-6c79-411b-bec2-3f5b973c460c", "https://ms.immowelt.org/1db3601f-db1c-4e6f-8b1d-e2f17c88804b/e84274ae-8668-49f0-8327-447ff8511752", "https://ms.immowelt.org/6bc525ad-0769-42c3-aaff-a169a251a660/789b8d1b-633d-4989-a0e8-50949ea51d51"]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{"salutation": "Herr", "firstName": "Arnold", "lastName": "Hammer", "mobile": "017683299994", "phone": "0931/60565"}</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "Familienfreundliche 4 - Zimmer Wohnung in W\u00fcrzburg - Heidingsfeld ", "basicObjectPricEur": 1100, "basicLivingSpace": 103, "basicRooms": 4, "basicConstructionYear": 1984, "basicCity": "W\u00fcrzburg", "basicStreet": "Unterer Kirchbergweg 37", "basicUrl": "https://www.immowelt.de/expose/2asr65p", "basicContactPhone": "0931/60565", "basicContactMobile": "017683299994"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>"https://www.immowelt.de/expose/2almm5r"</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE"</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{"EstateTypeGerman": "WOHNUNG", "DistributionTypeGerman": "ZUR_MIETE", "EstateType": "APARTMENT", "DistributionType": "RENT"}</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>"TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE / \u00c4NDERUNGEN"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>"EUR"</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>"EUR"</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>153.3</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>1998</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>["WANNE", "gaestewc", "FENSTER", "Kelleranteil", "Personenaufzug", "Dachgeschoss", "FERNE", "GEPFLEGT", "GAS", "Zentralheizung", "teilweise m\u00f6bliert", "TEPPICH", "PARKETT", "FLIESEN", "Einbauk\u00fcche", "offene K\u00fcche", "Stellplatz", "Tiefgarage", "REINIGUNG", "Terrasse", "Kunststofffenster"]</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>{"Country": "Deutschland", "City": "W\u00fcrzburg", "District": "Sanderau", "ZipCode": "97072", "Street": "Gartenstra\u00dfe 9", "LocationId": 496022, "PublishStreet": true, "FederalState": "Bayern", "FederalStateId": 2}</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>{"AdditionalInformation": {"Deposit": {"StringValue": "5.400,00", "Key": "PRICE_DEPOSIT", "Label": "Kaution"}, "MarketPricing": {"Heading": "Mietspiegel in W\u00fcrzburg (Sanderau)", "Link": "https://www.immowelt.de/immobilienpreise/wuerzburg/mietspiegel"}}, "DataTable": [{"NumberValue": 1700, "Unit": "EUR", "Key": "PRICE_RENT_COLD", "Label": "Kaltmiete"}, {"NumberValue": 240, "Unit": "EUR", "Key": "PRICE_ADDITIONALCOSTS", "Label": "Nebenkosten"}, {"NumberValue": 300, "Unit": "EUR", "Key": "PRICE_HEATINGCOSTS", "Label": "Heizkosten", "Comments": ["in Warmmiete enthalten"]}, {"Key": "PRICE_RENT_WARM", "Label": "Warmmiete", "NumberValue": 2340, "Unit": "EUR"}, {"NumberValue": 50, "Unit": "EUR", "Key": "PRICE_PARKINGPRICE", "Label": "2 Stellpl\u00e4tze, je"}]}</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>["https://ms.immowelt.org/338d1cbc-cb3f-423f-8523-42cc120d72f9/e4b563bc-671f-4dea-a726-71d7b9386009", "https://ms.immowelt.org/4da068e4-1a27-465c-b0e7-ffb77b79880b/908c43fa-aa39-4e85-97c8-98295a3c363c", "https://ms.immowelt.org/cab19ffc-0f4a-42a9-89e9-7189e9dafd92/2a5e6769-ad31-4185-a454-e8d753be9cdb", "https://ms.immowelt.org/f6511334-9f04-476c-9659-9f19a5df115f/ff04d8f5-f770-493d-9394-6ac1a456d4ef", "https://ms.immowelt.org/733f5f85-bc20-4e60-ba25-388eeb6563cf/4094751f-b73c-432d-b6b4-6d68ba45d6d9", "https://ms.immowelt.org/05e1b42e-75a4-4206-aaad-48ffa57f162d/a3aafbff-20b6-4c17-a8a1-b916eb14b8aa", "https://ms.immowelt.org/1233e75d-2ab4-4291-8b67-e87c5a4898f1/6153dd66-9325-4066-80d3-ed8642487cd8", "https://ms.immowelt.org/99f6825d-9789-4ae1-9a78-4e6acb5853a7/f727c1c7-69a0-420d-adf8-9119f5849a16", "https://ms.immowelt.org/19d94014-cd12-4f9a-81a5-8f9745f63b90/48988be8-85bb-4980-a25a-276af2606ac6", "https://ms.immowelt.org/f351ce35-7e50-4939-b806-4f6dc375cc86/84c997d9-1332-4173-9248-fb7b75a10943", "https://ms.immowelt.org/cdd250a7-47f6-4535-ac59-6ea51157c95e/bed7b410-ef26-42d6-a562-595eafba5999", "https://ms.immowelt.org/644f0235-e6ba-482b-bb26-2fea622cd4a1/6d2746f3-ea97-4996-8617-e82aeced34e0", "https://ms.immowelt.org/0174f587-e7b3-4c39-8603-c1d8465305ec/508d427a-f8c5-4d05-bd55-06ee858889be", "https://ms.immowelt.org/e3dbe0a9-b856-43a6-97a0-ca238574c6f8/f20530d2-b140-4eb5-b229-ad329853d7f3"]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>{"companyName": "hv Immobilien", "address": {"city": "W\u00fcrzburg", "zipCode": "97082", "street": "Wilhelm-Dahl-Str. 9"}, "profilePicture": "https://filestore.immowelt.de/ProfilBilder/150_98e1685eae1346a2a90a2847489951ff.jpg", "salutation": "Herr", "firstName": "Hartwig", "lastName": "Vogel", "mobile": "0175-5994950", "phone": "0931/45466333"}</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{"basicTranactionType": "RENT", "basicTitle": "TOP-LAGE SANDERAU MIT GROSSER DACHTERRASSE / \u00c4NDERUNGEN", "basicObjectPricEur": 1700, "basicLivingSpace": 153.3, "basicRooms": 3, "basicConstructionYear": 1998, "basicCity": "W\u00fcrzburg", "basicStreet": "Gartenstra\u00dfe 9", "basicUrl": "https://www.immowelt.de/expose/2almm5r", "basicContactPhone": "0931/45466333", "basicContactMobile": "0175-5994950"}</t>
         </is>
       </c>
     </row>
